--- a/inst/extdata/e.g.dictionary.xlsx
+++ b/inst/extdata/e.g.dictionary.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10215"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hvincelette\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hdvincelette/Documents/GitHub/mdJSONdictio/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6314B899-2B0D-234A-9421-0D1765CFA1F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17952" windowHeight="8592" tabRatio="747"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="21320" windowHeight="10620" tabRatio="747" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_dictionary" sheetId="1" r:id="rId1"/>
@@ -1495,51 +1496,15 @@
     <t>Plot name of capture location; more specific than LocCity or LocArea; refer to 'Master_Locations.csv'</t>
   </si>
   <si>
-    <t>Upper left leg; combination of bands, flags, and data loggers attached to bird's leg when captured; individual attachments seperated by '-'</t>
-  </si>
-  <si>
-    <t>Lower left leg; combination of bands, flags, and data loggers attached to bird's leg when captured; individual attachments seperated by '-'</t>
-  </si>
-  <si>
-    <t>Upper right leg; combination of bands, flags, and data loggers attached to bird's leg when captured; individual attachments seperated by '-'</t>
-  </si>
-  <si>
-    <t>Lower right leg; combination of bands, flags, and data loggers attached to bird's leg when captured; individual attachments seperated by '-'</t>
-  </si>
-  <si>
-    <t>Upper left leg; combination of bands, flags, and data loggers attached to bird's leg when released; individual attachments seperated by '-'</t>
-  </si>
-  <si>
-    <t>Lower left leg; combination of bands, flags, and data loggers attached to bird's leg when released; individual attachments seperated by '-'</t>
-  </si>
-  <si>
-    <t>Upper right leg; combination of bands, flags, and data loggers attached to bird's leg when released; individual attachments seperated by '-'</t>
-  </si>
-  <si>
-    <t>Lower right leg; combination of bands, flags, and data loggers attached to bird's leg when released; individual attachments seperated by '-'</t>
-  </si>
-  <si>
     <t>Very excessive;  The fat pads of the furculum, 'wingpit,' and abdomen are bulging to such an extent that they join</t>
   </si>
   <si>
-    <t>The original radio frequency of the radio tag attached to the captured bird  in millihertz , if applicable; this is not necessarily the 'best' frequency</t>
-  </si>
-  <si>
-    <t>Code of the bander, or bird handler for recaptures; most often the first initial, middle initial, and last name;  refer to 'Master_Contacts .csv'</t>
-  </si>
-  <si>
-    <t>Code of the scribe; most often the first initial, middle initial, and last name; refer to 'Master_Contacts .csv'</t>
-  </si>
-  <si>
     <t>1-2-number month of capture; M or MM</t>
   </si>
   <si>
     <t>Plot ID of capture location; more specific than LocCity or LocArea; refer to 'Master_Locations .csv'</t>
   </si>
   <si>
-    <t>Length of the folded wing of the captured bird in millimeters; The wing is measured in a flattened and straightened position if the bird species is in Order Charadiformes, and the wing is measured in a natural position for all other bird species (see protocol for information on how the wing length of a certain species is measured)</t>
-  </si>
-  <si>
     <t>Estimated cover of body feathers on the captured bird; percent formatted as a decimal</t>
   </si>
   <si>
@@ -1777,9 +1742,6 @@
     <t>The BBL Condition code describing the condition of the captured bird and the federal metal band</t>
   </si>
   <si>
-    <t>The BBL Status code describing the status of the captured bird and what, if anything was done to th bird before it was released</t>
-  </si>
-  <si>
     <t>The BBL Disposition code describing the disposition of the federal metal band attached to the captured bird</t>
   </si>
   <si>
@@ -1820,12 +1782,51 @@
   </si>
   <si>
     <t>FeatherType</t>
+  </si>
+  <si>
+    <t>Length of the folded wing of the captured bird in millimeters.</t>
+  </si>
+  <si>
+    <t>The original radio frequency of the radio tag attached to the captured bird  in millihertz.</t>
+  </si>
+  <si>
+    <t>Code of the bander, or bird handler for recaptures; most often the first initial, middle initial, and last name</t>
+  </si>
+  <si>
+    <t>Code of the scribe; most often the first initial, middle initial, and last name</t>
+  </si>
+  <si>
+    <t>The BBL Status code describing the status of the captured bird and what was done before it was released</t>
+  </si>
+  <si>
+    <t>Upper left leg; combination of bands, flags, and data loggers attached to bird's leg when captured; seperated by '-'</t>
+  </si>
+  <si>
+    <t>Lower left leg; combination of bands, flags, and data loggers attached to bird's leg when captured; seperated by '-'</t>
+  </si>
+  <si>
+    <t>Upper right leg; combination of bands, flags, and data loggers attached to bird's leg when captured; seperated by '-'</t>
+  </si>
+  <si>
+    <t>Lower right leg; combination of bands, flags, and data loggers attached to bird's leg when captured; seperated by '-'</t>
+  </si>
+  <si>
+    <t>Upper left leg; combination of bands, flags, and data loggers attached to bird's leg when released; seperated by '-'</t>
+  </si>
+  <si>
+    <t>Lower left leg; combination of bands, flags, and data loggers attached to bird's leg when released; seperated by '-'</t>
+  </si>
+  <si>
+    <t>Upper right leg; combination of bands, flags, and data loggers attached to bird's leg when released; seperated by '-'</t>
+  </si>
+  <si>
+    <t>Lower right leg; combination of bands, flags, and data loggers attached to bird's leg when released; seperated by '-'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2649,24 +2650,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L464"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A228" workbookViewId="0">
+      <selection activeCell="D234" sqref="D234"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.77734375" customWidth="1"/>
+    <col min="1" max="1" width="23.83203125" customWidth="1"/>
     <col min="2" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="30.77734375" customWidth="1"/>
+    <col min="4" max="4" width="30.83203125" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
     <col min="11" max="11" width="9" customWidth="1"/>
     <col min="12" max="12" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>415</v>
       </c>
@@ -2704,7 +2705,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2721,13 +2722,13 @@
         <v>465</v>
       </c>
       <c r="F2" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="K2" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2741,7 +2742,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2755,7 +2756,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -2772,10 +2773,10 @@
         <v>436</v>
       </c>
       <c r="F5" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -2792,10 +2793,10 @@
         <v>436</v>
       </c>
       <c r="F6" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -2812,10 +2813,10 @@
         <v>458</v>
       </c>
       <c r="F7" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -2826,13 +2827,13 @@
         <v>471</v>
       </c>
       <c r="D8" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="E8" t="s">
         <v>436</v>
       </c>
       <c r="F8" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -2841,7 +2842,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -2858,7 +2859,7 @@
         <v>436</v>
       </c>
       <c r="F9" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -2867,9 +2868,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="B10" t="s">
         <v>471</v>
@@ -2884,15 +2885,15 @@
         <v>465</v>
       </c>
       <c r="F10" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="K10" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="B11" t="s">
         <v>471</v>
@@ -2907,15 +2908,15 @@
         <v>465</v>
       </c>
       <c r="F11" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="K11" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
@@ -2927,9 +2928,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="B13" t="s">
         <v>23</v>
@@ -2941,9 +2942,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -2955,9 +2956,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="B15" t="s">
         <v>27</v>
@@ -2969,9 +2970,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -2983,9 +2984,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="B17" t="s">
         <v>471</v>
@@ -3000,15 +3001,15 @@
         <v>465</v>
       </c>
       <c r="F17" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="K17" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="B18" t="s">
         <v>32</v>
@@ -3020,9 +3021,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="B19" t="s">
         <v>34</v>
@@ -3034,9 +3035,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="B20" t="s">
         <v>36</v>
@@ -3048,9 +3049,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="B21" t="s">
         <v>38</v>
@@ -3062,9 +3063,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="B22" t="s">
         <v>40</v>
@@ -3076,9 +3077,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="B23" t="s">
         <v>42</v>
@@ -3090,9 +3091,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="B24" t="s">
         <v>471</v>
@@ -3107,15 +3108,15 @@
         <v>465</v>
       </c>
       <c r="F24" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="K24" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="B25" t="s">
         <v>1</v>
@@ -3124,12 +3125,12 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="B26" t="s">
         <v>2</v>
@@ -3141,9 +3142,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="B27" t="s">
         <v>45</v>
@@ -3155,9 +3156,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="B28" t="s">
         <v>47</v>
@@ -3169,9 +3170,9 @@
         <v>474</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="B29" t="s">
         <v>48</v>
@@ -3183,9 +3184,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="B30" t="s">
         <v>50</v>
@@ -3197,9 +3198,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="B31" t="s">
         <v>52</v>
@@ -3211,9 +3212,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="B32" t="s">
         <v>54</v>
@@ -3225,9 +3226,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="B33" t="s">
         <v>56</v>
@@ -3239,9 +3240,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="B34" t="s">
         <v>58</v>
@@ -3250,24 +3251,24 @@
         <v>58</v>
       </c>
       <c r="D34" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="B35" t="s">
-        <v>593</v>
+        <v>580</v>
       </c>
       <c r="C35" t="s">
-        <v>593</v>
+        <v>580</v>
       </c>
       <c r="D35" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>59</v>
       </c>
@@ -3284,13 +3285,13 @@
         <v>465</v>
       </c>
       <c r="F36" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="K36" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>60</v>
       </c>
@@ -3301,19 +3302,19 @@
         <v>471</v>
       </c>
       <c r="D37" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="E37" t="s">
         <v>465</v>
       </c>
       <c r="F37" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="K37" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>61</v>
       </c>
@@ -3330,13 +3331,13 @@
         <v>449</v>
       </c>
       <c r="F38" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="G38" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>63</v>
       </c>
@@ -3353,13 +3354,13 @@
         <v>449</v>
       </c>
       <c r="F39" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="G39" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>65</v>
       </c>
@@ -3376,10 +3377,10 @@
         <v>449</v>
       </c>
       <c r="F40" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>67</v>
       </c>
@@ -3396,10 +3397,10 @@
         <v>449</v>
       </c>
       <c r="F41" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>69</v>
       </c>
@@ -3416,13 +3417,13 @@
         <v>427</v>
       </c>
       <c r="F42" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="K42" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>69</v>
       </c>
@@ -3436,7 +3437,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>69</v>
       </c>
@@ -3450,7 +3451,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>75</v>
       </c>
@@ -3467,10 +3468,10 @@
         <v>436</v>
       </c>
       <c r="F45" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>77</v>
       </c>
@@ -3481,19 +3482,19 @@
         <v>471</v>
       </c>
       <c r="D46" t="s">
-        <v>500</v>
+        <v>588</v>
       </c>
       <c r="E46" t="s">
         <v>465</v>
       </c>
       <c r="F46" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="K46" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>78</v>
       </c>
@@ -3504,19 +3505,19 @@
         <v>471</v>
       </c>
       <c r="D47" t="s">
-        <v>501</v>
+        <v>589</v>
       </c>
       <c r="E47" t="s">
         <v>465</v>
       </c>
       <c r="F47" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="K47" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>79</v>
       </c>
@@ -3533,10 +3534,10 @@
         <v>453</v>
       </c>
       <c r="F48" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>81</v>
       </c>
@@ -3553,12 +3554,12 @@
         <v>453</v>
       </c>
       <c r="F49" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>588</v>
+        <v>575</v>
       </c>
       <c r="B50" t="s">
         <v>471</v>
@@ -3567,21 +3568,21 @@
         <v>471</v>
       </c>
       <c r="D50" t="s">
-        <v>585</v>
+        <v>572</v>
       </c>
       <c r="E50" t="s">
         <v>427</v>
       </c>
       <c r="F50" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="K50" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>588</v>
+        <v>575</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -3593,9 +3594,9 @@
         <v>83</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>588</v>
+        <v>575</v>
       </c>
       <c r="B52">
         <v>4</v>
@@ -3607,9 +3608,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>588</v>
+        <v>575</v>
       </c>
       <c r="B53">
         <v>5</v>
@@ -3621,9 +3622,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>588</v>
+        <v>575</v>
       </c>
       <c r="B54">
         <v>6</v>
@@ -3635,9 +3636,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>588</v>
+        <v>575</v>
       </c>
       <c r="B55">
         <v>8</v>
@@ -3649,9 +3650,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>588</v>
+        <v>575</v>
       </c>
       <c r="B56">
         <v>9</v>
@@ -3663,9 +3664,9 @@
         <v>87</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>588</v>
+        <v>575</v>
       </c>
       <c r="B57" t="s">
         <v>88</v>
@@ -3677,9 +3678,9 @@
         <v>89</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>588</v>
+        <v>575</v>
       </c>
       <c r="B58" t="s">
         <v>90</v>
@@ -3691,23 +3692,23 @@
         <v>91</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>588</v>
+        <v>575</v>
       </c>
       <c r="B59" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="C59" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="D59" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>588</v>
+        <v>575</v>
       </c>
       <c r="B60" t="s">
         <v>73</v>
@@ -3716,26 +3717,26 @@
         <v>73</v>
       </c>
       <c r="D60" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>588</v>
+        <v>575</v>
       </c>
       <c r="B61" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="C61" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="D61" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
       <c r="B62" t="s">
         <v>471</v>
@@ -3744,18 +3745,18 @@
         <v>471</v>
       </c>
       <c r="D62" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="E62" t="s">
         <v>465</v>
       </c>
       <c r="F62" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
       <c r="B63" t="s">
         <v>92</v>
@@ -3767,9 +3768,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
       <c r="B64" t="s">
         <v>94</v>
@@ -3781,9 +3782,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
       <c r="B65">
         <v>300</v>
@@ -3795,9 +3796,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
       <c r="B66">
         <v>301</v>
@@ -3809,9 +3810,9 @@
         <v>97</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
       <c r="B67">
         <v>310</v>
@@ -3823,9 +3824,9 @@
         <v>98</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
       <c r="B68">
         <v>315</v>
@@ -3837,9 +3838,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
       <c r="B69">
         <v>317</v>
@@ -3851,9 +3852,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
       <c r="B70">
         <v>318</v>
@@ -3865,9 +3866,9 @@
         <v>101</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
       <c r="B71">
         <v>319</v>
@@ -3879,9 +3880,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
       <c r="B72">
         <v>325</v>
@@ -3893,9 +3894,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
       <c r="B73">
         <v>333</v>
@@ -3907,9 +3908,9 @@
         <v>104</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
       <c r="B74">
         <v>334</v>
@@ -3921,9 +3922,9 @@
         <v>104</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
       <c r="B75">
         <v>380</v>
@@ -3935,9 +3936,9 @@
         <v>105</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
       <c r="B76">
         <v>381</v>
@@ -3949,9 +3950,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
       <c r="B77">
         <v>389</v>
@@ -3963,9 +3964,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
       <c r="B78">
         <v>390</v>
@@ -3977,9 +3978,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>586</v>
+        <v>573</v>
       </c>
       <c r="B79" t="s">
         <v>471</v>
@@ -3988,156 +3989,156 @@
         <v>471</v>
       </c>
       <c r="D79" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="E79" t="s">
         <v>436</v>
       </c>
       <c r="F79" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>586</v>
+        <v>573</v>
       </c>
       <c r="B80" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>573</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>573</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>573</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>573</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>573</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>573</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="D86" s="5" t="s">
         <v>565</v>
       </c>
-      <c r="C80" s="4" t="s">
-        <v>565</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>586</v>
-      </c>
-      <c r="B81" s="4" t="s">
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>573</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="D87" s="5" t="s">
         <v>566</v>
       </c>
-      <c r="C81" s="4" t="s">
-        <v>566</v>
-      </c>
-      <c r="D81" s="5" t="s">
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>586</v>
-      </c>
-      <c r="B82" s="4" t="s">
+      <c r="B88" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="D88" s="5" t="s">
         <v>567</v>
       </c>
-      <c r="C82" s="4" t="s">
-        <v>567</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>586</v>
-      </c>
-      <c r="B83" s="4" t="s">
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>573</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="D89" s="5" t="s">
         <v>568</v>
       </c>
-      <c r="C83" s="4" t="s">
-        <v>568</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>586</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>569</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>569</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>586</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>586</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>571</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>571</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>586</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>586</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>563</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>563</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>586</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>564</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>564</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>109</v>
       </c>
@@ -4148,33 +4149,33 @@
         <v>471</v>
       </c>
       <c r="D90" t="s">
-        <v>490</v>
+        <v>591</v>
       </c>
       <c r="E90" t="s">
         <v>465</v>
       </c>
       <c r="F90" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="K90" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>109</v>
       </c>
       <c r="B91" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="C91" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="D91" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>109</v>
       </c>
@@ -4188,7 +4189,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>109</v>
       </c>
@@ -4202,7 +4203,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>109</v>
       </c>
@@ -4216,7 +4217,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>109</v>
       </c>
@@ -4230,7 +4231,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>109</v>
       </c>
@@ -4244,7 +4245,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>109</v>
       </c>
@@ -4258,7 +4259,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>109</v>
       </c>
@@ -4272,7 +4273,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>109</v>
       </c>
@@ -4286,7 +4287,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>109</v>
       </c>
@@ -4300,7 +4301,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>109</v>
       </c>
@@ -4314,7 +4315,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>109</v>
       </c>
@@ -4328,7 +4329,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>109</v>
       </c>
@@ -4342,7 +4343,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>109</v>
       </c>
@@ -4356,7 +4357,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>109</v>
       </c>
@@ -4370,7 +4371,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>109</v>
       </c>
@@ -4384,7 +4385,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>109</v>
       </c>
@@ -4398,7 +4399,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>110</v>
       </c>
@@ -4409,33 +4410,33 @@
         <v>471</v>
       </c>
       <c r="D108" t="s">
-        <v>491</v>
+        <v>592</v>
       </c>
       <c r="E108" t="s">
         <v>465</v>
       </c>
       <c r="F108" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="K108" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>110</v>
       </c>
       <c r="B109" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="C109" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="D109" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>110</v>
       </c>
@@ -4449,7 +4450,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -4463,7 +4464,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>110</v>
       </c>
@@ -4477,7 +4478,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>110</v>
       </c>
@@ -4491,7 +4492,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>110</v>
       </c>
@@ -4505,7 +4506,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>110</v>
       </c>
@@ -4519,7 +4520,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>110</v>
       </c>
@@ -4533,7 +4534,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>110</v>
       </c>
@@ -4547,7 +4548,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>110</v>
       </c>
@@ -4561,7 +4562,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>110</v>
       </c>
@@ -4575,7 +4576,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>110</v>
       </c>
@@ -4589,7 +4590,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>110</v>
       </c>
@@ -4603,7 +4604,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>110</v>
       </c>
@@ -4617,7 +4618,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>110</v>
       </c>
@@ -4631,7 +4632,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>110</v>
       </c>
@@ -4645,7 +4646,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>110</v>
       </c>
@@ -4659,7 +4660,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>111</v>
       </c>
@@ -4670,33 +4671,33 @@
         <v>471</v>
       </c>
       <c r="D126" t="s">
-        <v>492</v>
+        <v>593</v>
       </c>
       <c r="E126" t="s">
         <v>465</v>
       </c>
       <c r="F126" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="K126" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>111</v>
       </c>
       <c r="B127" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="C127" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="D127" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>111</v>
       </c>
@@ -4710,7 +4711,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>111</v>
       </c>
@@ -4724,7 +4725,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>111</v>
       </c>
@@ -4738,7 +4739,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>111</v>
       </c>
@@ -4752,7 +4753,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>111</v>
       </c>
@@ -4766,7 +4767,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>111</v>
       </c>
@@ -4780,7 +4781,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>111</v>
       </c>
@@ -4794,7 +4795,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>111</v>
       </c>
@@ -4808,7 +4809,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>111</v>
       </c>
@@ -4822,7 +4823,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>111</v>
       </c>
@@ -4836,7 +4837,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>111</v>
       </c>
@@ -4850,7 +4851,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>111</v>
       </c>
@@ -4864,7 +4865,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>111</v>
       </c>
@@ -4878,7 +4879,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>111</v>
       </c>
@@ -4892,7 +4893,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>111</v>
       </c>
@@ -4906,7 +4907,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>111</v>
       </c>
@@ -4920,7 +4921,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>112</v>
       </c>
@@ -4931,33 +4932,33 @@
         <v>471</v>
       </c>
       <c r="D144" t="s">
-        <v>493</v>
+        <v>594</v>
       </c>
       <c r="E144" t="s">
         <v>465</v>
       </c>
       <c r="F144" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="K144" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>112</v>
       </c>
       <c r="B145" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="C145" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="D145" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>112</v>
       </c>
@@ -4971,7 +4972,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>112</v>
       </c>
@@ -4985,7 +4986,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>112</v>
       </c>
@@ -4999,7 +5000,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>112</v>
       </c>
@@ -5013,7 +5014,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>112</v>
       </c>
@@ -5027,7 +5028,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>112</v>
       </c>
@@ -5041,7 +5042,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>112</v>
       </c>
@@ -5055,7 +5056,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>112</v>
       </c>
@@ -5069,7 +5070,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>112</v>
       </c>
@@ -5083,7 +5084,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>112</v>
       </c>
@@ -5097,7 +5098,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>112</v>
       </c>
@@ -5111,7 +5112,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>112</v>
       </c>
@@ -5125,7 +5126,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>112</v>
       </c>
@@ -5139,7 +5140,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>112</v>
       </c>
@@ -5153,7 +5154,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>112</v>
       </c>
@@ -5167,7 +5168,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>112</v>
       </c>
@@ -5181,7 +5182,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>113</v>
       </c>
@@ -5192,33 +5193,33 @@
         <v>471</v>
       </c>
       <c r="D162" t="s">
-        <v>494</v>
+        <v>595</v>
       </c>
       <c r="E162" t="s">
         <v>465</v>
       </c>
       <c r="F162" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="K162" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>113</v>
       </c>
       <c r="B163" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="C163" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="D163" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>113</v>
       </c>
@@ -5232,7 +5233,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>113</v>
       </c>
@@ -5246,7 +5247,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>113</v>
       </c>
@@ -5260,7 +5261,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>113</v>
       </c>
@@ -5274,7 +5275,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>113</v>
       </c>
@@ -5288,7 +5289,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>113</v>
       </c>
@@ -5302,7 +5303,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>113</v>
       </c>
@@ -5316,7 +5317,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>113</v>
       </c>
@@ -5330,7 +5331,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>113</v>
       </c>
@@ -5344,7 +5345,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>113</v>
       </c>
@@ -5358,7 +5359,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>113</v>
       </c>
@@ -5372,7 +5373,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>113</v>
       </c>
@@ -5386,7 +5387,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>113</v>
       </c>
@@ -5400,7 +5401,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>113</v>
       </c>
@@ -5414,7 +5415,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>113</v>
       </c>
@@ -5428,7 +5429,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>113</v>
       </c>
@@ -5442,7 +5443,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>114</v>
       </c>
@@ -5453,33 +5454,33 @@
         <v>471</v>
       </c>
       <c r="D180" t="s">
-        <v>495</v>
+        <v>596</v>
       </c>
       <c r="E180" t="s">
         <v>465</v>
       </c>
       <c r="F180" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="K180" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>114</v>
       </c>
       <c r="B181" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="C181" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="D181" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>114</v>
       </c>
@@ -5493,7 +5494,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>114</v>
       </c>
@@ -5507,7 +5508,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>114</v>
       </c>
@@ -5521,7 +5522,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>114</v>
       </c>
@@ -5535,7 +5536,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>114</v>
       </c>
@@ -5549,7 +5550,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>114</v>
       </c>
@@ -5563,7 +5564,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>114</v>
       </c>
@@ -5577,7 +5578,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>114</v>
       </c>
@@ -5591,7 +5592,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>114</v>
       </c>
@@ -5605,7 +5606,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>114</v>
       </c>
@@ -5619,7 +5620,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>114</v>
       </c>
@@ -5633,7 +5634,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>114</v>
       </c>
@@ -5647,7 +5648,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>114</v>
       </c>
@@ -5661,7 +5662,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>114</v>
       </c>
@@ -5675,7 +5676,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>114</v>
       </c>
@@ -5689,7 +5690,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>114</v>
       </c>
@@ -5703,7 +5704,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>115</v>
       </c>
@@ -5714,33 +5715,33 @@
         <v>471</v>
       </c>
       <c r="D198" t="s">
-        <v>496</v>
+        <v>597</v>
       </c>
       <c r="E198" t="s">
         <v>465</v>
       </c>
       <c r="F198" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="K198" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>115</v>
       </c>
       <c r="B199" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="C199" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="D199" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>115</v>
       </c>
@@ -5754,7 +5755,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>115</v>
       </c>
@@ -5768,7 +5769,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>115</v>
       </c>
@@ -5782,7 +5783,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>115</v>
       </c>
@@ -5796,7 +5797,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>115</v>
       </c>
@@ -5810,7 +5811,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>115</v>
       </c>
@@ -5824,7 +5825,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>115</v>
       </c>
@@ -5838,7 +5839,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>115</v>
       </c>
@@ -5852,7 +5853,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>115</v>
       </c>
@@ -5866,7 +5867,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>115</v>
       </c>
@@ -5880,7 +5881,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>115</v>
       </c>
@@ -5894,7 +5895,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>115</v>
       </c>
@@ -5908,7 +5909,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>115</v>
       </c>
@@ -5922,7 +5923,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>115</v>
       </c>
@@ -5936,7 +5937,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>115</v>
       </c>
@@ -5950,7 +5951,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>115</v>
       </c>
@@ -5964,7 +5965,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>116</v>
       </c>
@@ -5975,33 +5976,33 @@
         <v>471</v>
       </c>
       <c r="D216" t="s">
-        <v>497</v>
+        <v>598</v>
       </c>
       <c r="E216" t="s">
         <v>465</v>
       </c>
       <c r="F216" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="K216" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>116</v>
       </c>
       <c r="B217" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="C217" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="D217" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>116</v>
       </c>
@@ -6015,7 +6016,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>116</v>
       </c>
@@ -6029,7 +6030,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>116</v>
       </c>
@@ -6043,7 +6044,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>116</v>
       </c>
@@ -6057,7 +6058,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>116</v>
       </c>
@@ -6071,7 +6072,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>116</v>
       </c>
@@ -6085,7 +6086,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>116</v>
       </c>
@@ -6099,7 +6100,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>116</v>
       </c>
@@ -6113,7 +6114,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>116</v>
       </c>
@@ -6127,7 +6128,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>116</v>
       </c>
@@ -6141,7 +6142,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>116</v>
       </c>
@@ -6155,7 +6156,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>116</v>
       </c>
@@ -6169,7 +6170,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>116</v>
       </c>
@@ -6183,7 +6184,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>116</v>
       </c>
@@ -6197,7 +6198,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>116</v>
       </c>
@@ -6211,7 +6212,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>116</v>
       </c>
@@ -6225,7 +6226,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>150</v>
       </c>
@@ -6242,13 +6243,13 @@
         <v>465</v>
       </c>
       <c r="F234" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="K234" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>150</v>
       </c>
@@ -6262,7 +6263,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>150</v>
       </c>
@@ -6276,7 +6277,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>150</v>
       </c>
@@ -6290,7 +6291,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>150</v>
       </c>
@@ -6304,7 +6305,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>152</v>
       </c>
@@ -6321,13 +6322,13 @@
         <v>465</v>
       </c>
       <c r="F239" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="K239" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>152</v>
       </c>
@@ -6341,7 +6342,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>152</v>
       </c>
@@ -6355,7 +6356,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>152</v>
       </c>
@@ -6369,7 +6370,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>152</v>
       </c>
@@ -6383,7 +6384,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>159</v>
       </c>
@@ -6400,13 +6401,13 @@
         <v>465</v>
       </c>
       <c r="F244" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="K244" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>161</v>
       </c>
@@ -6423,13 +6424,13 @@
         <v>465</v>
       </c>
       <c r="F245" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="K245" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>163</v>
       </c>
@@ -6446,13 +6447,13 @@
         <v>465</v>
       </c>
       <c r="F246" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="K246" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>165</v>
       </c>
@@ -6463,19 +6464,19 @@
         <v>471</v>
       </c>
       <c r="D247" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="E247" t="s">
         <v>465</v>
       </c>
       <c r="F247" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="K247" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>166</v>
       </c>
@@ -6492,13 +6493,13 @@
         <v>465</v>
       </c>
       <c r="F248" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="K248" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>166</v>
       </c>
@@ -6512,7 +6513,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>166</v>
       </c>
@@ -6526,7 +6527,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>166</v>
       </c>
@@ -6540,7 +6541,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>166</v>
       </c>
@@ -6554,7 +6555,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>166</v>
       </c>
@@ -6568,7 +6569,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>166</v>
       </c>
@@ -6582,7 +6583,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>166</v>
       </c>
@@ -6596,7 +6597,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>166</v>
       </c>
@@ -6610,7 +6611,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>184</v>
       </c>
@@ -6627,13 +6628,13 @@
         <v>465</v>
       </c>
       <c r="F257" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="K257" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>184</v>
       </c>
@@ -6647,7 +6648,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>184</v>
       </c>
@@ -6661,7 +6662,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>184</v>
       </c>
@@ -6675,7 +6676,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>184</v>
       </c>
@@ -6689,7 +6690,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>184</v>
       </c>
@@ -6703,7 +6704,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>184</v>
       </c>
@@ -6717,7 +6718,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>184</v>
       </c>
@@ -6731,7 +6732,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>184</v>
       </c>
@@ -6745,9 +6746,9 @@
         <v>201</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>597</v>
+        <v>584</v>
       </c>
       <c r="B266" t="s">
         <v>471</v>
@@ -6762,15 +6763,15 @@
         <v>427</v>
       </c>
       <c r="F266" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="K266" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>597</v>
+        <v>584</v>
       </c>
       <c r="B267" t="s">
         <v>203</v>
@@ -6782,9 +6783,9 @@
         <v>204</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>597</v>
+        <v>584</v>
       </c>
       <c r="B268" t="s">
         <v>88</v>
@@ -6796,9 +6797,9 @@
         <v>205</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>597</v>
+        <v>584</v>
       </c>
       <c r="B269" t="s">
         <v>200</v>
@@ -6810,9 +6811,9 @@
         <v>201</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="B270" t="s">
         <v>471</v>
@@ -6821,21 +6822,21 @@
         <v>471</v>
       </c>
       <c r="D270" t="s">
-        <v>591</v>
+        <v>578</v>
       </c>
       <c r="E270" t="s">
         <v>465</v>
       </c>
       <c r="F270" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="K270" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="B271" t="s">
         <v>207</v>
@@ -6847,9 +6848,9 @@
         <v>208</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="B272" t="s">
         <v>209</v>
@@ -6861,9 +6862,9 @@
         <v>210</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="B273" t="s">
         <v>211</v>
@@ -6875,23 +6876,23 @@
         <v>212</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="D274" s="4" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="B275" t="s">
         <v>213</v>
@@ -6903,163 +6904,163 @@
         <v>214</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="B276" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="C276" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="D276" s="4" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>576</v>
+      </c>
+      <c r="B277" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="C277" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="D277" s="4" t="s">
         <v>512</v>
       </c>
-      <c r="C276" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="D276" s="4" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A277" t="s">
-        <v>589</v>
-      </c>
-      <c r="B277" s="4" t="s">
-        <v>513</v>
-      </c>
-      <c r="C277" s="4" t="s">
-        <v>513</v>
-      </c>
-      <c r="D277" s="4" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="B278" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="C278" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="D278" s="4" t="s">
         <v>514</v>
       </c>
-      <c r="C278" s="4" t="s">
-        <v>514</v>
-      </c>
-      <c r="D278" s="4" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="B279" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="C279" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="D279" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
       <c r="D280" s="4" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="D281" s="4" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="D282" s="4" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="B283" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="C283" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="D283" s="4" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="B284" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="C284" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="D284" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="C284" s="4" t="s">
-        <v>519</v>
-      </c>
-      <c r="D284" s="4" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="D285" s="4" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="B286" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="C286" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="D286" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="C286" s="4" t="s">
-        <v>520</v>
-      </c>
-      <c r="D286" s="4" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="B287" s="4" t="s">
         <v>216</v>
@@ -7068,26 +7069,26 @@
         <v>216</v>
       </c>
       <c r="D287" s="4" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="B288" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="C288" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="D288" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="B289" s="4" t="s">
         <v>217</v>
@@ -7096,12 +7097,12 @@
         <v>217</v>
       </c>
       <c r="D289" s="4" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="B290" t="s">
         <v>218</v>
@@ -7113,9 +7114,9 @@
         <v>219</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="B291" s="4" t="s">
         <v>364</v>
@@ -7124,12 +7125,12 @@
         <v>364</v>
       </c>
       <c r="D291" s="4" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="292" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="B292" t="s">
         <v>220</v>
@@ -7141,23 +7142,23 @@
         <v>221</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="C293" s="4" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="D293" s="4" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="294" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="B294" s="4" t="s">
         <v>224</v>
@@ -7169,37 +7170,37 @@
         <v>225</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="C295" s="4" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="D295" s="4" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="296" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="C296" s="4" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="D296" s="4" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="297" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>590</v>
+        <v>577</v>
       </c>
       <c r="B297" t="s">
         <v>471</v>
@@ -7208,21 +7209,21 @@
         <v>471</v>
       </c>
       <c r="D297" t="s">
-        <v>592</v>
+        <v>579</v>
       </c>
       <c r="E297" t="s">
         <v>465</v>
       </c>
       <c r="F297" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="K297" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="298" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>590</v>
+        <v>577</v>
       </c>
       <c r="B298" t="s">
         <v>209</v>
@@ -7234,9 +7235,9 @@
         <v>210</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>590</v>
+        <v>577</v>
       </c>
       <c r="B299" t="s">
         <v>211</v>
@@ -7248,37 +7249,37 @@
         <v>212</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>590</v>
+        <v>577</v>
       </c>
       <c r="B300" t="s">
+        <v>500</v>
+      </c>
+      <c r="C300" t="s">
+        <v>500</v>
+      </c>
+      <c r="D300" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="301" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
+        <v>577</v>
+      </c>
+      <c r="B301" t="s">
+        <v>501</v>
+      </c>
+      <c r="C301" t="s">
+        <v>501</v>
+      </c>
+      <c r="D301" t="s">
         <v>512</v>
       </c>
-      <c r="C300" t="s">
-        <v>512</v>
-      </c>
-      <c r="D300" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A301" t="s">
-        <v>590</v>
-      </c>
-      <c r="B301" t="s">
-        <v>513</v>
-      </c>
-      <c r="C301" t="s">
-        <v>513</v>
-      </c>
-      <c r="D301" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="302" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>590</v>
+        <v>577</v>
       </c>
       <c r="B302" t="s">
         <v>215</v>
@@ -7287,110 +7288,110 @@
         <v>215</v>
       </c>
       <c r="D302" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="303" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>590</v>
+        <v>577</v>
       </c>
       <c r="B303" t="s">
+        <v>502</v>
+      </c>
+      <c r="C303" t="s">
+        <v>502</v>
+      </c>
+      <c r="D303" s="4" t="s">
         <v>514</v>
       </c>
-      <c r="C303" t="s">
-        <v>514</v>
-      </c>
-      <c r="D303" s="4" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="304" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>590</v>
+        <v>577</v>
       </c>
       <c r="B304" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="C304" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="D304" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>590</v>
+        <v>577</v>
       </c>
       <c r="B305" t="s">
+        <v>504</v>
+      </c>
+      <c r="C305" t="s">
+        <v>504</v>
+      </c>
+      <c r="D305" s="4" t="s">
         <v>516</v>
       </c>
-      <c r="C305" t="s">
-        <v>516</v>
-      </c>
-      <c r="D305" s="4" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>590</v>
+        <v>577</v>
       </c>
       <c r="B306" t="s">
+        <v>505</v>
+      </c>
+      <c r="C306" t="s">
+        <v>505</v>
+      </c>
+      <c r="D306" s="4" t="s">
         <v>517</v>
       </c>
-      <c r="C306" t="s">
-        <v>517</v>
-      </c>
-      <c r="D306" s="4" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>590</v>
+        <v>577</v>
       </c>
       <c r="B307" t="s">
+        <v>506</v>
+      </c>
+      <c r="C307" t="s">
+        <v>506</v>
+      </c>
+      <c r="D307" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="C307" t="s">
-        <v>518</v>
-      </c>
-      <c r="D307" s="4" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>590</v>
+        <v>577</v>
       </c>
       <c r="B308" t="s">
+        <v>507</v>
+      </c>
+      <c r="C308" t="s">
+        <v>507</v>
+      </c>
+      <c r="D308" t="s">
         <v>519</v>
       </c>
-      <c r="C308" t="s">
-        <v>519</v>
-      </c>
-      <c r="D308" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>590</v>
+        <v>577</v>
       </c>
       <c r="B309" t="s">
+        <v>508</v>
+      </c>
+      <c r="C309" t="s">
+        <v>508</v>
+      </c>
+      <c r="D309" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="C309" t="s">
-        <v>520</v>
-      </c>
-      <c r="D309" s="4" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>590</v>
+        <v>577</v>
       </c>
       <c r="B310" t="s">
         <v>218</v>
@@ -7402,9 +7403,9 @@
         <v>219</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>590</v>
+        <v>577</v>
       </c>
       <c r="B311" t="s">
         <v>220</v>
@@ -7413,12 +7414,12 @@
         <v>220</v>
       </c>
       <c r="D311" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>590</v>
+        <v>577</v>
       </c>
       <c r="B312" t="s">
         <v>222</v>
@@ -7430,23 +7431,23 @@
         <v>223</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>590</v>
+        <v>577</v>
       </c>
       <c r="B313" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="C313" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="D313" s="4" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>590</v>
+        <v>577</v>
       </c>
       <c r="B314" t="s">
         <v>224</v>
@@ -7458,35 +7459,35 @@
         <v>225</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>590</v>
+        <v>577</v>
       </c>
       <c r="B315" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="C315" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="D315" s="4" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>590</v>
+        <v>577</v>
       </c>
       <c r="B316" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="C316" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="D316" s="4" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>226</v>
       </c>
@@ -7503,13 +7504,13 @@
         <v>449</v>
       </c>
       <c r="F317" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="G317" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>228</v>
       </c>
@@ -7526,10 +7527,10 @@
         <v>436</v>
       </c>
       <c r="F318" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>228</v>
       </c>
@@ -7543,7 +7544,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>228</v>
       </c>
@@ -7557,7 +7558,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>228</v>
       </c>
@@ -7571,7 +7572,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>228</v>
       </c>
@@ -7585,7 +7586,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>228</v>
       </c>
@@ -7599,7 +7600,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>228</v>
       </c>
@@ -7613,7 +7614,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>228</v>
       </c>
@@ -7627,7 +7628,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>228</v>
       </c>
@@ -7638,10 +7639,10 @@
         <v>7</v>
       </c>
       <c r="D326" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.3">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="327" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>237</v>
       </c>
@@ -7658,13 +7659,13 @@
         <v>449</v>
       </c>
       <c r="F327" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="G327" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>239</v>
       </c>
@@ -7681,13 +7682,13 @@
         <v>449</v>
       </c>
       <c r="F328" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="G328" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>241</v>
       </c>
@@ -7704,13 +7705,13 @@
         <v>449</v>
       </c>
       <c r="F329" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="G329" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>243</v>
       </c>
@@ -7727,13 +7728,13 @@
         <v>449</v>
       </c>
       <c r="F330" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="G330" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>245</v>
       </c>
@@ -7750,13 +7751,13 @@
         <v>449</v>
       </c>
       <c r="F331" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="G331" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>247</v>
       </c>
@@ -7773,13 +7774,13 @@
         <v>449</v>
       </c>
       <c r="F332" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="G332" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="333" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A333" s="3" t="s">
         <v>249</v>
       </c>
@@ -7790,20 +7791,20 @@
         <v>471</v>
       </c>
       <c r="D333" s="3" t="s">
-        <v>504</v>
+        <v>586</v>
       </c>
       <c r="E333" s="3" t="s">
         <v>449</v>
       </c>
       <c r="F333" s="3" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="G333" s="3" t="s">
         <v>469</v>
       </c>
       <c r="L333"/>
     </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>250</v>
       </c>
@@ -7820,13 +7821,13 @@
         <v>449</v>
       </c>
       <c r="F334" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="G334" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>252</v>
       </c>
@@ -7843,13 +7844,13 @@
         <v>449</v>
       </c>
       <c r="F335" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="G335" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>254</v>
       </c>
@@ -7866,13 +7867,13 @@
         <v>449</v>
       </c>
       <c r="F336" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="G336" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>256</v>
       </c>
@@ -7889,13 +7890,13 @@
         <v>449</v>
       </c>
       <c r="F337" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="G337" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>258</v>
       </c>
@@ -7912,13 +7913,13 @@
         <v>449</v>
       </c>
       <c r="F338" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="G338" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>260</v>
       </c>
@@ -7935,13 +7936,13 @@
         <v>449</v>
       </c>
       <c r="F339" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="G339" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>262</v>
       </c>
@@ -7958,13 +7959,13 @@
         <v>449</v>
       </c>
       <c r="F340" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="G340" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>264</v>
       </c>
@@ -7981,13 +7982,13 @@
         <v>449</v>
       </c>
       <c r="F341" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="G341" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>266</v>
       </c>
@@ -8004,10 +8005,10 @@
         <v>436</v>
       </c>
       <c r="F342" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="343" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>266</v>
       </c>
@@ -8021,7 +8022,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>266</v>
       </c>
@@ -8035,7 +8036,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>266</v>
       </c>
@@ -8049,7 +8050,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>266</v>
       </c>
@@ -8063,7 +8064,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>272</v>
       </c>
@@ -8080,13 +8081,13 @@
         <v>427</v>
       </c>
       <c r="F347" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="K347" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="348" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>272</v>
       </c>
@@ -8100,7 +8101,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>272</v>
       </c>
@@ -8114,7 +8115,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>272</v>
       </c>
@@ -8128,7 +8129,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>272</v>
       </c>
@@ -8142,7 +8143,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>272</v>
       </c>
@@ -8156,7 +8157,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>272</v>
       </c>
@@ -8170,7 +8171,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>272</v>
       </c>
@@ -8184,7 +8185,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>466</v>
       </c>
@@ -8195,13 +8196,13 @@
         <v>471</v>
       </c>
       <c r="D355" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="E355" t="s">
         <v>449</v>
       </c>
       <c r="F355" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="I355">
         <v>0</v>
@@ -8210,7 +8211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>282</v>
       </c>
@@ -8227,13 +8228,13 @@
         <v>421</v>
       </c>
       <c r="F356" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="K356" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="357" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>284</v>
       </c>
@@ -8250,13 +8251,13 @@
         <v>427</v>
       </c>
       <c r="F357" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="K357" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="358" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>284</v>
       </c>
@@ -8270,7 +8271,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>284</v>
       </c>
@@ -8284,7 +8285,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>284</v>
       </c>
@@ -8298,7 +8299,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>284</v>
       </c>
@@ -8312,7 +8313,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>284</v>
       </c>
@@ -8326,7 +8327,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>284</v>
       </c>
@@ -8340,7 +8341,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>284</v>
       </c>
@@ -8354,7 +8355,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>284</v>
       </c>
@@ -8368,7 +8369,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>284</v>
       </c>
@@ -8382,7 +8383,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>284</v>
       </c>
@@ -8396,7 +8397,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>284</v>
       </c>
@@ -8410,7 +8411,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>300</v>
       </c>
@@ -8427,10 +8428,10 @@
         <v>436</v>
       </c>
       <c r="F369" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="370" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>300</v>
       </c>
@@ -8444,7 +8445,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>300</v>
       </c>
@@ -8458,7 +8459,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>300</v>
       </c>
@@ -8472,7 +8473,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>300</v>
       </c>
@@ -8486,7 +8487,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>300</v>
       </c>
@@ -8500,7 +8501,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>307</v>
       </c>
@@ -8517,10 +8518,10 @@
         <v>436</v>
       </c>
       <c r="F375" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="376" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>307</v>
       </c>
@@ -8534,7 +8535,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>307</v>
       </c>
@@ -8548,7 +8549,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>307</v>
       </c>
@@ -8562,7 +8563,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>307</v>
       </c>
@@ -8576,7 +8577,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>313</v>
       </c>
@@ -8593,13 +8594,13 @@
         <v>427</v>
       </c>
       <c r="F380" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="K380" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="381" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>313</v>
       </c>
@@ -8613,7 +8614,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>313</v>
       </c>
@@ -8627,7 +8628,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>313</v>
       </c>
@@ -8641,7 +8642,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>313</v>
       </c>
@@ -8655,7 +8656,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>320</v>
       </c>
@@ -8672,10 +8673,10 @@
         <v>436</v>
       </c>
       <c r="F385" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>320</v>
       </c>
@@ -8689,7 +8690,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>320</v>
       </c>
@@ -8703,7 +8704,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>320</v>
       </c>
@@ -8717,7 +8718,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>320</v>
       </c>
@@ -8731,7 +8732,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>320</v>
       </c>
@@ -8745,7 +8746,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>320</v>
       </c>
@@ -8759,7 +8760,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>327</v>
       </c>
@@ -8776,10 +8777,10 @@
         <v>436</v>
       </c>
       <c r="F392" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>327</v>
       </c>
@@ -8793,7 +8794,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>327</v>
       </c>
@@ -8807,7 +8808,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>327</v>
       </c>
@@ -8821,7 +8822,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>327</v>
       </c>
@@ -8835,7 +8836,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>333</v>
       </c>
@@ -8852,10 +8853,10 @@
         <v>436</v>
       </c>
       <c r="F397" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>333</v>
       </c>
@@ -8869,7 +8870,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>333</v>
       </c>
@@ -8883,7 +8884,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>333</v>
       </c>
@@ -8897,7 +8898,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>333</v>
       </c>
@@ -8911,7 +8912,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>333</v>
       </c>
@@ -8925,7 +8926,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>333</v>
       </c>
@@ -8939,7 +8940,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="404" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>335</v>
       </c>
@@ -8956,10 +8957,10 @@
         <v>436</v>
       </c>
       <c r="F404" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="405" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>335</v>
       </c>
@@ -8973,7 +8974,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>335</v>
       </c>
@@ -8987,7 +8988,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>335</v>
       </c>
@@ -9001,7 +9002,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>335</v>
       </c>
@@ -9015,7 +9016,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="409" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>339</v>
       </c>
@@ -9032,13 +9033,13 @@
         <v>421</v>
       </c>
       <c r="F409" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="K409" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="410" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>341</v>
       </c>
@@ -9055,13 +9056,13 @@
         <v>421</v>
       </c>
       <c r="F410" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="K410" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="411" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>343</v>
       </c>
@@ -9078,13 +9079,13 @@
         <v>421</v>
       </c>
       <c r="F411" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="K411" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="412" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>345</v>
       </c>
@@ -9101,13 +9102,13 @@
         <v>421</v>
       </c>
       <c r="F412" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="K412" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="413" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>347</v>
       </c>
@@ -9124,13 +9125,13 @@
         <v>421</v>
       </c>
       <c r="F413" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="K413" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="414" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>349</v>
       </c>
@@ -9147,13 +9148,13 @@
         <v>421</v>
       </c>
       <c r="F414" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="K414" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="415" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>351</v>
       </c>
@@ -9170,13 +9171,13 @@
         <v>421</v>
       </c>
       <c r="F415" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="K415" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="416" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>353</v>
       </c>
@@ -9193,13 +9194,13 @@
         <v>421</v>
       </c>
       <c r="F416" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="K416" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="417" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>355</v>
       </c>
@@ -9216,13 +9217,13 @@
         <v>421</v>
       </c>
       <c r="F417" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="K417" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="418" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>357</v>
       </c>
@@ -9239,13 +9240,13 @@
         <v>421</v>
       </c>
       <c r="F418" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="K418" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="419" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>359</v>
       </c>
@@ -9262,13 +9263,13 @@
         <v>421</v>
       </c>
       <c r="F419" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="K419" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="420" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>361</v>
       </c>
@@ -9285,15 +9286,15 @@
         <v>421</v>
       </c>
       <c r="F420" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="K420" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="421" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
-        <v>598</v>
+        <v>585</v>
       </c>
       <c r="B421" t="s">
         <v>471</v>
@@ -9308,15 +9309,15 @@
         <v>465</v>
       </c>
       <c r="F421" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="K421" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="422" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
-        <v>598</v>
+        <v>585</v>
       </c>
       <c r="B422" t="s">
         <v>364</v>
@@ -9328,9 +9329,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
-        <v>598</v>
+        <v>585</v>
       </c>
       <c r="B423" t="s">
         <v>366</v>
@@ -9342,9 +9343,9 @@
         <v>367</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>598</v>
+        <v>585</v>
       </c>
       <c r="B424" t="s">
         <v>143</v>
@@ -9356,9 +9357,9 @@
         <v>368</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>598</v>
+        <v>585</v>
       </c>
       <c r="B425" t="s">
         <v>73</v>
@@ -9370,9 +9371,9 @@
         <v>369</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
-        <v>598</v>
+        <v>585</v>
       </c>
       <c r="B426" t="s">
         <v>370</v>
@@ -9384,9 +9385,9 @@
         <v>371</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>598</v>
+        <v>585</v>
       </c>
       <c r="B427" t="s">
         <v>90</v>
@@ -9398,9 +9399,9 @@
         <v>372</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>598</v>
+        <v>585</v>
       </c>
       <c r="B428" t="s">
         <v>373</v>
@@ -9412,9 +9413,9 @@
         <v>475</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
-        <v>598</v>
+        <v>585</v>
       </c>
       <c r="B429" t="s">
         <v>374</v>
@@ -9426,9 +9427,9 @@
         <v>476</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
-        <v>598</v>
+        <v>585</v>
       </c>
       <c r="B430" t="s">
         <v>375</v>
@@ -9440,9 +9441,9 @@
         <v>477</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>598</v>
+        <v>585</v>
       </c>
       <c r="B431" t="s">
         <v>376</v>
@@ -9454,9 +9455,9 @@
         <v>478</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>598</v>
+        <v>585</v>
       </c>
       <c r="B432" t="s">
         <v>377</v>
@@ -9468,9 +9469,9 @@
         <v>378</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>598</v>
+        <v>585</v>
       </c>
       <c r="B433" t="s">
         <v>379</v>
@@ -9482,7 +9483,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="434" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>380</v>
       </c>
@@ -9499,13 +9500,13 @@
         <v>465</v>
       </c>
       <c r="F434" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="K434" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="435" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="435" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>380</v>
       </c>
@@ -9519,7 +9520,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>380</v>
       </c>
@@ -9533,7 +9534,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>380</v>
       </c>
@@ -9547,7 +9548,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="438" spans="1:11" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>382</v>
       </c>
@@ -9564,13 +9565,13 @@
         <v>465</v>
       </c>
       <c r="F438" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="K438" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="439" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="439" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>382</v>
       </c>
@@ -9584,7 +9585,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>382</v>
       </c>
@@ -9598,7 +9599,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>382</v>
       </c>
@@ -9612,7 +9613,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>386</v>
       </c>
@@ -9629,13 +9630,13 @@
         <v>465</v>
       </c>
       <c r="F442" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="K442" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="443" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>386</v>
       </c>
@@ -9649,7 +9650,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>386</v>
       </c>
@@ -9663,7 +9664,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>386</v>
       </c>
@@ -9677,7 +9678,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>386</v>
       </c>
@@ -9691,7 +9692,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>386</v>
       </c>
@@ -9705,7 +9706,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>388</v>
       </c>
@@ -9722,13 +9723,13 @@
         <v>465</v>
       </c>
       <c r="F448" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="K448" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="449" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>388</v>
       </c>
@@ -9742,7 +9743,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>388</v>
       </c>
@@ -9756,7 +9757,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>388</v>
       </c>
@@ -9770,7 +9771,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>388</v>
       </c>
@@ -9784,7 +9785,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>388</v>
       </c>
@@ -9798,7 +9799,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>395</v>
       </c>
@@ -9815,13 +9816,13 @@
         <v>465</v>
       </c>
       <c r="F454" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="K454" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="455" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>397</v>
       </c>
@@ -9838,13 +9839,13 @@
         <v>465</v>
       </c>
       <c r="F455" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="K455" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="456" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>399</v>
       </c>
@@ -9861,10 +9862,10 @@
         <v>465</v>
       </c>
       <c r="F456" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="457" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>401</v>
       </c>
@@ -9881,10 +9882,10 @@
         <v>465</v>
       </c>
       <c r="F457" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="458" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>403</v>
       </c>
@@ -9901,13 +9902,13 @@
         <v>449</v>
       </c>
       <c r="F458" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="G458" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>405</v>
       </c>
@@ -9924,13 +9925,13 @@
         <v>449</v>
       </c>
       <c r="F459" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="G459" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>407</v>
       </c>
@@ -9947,13 +9948,13 @@
         <v>465</v>
       </c>
       <c r="F460" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="K460" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="461" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>409</v>
       </c>
@@ -9970,13 +9971,13 @@
         <v>465</v>
       </c>
       <c r="F461" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="K461" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="462" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>411</v>
       </c>
@@ -9987,19 +9988,19 @@
         <v>471</v>
       </c>
       <c r="D462" t="s">
-        <v>499</v>
+        <v>587</v>
       </c>
       <c r="E462" t="s">
         <v>449</v>
       </c>
       <c r="F462" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="G462" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>412</v>
       </c>
@@ -10016,13 +10017,13 @@
         <v>421</v>
       </c>
       <c r="F463" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="K463" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="464" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>0</v>
       </c>
@@ -10039,17 +10040,17 @@
         <v>465</v>
       </c>
       <c r="F464" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M464">
-    <sortState ref="A2:O587">
+  <autoFilter ref="A1:M464" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O587">
       <sortCondition ref="F1:F587"/>
     </sortState>
   </autoFilter>
   <dataValidations count="1">
-    <dataValidation type="decimal" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576">
+    <dataValidation type="decimal" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -10057,13 +10058,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>validation_values!$A$1:$A$62</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>validation_values!$B$1:$B$2</xm:f>
           </x14:formula1>
@@ -10076,227 +10077,227 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>420</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>421</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>459</v>
       </c>

--- a/inst/extdata/e.g.dictionary.xlsx
+++ b/inst/extdata/e.g.dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hdvincelette/Documents/GitHub/mdJSONdictio/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6314B899-2B0D-234A-9421-0D1765CFA1F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1B6B52-69CD-BF4E-BCB0-E050C5E983F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="21320" windowHeight="10620" tabRatio="747" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1226,15 +1226,9 @@
     <t>PlatformID1</t>
   </si>
   <si>
-    <t>Platform identification number of the device attached to the captured bird; i.e. for GPS devices, this may be the Argos ID</t>
-  </si>
-  <si>
     <t>PlatformID2</t>
   </si>
   <si>
-    <t>Platform identification number of the second device attached to the captured bird; i.e. for GPS devices, this may be the Argos ID</t>
-  </si>
-  <si>
     <t>TagMass1_g</t>
   </si>
   <si>
@@ -1821,6 +1815,12 @@
   </si>
   <si>
     <t>Lower right leg; combination of bands, flags, and data loggers attached to bird's leg when released; seperated by '-'</t>
+  </si>
+  <si>
+    <t>Platform identification number of the device attached to the captured bird</t>
+  </si>
+  <si>
+    <t>Platform identification number of the second device attached to the captured bird</t>
   </si>
 </sst>
 </file>
@@ -2653,8 +2653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L464"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A228" workbookViewId="0">
-      <selection activeCell="D234" sqref="D234"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2669,40 +2669,40 @@
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>417</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -2710,22 +2710,22 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="K2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -2761,19 +2761,19 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C5" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F5" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -2781,19 +2781,19 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C6" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F6" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -2801,19 +2801,19 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C7" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F7" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -2821,19 +2821,19 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C8" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D8" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E8" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F8" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -2847,19 +2847,19 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C9" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F9" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -2870,53 +2870,53 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B10" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C10" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D10" t="s">
         <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F10" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="K10" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B11" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C11" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D11" t="s">
         <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F11" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="K11" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
@@ -2930,7 +2930,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B13" t="s">
         <v>23</v>
@@ -2944,7 +2944,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -2958,7 +2958,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B15" t="s">
         <v>27</v>
@@ -2972,7 +2972,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -2986,30 +2986,30 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B17" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C17" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D17" t="s">
         <v>31</v>
       </c>
       <c r="E17" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F17" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="K17" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B18" t="s">
         <v>32</v>
@@ -3023,7 +3023,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B19" t="s">
         <v>34</v>
@@ -3037,7 +3037,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B20" t="s">
         <v>36</v>
@@ -3051,7 +3051,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B21" t="s">
         <v>38</v>
@@ -3065,7 +3065,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B22" t="s">
         <v>40</v>
@@ -3079,7 +3079,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B23" t="s">
         <v>42</v>
@@ -3093,30 +3093,30 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B24" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C24" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D24" t="s">
         <v>44</v>
       </c>
       <c r="E24" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F24" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="K24" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B25" t="s">
         <v>1</v>
@@ -3125,12 +3125,12 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B26" t="s">
         <v>2</v>
@@ -3144,7 +3144,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B27" t="s">
         <v>45</v>
@@ -3158,7 +3158,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B28" t="s">
         <v>47</v>
@@ -3167,12 +3167,12 @@
         <v>47</v>
       </c>
       <c r="D28" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B29" t="s">
         <v>48</v>
@@ -3186,7 +3186,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B30" t="s">
         <v>50</v>
@@ -3200,7 +3200,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B31" t="s">
         <v>52</v>
@@ -3214,7 +3214,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B32" t="s">
         <v>54</v>
@@ -3228,7 +3228,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B33" t="s">
         <v>56</v>
@@ -3242,7 +3242,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B34" t="s">
         <v>58</v>
@@ -3251,21 +3251,21 @@
         <v>58</v>
       </c>
       <c r="D34" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B35" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C35" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D35" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
@@ -3273,22 +3273,22 @@
         <v>59</v>
       </c>
       <c r="B36" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C36" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D36" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E36" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F36" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="K36" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
@@ -3296,22 +3296,22 @@
         <v>60</v>
       </c>
       <c r="B37" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C37" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D37" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E37" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F37" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="K37" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
@@ -3319,22 +3319,22 @@
         <v>61</v>
       </c>
       <c r="B38" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C38" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D38" t="s">
         <v>62</v>
       </c>
       <c r="E38" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F38" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G38" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
@@ -3342,22 +3342,22 @@
         <v>63</v>
       </c>
       <c r="B39" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C39" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D39" t="s">
         <v>64</v>
       </c>
       <c r="E39" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F39" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G39" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
@@ -3365,19 +3365,19 @@
         <v>65</v>
       </c>
       <c r="B40" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C40" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D40" t="s">
         <v>66</v>
       </c>
       <c r="E40" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F40" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
@@ -3385,19 +3385,19 @@
         <v>67</v>
       </c>
       <c r="B41" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C41" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D41" t="s">
         <v>68</v>
       </c>
       <c r="E41" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F41" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
@@ -3405,22 +3405,22 @@
         <v>69</v>
       </c>
       <c r="B42" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C42" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D42" t="s">
         <v>70</v>
       </c>
       <c r="E42" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F42" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="K42" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
@@ -3456,19 +3456,19 @@
         <v>75</v>
       </c>
       <c r="B45" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C45" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D45" t="s">
         <v>76</v>
       </c>
       <c r="E45" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F45" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
@@ -3476,22 +3476,22 @@
         <v>77</v>
       </c>
       <c r="B46" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C46" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D46" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="E46" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F46" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="K46" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
@@ -3499,22 +3499,22 @@
         <v>78</v>
       </c>
       <c r="B47" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C47" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D47" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="E47" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F47" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="K47" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
@@ -3522,19 +3522,19 @@
         <v>79</v>
       </c>
       <c r="B48" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C48" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D48" t="s">
         <v>80</v>
       </c>
       <c r="E48" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F48" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
@@ -3542,47 +3542,47 @@
         <v>81</v>
       </c>
       <c r="B49" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C49" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D49" t="s">
         <v>82</v>
       </c>
       <c r="E49" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F49" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B50" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C50" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D50" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="E50" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F50" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="K50" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -3596,7 +3596,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B52">
         <v>4</v>
@@ -3610,7 +3610,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B53">
         <v>5</v>
@@ -3624,7 +3624,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B54">
         <v>6</v>
@@ -3638,7 +3638,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B55">
         <v>8</v>
@@ -3652,7 +3652,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B56">
         <v>9</v>
@@ -3666,7 +3666,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B57" t="s">
         <v>88</v>
@@ -3680,7 +3680,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B58" t="s">
         <v>90</v>
@@ -3694,21 +3694,21 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B59" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C59" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D59" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B60" t="s">
         <v>73</v>
@@ -3717,46 +3717,46 @@
         <v>73</v>
       </c>
       <c r="D60" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B61" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C61" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D61" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B62" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C62" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D62" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="E62" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F62" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B63" t="s">
         <v>92</v>
@@ -3770,7 +3770,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B64" t="s">
         <v>94</v>
@@ -3784,7 +3784,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B65">
         <v>300</v>
@@ -3798,7 +3798,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B66">
         <v>301</v>
@@ -3812,7 +3812,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B67">
         <v>310</v>
@@ -3826,7 +3826,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B68">
         <v>315</v>
@@ -3840,7 +3840,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B69">
         <v>317</v>
@@ -3854,7 +3854,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B70">
         <v>318</v>
@@ -3868,7 +3868,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B71">
         <v>319</v>
@@ -3882,7 +3882,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B72">
         <v>325</v>
@@ -3896,7 +3896,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B73">
         <v>333</v>
@@ -3910,7 +3910,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B74">
         <v>334</v>
@@ -3924,7 +3924,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B75">
         <v>380</v>
@@ -3938,7 +3938,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B76">
         <v>381</v>
@@ -3952,7 +3952,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B77">
         <v>389</v>
@@ -3966,7 +3966,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B78">
         <v>390</v>
@@ -3980,162 +3980,162 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B79" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C79" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D79" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="E79" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F79" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
@@ -4143,22 +4143,22 @@
         <v>109</v>
       </c>
       <c r="B90" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C90" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D90" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="E90" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F90" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="K90" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
@@ -4166,10 +4166,10 @@
         <v>109</v>
       </c>
       <c r="B91" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C91" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D91" t="s">
         <v>118</v>
@@ -4404,22 +4404,22 @@
         <v>110</v>
       </c>
       <c r="B108" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C108" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D108" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E108" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F108" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="K108" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
@@ -4427,10 +4427,10 @@
         <v>110</v>
       </c>
       <c r="B109" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C109" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D109" t="s">
         <v>118</v>
@@ -4665,22 +4665,22 @@
         <v>111</v>
       </c>
       <c r="B126" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C126" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D126" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E126" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F126" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="K126" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.2">
@@ -4688,10 +4688,10 @@
         <v>111</v>
       </c>
       <c r="B127" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C127" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D127" t="s">
         <v>118</v>
@@ -4926,22 +4926,22 @@
         <v>112</v>
       </c>
       <c r="B144" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C144" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D144" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E144" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F144" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="K144" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
@@ -4949,10 +4949,10 @@
         <v>112</v>
       </c>
       <c r="B145" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C145" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D145" t="s">
         <v>118</v>
@@ -5187,22 +5187,22 @@
         <v>113</v>
       </c>
       <c r="B162" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C162" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D162" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E162" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F162" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="K162" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.2">
@@ -5210,10 +5210,10 @@
         <v>113</v>
       </c>
       <c r="B163" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C163" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D163" t="s">
         <v>118</v>
@@ -5448,22 +5448,22 @@
         <v>114</v>
       </c>
       <c r="B180" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C180" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D180" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="E180" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F180" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="K180" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.2">
@@ -5471,10 +5471,10 @@
         <v>114</v>
       </c>
       <c r="B181" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C181" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D181" t="s">
         <v>118</v>
@@ -5709,22 +5709,22 @@
         <v>115</v>
       </c>
       <c r="B198" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C198" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D198" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E198" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F198" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="K198" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.2">
@@ -5732,10 +5732,10 @@
         <v>115</v>
       </c>
       <c r="B199" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C199" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D199" t="s">
         <v>118</v>
@@ -5970,22 +5970,22 @@
         <v>116</v>
       </c>
       <c r="B216" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C216" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D216" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="E216" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F216" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="K216" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.2">
@@ -5993,10 +5993,10 @@
         <v>116</v>
       </c>
       <c r="B217" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C217" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D217" t="s">
         <v>118</v>
@@ -6231,22 +6231,22 @@
         <v>150</v>
       </c>
       <c r="B234" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C234" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D234" t="s">
         <v>151</v>
       </c>
       <c r="E234" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F234" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="K234" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.2">
@@ -6310,22 +6310,22 @@
         <v>152</v>
       </c>
       <c r="B239" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C239" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D239" t="s">
         <v>153</v>
       </c>
       <c r="E239" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F239" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="K239" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.2">
@@ -6389,22 +6389,22 @@
         <v>159</v>
       </c>
       <c r="B244" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C244" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D244" t="s">
         <v>160</v>
       </c>
       <c r="E244" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F244" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="K244" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.2">
@@ -6412,22 +6412,22 @@
         <v>161</v>
       </c>
       <c r="B245" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C245" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D245" t="s">
         <v>162</v>
       </c>
       <c r="E245" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F245" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="K245" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.2">
@@ -6435,22 +6435,22 @@
         <v>163</v>
       </c>
       <c r="B246" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C246" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D246" t="s">
         <v>164</v>
       </c>
       <c r="E246" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F246" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="K246" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.2">
@@ -6458,22 +6458,22 @@
         <v>165</v>
       </c>
       <c r="B247" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C247" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D247" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E247" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F247" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="K247" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.2">
@@ -6481,22 +6481,22 @@
         <v>166</v>
       </c>
       <c r="B248" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C248" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D248" t="s">
         <v>167</v>
       </c>
       <c r="E248" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F248" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="K248" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.2">
@@ -6616,22 +6616,22 @@
         <v>184</v>
       </c>
       <c r="B257" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C257" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D257" t="s">
         <v>185</v>
       </c>
       <c r="E257" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F257" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="K257" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.2">
@@ -6748,30 +6748,30 @@
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B266" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C266" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D266" t="s">
         <v>202</v>
       </c>
       <c r="E266" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F266" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="K266" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B267" t="s">
         <v>203</v>
@@ -6785,7 +6785,7 @@
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B268" t="s">
         <v>88</v>
@@ -6799,7 +6799,7 @@
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B269" t="s">
         <v>200</v>
@@ -6813,30 +6813,30 @@
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
+        <v>574</v>
+      </c>
+      <c r="B270" t="s">
+        <v>469</v>
+      </c>
+      <c r="C270" t="s">
+        <v>469</v>
+      </c>
+      <c r="D270" t="s">
         <v>576</v>
       </c>
-      <c r="B270" t="s">
-        <v>471</v>
-      </c>
-      <c r="C270" t="s">
-        <v>471</v>
-      </c>
-      <c r="D270" t="s">
-        <v>578</v>
-      </c>
       <c r="E270" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F270" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="K270" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B271" t="s">
         <v>207</v>
@@ -6850,7 +6850,7 @@
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B272" t="s">
         <v>209</v>
@@ -6864,7 +6864,7 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B273" t="s">
         <v>211</v>
@@ -6878,21 +6878,21 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D274" s="4" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B275" t="s">
         <v>213</v>
@@ -6906,55 +6906,55 @@
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D276" s="4" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D277" s="4" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D278" s="4" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B279" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C279" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D279" t="s">
         <v>206</v>
@@ -6962,105 +6962,105 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D280" s="4" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D281" s="4" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D282" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B283" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C283" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D283" s="4" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D284" s="4" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D285" s="4" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D286" s="4" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B287" s="4" t="s">
         <v>216</v>
@@ -7069,26 +7069,26 @@
         <v>216</v>
       </c>
       <c r="D287" s="4" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B288" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C288" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D288" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B289" s="4" t="s">
         <v>217</v>
@@ -7097,12 +7097,12 @@
         <v>217</v>
       </c>
       <c r="D289" s="4" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B290" t="s">
         <v>218</v>
@@ -7116,7 +7116,7 @@
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B291" s="4" t="s">
         <v>364</v>
@@ -7125,12 +7125,12 @@
         <v>364</v>
       </c>
       <c r="D291" s="4" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B292" t="s">
         <v>220</v>
@@ -7144,21 +7144,21 @@
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C293" s="4" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D293" s="4" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B294" s="4" t="s">
         <v>224</v>
@@ -7172,58 +7172,58 @@
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C295" s="4" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D295" s="4" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C296" s="4" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D296" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
+        <v>575</v>
+      </c>
+      <c r="B297" t="s">
+        <v>469</v>
+      </c>
+      <c r="C297" t="s">
+        <v>469</v>
+      </c>
+      <c r="D297" t="s">
         <v>577</v>
       </c>
-      <c r="B297" t="s">
-        <v>471</v>
-      </c>
-      <c r="C297" t="s">
-        <v>471</v>
-      </c>
-      <c r="D297" t="s">
-        <v>579</v>
-      </c>
       <c r="E297" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F297" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="K297" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B298" t="s">
         <v>209</v>
@@ -7237,7 +7237,7 @@
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B299" t="s">
         <v>211</v>
@@ -7251,35 +7251,35 @@
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B300" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C300" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D300" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B301" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C301" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D301" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B302" t="s">
         <v>215</v>
@@ -7288,32 +7288,32 @@
         <v>215</v>
       </c>
       <c r="D302" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B303" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C303" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D303" s="4" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B304" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C304" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D304" t="s">
         <v>206</v>
@@ -7321,77 +7321,77 @@
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B305" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C305" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D305" s="4" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B306" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C306" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D306" s="4" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B307" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C307" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D307" s="4" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B308" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C308" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D308" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B309" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C309" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D309" s="4" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B310" t="s">
         <v>218</v>
@@ -7405,7 +7405,7 @@
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B311" t="s">
         <v>220</v>
@@ -7414,12 +7414,12 @@
         <v>220</v>
       </c>
       <c r="D311" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B312" t="s">
         <v>222</v>
@@ -7433,21 +7433,21 @@
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B313" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C313" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D313" s="4" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B314" t="s">
         <v>224</v>
@@ -7461,30 +7461,30 @@
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B315" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C315" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D315" s="4" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B316" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C316" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D316" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.2">
@@ -7492,22 +7492,22 @@
         <v>226</v>
       </c>
       <c r="B317" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C317" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D317" t="s">
         <v>227</v>
       </c>
       <c r="E317" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F317" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G317" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.2">
@@ -7515,19 +7515,19 @@
         <v>228</v>
       </c>
       <c r="B318" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C318" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D318" t="s">
         <v>229</v>
       </c>
       <c r="E318" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F318" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.2">
@@ -7639,7 +7639,7 @@
         <v>7</v>
       </c>
       <c r="D326" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="327" spans="1:12" x14ac:dyDescent="0.2">
@@ -7647,22 +7647,22 @@
         <v>237</v>
       </c>
       <c r="B327" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C327" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D327" t="s">
         <v>238</v>
       </c>
       <c r="E327" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F327" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G327" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="328" spans="1:12" x14ac:dyDescent="0.2">
@@ -7670,22 +7670,22 @@
         <v>239</v>
       </c>
       <c r="B328" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C328" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D328" t="s">
         <v>240</v>
       </c>
       <c r="E328" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F328" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G328" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="329" spans="1:12" x14ac:dyDescent="0.2">
@@ -7693,22 +7693,22 @@
         <v>241</v>
       </c>
       <c r="B329" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C329" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D329" t="s">
         <v>242</v>
       </c>
       <c r="E329" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F329" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G329" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="330" spans="1:12" x14ac:dyDescent="0.2">
@@ -7716,22 +7716,22 @@
         <v>243</v>
       </c>
       <c r="B330" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C330" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D330" t="s">
         <v>244</v>
       </c>
       <c r="E330" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F330" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G330" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="331" spans="1:12" x14ac:dyDescent="0.2">
@@ -7739,22 +7739,22 @@
         <v>245</v>
       </c>
       <c r="B331" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C331" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D331" t="s">
         <v>246</v>
       </c>
       <c r="E331" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F331" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G331" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="332" spans="1:12" x14ac:dyDescent="0.2">
@@ -7762,22 +7762,22 @@
         <v>247</v>
       </c>
       <c r="B332" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C332" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D332" t="s">
         <v>248</v>
       </c>
       <c r="E332" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F332" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G332" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="333" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -7785,22 +7785,22 @@
         <v>249</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C333" s="3" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D333" s="3" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="E333" s="3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F333" s="3" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G333" s="3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="L333"/>
     </row>
@@ -7809,22 +7809,22 @@
         <v>250</v>
       </c>
       <c r="B334" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C334" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D334" t="s">
         <v>251</v>
       </c>
       <c r="E334" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F334" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G334" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="335" spans="1:12" x14ac:dyDescent="0.2">
@@ -7832,22 +7832,22 @@
         <v>252</v>
       </c>
       <c r="B335" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C335" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D335" t="s">
         <v>253</v>
       </c>
       <c r="E335" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F335" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G335" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="336" spans="1:12" x14ac:dyDescent="0.2">
@@ -7855,22 +7855,22 @@
         <v>254</v>
       </c>
       <c r="B336" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C336" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D336" t="s">
         <v>255</v>
       </c>
       <c r="E336" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F336" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G336" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="337" spans="1:11" x14ac:dyDescent="0.2">
@@ -7878,22 +7878,22 @@
         <v>256</v>
       </c>
       <c r="B337" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C337" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D337" t="s">
         <v>257</v>
       </c>
       <c r="E337" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F337" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G337" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="338" spans="1:11" x14ac:dyDescent="0.2">
@@ -7901,22 +7901,22 @@
         <v>258</v>
       </c>
       <c r="B338" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C338" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D338" t="s">
         <v>259</v>
       </c>
       <c r="E338" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F338" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G338" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="339" spans="1:11" x14ac:dyDescent="0.2">
@@ -7924,22 +7924,22 @@
         <v>260</v>
       </c>
       <c r="B339" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C339" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D339" t="s">
         <v>261</v>
       </c>
       <c r="E339" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F339" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G339" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="340" spans="1:11" x14ac:dyDescent="0.2">
@@ -7947,22 +7947,22 @@
         <v>262</v>
       </c>
       <c r="B340" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C340" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D340" t="s">
         <v>263</v>
       </c>
       <c r="E340" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F340" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G340" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="341" spans="1:11" x14ac:dyDescent="0.2">
@@ -7970,22 +7970,22 @@
         <v>264</v>
       </c>
       <c r="B341" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C341" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D341" t="s">
         <v>265</v>
       </c>
       <c r="E341" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F341" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G341" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="342" spans="1:11" x14ac:dyDescent="0.2">
@@ -7993,19 +7993,19 @@
         <v>266</v>
       </c>
       <c r="B342" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C342" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D342" t="s">
         <v>267</v>
       </c>
       <c r="E342" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F342" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="343" spans="1:11" x14ac:dyDescent="0.2">
@@ -8069,22 +8069,22 @@
         <v>272</v>
       </c>
       <c r="B347" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C347" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D347" t="s">
         <v>273</v>
       </c>
       <c r="E347" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F347" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="K347" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="348" spans="1:11" x14ac:dyDescent="0.2">
@@ -8187,22 +8187,22 @@
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B355" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C355" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D355" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E355" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F355" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="I355">
         <v>0</v>
@@ -8216,22 +8216,22 @@
         <v>282</v>
       </c>
       <c r="B356" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C356" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D356" t="s">
         <v>283</v>
       </c>
       <c r="E356" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F356" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="K356" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="357" spans="1:11" x14ac:dyDescent="0.2">
@@ -8239,22 +8239,22 @@
         <v>284</v>
       </c>
       <c r="B357" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C357" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D357" t="s">
         <v>285</v>
       </c>
       <c r="E357" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F357" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="K357" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="358" spans="1:11" x14ac:dyDescent="0.2">
@@ -8416,19 +8416,19 @@
         <v>300</v>
       </c>
       <c r="B369" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C369" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D369" t="s">
         <v>301</v>
       </c>
       <c r="E369" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F369" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="370" spans="1:11" x14ac:dyDescent="0.2">
@@ -8506,19 +8506,19 @@
         <v>307</v>
       </c>
       <c r="B375" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C375" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D375" t="s">
         <v>308</v>
       </c>
       <c r="E375" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F375" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="376" spans="1:11" x14ac:dyDescent="0.2">
@@ -8582,22 +8582,22 @@
         <v>313</v>
       </c>
       <c r="B380" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C380" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D380" t="s">
         <v>314</v>
       </c>
       <c r="E380" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F380" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="K380" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="381" spans="1:11" x14ac:dyDescent="0.2">
@@ -8661,19 +8661,19 @@
         <v>320</v>
       </c>
       <c r="B385" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C385" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D385" t="s">
         <v>321</v>
       </c>
       <c r="E385" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F385" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.2">
@@ -8765,19 +8765,19 @@
         <v>327</v>
       </c>
       <c r="B392" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C392" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D392" t="s">
         <v>328</v>
       </c>
       <c r="E392" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F392" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.2">
@@ -8841,19 +8841,19 @@
         <v>333</v>
       </c>
       <c r="B397" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C397" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D397" t="s">
         <v>334</v>
       </c>
       <c r="E397" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F397" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.2">
@@ -8945,19 +8945,19 @@
         <v>335</v>
       </c>
       <c r="B404" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C404" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D404" t="s">
         <v>336</v>
       </c>
       <c r="E404" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F404" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="405" spans="1:11" x14ac:dyDescent="0.2">
@@ -8985,7 +8985,7 @@
         <v>1</v>
       </c>
       <c r="D406" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="407" spans="1:11" x14ac:dyDescent="0.2">
@@ -8999,7 +8999,7 @@
         <v>2</v>
       </c>
       <c r="D407" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="408" spans="1:11" x14ac:dyDescent="0.2">
@@ -9021,22 +9021,22 @@
         <v>339</v>
       </c>
       <c r="B409" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C409" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D409" t="s">
         <v>340</v>
       </c>
       <c r="E409" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F409" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="K409" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="410" spans="1:11" x14ac:dyDescent="0.2">
@@ -9044,22 +9044,22 @@
         <v>341</v>
       </c>
       <c r="B410" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C410" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D410" t="s">
         <v>342</v>
       </c>
       <c r="E410" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F410" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="K410" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="411" spans="1:11" x14ac:dyDescent="0.2">
@@ -9067,22 +9067,22 @@
         <v>343</v>
       </c>
       <c r="B411" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C411" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D411" t="s">
         <v>344</v>
       </c>
       <c r="E411" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F411" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="K411" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="412" spans="1:11" x14ac:dyDescent="0.2">
@@ -9090,22 +9090,22 @@
         <v>345</v>
       </c>
       <c r="B412" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C412" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D412" t="s">
         <v>346</v>
       </c>
       <c r="E412" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F412" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="K412" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="413" spans="1:11" x14ac:dyDescent="0.2">
@@ -9113,22 +9113,22 @@
         <v>347</v>
       </c>
       <c r="B413" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C413" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D413" t="s">
         <v>348</v>
       </c>
       <c r="E413" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F413" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="K413" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="414" spans="1:11" x14ac:dyDescent="0.2">
@@ -9136,22 +9136,22 @@
         <v>349</v>
       </c>
       <c r="B414" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C414" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D414" t="s">
         <v>350</v>
       </c>
       <c r="E414" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F414" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="K414" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="415" spans="1:11" x14ac:dyDescent="0.2">
@@ -9159,22 +9159,22 @@
         <v>351</v>
       </c>
       <c r="B415" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C415" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D415" t="s">
         <v>352</v>
       </c>
       <c r="E415" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F415" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="K415" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="416" spans="1:11" x14ac:dyDescent="0.2">
@@ -9182,22 +9182,22 @@
         <v>353</v>
       </c>
       <c r="B416" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C416" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D416" t="s">
         <v>354</v>
       </c>
       <c r="E416" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F416" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="K416" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="417" spans="1:11" x14ac:dyDescent="0.2">
@@ -9205,22 +9205,22 @@
         <v>355</v>
       </c>
       <c r="B417" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C417" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D417" t="s">
         <v>356</v>
       </c>
       <c r="E417" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F417" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="K417" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="418" spans="1:11" x14ac:dyDescent="0.2">
@@ -9228,22 +9228,22 @@
         <v>357</v>
       </c>
       <c r="B418" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C418" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D418" t="s">
         <v>358</v>
       </c>
       <c r="E418" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F418" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="K418" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="419" spans="1:11" x14ac:dyDescent="0.2">
@@ -9251,22 +9251,22 @@
         <v>359</v>
       </c>
       <c r="B419" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C419" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D419" t="s">
         <v>360</v>
       </c>
       <c r="E419" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F419" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="K419" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="420" spans="1:11" x14ac:dyDescent="0.2">
@@ -9274,50 +9274,50 @@
         <v>361</v>
       </c>
       <c r="B420" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C420" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D420" t="s">
         <v>362</v>
       </c>
       <c r="E420" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F420" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="K420" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="421" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B421" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C421" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D421" t="s">
         <v>363</v>
       </c>
       <c r="E421" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F421" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="K421" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="422" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B422" t="s">
         <v>364</v>
@@ -9331,7 +9331,7 @@
     </row>
     <row r="423" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B423" t="s">
         <v>366</v>
@@ -9345,7 +9345,7 @@
     </row>
     <row r="424" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B424" t="s">
         <v>143</v>
@@ -9359,7 +9359,7 @@
     </row>
     <row r="425" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B425" t="s">
         <v>73</v>
@@ -9373,7 +9373,7 @@
     </row>
     <row r="426" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B426" t="s">
         <v>370</v>
@@ -9387,7 +9387,7 @@
     </row>
     <row r="427" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B427" t="s">
         <v>90</v>
@@ -9401,7 +9401,7 @@
     </row>
     <row r="428" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B428" t="s">
         <v>373</v>
@@ -9410,12 +9410,12 @@
         <v>373</v>
       </c>
       <c r="D428" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="429" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B429" t="s">
         <v>374</v>
@@ -9424,12 +9424,12 @@
         <v>374</v>
       </c>
       <c r="D429" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="430" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B430" t="s">
         <v>375</v>
@@ -9438,12 +9438,12 @@
         <v>375</v>
       </c>
       <c r="D430" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="431" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B431" t="s">
         <v>376</v>
@@ -9452,12 +9452,12 @@
         <v>376</v>
       </c>
       <c r="D431" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="432" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B432" t="s">
         <v>377</v>
@@ -9471,7 +9471,7 @@
     </row>
     <row r="433" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B433" t="s">
         <v>379</v>
@@ -9480,7 +9480,7 @@
         <v>379</v>
       </c>
       <c r="D433" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="434" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9488,22 +9488,22 @@
         <v>380</v>
       </c>
       <c r="B434" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C434" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D434" t="s">
         <v>381</v>
       </c>
       <c r="E434" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F434" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="K434" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="435" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9531,7 +9531,7 @@
         <v>384</v>
       </c>
       <c r="D436" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="437" spans="1:11" x14ac:dyDescent="0.2">
@@ -9545,7 +9545,7 @@
         <v>385</v>
       </c>
       <c r="D437" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="438" spans="1:11" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9553,22 +9553,22 @@
         <v>382</v>
       </c>
       <c r="B438" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C438" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D438" t="s">
         <v>383</v>
       </c>
       <c r="E438" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F438" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="K438" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="439" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9596,7 +9596,7 @@
         <v>384</v>
       </c>
       <c r="D440" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="441" spans="1:11" x14ac:dyDescent="0.2">
@@ -9610,7 +9610,7 @@
         <v>385</v>
       </c>
       <c r="D441" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="442" spans="1:11" x14ac:dyDescent="0.2">
@@ -9618,22 +9618,22 @@
         <v>386</v>
       </c>
       <c r="B442" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C442" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D442" t="s">
         <v>387</v>
       </c>
       <c r="E442" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F442" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="K442" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="443" spans="1:11" x14ac:dyDescent="0.2">
@@ -9647,7 +9647,7 @@
         <v>390</v>
       </c>
       <c r="D443" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="444" spans="1:11" x14ac:dyDescent="0.2">
@@ -9661,7 +9661,7 @@
         <v>391</v>
       </c>
       <c r="D444" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="445" spans="1:11" x14ac:dyDescent="0.2">
@@ -9675,7 +9675,7 @@
         <v>392</v>
       </c>
       <c r="D445" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="446" spans="1:11" x14ac:dyDescent="0.2">
@@ -9689,7 +9689,7 @@
         <v>393</v>
       </c>
       <c r="D446" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="447" spans="1:11" x14ac:dyDescent="0.2">
@@ -9703,7 +9703,7 @@
         <v>394</v>
       </c>
       <c r="D447" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="448" spans="1:11" x14ac:dyDescent="0.2">
@@ -9711,22 +9711,22 @@
         <v>388</v>
       </c>
       <c r="B448" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C448" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D448" t="s">
         <v>389</v>
       </c>
       <c r="E448" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F448" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="K448" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="449" spans="1:11" x14ac:dyDescent="0.2">
@@ -9740,7 +9740,7 @@
         <v>390</v>
       </c>
       <c r="D449" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="450" spans="1:11" x14ac:dyDescent="0.2">
@@ -9754,7 +9754,7 @@
         <v>391</v>
       </c>
       <c r="D450" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="451" spans="1:11" x14ac:dyDescent="0.2">
@@ -9768,7 +9768,7 @@
         <v>392</v>
       </c>
       <c r="D451" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="452" spans="1:11" x14ac:dyDescent="0.2">
@@ -9782,7 +9782,7 @@
         <v>393</v>
       </c>
       <c r="D452" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="453" spans="1:11" x14ac:dyDescent="0.2">
@@ -9796,7 +9796,7 @@
         <v>394</v>
       </c>
       <c r="D453" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="454" spans="1:11" x14ac:dyDescent="0.2">
@@ -9804,22 +9804,22 @@
         <v>395</v>
       </c>
       <c r="B454" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C454" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D454" t="s">
         <v>396</v>
       </c>
       <c r="E454" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F454" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="K454" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="455" spans="1:11" x14ac:dyDescent="0.2">
@@ -9827,22 +9827,22 @@
         <v>397</v>
       </c>
       <c r="B455" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C455" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D455" t="s">
         <v>398</v>
       </c>
       <c r="E455" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F455" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="K455" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="456" spans="1:11" x14ac:dyDescent="0.2">
@@ -9850,177 +9850,177 @@
         <v>399</v>
       </c>
       <c r="B456" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C456" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D456" t="s">
-        <v>400</v>
+        <v>597</v>
       </c>
       <c r="E456" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F456" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="457" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B457" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C457" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D457" t="s">
-        <v>402</v>
+        <v>598</v>
       </c>
       <c r="E457" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F457" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="458" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B458" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C458" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D458" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E458" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F458" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G458" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="459" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B459" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C459" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D459" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E459" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F459" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G459" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="460" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B460" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C460" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D460" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E460" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F460" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="K460" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="461" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B461" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C461" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D461" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E461" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F461" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="K461" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="462" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B462" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C462" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D462" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E462" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F462" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G462" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="463" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B463" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C463" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D463" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E463" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F463" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="K463" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="464" spans="1:11" x14ac:dyDescent="0.2">
@@ -10028,19 +10028,19 @@
         <v>0</v>
       </c>
       <c r="B464" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C464" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D464" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E464" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F464" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
   </sheetData>
@@ -10088,218 +10088,218 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
   </sheetData>
@@ -10309,12 +10309,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DE904D578DFE6844BEAE84BDC2B4097E" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="50ebab51745edbac74153c776eff7922">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="847bd2b6-c417-48b3-84b7-e392c504f3bb" xmlns:ns4="f32a61f4-5698-46d5-9f56-343e6d7dc7d7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="48e32a04494ad4991fdbd7a90d4a41aa" ns3:_="" ns4:_="">
     <xsd:import namespace="847bd2b6-c417-48b3-84b7-e392c504f3bb"/>
@@ -10523,6 +10517,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -10533,23 +10533,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8450404-B5A9-4CAE-AD2F-E650514D4870}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="f32a61f4-5698-46d5-9f56-343e6d7dc7d7"/>
-    <ds:schemaRef ds:uri="847bd2b6-c417-48b3-84b7-e392c504f3bb"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82216217-E566-4EBA-B2A2-632151E5C36C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10568,6 +10551,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8450404-B5A9-4CAE-AD2F-E650514D4870}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f32a61f4-5698-46d5-9f56-343e6d7dc7d7"/>
+    <ds:schemaRef ds:uri="847bd2b6-c417-48b3-84b7-e392c504f3bb"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F5B82C4-8D32-4858-AE49-B9F718EB1758}">
   <ds:schemaRefs>

--- a/inst/extdata/e.g.dictionary.xlsx
+++ b/inst/extdata/e.g.dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hdvincelette/Documents/GitHub/mdJSONdictio/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1B6B52-69CD-BF4E-BCB0-E050C5E983F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6905519B-39B2-1345-9959-1AA0F8515296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="21320" windowHeight="10620" tabRatio="747" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -725,18 +725,9 @@
     <t>Light; The bottom of the furculum is completely covered but the furcular hollow is less than 1/3 filled</t>
   </si>
   <si>
-    <t>Half; The furcular hollow is about half full, and a covering pad of fat is present under the wingpit and/or on the abdomen</t>
-  </si>
-  <si>
     <t>Filled; The furcular hollow is full and a thick layer of fat also occurs under the wing and on the abdomen</t>
   </si>
   <si>
-    <t>Bulging; Fat is bulging slightly above the furculum and the fat under the wing and on the abdomen is well mounded</t>
-  </si>
-  <si>
-    <t>Greatly bulging; Fat is bulging greatly above the furculum and large mounds of fat occur under the wings and on the abdomen</t>
-  </si>
-  <si>
     <t>TotalHead_mm</t>
   </si>
   <si>
@@ -1115,9 +1106,6 @@
     <t>Whether a feather sample was collected from the captured bird for isotope analysis (Y/N)</t>
   </si>
   <si>
-    <t>Code identifying type of feather collected from the captured bird; specific feather number provided, if known (e.g. P1, R6)</t>
-  </si>
-  <si>
     <t>PC</t>
   </si>
   <si>
@@ -1821,6 +1809,18 @@
   </si>
   <si>
     <t>Platform identification number of the second device attached to the captured bird</t>
+  </si>
+  <si>
+    <t>Code identifying type of feather collected from the captured bird; specific feather number provided, if known</t>
+  </si>
+  <si>
+    <t>Half; The furcular hollow is about half full, and fat is present under the wingpit and/or on the abdomen</t>
+  </si>
+  <si>
+    <t>Bulging; Fat is bulging slightly above the furculum and well mounded under the wing and on the abdomen</t>
+  </si>
+  <si>
+    <t>Greatly bulging; Fat is bulging greatly above the furculum and well mounded under the wing and on the abdomen</t>
   </si>
 </sst>
 </file>
@@ -2653,8 +2653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L464"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72"/>
+    <sheetView tabSelected="1" topLeftCell="A302" workbookViewId="0">
+      <selection activeCell="D320" sqref="D320"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2669,40 +2669,40 @@
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>413</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -2710,22 +2710,22 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C2" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F2" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="K2" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -2761,19 +2761,19 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C5" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="F5" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -2781,19 +2781,19 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C6" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="F6" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -2801,19 +2801,19 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C7" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="F7" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -2821,19 +2821,19 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C8" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D8" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="E8" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="F8" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -2847,19 +2847,19 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C9" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="F9" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -2870,53 +2870,53 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="B10" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C10" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D10" t="s">
         <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F10" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="K10" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B11" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C11" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D11" t="s">
         <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F11" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="K11" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
@@ -2930,7 +2930,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B13" t="s">
         <v>23</v>
@@ -2944,7 +2944,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -2958,7 +2958,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B15" t="s">
         <v>27</v>
@@ -2972,7 +2972,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -2986,30 +2986,30 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="B17" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C17" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D17" t="s">
         <v>31</v>
       </c>
       <c r="E17" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F17" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="K17" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="B18" t="s">
         <v>32</v>
@@ -3023,7 +3023,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="B19" t="s">
         <v>34</v>
@@ -3037,7 +3037,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="B20" t="s">
         <v>36</v>
@@ -3051,7 +3051,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="B21" t="s">
         <v>38</v>
@@ -3065,7 +3065,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="B22" t="s">
         <v>40</v>
@@ -3079,7 +3079,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="B23" t="s">
         <v>42</v>
@@ -3093,30 +3093,30 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="B24" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C24" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D24" t="s">
         <v>44</v>
       </c>
       <c r="E24" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F24" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="K24" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="B25" t="s">
         <v>1</v>
@@ -3125,12 +3125,12 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="B26" t="s">
         <v>2</v>
@@ -3144,7 +3144,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="B27" t="s">
         <v>45</v>
@@ -3158,7 +3158,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="B28" t="s">
         <v>47</v>
@@ -3167,12 +3167,12 @@
         <v>47</v>
       </c>
       <c r="D28" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="B29" t="s">
         <v>48</v>
@@ -3186,7 +3186,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="B30" t="s">
         <v>50</v>
@@ -3200,7 +3200,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="B31" t="s">
         <v>52</v>
@@ -3214,7 +3214,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="B32" t="s">
         <v>54</v>
@@ -3228,7 +3228,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="B33" t="s">
         <v>56</v>
@@ -3242,7 +3242,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="B34" t="s">
         <v>58</v>
@@ -3251,21 +3251,21 @@
         <v>58</v>
       </c>
       <c r="D34" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="B35" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="C35" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D35" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
@@ -3273,22 +3273,22 @@
         <v>59</v>
       </c>
       <c r="B36" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C36" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D36" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="E36" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F36" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="K36" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
@@ -3296,22 +3296,22 @@
         <v>60</v>
       </c>
       <c r="B37" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C37" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D37" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="E37" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F37" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="K37" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
@@ -3319,22 +3319,22 @@
         <v>61</v>
       </c>
       <c r="B38" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C38" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D38" t="s">
         <v>62</v>
       </c>
       <c r="E38" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F38" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G38" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
@@ -3342,22 +3342,22 @@
         <v>63</v>
       </c>
       <c r="B39" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C39" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D39" t="s">
         <v>64</v>
       </c>
       <c r="E39" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F39" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G39" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
@@ -3365,19 +3365,19 @@
         <v>65</v>
       </c>
       <c r="B40" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C40" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D40" t="s">
         <v>66</v>
       </c>
       <c r="E40" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F40" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
@@ -3385,19 +3385,19 @@
         <v>67</v>
       </c>
       <c r="B41" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C41" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D41" t="s">
         <v>68</v>
       </c>
       <c r="E41" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F41" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
@@ -3405,22 +3405,22 @@
         <v>69</v>
       </c>
       <c r="B42" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C42" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D42" t="s">
         <v>70</v>
       </c>
       <c r="E42" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F42" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="K42" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
@@ -3456,19 +3456,19 @@
         <v>75</v>
       </c>
       <c r="B45" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C45" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D45" t="s">
         <v>76</v>
       </c>
       <c r="E45" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="F45" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
@@ -3476,22 +3476,22 @@
         <v>77</v>
       </c>
       <c r="B46" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C46" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D46" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="E46" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F46" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="K46" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
@@ -3499,22 +3499,22 @@
         <v>78</v>
       </c>
       <c r="B47" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C47" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D47" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="E47" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F47" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="K47" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
@@ -3522,19 +3522,19 @@
         <v>79</v>
       </c>
       <c r="B48" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C48" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D48" t="s">
         <v>80</v>
       </c>
       <c r="E48" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F48" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
@@ -3542,47 +3542,47 @@
         <v>81</v>
       </c>
       <c r="B49" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C49" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D49" t="s">
         <v>82</v>
       </c>
       <c r="E49" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F49" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="B50" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C50" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D50" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="E50" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F50" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="K50" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -3596,7 +3596,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="B52">
         <v>4</v>
@@ -3610,7 +3610,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="B53">
         <v>5</v>
@@ -3624,7 +3624,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="B54">
         <v>6</v>
@@ -3638,7 +3638,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="B55">
         <v>8</v>
@@ -3652,7 +3652,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="B56">
         <v>9</v>
@@ -3666,7 +3666,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="B57" t="s">
         <v>88</v>
@@ -3680,7 +3680,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="B58" t="s">
         <v>90</v>
@@ -3694,21 +3694,21 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="B59" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="C59" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="D59" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="B60" t="s">
         <v>73</v>
@@ -3717,46 +3717,46 @@
         <v>73</v>
       </c>
       <c r="D60" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="B61" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="C61" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="D61" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B62" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C62" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D62" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="E62" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F62" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B63" t="s">
         <v>92</v>
@@ -3770,7 +3770,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B64" t="s">
         <v>94</v>
@@ -3784,7 +3784,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B65">
         <v>300</v>
@@ -3798,7 +3798,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B66">
         <v>301</v>
@@ -3812,7 +3812,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B67">
         <v>310</v>
@@ -3826,7 +3826,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B68">
         <v>315</v>
@@ -3840,7 +3840,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B69">
         <v>317</v>
@@ -3854,7 +3854,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B70">
         <v>318</v>
@@ -3868,7 +3868,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B71">
         <v>319</v>
@@ -3882,7 +3882,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B72">
         <v>325</v>
@@ -3896,7 +3896,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B73">
         <v>333</v>
@@ -3910,7 +3910,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B74">
         <v>334</v>
@@ -3924,7 +3924,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B75">
         <v>380</v>
@@ -3938,7 +3938,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B76">
         <v>381</v>
@@ -3952,7 +3952,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B77">
         <v>389</v>
@@ -3966,7 +3966,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B78">
         <v>390</v>
@@ -3980,162 +3980,162 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="B79" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C79" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D79" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="E79" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="F79" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
@@ -4143,22 +4143,22 @@
         <v>109</v>
       </c>
       <c r="B90" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C90" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D90" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="E90" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F90" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="K90" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
@@ -4166,10 +4166,10 @@
         <v>109</v>
       </c>
       <c r="B91" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="C91" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="D91" t="s">
         <v>118</v>
@@ -4404,22 +4404,22 @@
         <v>110</v>
       </c>
       <c r="B108" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C108" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D108" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="E108" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F108" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="K108" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
@@ -4427,10 +4427,10 @@
         <v>110</v>
       </c>
       <c r="B109" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="C109" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="D109" t="s">
         <v>118</v>
@@ -4665,22 +4665,22 @@
         <v>111</v>
       </c>
       <c r="B126" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C126" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D126" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="E126" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F126" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="K126" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.2">
@@ -4688,10 +4688,10 @@
         <v>111</v>
       </c>
       <c r="B127" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="C127" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="D127" t="s">
         <v>118</v>
@@ -4926,22 +4926,22 @@
         <v>112</v>
       </c>
       <c r="B144" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C144" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D144" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="E144" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F144" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="K144" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
@@ -4949,10 +4949,10 @@
         <v>112</v>
       </c>
       <c r="B145" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="C145" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="D145" t="s">
         <v>118</v>
@@ -5187,22 +5187,22 @@
         <v>113</v>
       </c>
       <c r="B162" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C162" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D162" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="E162" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F162" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="K162" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.2">
@@ -5210,10 +5210,10 @@
         <v>113</v>
       </c>
       <c r="B163" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="C163" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="D163" t="s">
         <v>118</v>
@@ -5448,22 +5448,22 @@
         <v>114</v>
       </c>
       <c r="B180" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C180" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D180" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="E180" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F180" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="K180" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.2">
@@ -5471,10 +5471,10 @@
         <v>114</v>
       </c>
       <c r="B181" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="C181" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="D181" t="s">
         <v>118</v>
@@ -5709,22 +5709,22 @@
         <v>115</v>
       </c>
       <c r="B198" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C198" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D198" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="E198" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F198" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="K198" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.2">
@@ -5732,10 +5732,10 @@
         <v>115</v>
       </c>
       <c r="B199" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="C199" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="D199" t="s">
         <v>118</v>
@@ -5970,22 +5970,22 @@
         <v>116</v>
       </c>
       <c r="B216" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C216" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D216" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="E216" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F216" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="K216" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.2">
@@ -5993,10 +5993,10 @@
         <v>116</v>
       </c>
       <c r="B217" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="C217" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="D217" t="s">
         <v>118</v>
@@ -6231,22 +6231,22 @@
         <v>150</v>
       </c>
       <c r="B234" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C234" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D234" t="s">
         <v>151</v>
       </c>
       <c r="E234" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F234" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="K234" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.2">
@@ -6310,22 +6310,22 @@
         <v>152</v>
       </c>
       <c r="B239" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C239" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D239" t="s">
         <v>153</v>
       </c>
       <c r="E239" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F239" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="K239" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.2">
@@ -6389,22 +6389,22 @@
         <v>159</v>
       </c>
       <c r="B244" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C244" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D244" t="s">
         <v>160</v>
       </c>
       <c r="E244" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F244" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="K244" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.2">
@@ -6412,22 +6412,22 @@
         <v>161</v>
       </c>
       <c r="B245" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C245" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D245" t="s">
         <v>162</v>
       </c>
       <c r="E245" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F245" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="K245" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.2">
@@ -6435,22 +6435,22 @@
         <v>163</v>
       </c>
       <c r="B246" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C246" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D246" t="s">
         <v>164</v>
       </c>
       <c r="E246" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F246" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="K246" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.2">
@@ -6458,22 +6458,22 @@
         <v>165</v>
       </c>
       <c r="B247" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C247" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D247" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="E247" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F247" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="K247" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.2">
@@ -6481,22 +6481,22 @@
         <v>166</v>
       </c>
       <c r="B248" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C248" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D248" t="s">
         <v>167</v>
       </c>
       <c r="E248" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F248" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="K248" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.2">
@@ -6616,22 +6616,22 @@
         <v>184</v>
       </c>
       <c r="B257" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C257" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D257" t="s">
         <v>185</v>
       </c>
       <c r="E257" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F257" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="K257" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.2">
@@ -6748,30 +6748,30 @@
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="B266" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C266" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D266" t="s">
         <v>202</v>
       </c>
       <c r="E266" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F266" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="K266" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="B267" t="s">
         <v>203</v>
@@ -6785,7 +6785,7 @@
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="B268" t="s">
         <v>88</v>
@@ -6799,7 +6799,7 @@
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="B269" t="s">
         <v>200</v>
@@ -6813,30 +6813,30 @@
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B270" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C270" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D270" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="E270" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F270" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="K270" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B271" t="s">
         <v>207</v>
@@ -6850,7 +6850,7 @@
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B272" t="s">
         <v>209</v>
@@ -6864,7 +6864,7 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B273" t="s">
         <v>211</v>
@@ -6878,21 +6878,21 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="D274" s="4" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B275" t="s">
         <v>213</v>
@@ -6906,55 +6906,55 @@
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="D276" s="4" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="D277" s="4" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="D278" s="4" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B279" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C279" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="D279" t="s">
         <v>206</v>
@@ -6962,105 +6962,105 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="D280" s="4" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="D281" s="4" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D282" s="4" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B283" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="C283" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="D283" s="4" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="D284" s="4" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="D285" s="4" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="D286" s="4" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B287" s="4" t="s">
         <v>216</v>
@@ -7069,26 +7069,26 @@
         <v>216</v>
       </c>
       <c r="D287" s="4" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B288" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C288" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="D288" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B289" s="4" t="s">
         <v>217</v>
@@ -7097,12 +7097,12 @@
         <v>217</v>
       </c>
       <c r="D289" s="4" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B290" t="s">
         <v>218</v>
@@ -7116,21 +7116,21 @@
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C291" s="4" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D291" s="4" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B292" t="s">
         <v>220</v>
@@ -7144,21 +7144,21 @@
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C293" s="4" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="D293" s="4" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B294" s="4" t="s">
         <v>224</v>
@@ -7172,58 +7172,58 @@
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C295" s="4" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="D295" s="4" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="C296" s="4" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="D296" s="4" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B297" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C297" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D297" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="E297" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F297" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="K297" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B298" t="s">
         <v>209</v>
@@ -7237,7 +7237,7 @@
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B299" t="s">
         <v>211</v>
@@ -7251,35 +7251,35 @@
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B300" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C300" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="D300" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B301" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="C301" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="D301" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B302" t="s">
         <v>215</v>
@@ -7288,32 +7288,32 @@
         <v>215</v>
       </c>
       <c r="D302" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B303" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C303" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="D303" s="4" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B304" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C304" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="D304" t="s">
         <v>206</v>
@@ -7321,77 +7321,77 @@
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B305" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C305" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D305" s="4" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B306" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C306" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D306" s="4" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B307" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C307" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="D307" s="4" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B308" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="C308" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="D308" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B309" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="C309" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="D309" s="4" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B310" t="s">
         <v>218</v>
@@ -7405,7 +7405,7 @@
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B311" t="s">
         <v>220</v>
@@ -7414,12 +7414,12 @@
         <v>220</v>
       </c>
       <c r="D311" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B312" t="s">
         <v>222</v>
@@ -7433,21 +7433,21 @@
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B313" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C313" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="D313" s="4" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B314" t="s">
         <v>224</v>
@@ -7461,30 +7461,30 @@
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B315" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C315" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="D315" s="4" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B316" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="C316" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="D316" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.2">
@@ -7492,22 +7492,22 @@
         <v>226</v>
       </c>
       <c r="B317" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C317" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D317" t="s">
         <v>227</v>
       </c>
       <c r="E317" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F317" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G317" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.2">
@@ -7515,19 +7515,19 @@
         <v>228</v>
       </c>
       <c r="B318" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C318" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D318" t="s">
         <v>229</v>
       </c>
       <c r="E318" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="F318" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.2">
@@ -7583,7 +7583,7 @@
         <v>3</v>
       </c>
       <c r="D322" t="s">
-        <v>233</v>
+        <v>596</v>
       </c>
     </row>
     <row r="323" spans="1:12" x14ac:dyDescent="0.2">
@@ -7597,7 +7597,7 @@
         <v>4</v>
       </c>
       <c r="D323" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="324" spans="1:12" x14ac:dyDescent="0.2">
@@ -7611,7 +7611,7 @@
         <v>5</v>
       </c>
       <c r="D324" t="s">
-        <v>235</v>
+        <v>597</v>
       </c>
     </row>
     <row r="325" spans="1:12" x14ac:dyDescent="0.2">
@@ -7625,7 +7625,7 @@
         <v>6</v>
       </c>
       <c r="D325" t="s">
-        <v>236</v>
+        <v>598</v>
       </c>
     </row>
     <row r="326" spans="1:12" x14ac:dyDescent="0.2">
@@ -7639,378 +7639,378 @@
         <v>7</v>
       </c>
       <c r="D326" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="327" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B327" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C327" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D327" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E327" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F327" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G327" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="328" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B328" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C328" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D328" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E328" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F328" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G328" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="329" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B329" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C329" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D329" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E329" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F329" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G329" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="330" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B330" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C330" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D330" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E330" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F330" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G330" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="331" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B331" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C331" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D331" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E331" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F331" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G331" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="332" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B332" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C332" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D332" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E332" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F332" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G332" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="333" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A333" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C333" s="3" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D333" s="3" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="E333" s="3" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F333" s="3" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G333" s="3" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="L333"/>
     </row>
     <row r="334" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B334" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C334" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D334" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E334" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F334" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G334" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="335" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B335" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C335" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D335" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E335" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F335" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G335" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="336" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B336" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C336" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D336" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E336" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F336" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G336" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="337" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B337" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C337" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D337" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E337" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F337" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G337" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="338" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B338" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C338" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D338" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E338" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F338" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G338" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="339" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B339" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C339" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D339" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E339" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F339" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G339" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="340" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B340" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C340" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D340" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E340" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F340" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G340" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="341" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B341" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C341" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D341" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E341" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F341" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G341" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="342" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B342" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C342" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D342" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E342" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="F342" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="343" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B343">
         <v>0</v>
@@ -8019,12 +8019,12 @@
         <v>0</v>
       </c>
       <c r="D343" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="344" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B344">
         <v>1</v>
@@ -8033,12 +8033,12 @@
         <v>1</v>
       </c>
       <c r="D344" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="345" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B345">
         <v>2</v>
@@ -8047,12 +8047,12 @@
         <v>2</v>
       </c>
       <c r="D345" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="346" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B346">
         <v>3</v>
@@ -8061,35 +8061,35 @@
         <v>3</v>
       </c>
       <c r="D346" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="347" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B347" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C347" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D347" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E347" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F347" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="K347" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="348" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B348">
         <v>0</v>
@@ -8098,12 +8098,12 @@
         <v>0</v>
       </c>
       <c r="D348" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="349" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B349">
         <v>1</v>
@@ -8112,12 +8112,12 @@
         <v>1</v>
       </c>
       <c r="D349" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="350" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B350">
         <v>2</v>
@@ -8126,12 +8126,12 @@
         <v>2</v>
       </c>
       <c r="D350" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="351" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B351">
         <v>3</v>
@@ -8140,12 +8140,12 @@
         <v>3</v>
       </c>
       <c r="D351" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="352" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B352">
         <v>4</v>
@@ -8154,12 +8154,12 @@
         <v>4</v>
       </c>
       <c r="D352" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B353">
         <v>5</v>
@@ -8168,12 +8168,12 @@
         <v>5</v>
       </c>
       <c r="D353" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="354" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B354" t="s">
         <v>143</v>
@@ -8182,27 +8182,27 @@
         <v>143</v>
       </c>
       <c r="D354" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B355" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C355" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D355" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="E355" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F355" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="I355">
         <v>0</v>
@@ -8213,53 +8213,53 @@
     </row>
     <row r="356" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B356" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C356" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D356" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E356" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F356" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="K356" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="357" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B357" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C357" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D357" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E357" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F357" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="K357" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="358" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B358">
         <v>0</v>
@@ -8268,12 +8268,12 @@
         <v>0</v>
       </c>
       <c r="D358" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="359" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B359" t="s">
         <v>143</v>
@@ -8282,12 +8282,12 @@
         <v>143</v>
       </c>
       <c r="D359" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="360" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B360" t="s">
         <v>73</v>
@@ -8296,12 +8296,12 @@
         <v>73</v>
       </c>
       <c r="D360" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="361" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B361" t="s">
         <v>90</v>
@@ -8310,26 +8310,26 @@
         <v>90</v>
       </c>
       <c r="D361" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="362" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B362" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C362" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D362" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="363" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B363" t="s">
         <v>200</v>
@@ -8338,40 +8338,40 @@
         <v>200</v>
       </c>
       <c r="D363" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="364" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B364" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C364" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D364" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="365" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B365" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C365" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D365" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B366" t="s">
         <v>186</v>
@@ -8380,12 +8380,12 @@
         <v>186</v>
       </c>
       <c r="D366" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="367" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B367" t="s">
         <v>203</v>
@@ -8394,46 +8394,46 @@
         <v>203</v>
       </c>
       <c r="D367" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="368" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B368" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C368" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D368" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="369" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B369" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C369" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D369" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E369" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="F369" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="370" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B370">
         <v>0</v>
@@ -8442,12 +8442,12 @@
         <v>0</v>
       </c>
       <c r="D370" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="371" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B371">
         <v>1</v>
@@ -8456,12 +8456,12 @@
         <v>1</v>
       </c>
       <c r="D371" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="372" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B372">
         <v>2</v>
@@ -8470,12 +8470,12 @@
         <v>2</v>
       </c>
       <c r="D372" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="373" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B373">
         <v>3</v>
@@ -8484,12 +8484,12 @@
         <v>3</v>
       </c>
       <c r="D373" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="374" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B374">
         <v>4</v>
@@ -8498,32 +8498,32 @@
         <v>4</v>
       </c>
       <c r="D374" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="375" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B375" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C375" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D375" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="E375" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="F375" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="376" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B376">
         <v>0</v>
@@ -8532,12 +8532,12 @@
         <v>0</v>
       </c>
       <c r="D376" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="377" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B377">
         <v>1</v>
@@ -8546,12 +8546,12 @@
         <v>1</v>
       </c>
       <c r="D377" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B378">
         <v>2</v>
@@ -8560,12 +8560,12 @@
         <v>2</v>
       </c>
       <c r="D378" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="379" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B379">
         <v>3</v>
@@ -8574,35 +8574,35 @@
         <v>3</v>
       </c>
       <c r="D379" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="380" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B380" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C380" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D380" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E380" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F380" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="K380" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="381" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B381" t="s">
         <v>71</v>
@@ -8611,12 +8611,12 @@
         <v>71</v>
       </c>
       <c r="D381" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="382" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B382" t="s">
         <v>73</v>
@@ -8625,12 +8625,12 @@
         <v>73</v>
       </c>
       <c r="D382" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="383" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B383" t="s">
         <v>117</v>
@@ -8639,46 +8639,46 @@
         <v>117</v>
       </c>
       <c r="D383" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B384" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C384" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D384" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B385" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C385" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D385" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E385" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="F385" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B386">
         <v>0</v>
@@ -8687,12 +8687,12 @@
         <v>0</v>
       </c>
       <c r="D386" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B387">
         <v>1</v>
@@ -8701,12 +8701,12 @@
         <v>1</v>
       </c>
       <c r="D387" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B388">
         <v>2</v>
@@ -8715,12 +8715,12 @@
         <v>2</v>
       </c>
       <c r="D388" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B389">
         <v>3</v>
@@ -8729,12 +8729,12 @@
         <v>3</v>
       </c>
       <c r="D389" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B390">
         <v>4</v>
@@ -8743,12 +8743,12 @@
         <v>4</v>
       </c>
       <c r="D390" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B391">
         <v>5</v>
@@ -8757,32 +8757,32 @@
         <v>5</v>
       </c>
       <c r="D391" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B392" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C392" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D392" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E392" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="F392" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B393">
         <v>0</v>
@@ -8791,12 +8791,12 @@
         <v>0</v>
       </c>
       <c r="D393" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B394">
         <v>1</v>
@@ -8805,12 +8805,12 @@
         <v>1</v>
       </c>
       <c r="D394" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B395">
         <v>2</v>
@@ -8819,12 +8819,12 @@
         <v>2</v>
       </c>
       <c r="D395" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B396">
         <v>3</v>
@@ -8833,32 +8833,32 @@
         <v>3</v>
       </c>
       <c r="D396" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B397" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C397" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D397" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="E397" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="F397" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B398">
         <v>0</v>
@@ -8867,12 +8867,12 @@
         <v>0</v>
       </c>
       <c r="D398" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B399">
         <v>1</v>
@@ -8881,12 +8881,12 @@
         <v>1</v>
       </c>
       <c r="D399" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B400">
         <v>2</v>
@@ -8895,12 +8895,12 @@
         <v>2</v>
       </c>
       <c r="D400" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="401" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B401">
         <v>3</v>
@@ -8909,12 +8909,12 @@
         <v>3</v>
       </c>
       <c r="D401" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="402" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B402">
         <v>4</v>
@@ -8923,12 +8923,12 @@
         <v>4</v>
       </c>
       <c r="D402" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="403" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B403">
         <v>5</v>
@@ -8937,32 +8937,32 @@
         <v>5</v>
       </c>
       <c r="D403" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="404" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B404" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C404" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D404" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E404" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="F404" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="405" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B405">
         <v>0</v>
@@ -8971,12 +8971,12 @@
         <v>0</v>
       </c>
       <c r="D405" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="406" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B406">
         <v>1</v>
@@ -8985,12 +8985,12 @@
         <v>1</v>
       </c>
       <c r="D406" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="407" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B407">
         <v>2</v>
@@ -8999,12 +8999,12 @@
         <v>2</v>
       </c>
       <c r="D407" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="408" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B408">
         <v>3</v>
@@ -9013,339 +9013,339 @@
         <v>3</v>
       </c>
       <c r="D408" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="409" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B409" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C409" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D409" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E409" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F409" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="K409" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="410" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B410" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C410" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D410" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E410" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F410" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="K410" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="411" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B411" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C411" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D411" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E411" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F411" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="K411" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="412" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B412" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C412" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D412" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="E412" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F412" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="K412" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="413" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B413" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C413" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D413" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E413" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F413" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="K413" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="414" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B414" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C414" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D414" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E414" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F414" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="K414" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="415" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B415" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C415" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D415" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E415" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F415" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="K415" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="416" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B416" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C416" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D416" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E416" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F416" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="K416" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="417" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B417" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C417" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D417" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E417" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F417" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="K417" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="418" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B418" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C418" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D418" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E418" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F418" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="K418" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="419" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B419" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C419" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D419" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E419" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F419" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="K419" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="420" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B420" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C420" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D420" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E420" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F420" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="K420" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="421" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="B421" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C421" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D421" t="s">
-        <v>363</v>
+        <v>595</v>
       </c>
       <c r="E421" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F421" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="K421" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="422" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="B422" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C422" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D422" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="423" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="B423" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C423" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D423" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="424" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="B424" t="s">
         <v>143</v>
@@ -9354,12 +9354,12 @@
         <v>143</v>
       </c>
       <c r="D424" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="425" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="B425" t="s">
         <v>73</v>
@@ -9368,26 +9368,26 @@
         <v>73</v>
       </c>
       <c r="D425" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="426" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="B426" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C426" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D426" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="427" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="B427" t="s">
         <v>90</v>
@@ -9396,119 +9396,119 @@
         <v>90</v>
       </c>
       <c r="D427" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="428" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="B428" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C428" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D428" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="429" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="B429" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C429" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D429" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="430" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="B430" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C430" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D430" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="431" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="B431" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C431" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="D431" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="432" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="B432" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C432" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D432" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="433" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="B433" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C433" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D433" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="434" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B434" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C434" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D434" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="E434" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F434" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="K434" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="435" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B435" t="s">
         <v>129</v>
@@ -9522,58 +9522,58 @@
     </row>
     <row r="436" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
+        <v>376</v>
+      </c>
+      <c r="B436" t="s">
         <v>380</v>
       </c>
-      <c r="B436" t="s">
-        <v>384</v>
-      </c>
       <c r="C436" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D436" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="437" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B437" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C437" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D437" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="438" spans="1:11" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B438" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C438" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D438" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E438" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F438" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="K438" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="439" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B439" t="s">
         <v>129</v>
@@ -9587,440 +9587,440 @@
     </row>
     <row r="440" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B440" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C440" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D440" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="441" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B441" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C441" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D441" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="442" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B442" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C442" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D442" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E442" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F442" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="K442" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="443" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
+        <v>382</v>
+      </c>
+      <c r="B443" t="s">
         <v>386</v>
       </c>
-      <c r="B443" t="s">
-        <v>390</v>
-      </c>
       <c r="C443" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D443" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="444" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B444" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C444" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D444" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="445" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B445" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C445" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="D445" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="446" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B446" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C446" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="D446" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="447" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B447" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C447" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="D447" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="448" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B448" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C448" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D448" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="E448" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F448" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="K448" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="449" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B449" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C449" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D449" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="450" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B450" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C450" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D450" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="451" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
+        <v>384</v>
+      </c>
+      <c r="B451" t="s">
         <v>388</v>
       </c>
-      <c r="B451" t="s">
-        <v>392</v>
-      </c>
       <c r="C451" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="D451" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="452" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B452" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C452" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="D452" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="453" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B453" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C453" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="D453" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="454" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B454" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C454" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D454" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="E454" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F454" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="K454" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="455" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B455" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C455" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D455" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="E455" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F455" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="K455" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="456" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B456" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C456" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D456" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="E456" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F456" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="457" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B457" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C457" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D457" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="E457" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F457" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="458" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B458" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C458" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D458" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="E458" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F458" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G458" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="459" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B459" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C459" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D459" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="E459" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F459" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G459" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="460" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B460" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C460" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D460" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="E460" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F460" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="K460" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="461" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B461" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C461" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D461" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="E461" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F461" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="K461" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="462" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B462" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C462" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D462" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="E462" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F462" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G462" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="463" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B463" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C463" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D463" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="E463" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F463" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="K463" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="464" spans="1:11" x14ac:dyDescent="0.2">
@@ -10028,19 +10028,19 @@
         <v>0</v>
       </c>
       <c r="B464" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C464" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D464" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="E464" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F464" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
   </sheetData>
@@ -10088,218 +10088,218 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
   </sheetData>
@@ -10518,18 +10518,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10552,6 +10552,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F5B82C4-8D32-4858-AE49-B9F718EB1758}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8450404-B5A9-4CAE-AD2F-E650514D4870}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -10566,12 +10574,4 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F5B82C4-8D32-4858-AE49-B9F718EB1758}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/inst/extdata/e.g.dictionary.xlsx
+++ b/inst/extdata/e.g.dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hdvincelette/Documents/GitHub/mdJSONdictio/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6905519B-39B2-1345-9959-1AA0F8515296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0503267D-33E5-0544-AD55-5FD18C64ED08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="21320" windowHeight="10620" tabRatio="747" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1478,9 +1478,6 @@
     <t>Plot name of capture location; more specific than LocCity or LocArea; refer to 'Master_Locations.csv'</t>
   </si>
   <si>
-    <t>Very excessive;  The fat pads of the furculum, 'wingpit,' and abdomen are bulging to such an extent that they join</t>
-  </si>
-  <si>
     <t>1-2-number month of capture; M or MM</t>
   </si>
   <si>
@@ -1772,39 +1769,12 @@
     <t>The original radio frequency of the radio tag attached to the captured bird  in millihertz.</t>
   </si>
   <si>
-    <t>Code of the bander, or bird handler for recaptures; most often the first initial, middle initial, and last name</t>
-  </si>
-  <si>
     <t>Code of the scribe; most often the first initial, middle initial, and last name</t>
   </si>
   <si>
     <t>The BBL Status code describing the status of the captured bird and what was done before it was released</t>
   </si>
   <si>
-    <t>Upper left leg; combination of bands, flags, and data loggers attached to bird's leg when captured; seperated by '-'</t>
-  </si>
-  <si>
-    <t>Lower left leg; combination of bands, flags, and data loggers attached to bird's leg when captured; seperated by '-'</t>
-  </si>
-  <si>
-    <t>Upper right leg; combination of bands, flags, and data loggers attached to bird's leg when captured; seperated by '-'</t>
-  </si>
-  <si>
-    <t>Lower right leg; combination of bands, flags, and data loggers attached to bird's leg when captured; seperated by '-'</t>
-  </si>
-  <si>
-    <t>Upper left leg; combination of bands, flags, and data loggers attached to bird's leg when released; seperated by '-'</t>
-  </si>
-  <si>
-    <t>Lower left leg; combination of bands, flags, and data loggers attached to bird's leg when released; seperated by '-'</t>
-  </si>
-  <si>
-    <t>Upper right leg; combination of bands, flags, and data loggers attached to bird's leg when released; seperated by '-'</t>
-  </si>
-  <si>
-    <t>Lower right leg; combination of bands, flags, and data loggers attached to bird's leg when released; seperated by '-'</t>
-  </si>
-  <si>
     <t>Platform identification number of the device attached to the captured bird</t>
   </si>
   <si>
@@ -1821,6 +1791,36 @@
   </si>
   <si>
     <t>Greatly bulging; Fat is bulging greatly above the furculum and well mounded under the wing and on the abdomen</t>
+  </si>
+  <si>
+    <t>Very excessive;  fat pads of the furculum, 'wingpit,' and abdomen are bulging so that they join</t>
+  </si>
+  <si>
+    <t>Upper left leg; combination of bands, flags, and data loggers attached when captured; seperated by '-'</t>
+  </si>
+  <si>
+    <t>Lower left leg; combination of bands, flags, and data loggers attached when captured; seperated by '-'</t>
+  </si>
+  <si>
+    <t>Upper right leg; combination of bands, flags, and data loggers attached when captured; seperated by '-'</t>
+  </si>
+  <si>
+    <t>Lower right leg; combination of bands, flags, and data loggers attached when captured; seperated by '-'</t>
+  </si>
+  <si>
+    <t>Upper left leg; combination of bands, flags, and data loggers attached when released; seperated by '-'</t>
+  </si>
+  <si>
+    <t>Lower left leg; combination of bands, flags, and data loggers attached when released; seperated by '-'</t>
+  </si>
+  <si>
+    <t>Upper right leg; combination of bands, flags, and data loggers attached when released; seperated by '-'</t>
+  </si>
+  <si>
+    <t>Lower right leg; combination of bands, flags, and data loggers attached when released; seperated by '-'</t>
+  </si>
+  <si>
+    <t>Code of the bander, or bird handler for recaptures; often first initial, middle initial, and last name</t>
   </si>
 </sst>
 </file>
@@ -2653,8 +2653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L464"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A302" workbookViewId="0">
-      <selection activeCell="D320" sqref="D320"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2722,10 +2722,10 @@
         <v>459</v>
       </c>
       <c r="F2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="K2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -2773,7 +2773,7 @@
         <v>430</v>
       </c>
       <c r="F5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -2793,7 +2793,7 @@
         <v>430</v>
       </c>
       <c r="F6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -2813,7 +2813,7 @@
         <v>452</v>
       </c>
       <c r="F7" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -2827,13 +2827,13 @@
         <v>465</v>
       </c>
       <c r="D8" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E8" t="s">
         <v>430</v>
       </c>
       <c r="F8" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -2859,7 +2859,7 @@
         <v>430</v>
       </c>
       <c r="F9" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -2870,7 +2870,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B10" t="s">
         <v>465</v>
@@ -2885,15 +2885,15 @@
         <v>459</v>
       </c>
       <c r="F10" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K10" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B11" t="s">
         <v>465</v>
@@ -2908,15 +2908,15 @@
         <v>459</v>
       </c>
       <c r="F11" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K11" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
@@ -2930,7 +2930,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B13" t="s">
         <v>23</v>
@@ -2944,7 +2944,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -2958,7 +2958,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B15" t="s">
         <v>27</v>
@@ -2972,7 +2972,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -2986,7 +2986,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B17" t="s">
         <v>465</v>
@@ -3001,15 +3001,15 @@
         <v>459</v>
       </c>
       <c r="F17" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K17" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B18" t="s">
         <v>32</v>
@@ -3023,7 +3023,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B19" t="s">
         <v>34</v>
@@ -3037,7 +3037,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B20" t="s">
         <v>36</v>
@@ -3051,7 +3051,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B21" t="s">
         <v>38</v>
@@ -3065,7 +3065,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B22" t="s">
         <v>40</v>
@@ -3079,7 +3079,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B23" t="s">
         <v>42</v>
@@ -3093,7 +3093,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B24" t="s">
         <v>465</v>
@@ -3108,15 +3108,15 @@
         <v>459</v>
       </c>
       <c r="F24" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K24" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B25" t="s">
         <v>1</v>
@@ -3125,12 +3125,12 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B26" t="s">
         <v>2</v>
@@ -3144,7 +3144,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B27" t="s">
         <v>45</v>
@@ -3158,7 +3158,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B28" t="s">
         <v>47</v>
@@ -3172,7 +3172,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B29" t="s">
         <v>48</v>
@@ -3186,7 +3186,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B30" t="s">
         <v>50</v>
@@ -3200,7 +3200,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B31" t="s">
         <v>52</v>
@@ -3214,7 +3214,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B32" t="s">
         <v>54</v>
@@ -3228,7 +3228,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B33" t="s">
         <v>56</v>
@@ -3242,7 +3242,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B34" t="s">
         <v>58</v>
@@ -3251,21 +3251,21 @@
         <v>58</v>
       </c>
       <c r="D34" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B35" t="s">
+        <v>573</v>
+      </c>
+      <c r="C35" t="s">
+        <v>573</v>
+      </c>
+      <c r="D35" t="s">
         <v>574</v>
-      </c>
-      <c r="C35" t="s">
-        <v>574</v>
-      </c>
-      <c r="D35" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
@@ -3285,10 +3285,10 @@
         <v>459</v>
       </c>
       <c r="F36" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K36" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
@@ -3302,16 +3302,16 @@
         <v>465</v>
       </c>
       <c r="D37" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E37" t="s">
         <v>459</v>
       </c>
       <c r="F37" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K37" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
@@ -3331,7 +3331,7 @@
         <v>443</v>
       </c>
       <c r="F38" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G38" t="s">
         <v>462</v>
@@ -3354,7 +3354,7 @@
         <v>443</v>
       </c>
       <c r="F39" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G39" t="s">
         <v>462</v>
@@ -3377,7 +3377,7 @@
         <v>443</v>
       </c>
       <c r="F40" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
@@ -3397,7 +3397,7 @@
         <v>443</v>
       </c>
       <c r="F41" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
@@ -3417,10 +3417,10 @@
         <v>421</v>
       </c>
       <c r="F42" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K42" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
@@ -3468,7 +3468,7 @@
         <v>430</v>
       </c>
       <c r="F45" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
@@ -3482,16 +3482,16 @@
         <v>465</v>
       </c>
       <c r="D46" t="s">
-        <v>582</v>
+        <v>598</v>
       </c>
       <c r="E46" t="s">
         <v>459</v>
       </c>
       <c r="F46" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K46" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
@@ -3505,16 +3505,16 @@
         <v>465</v>
       </c>
       <c r="D47" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="E47" t="s">
         <v>459</v>
       </c>
       <c r="F47" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K47" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
@@ -3534,7 +3534,7 @@
         <v>447</v>
       </c>
       <c r="F48" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
@@ -3554,12 +3554,12 @@
         <v>447</v>
       </c>
       <c r="F49" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B50" t="s">
         <v>465</v>
@@ -3568,21 +3568,21 @@
         <v>465</v>
       </c>
       <c r="D50" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E50" t="s">
         <v>421</v>
       </c>
       <c r="F50" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K50" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -3596,7 +3596,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B52">
         <v>4</v>
@@ -3610,7 +3610,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B53">
         <v>5</v>
@@ -3624,7 +3624,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B54">
         <v>6</v>
@@ -3638,7 +3638,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B55">
         <v>8</v>
@@ -3652,7 +3652,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B56">
         <v>9</v>
@@ -3666,7 +3666,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B57" t="s">
         <v>88</v>
@@ -3680,7 +3680,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B58" t="s">
         <v>90</v>
@@ -3694,21 +3694,21 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B59" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C59" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D59" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B60" t="s">
         <v>73</v>
@@ -3717,26 +3717,26 @@
         <v>73</v>
       </c>
       <c r="D60" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B61" t="s">
+        <v>540</v>
+      </c>
+      <c r="C61" t="s">
+        <v>540</v>
+      </c>
+      <c r="D61" t="s">
         <v>541</v>
-      </c>
-      <c r="C61" t="s">
-        <v>541</v>
-      </c>
-      <c r="D61" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B62" t="s">
         <v>465</v>
@@ -3745,18 +3745,18 @@
         <v>465</v>
       </c>
       <c r="D62" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="E62" t="s">
         <v>459</v>
       </c>
       <c r="F62" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B63" t="s">
         <v>92</v>
@@ -3770,7 +3770,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B64" t="s">
         <v>94</v>
@@ -3784,7 +3784,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B65">
         <v>300</v>
@@ -3798,7 +3798,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B66">
         <v>301</v>
@@ -3812,7 +3812,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B67">
         <v>310</v>
@@ -3826,7 +3826,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B68">
         <v>315</v>
@@ -3840,7 +3840,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B69">
         <v>317</v>
@@ -3854,7 +3854,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B70">
         <v>318</v>
@@ -3868,7 +3868,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B71">
         <v>319</v>
@@ -3882,7 +3882,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B72">
         <v>325</v>
@@ -3896,7 +3896,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B73">
         <v>333</v>
@@ -3910,7 +3910,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B74">
         <v>334</v>
@@ -3924,7 +3924,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B75">
         <v>380</v>
@@ -3938,7 +3938,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B76">
         <v>381</v>
@@ -3952,7 +3952,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B77">
         <v>389</v>
@@ -3966,7 +3966,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B78">
         <v>390</v>
@@ -3980,7 +3980,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B79" t="s">
         <v>465</v>
@@ -3989,153 +3989,153 @@
         <v>465</v>
       </c>
       <c r="D79" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E79" t="s">
         <v>430</v>
       </c>
       <c r="F79" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
@@ -4149,16 +4149,16 @@
         <v>465</v>
       </c>
       <c r="D90" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="E90" t="s">
         <v>459</v>
       </c>
       <c r="F90" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K90" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
@@ -4166,10 +4166,10 @@
         <v>109</v>
       </c>
       <c r="B91" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C91" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D91" t="s">
         <v>118</v>
@@ -4410,16 +4410,16 @@
         <v>465</v>
       </c>
       <c r="D108" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="E108" t="s">
         <v>459</v>
       </c>
       <c r="F108" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K108" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
@@ -4427,10 +4427,10 @@
         <v>110</v>
       </c>
       <c r="B109" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C109" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D109" t="s">
         <v>118</v>
@@ -4671,16 +4671,16 @@
         <v>465</v>
       </c>
       <c r="D126" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="E126" t="s">
         <v>459</v>
       </c>
       <c r="F126" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K126" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.2">
@@ -4688,10 +4688,10 @@
         <v>111</v>
       </c>
       <c r="B127" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C127" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D127" t="s">
         <v>118</v>
@@ -4932,16 +4932,16 @@
         <v>465</v>
       </c>
       <c r="D144" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="E144" t="s">
         <v>459</v>
       </c>
       <c r="F144" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K144" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
@@ -4949,10 +4949,10 @@
         <v>112</v>
       </c>
       <c r="B145" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C145" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D145" t="s">
         <v>118</v>
@@ -5193,16 +5193,16 @@
         <v>465</v>
       </c>
       <c r="D162" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="E162" t="s">
         <v>459</v>
       </c>
       <c r="F162" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K162" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.2">
@@ -5210,10 +5210,10 @@
         <v>113</v>
       </c>
       <c r="B163" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C163" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D163" t="s">
         <v>118</v>
@@ -5454,16 +5454,16 @@
         <v>465</v>
       </c>
       <c r="D180" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="E180" t="s">
         <v>459</v>
       </c>
       <c r="F180" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K180" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.2">
@@ -5471,10 +5471,10 @@
         <v>114</v>
       </c>
       <c r="B181" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C181" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D181" t="s">
         <v>118</v>
@@ -5715,16 +5715,16 @@
         <v>465</v>
       </c>
       <c r="D198" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="E198" t="s">
         <v>459</v>
       </c>
       <c r="F198" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K198" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.2">
@@ -5732,10 +5732,10 @@
         <v>115</v>
       </c>
       <c r="B199" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C199" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D199" t="s">
         <v>118</v>
@@ -5976,16 +5976,16 @@
         <v>465</v>
       </c>
       <c r="D216" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="E216" t="s">
         <v>459</v>
       </c>
       <c r="F216" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K216" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.2">
@@ -5993,10 +5993,10 @@
         <v>116</v>
       </c>
       <c r="B217" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C217" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D217" t="s">
         <v>118</v>
@@ -6243,10 +6243,10 @@
         <v>459</v>
       </c>
       <c r="F234" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K234" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.2">
@@ -6322,10 +6322,10 @@
         <v>459</v>
       </c>
       <c r="F239" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K239" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.2">
@@ -6401,10 +6401,10 @@
         <v>459</v>
       </c>
       <c r="F244" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K244" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.2">
@@ -6424,10 +6424,10 @@
         <v>459</v>
       </c>
       <c r="F245" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K245" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.2">
@@ -6447,10 +6447,10 @@
         <v>459</v>
       </c>
       <c r="F246" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K246" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.2">
@@ -6464,16 +6464,16 @@
         <v>465</v>
       </c>
       <c r="D247" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E247" t="s">
         <v>459</v>
       </c>
       <c r="F247" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K247" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.2">
@@ -6493,10 +6493,10 @@
         <v>459</v>
       </c>
       <c r="F248" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K248" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.2">
@@ -6628,10 +6628,10 @@
         <v>459</v>
       </c>
       <c r="F257" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K257" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.2">
@@ -6748,7 +6748,7 @@
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B266" t="s">
         <v>465</v>
@@ -6763,15 +6763,15 @@
         <v>421</v>
       </c>
       <c r="F266" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K266" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B267" t="s">
         <v>203</v>
@@ -6785,7 +6785,7 @@
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B268" t="s">
         <v>88</v>
@@ -6799,7 +6799,7 @@
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B269" t="s">
         <v>200</v>
@@ -6813,7 +6813,7 @@
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B270" t="s">
         <v>465</v>
@@ -6822,21 +6822,21 @@
         <v>465</v>
       </c>
       <c r="D270" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E270" t="s">
         <v>459</v>
       </c>
       <c r="F270" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K270" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B271" t="s">
         <v>207</v>
@@ -6850,7 +6850,7 @@
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B272" t="s">
         <v>209</v>
@@ -6864,7 +6864,7 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B273" t="s">
         <v>211</v>
@@ -6878,21 +6878,21 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B274" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="C274" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="D274" s="4" t="s">
         <v>519</v>
-      </c>
-      <c r="C274" s="4" t="s">
-        <v>519</v>
-      </c>
-      <c r="D274" s="4" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B275" t="s">
         <v>213</v>
@@ -6906,55 +6906,55 @@
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D276" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D277" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D278" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B279" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C279" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D279" t="s">
         <v>206</v>
@@ -6962,105 +6962,105 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B280" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="C280" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="D280" s="4" t="s">
         <v>522</v>
-      </c>
-      <c r="C280" s="4" t="s">
-        <v>522</v>
-      </c>
-      <c r="D280" s="4" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B281" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="C281" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="D281" s="4" t="s">
         <v>524</v>
-      </c>
-      <c r="C281" s="4" t="s">
-        <v>524</v>
-      </c>
-      <c r="D281" s="4" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D282" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B283" t="s">
+        <v>526</v>
+      </c>
+      <c r="C283" t="s">
+        <v>526</v>
+      </c>
+      <c r="D283" s="4" t="s">
         <v>527</v>
-      </c>
-      <c r="C283" t="s">
-        <v>527</v>
-      </c>
-      <c r="D283" s="4" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D284" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B285" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="C285" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="D285" s="4" t="s">
         <v>529</v>
-      </c>
-      <c r="C285" s="4" t="s">
-        <v>529</v>
-      </c>
-      <c r="D285" s="4" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D286" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B287" s="4" t="s">
         <v>216</v>
@@ -7069,26 +7069,26 @@
         <v>216</v>
       </c>
       <c r="D287" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B288" t="s">
+        <v>531</v>
+      </c>
+      <c r="C288" t="s">
+        <v>531</v>
+      </c>
+      <c r="D288" t="s">
         <v>532</v>
-      </c>
-      <c r="C288" t="s">
-        <v>532</v>
-      </c>
-      <c r="D288" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B289" s="4" t="s">
         <v>217</v>
@@ -7097,12 +7097,12 @@
         <v>217</v>
       </c>
       <c r="D289" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B290" t="s">
         <v>218</v>
@@ -7116,7 +7116,7 @@
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B291" s="4" t="s">
         <v>360</v>
@@ -7125,12 +7125,12 @@
         <v>360</v>
       </c>
       <c r="D291" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B292" t="s">
         <v>220</v>
@@ -7144,21 +7144,21 @@
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C293" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D293" s="4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B294" s="4" t="s">
         <v>224</v>
@@ -7172,35 +7172,35 @@
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C295" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D295" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B296" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="C296" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="D296" s="4" t="s">
         <v>537</v>
-      </c>
-      <c r="C296" s="4" t="s">
-        <v>537</v>
-      </c>
-      <c r="D296" s="4" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B297" t="s">
         <v>465</v>
@@ -7209,21 +7209,21 @@
         <v>465</v>
       </c>
       <c r="D297" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E297" t="s">
         <v>459</v>
       </c>
       <c r="F297" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K297" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B298" t="s">
         <v>209</v>
@@ -7237,7 +7237,7 @@
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B299" t="s">
         <v>211</v>
@@ -7251,35 +7251,35 @@
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B300" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C300" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D300" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B301" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C301" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D301" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B302" t="s">
         <v>215</v>
@@ -7288,32 +7288,32 @@
         <v>215</v>
       </c>
       <c r="D302" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B303" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C303" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D303" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B304" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C304" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D304" t="s">
         <v>206</v>
@@ -7321,77 +7321,77 @@
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B305" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C305" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D305" s="4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B306" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C306" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D306" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B307" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C307" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D307" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B308" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C308" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D308" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B309" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C309" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D309" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B310" t="s">
         <v>218</v>
@@ -7405,7 +7405,7 @@
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B311" t="s">
         <v>220</v>
@@ -7414,12 +7414,12 @@
         <v>220</v>
       </c>
       <c r="D311" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B312" t="s">
         <v>222</v>
@@ -7433,21 +7433,21 @@
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B313" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C313" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D313" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B314" t="s">
         <v>224</v>
@@ -7461,30 +7461,30 @@
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B315" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C315" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D315" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B316" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C316" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D316" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.2">
@@ -7504,7 +7504,7 @@
         <v>443</v>
       </c>
       <c r="F317" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G317" t="s">
         <v>461</v>
@@ -7527,7 +7527,7 @@
         <v>430</v>
       </c>
       <c r="F318" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.2">
@@ -7583,7 +7583,7 @@
         <v>3</v>
       </c>
       <c r="D322" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
     </row>
     <row r="323" spans="1:12" x14ac:dyDescent="0.2">
@@ -7611,7 +7611,7 @@
         <v>5</v>
       </c>
       <c r="D324" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
     </row>
     <row r="325" spans="1:12" x14ac:dyDescent="0.2">
@@ -7625,7 +7625,7 @@
         <v>6</v>
       </c>
       <c r="D325" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
     </row>
     <row r="326" spans="1:12" x14ac:dyDescent="0.2">
@@ -7639,7 +7639,7 @@
         <v>7</v>
       </c>
       <c r="D326" t="s">
-        <v>484</v>
+        <v>589</v>
       </c>
     </row>
     <row r="327" spans="1:12" x14ac:dyDescent="0.2">
@@ -7659,7 +7659,7 @@
         <v>443</v>
       </c>
       <c r="F327" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G327" t="s">
         <v>463</v>
@@ -7682,7 +7682,7 @@
         <v>443</v>
       </c>
       <c r="F328" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G328" t="s">
         <v>463</v>
@@ -7705,7 +7705,7 @@
         <v>443</v>
       </c>
       <c r="F329" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G329" t="s">
         <v>463</v>
@@ -7728,7 +7728,7 @@
         <v>443</v>
       </c>
       <c r="F330" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G330" t="s">
         <v>463</v>
@@ -7751,7 +7751,7 @@
         <v>443</v>
       </c>
       <c r="F331" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G331" t="s">
         <v>463</v>
@@ -7774,7 +7774,7 @@
         <v>443</v>
       </c>
       <c r="F332" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G332" t="s">
         <v>463</v>
@@ -7791,13 +7791,13 @@
         <v>465</v>
       </c>
       <c r="D333" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E333" s="3" t="s">
         <v>443</v>
       </c>
       <c r="F333" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G333" s="3" t="s">
         <v>463</v>
@@ -7821,7 +7821,7 @@
         <v>443</v>
       </c>
       <c r="F334" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G334" t="s">
         <v>463</v>
@@ -7844,7 +7844,7 @@
         <v>443</v>
       </c>
       <c r="F335" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G335" t="s">
         <v>463</v>
@@ -7867,7 +7867,7 @@
         <v>443</v>
       </c>
       <c r="F336" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G336" t="s">
         <v>463</v>
@@ -7890,7 +7890,7 @@
         <v>443</v>
       </c>
       <c r="F337" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G337" t="s">
         <v>463</v>
@@ -7913,7 +7913,7 @@
         <v>443</v>
       </c>
       <c r="F338" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G338" t="s">
         <v>463</v>
@@ -7936,7 +7936,7 @@
         <v>443</v>
       </c>
       <c r="F339" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G339" t="s">
         <v>463</v>
@@ -7959,7 +7959,7 @@
         <v>443</v>
       </c>
       <c r="F340" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G340" t="s">
         <v>463</v>
@@ -7982,7 +7982,7 @@
         <v>443</v>
       </c>
       <c r="F341" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G341" t="s">
         <v>463</v>
@@ -8005,7 +8005,7 @@
         <v>430</v>
       </c>
       <c r="F342" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="343" spans="1:11" x14ac:dyDescent="0.2">
@@ -8081,10 +8081,10 @@
         <v>421</v>
       </c>
       <c r="F347" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K347" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="348" spans="1:11" x14ac:dyDescent="0.2">
@@ -8196,13 +8196,13 @@
         <v>465</v>
       </c>
       <c r="D355" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E355" t="s">
         <v>443</v>
       </c>
       <c r="F355" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="I355">
         <v>0</v>
@@ -8228,10 +8228,10 @@
         <v>415</v>
       </c>
       <c r="F356" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K356" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="357" spans="1:11" x14ac:dyDescent="0.2">
@@ -8251,10 +8251,10 @@
         <v>421</v>
       </c>
       <c r="F357" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K357" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="358" spans="1:11" x14ac:dyDescent="0.2">
@@ -8428,7 +8428,7 @@
         <v>430</v>
       </c>
       <c r="F369" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="370" spans="1:11" x14ac:dyDescent="0.2">
@@ -8518,7 +8518,7 @@
         <v>430</v>
       </c>
       <c r="F375" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="376" spans="1:11" x14ac:dyDescent="0.2">
@@ -8594,10 +8594,10 @@
         <v>421</v>
       </c>
       <c r="F380" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K380" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="381" spans="1:11" x14ac:dyDescent="0.2">
@@ -8673,7 +8673,7 @@
         <v>430</v>
       </c>
       <c r="F385" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.2">
@@ -8777,7 +8777,7 @@
         <v>430</v>
       </c>
       <c r="F392" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.2">
@@ -8853,7 +8853,7 @@
         <v>430</v>
       </c>
       <c r="F397" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.2">
@@ -8957,7 +8957,7 @@
         <v>430</v>
       </c>
       <c r="F404" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="405" spans="1:11" x14ac:dyDescent="0.2">
@@ -9033,10 +9033,10 @@
         <v>415</v>
       </c>
       <c r="F409" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K409" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="410" spans="1:11" x14ac:dyDescent="0.2">
@@ -9056,10 +9056,10 @@
         <v>415</v>
       </c>
       <c r="F410" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K410" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="411" spans="1:11" x14ac:dyDescent="0.2">
@@ -9079,10 +9079,10 @@
         <v>415</v>
       </c>
       <c r="F411" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K411" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="412" spans="1:11" x14ac:dyDescent="0.2">
@@ -9102,10 +9102,10 @@
         <v>415</v>
       </c>
       <c r="F412" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K412" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="413" spans="1:11" x14ac:dyDescent="0.2">
@@ -9125,10 +9125,10 @@
         <v>415</v>
       </c>
       <c r="F413" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K413" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="414" spans="1:11" x14ac:dyDescent="0.2">
@@ -9148,10 +9148,10 @@
         <v>415</v>
       </c>
       <c r="F414" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K414" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="415" spans="1:11" x14ac:dyDescent="0.2">
@@ -9171,10 +9171,10 @@
         <v>415</v>
       </c>
       <c r="F415" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K415" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="416" spans="1:11" x14ac:dyDescent="0.2">
@@ -9194,10 +9194,10 @@
         <v>415</v>
       </c>
       <c r="F416" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K416" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="417" spans="1:11" x14ac:dyDescent="0.2">
@@ -9217,10 +9217,10 @@
         <v>415</v>
       </c>
       <c r="F417" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K417" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="418" spans="1:11" x14ac:dyDescent="0.2">
@@ -9240,10 +9240,10 @@
         <v>415</v>
       </c>
       <c r="F418" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K418" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="419" spans="1:11" x14ac:dyDescent="0.2">
@@ -9263,10 +9263,10 @@
         <v>415</v>
       </c>
       <c r="F419" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K419" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="420" spans="1:11" x14ac:dyDescent="0.2">
@@ -9286,15 +9286,15 @@
         <v>415</v>
       </c>
       <c r="F420" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K420" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="421" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B421" t="s">
         <v>465</v>
@@ -9303,21 +9303,21 @@
         <v>465</v>
       </c>
       <c r="D421" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="E421" t="s">
         <v>459</v>
       </c>
       <c r="F421" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K421" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="422" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B422" t="s">
         <v>360</v>
@@ -9331,7 +9331,7 @@
     </row>
     <row r="423" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B423" t="s">
         <v>362</v>
@@ -9345,7 +9345,7 @@
     </row>
     <row r="424" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B424" t="s">
         <v>143</v>
@@ -9359,7 +9359,7 @@
     </row>
     <row r="425" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B425" t="s">
         <v>73</v>
@@ -9373,7 +9373,7 @@
     </row>
     <row r="426" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B426" t="s">
         <v>366</v>
@@ -9387,7 +9387,7 @@
     </row>
     <row r="427" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B427" t="s">
         <v>90</v>
@@ -9401,7 +9401,7 @@
     </row>
     <row r="428" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B428" t="s">
         <v>369</v>
@@ -9415,7 +9415,7 @@
     </row>
     <row r="429" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B429" t="s">
         <v>370</v>
@@ -9429,7 +9429,7 @@
     </row>
     <row r="430" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B430" t="s">
         <v>371</v>
@@ -9443,7 +9443,7 @@
     </row>
     <row r="431" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B431" t="s">
         <v>372</v>
@@ -9457,7 +9457,7 @@
     </row>
     <row r="432" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B432" t="s">
         <v>373</v>
@@ -9471,7 +9471,7 @@
     </row>
     <row r="433" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B433" t="s">
         <v>375</v>
@@ -9500,10 +9500,10 @@
         <v>459</v>
       </c>
       <c r="F434" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K434" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="435" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9565,10 +9565,10 @@
         <v>459</v>
       </c>
       <c r="F438" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K438" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="439" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9630,10 +9630,10 @@
         <v>459</v>
       </c>
       <c r="F442" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K442" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="443" spans="1:11" x14ac:dyDescent="0.2">
@@ -9723,10 +9723,10 @@
         <v>459</v>
       </c>
       <c r="F448" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K448" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="449" spans="1:11" x14ac:dyDescent="0.2">
@@ -9816,10 +9816,10 @@
         <v>459</v>
       </c>
       <c r="F454" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K454" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="455" spans="1:11" x14ac:dyDescent="0.2">
@@ -9839,10 +9839,10 @@
         <v>459</v>
       </c>
       <c r="F455" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K455" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="456" spans="1:11" x14ac:dyDescent="0.2">
@@ -9856,13 +9856,13 @@
         <v>465</v>
       </c>
       <c r="D456" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="E456" t="s">
         <v>459</v>
       </c>
       <c r="F456" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="457" spans="1:11" x14ac:dyDescent="0.2">
@@ -9876,13 +9876,13 @@
         <v>465</v>
       </c>
       <c r="D457" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="E457" t="s">
         <v>459</v>
       </c>
       <c r="F457" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="458" spans="1:11" x14ac:dyDescent="0.2">
@@ -9902,7 +9902,7 @@
         <v>443</v>
       </c>
       <c r="F458" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G458" t="s">
         <v>461</v>
@@ -9925,7 +9925,7 @@
         <v>443</v>
       </c>
       <c r="F459" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G459" t="s">
         <v>461</v>
@@ -9948,10 +9948,10 @@
         <v>459</v>
       </c>
       <c r="F460" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K460" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="461" spans="1:11" x14ac:dyDescent="0.2">
@@ -9971,10 +9971,10 @@
         <v>459</v>
       </c>
       <c r="F461" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K461" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="462" spans="1:11" x14ac:dyDescent="0.2">
@@ -9988,13 +9988,13 @@
         <v>465</v>
       </c>
       <c r="D462" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E462" t="s">
         <v>443</v>
       </c>
       <c r="F462" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G462" t="s">
         <v>464</v>
@@ -10017,10 +10017,10 @@
         <v>415</v>
       </c>
       <c r="F463" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K463" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="464" spans="1:11" x14ac:dyDescent="0.2">
@@ -10040,7 +10040,7 @@
         <v>459</v>
       </c>
       <c r="F464" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
   </sheetData>
@@ -10091,7 +10091,7 @@
         <v>414</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -10099,7 +10099,7 @@
         <v>415</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">

--- a/inst/extdata/e.g.dictionary.xlsx
+++ b/inst/extdata/e.g.dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hdvincelette/Documents/GitHub/mdJSONdictio/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0503267D-33E5-0544-AD55-5FD18C64ED08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF41F59-C576-D144-9675-5DFEBDD112E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="21320" windowHeight="10620" tabRatio="747" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1769,9 +1769,6 @@
     <t>The original radio frequency of the radio tag attached to the captured bird  in millihertz.</t>
   </si>
   <si>
-    <t>Code of the scribe; most often the first initial, middle initial, and last name</t>
-  </si>
-  <si>
     <t>The BBL Status code describing the status of the captured bird and what was done before it was released</t>
   </si>
   <si>
@@ -1821,6 +1818,9 @@
   </si>
   <si>
     <t>Code of the bander, or bird handler for recaptures; often first initial, middle initial, and last name</t>
+  </si>
+  <si>
+    <t>Code of the scribe; often first initial, middle initial, and last name</t>
   </si>
 </sst>
 </file>
@@ -2654,7 +2654,7 @@
   <dimension ref="A1:L464"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3482,7 +3482,7 @@
         <v>465</v>
       </c>
       <c r="D46" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E46" t="s">
         <v>459</v>
@@ -3505,7 +3505,7 @@
         <v>465</v>
       </c>
       <c r="D47" t="s">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="E47" t="s">
         <v>459</v>
@@ -3745,7 +3745,7 @@
         <v>465</v>
       </c>
       <c r="D62" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E62" t="s">
         <v>459</v>
@@ -4149,7 +4149,7 @@
         <v>465</v>
       </c>
       <c r="D90" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E90" t="s">
         <v>459</v>
@@ -4410,7 +4410,7 @@
         <v>465</v>
       </c>
       <c r="D108" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E108" t="s">
         <v>459</v>
@@ -4671,7 +4671,7 @@
         <v>465</v>
       </c>
       <c r="D126" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E126" t="s">
         <v>459</v>
@@ -4932,7 +4932,7 @@
         <v>465</v>
       </c>
       <c r="D144" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E144" t="s">
         <v>459</v>
@@ -5193,7 +5193,7 @@
         <v>465</v>
       </c>
       <c r="D162" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E162" t="s">
         <v>459</v>
@@ -5454,7 +5454,7 @@
         <v>465</v>
       </c>
       <c r="D180" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E180" t="s">
         <v>459</v>
@@ -5715,7 +5715,7 @@
         <v>465</v>
       </c>
       <c r="D198" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E198" t="s">
         <v>459</v>
@@ -5976,7 +5976,7 @@
         <v>465</v>
       </c>
       <c r="D216" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E216" t="s">
         <v>459</v>
@@ -7583,7 +7583,7 @@
         <v>3</v>
       </c>
       <c r="D322" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="323" spans="1:12" x14ac:dyDescent="0.2">
@@ -7611,7 +7611,7 @@
         <v>5</v>
       </c>
       <c r="D324" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="325" spans="1:12" x14ac:dyDescent="0.2">
@@ -7625,7 +7625,7 @@
         <v>6</v>
       </c>
       <c r="D325" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="326" spans="1:12" x14ac:dyDescent="0.2">
@@ -7639,7 +7639,7 @@
         <v>7</v>
       </c>
       <c r="D326" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="327" spans="1:12" x14ac:dyDescent="0.2">
@@ -9303,7 +9303,7 @@
         <v>465</v>
       </c>
       <c r="D421" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E421" t="s">
         <v>459</v>
@@ -9856,7 +9856,7 @@
         <v>465</v>
       </c>
       <c r="D456" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E456" t="s">
         <v>459</v>
@@ -9876,7 +9876,7 @@
         <v>465</v>
       </c>
       <c r="D457" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E457" t="s">
         <v>459</v>
@@ -10309,6 +10309,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DE904D578DFE6844BEAE84BDC2B4097E" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="50ebab51745edbac74153c776eff7922">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="847bd2b6-c417-48b3-84b7-e392c504f3bb" xmlns:ns4="f32a61f4-5698-46d5-9f56-343e6d7dc7d7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="48e32a04494ad4991fdbd7a90d4a41aa" ns3:_="" ns4:_="">
     <xsd:import namespace="847bd2b6-c417-48b3-84b7-e392c504f3bb"/>
@@ -10517,22 +10532,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8450404-B5A9-4CAE-AD2F-E650514D4870}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f32a61f4-5698-46d5-9f56-343e6d7dc7d7"/>
+    <ds:schemaRef ds:uri="847bd2b6-c417-48b3-84b7-e392c504f3bb"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F5B82C4-8D32-4858-AE49-B9F718EB1758}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82216217-E566-4EBA-B2A2-632151E5C36C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10549,29 +10574,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F5B82C4-8D32-4858-AE49-B9F718EB1758}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8450404-B5A9-4CAE-AD2F-E650514D4870}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="f32a61f4-5698-46d5-9f56-343e6d7dc7d7"/>
-    <ds:schemaRef ds:uri="847bd2b6-c417-48b3-84b7-e392c504f3bb"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/inst/extdata/e.g.dictionary.xlsx
+++ b/inst/extdata/e.g.dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hdvincelette/Documents/GitHub/mdJSONdictio/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF41F59-C576-D144-9675-5DFEBDD112E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85503F46-D124-8E48-AC4A-6930E3AD5D7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="21320" windowHeight="10620" tabRatio="747" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,14 +17,14 @@
     <sheet name="validation_values" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data_dictionary!$A$1:$M$464</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data_dictionary!$A$1:$O$464</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2051" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2053" uniqueCount="601">
   <si>
     <t>Notes</t>
   </si>
@@ -1821,6 +1821,12 @@
   </si>
   <si>
     <t>Code of the scribe; often first initial, middle initial, and last name</t>
+  </si>
+  <si>
+    <t>fieldWidth</t>
+  </si>
+  <si>
+    <t>missingValue</t>
   </si>
 </sst>
 </file>
@@ -2651,10 +2657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L464"/>
+  <dimension ref="A1:N464"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2663,11 +2669,12 @@
     <col min="2" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="30.83203125" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="11" max="11" width="9" customWidth="1"/>
-    <col min="12" max="12" width="21.6640625" customWidth="1"/>
+    <col min="9" max="9" width="9" customWidth="1"/>
+    <col min="10" max="11" width="15.33203125" customWidth="1"/>
+    <col min="14" max="14" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>409</v>
       </c>
@@ -2693,19 +2700,25 @@
         <v>457</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2724,11 +2737,11 @@
       <c r="F2" t="s">
         <v>488</v>
       </c>
-      <c r="K2" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2742,7 +2755,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2756,7 +2769,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -2776,7 +2789,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -2796,7 +2809,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -2816,7 +2829,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -2835,14 +2848,14 @@
       <c r="F8" t="s">
         <v>487</v>
       </c>
-      <c r="I8">
+      <c r="L8">
         <v>1</v>
       </c>
-      <c r="J8">
+      <c r="M8">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -2861,14 +2874,14 @@
       <c r="F9" t="s">
         <v>487</v>
       </c>
-      <c r="I9">
+      <c r="L9">
         <v>1</v>
       </c>
-      <c r="J9">
+      <c r="M9">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>489</v>
       </c>
@@ -2887,11 +2900,11 @@
       <c r="F10" t="s">
         <v>487</v>
       </c>
-      <c r="K10" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I10" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>490</v>
       </c>
@@ -2910,11 +2923,11 @@
       <c r="F11" t="s">
         <v>487</v>
       </c>
-      <c r="K11" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I11" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>490</v>
       </c>
@@ -2928,7 +2941,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>490</v>
       </c>
@@ -2942,7 +2955,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>490</v>
       </c>
@@ -2956,7 +2969,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>490</v>
       </c>
@@ -2970,7 +2983,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>490</v>
       </c>
@@ -2984,7 +2997,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>491</v>
       </c>
@@ -3003,11 +3016,11 @@
       <c r="F17" t="s">
         <v>487</v>
       </c>
-      <c r="K17" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I17" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>491</v>
       </c>
@@ -3021,7 +3034,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>491</v>
       </c>
@@ -3035,7 +3048,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>491</v>
       </c>
@@ -3049,7 +3062,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>491</v>
       </c>
@@ -3063,7 +3076,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>491</v>
       </c>
@@ -3077,7 +3090,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>491</v>
       </c>
@@ -3091,7 +3104,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>492</v>
       </c>
@@ -3110,11 +3123,11 @@
       <c r="F24" t="s">
         <v>487</v>
       </c>
-      <c r="K24" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I24" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>492</v>
       </c>
@@ -3128,7 +3141,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>492</v>
       </c>
@@ -3142,7 +3155,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>492</v>
       </c>
@@ -3156,7 +3169,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>492</v>
       </c>
@@ -3170,7 +3183,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>492</v>
       </c>
@@ -3184,7 +3197,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>492</v>
       </c>
@@ -3198,7 +3211,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>492</v>
       </c>
@@ -3212,7 +3225,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>492</v>
       </c>
@@ -3226,7 +3239,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>492</v>
       </c>
@@ -3240,7 +3253,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>492</v>
       </c>
@@ -3254,7 +3267,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>492</v>
       </c>
@@ -3268,7 +3281,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>59</v>
       </c>
@@ -3287,11 +3300,11 @@
       <c r="F36" t="s">
         <v>487</v>
       </c>
-      <c r="K36" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I36" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>60</v>
       </c>
@@ -3310,11 +3323,11 @@
       <c r="F37" t="s">
         <v>487</v>
       </c>
-      <c r="K37" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I37" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>61</v>
       </c>
@@ -3337,7 +3350,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>63</v>
       </c>
@@ -3360,7 +3373,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>65</v>
       </c>
@@ -3380,7 +3393,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>67</v>
       </c>
@@ -3400,7 +3413,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>69</v>
       </c>
@@ -3419,11 +3432,11 @@
       <c r="F42" t="s">
         <v>487</v>
       </c>
-      <c r="K42" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I42" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>69</v>
       </c>
@@ -3437,7 +3450,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>69</v>
       </c>
@@ -3451,7 +3464,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>75</v>
       </c>
@@ -3471,7 +3484,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>77</v>
       </c>
@@ -3490,11 +3503,11 @@
       <c r="F46" t="s">
         <v>487</v>
       </c>
-      <c r="K46" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I46" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>78</v>
       </c>
@@ -3513,11 +3526,11 @@
       <c r="F47" t="s">
         <v>487</v>
       </c>
-      <c r="K47" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I47" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>79</v>
       </c>
@@ -3537,7 +3550,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>81</v>
       </c>
@@ -3557,7 +3570,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>568</v>
       </c>
@@ -3576,11 +3589,11 @@
       <c r="F50" t="s">
         <v>487</v>
       </c>
-      <c r="K50" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I50" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>568</v>
       </c>
@@ -3594,7 +3607,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>568</v>
       </c>
@@ -3608,7 +3621,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>568</v>
       </c>
@@ -3622,7 +3635,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>568</v>
       </c>
@@ -3636,7 +3649,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>568</v>
       </c>
@@ -3650,7 +3663,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>568</v>
       </c>
@@ -3664,7 +3677,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>568</v>
       </c>
@@ -3678,7 +3691,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>568</v>
       </c>
@@ -3692,7 +3705,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>568</v>
       </c>
@@ -3706,7 +3719,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>568</v>
       </c>
@@ -3720,7 +3733,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>568</v>
       </c>
@@ -3734,7 +3747,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>567</v>
       </c>
@@ -3754,7 +3767,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>567</v>
       </c>
@@ -3768,7 +3781,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>567</v>
       </c>
@@ -4012,7 +4025,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>566</v>
       </c>
@@ -4026,7 +4039,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>566</v>
       </c>
@@ -4040,7 +4053,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>566</v>
       </c>
@@ -4054,7 +4067,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>566</v>
       </c>
@@ -4068,7 +4081,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>566</v>
       </c>
@@ -4082,7 +4095,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>566</v>
       </c>
@@ -4096,7 +4109,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>566</v>
       </c>
@@ -4110,7 +4123,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>566</v>
       </c>
@@ -4124,7 +4137,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>566</v>
       </c>
@@ -4138,7 +4151,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>109</v>
       </c>
@@ -4157,11 +4170,11 @@
       <c r="F90" t="s">
         <v>487</v>
       </c>
-      <c r="K90" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I90" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>109</v>
       </c>
@@ -4175,7 +4188,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>109</v>
       </c>
@@ -4189,7 +4202,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>109</v>
       </c>
@@ -4203,7 +4216,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>109</v>
       </c>
@@ -4217,7 +4230,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>109</v>
       </c>
@@ -4231,7 +4244,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>109</v>
       </c>
@@ -4245,7 +4258,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>109</v>
       </c>
@@ -4259,7 +4272,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>109</v>
       </c>
@@ -4273,7 +4286,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>109</v>
       </c>
@@ -4287,7 +4300,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>109</v>
       </c>
@@ -4301,7 +4314,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>109</v>
       </c>
@@ -4315,7 +4328,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>109</v>
       </c>
@@ -4329,7 +4342,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>109</v>
       </c>
@@ -4343,7 +4356,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>109</v>
       </c>
@@ -4357,7 +4370,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>109</v>
       </c>
@@ -4371,7 +4384,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>109</v>
       </c>
@@ -4385,7 +4398,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>109</v>
       </c>
@@ -4399,7 +4412,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>110</v>
       </c>
@@ -4418,11 +4431,11 @@
       <c r="F108" t="s">
         <v>487</v>
       </c>
-      <c r="K108" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I108" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>110</v>
       </c>
@@ -4436,7 +4449,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>110</v>
       </c>
@@ -4450,7 +4463,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -4464,7 +4477,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>110</v>
       </c>
@@ -4478,7 +4491,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>110</v>
       </c>
@@ -4492,7 +4505,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>110</v>
       </c>
@@ -4506,7 +4519,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>110</v>
       </c>
@@ -4520,7 +4533,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>110</v>
       </c>
@@ -4534,7 +4547,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>110</v>
       </c>
@@ -4548,7 +4561,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>110</v>
       </c>
@@ -4562,7 +4575,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>110</v>
       </c>
@@ -4576,7 +4589,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>110</v>
       </c>
@@ -4590,7 +4603,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>110</v>
       </c>
@@ -4604,7 +4617,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>110</v>
       </c>
@@ -4618,7 +4631,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>110</v>
       </c>
@@ -4632,7 +4645,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>110</v>
       </c>
@@ -4646,7 +4659,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>110</v>
       </c>
@@ -4660,7 +4673,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>111</v>
       </c>
@@ -4679,11 +4692,11 @@
       <c r="F126" t="s">
         <v>487</v>
       </c>
-      <c r="K126" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I126" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>111</v>
       </c>
@@ -4697,7 +4710,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>111</v>
       </c>
@@ -4711,7 +4724,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>111</v>
       </c>
@@ -4725,7 +4738,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>111</v>
       </c>
@@ -4739,7 +4752,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>111</v>
       </c>
@@ -4753,7 +4766,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>111</v>
       </c>
@@ -4767,7 +4780,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>111</v>
       </c>
@@ -4781,7 +4794,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>111</v>
       </c>
@@ -4795,7 +4808,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>111</v>
       </c>
@@ -4809,7 +4822,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>111</v>
       </c>
@@ -4823,7 +4836,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>111</v>
       </c>
@@ -4837,7 +4850,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>111</v>
       </c>
@@ -4851,7 +4864,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>111</v>
       </c>
@@ -4865,7 +4878,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>111</v>
       </c>
@@ -4879,7 +4892,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>111</v>
       </c>
@@ -4893,7 +4906,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>111</v>
       </c>
@@ -4907,7 +4920,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>111</v>
       </c>
@@ -4921,7 +4934,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>112</v>
       </c>
@@ -4940,7 +4953,7 @@
       <c r="F144" t="s">
         <v>487</v>
       </c>
-      <c r="K144" t="s">
+      <c r="I144" t="s">
         <v>487</v>
       </c>
     </row>
@@ -5168,7 +5181,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>112</v>
       </c>
@@ -5182,7 +5195,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>113</v>
       </c>
@@ -5201,11 +5214,11 @@
       <c r="F162" t="s">
         <v>487</v>
       </c>
-      <c r="K162" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I162" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>113</v>
       </c>
@@ -5219,7 +5232,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>113</v>
       </c>
@@ -5233,7 +5246,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>113</v>
       </c>
@@ -5247,7 +5260,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>113</v>
       </c>
@@ -5261,7 +5274,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>113</v>
       </c>
@@ -5275,7 +5288,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>113</v>
       </c>
@@ -5289,7 +5302,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>113</v>
       </c>
@@ -5303,7 +5316,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>113</v>
       </c>
@@ -5317,7 +5330,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>113</v>
       </c>
@@ -5331,7 +5344,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>113</v>
       </c>
@@ -5345,7 +5358,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>113</v>
       </c>
@@ -5359,7 +5372,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>113</v>
       </c>
@@ -5373,7 +5386,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>113</v>
       </c>
@@ -5387,7 +5400,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>113</v>
       </c>
@@ -5401,7 +5414,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>113</v>
       </c>
@@ -5415,7 +5428,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>113</v>
       </c>
@@ -5429,7 +5442,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>113</v>
       </c>
@@ -5443,7 +5456,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>114</v>
       </c>
@@ -5462,11 +5475,11 @@
       <c r="F180" t="s">
         <v>487</v>
       </c>
-      <c r="K180" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I180" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>114</v>
       </c>
@@ -5480,7 +5493,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>114</v>
       </c>
@@ -5494,7 +5507,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>114</v>
       </c>
@@ -5508,7 +5521,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>114</v>
       </c>
@@ -5522,7 +5535,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>114</v>
       </c>
@@ -5536,7 +5549,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>114</v>
       </c>
@@ -5550,7 +5563,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>114</v>
       </c>
@@ -5564,7 +5577,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>114</v>
       </c>
@@ -5578,7 +5591,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>114</v>
       </c>
@@ -5592,7 +5605,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>114</v>
       </c>
@@ -5606,7 +5619,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>114</v>
       </c>
@@ -5620,7 +5633,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>114</v>
       </c>
@@ -5634,7 +5647,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>114</v>
       </c>
@@ -5648,7 +5661,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>114</v>
       </c>
@@ -5662,7 +5675,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>114</v>
       </c>
@@ -5676,7 +5689,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>114</v>
       </c>
@@ -5690,7 +5703,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>114</v>
       </c>
@@ -5704,7 +5717,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>115</v>
       </c>
@@ -5723,11 +5736,11 @@
       <c r="F198" t="s">
         <v>487</v>
       </c>
-      <c r="K198" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I198" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>115</v>
       </c>
@@ -5741,7 +5754,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>115</v>
       </c>
@@ -5755,7 +5768,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>115</v>
       </c>
@@ -5769,7 +5782,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>115</v>
       </c>
@@ -5783,7 +5796,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>115</v>
       </c>
@@ -5797,7 +5810,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>115</v>
       </c>
@@ -5811,7 +5824,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>115</v>
       </c>
@@ -5825,7 +5838,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>115</v>
       </c>
@@ -5839,7 +5852,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>115</v>
       </c>
@@ -5853,7 +5866,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>115</v>
       </c>
@@ -5867,7 +5880,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>115</v>
       </c>
@@ -5881,7 +5894,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>115</v>
       </c>
@@ -5895,7 +5908,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>115</v>
       </c>
@@ -5909,7 +5922,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>115</v>
       </c>
@@ -5923,7 +5936,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>115</v>
       </c>
@@ -5937,7 +5950,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>115</v>
       </c>
@@ -5951,7 +5964,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>115</v>
       </c>
@@ -5965,7 +5978,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>116</v>
       </c>
@@ -5984,11 +5997,11 @@
       <c r="F216" t="s">
         <v>487</v>
       </c>
-      <c r="K216" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I216" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>116</v>
       </c>
@@ -6002,7 +6015,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>116</v>
       </c>
@@ -6016,7 +6029,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>116</v>
       </c>
@@ -6030,7 +6043,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>116</v>
       </c>
@@ -6044,7 +6057,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>116</v>
       </c>
@@ -6058,7 +6071,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>116</v>
       </c>
@@ -6072,7 +6085,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>116</v>
       </c>
@@ -6086,7 +6099,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>116</v>
       </c>
@@ -6100,7 +6113,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>116</v>
       </c>
@@ -6114,7 +6127,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>116</v>
       </c>
@@ -6128,7 +6141,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>116</v>
       </c>
@@ -6142,7 +6155,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>116</v>
       </c>
@@ -6156,7 +6169,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>116</v>
       </c>
@@ -6170,7 +6183,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>116</v>
       </c>
@@ -6184,7 +6197,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>116</v>
       </c>
@@ -6198,7 +6211,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>116</v>
       </c>
@@ -6212,7 +6225,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>116</v>
       </c>
@@ -6226,7 +6239,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>150</v>
       </c>
@@ -6245,11 +6258,11 @@
       <c r="F234" t="s">
         <v>487</v>
       </c>
-      <c r="K234" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I234" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>150</v>
       </c>
@@ -6263,7 +6276,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>150</v>
       </c>
@@ -6277,7 +6290,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>150</v>
       </c>
@@ -6291,7 +6304,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>150</v>
       </c>
@@ -6305,7 +6318,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>152</v>
       </c>
@@ -6324,11 +6337,11 @@
       <c r="F239" t="s">
         <v>487</v>
       </c>
-      <c r="K239" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I239" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>152</v>
       </c>
@@ -6342,7 +6355,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>152</v>
       </c>
@@ -6356,7 +6369,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>152</v>
       </c>
@@ -6370,7 +6383,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>152</v>
       </c>
@@ -6384,7 +6397,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>159</v>
       </c>
@@ -6403,11 +6416,11 @@
       <c r="F244" t="s">
         <v>487</v>
       </c>
-      <c r="K244" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I244" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>161</v>
       </c>
@@ -6426,11 +6439,11 @@
       <c r="F245" t="s">
         <v>487</v>
       </c>
-      <c r="K245" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I245" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>163</v>
       </c>
@@ -6449,11 +6462,11 @@
       <c r="F246" t="s">
         <v>487</v>
       </c>
-      <c r="K246" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I246" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>165</v>
       </c>
@@ -6472,11 +6485,11 @@
       <c r="F247" t="s">
         <v>487</v>
       </c>
-      <c r="K247" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I247" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>166</v>
       </c>
@@ -6495,11 +6508,11 @@
       <c r="F248" t="s">
         <v>487</v>
       </c>
-      <c r="K248" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I248" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>166</v>
       </c>
@@ -6513,7 +6526,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>166</v>
       </c>
@@ -6527,7 +6540,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>166</v>
       </c>
@@ -6541,7 +6554,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>166</v>
       </c>
@@ -6555,7 +6568,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>166</v>
       </c>
@@ -6569,7 +6582,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>166</v>
       </c>
@@ -6583,7 +6596,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>166</v>
       </c>
@@ -6597,7 +6610,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>166</v>
       </c>
@@ -6611,7 +6624,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>184</v>
       </c>
@@ -6630,11 +6643,11 @@
       <c r="F257" t="s">
         <v>487</v>
       </c>
-      <c r="K257" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I257" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>184</v>
       </c>
@@ -6648,7 +6661,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>184</v>
       </c>
@@ -6662,7 +6675,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>184</v>
       </c>
@@ -6676,7 +6689,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>184</v>
       </c>
@@ -6690,7 +6703,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>184</v>
       </c>
@@ -6704,7 +6717,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>184</v>
       </c>
@@ -6718,7 +6731,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>184</v>
       </c>
@@ -6732,7 +6745,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>184</v>
       </c>
@@ -6746,7 +6759,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>577</v>
       </c>
@@ -6765,11 +6778,11 @@
       <c r="F266" t="s">
         <v>487</v>
       </c>
-      <c r="K266" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I266" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>577</v>
       </c>
@@ -6783,7 +6796,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>577</v>
       </c>
@@ -6797,7 +6810,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>577</v>
       </c>
@@ -6811,7 +6824,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>569</v>
       </c>
@@ -6830,11 +6843,11 @@
       <c r="F270" t="s">
         <v>487</v>
       </c>
-      <c r="K270" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I270" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>569</v>
       </c>
@@ -6848,7 +6861,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>569</v>
       </c>
@@ -7086,7 +7099,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>569</v>
       </c>
@@ -7100,7 +7113,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>569</v>
       </c>
@@ -7114,7 +7127,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>569</v>
       </c>
@@ -7128,7 +7141,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>569</v>
       </c>
@@ -7142,7 +7155,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>569</v>
       </c>
@@ -7156,7 +7169,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>569</v>
       </c>
@@ -7170,7 +7183,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>569</v>
       </c>
@@ -7184,7 +7197,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>569</v>
       </c>
@@ -7198,7 +7211,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>570</v>
       </c>
@@ -7217,11 +7230,11 @@
       <c r="F297" t="s">
         <v>487</v>
       </c>
-      <c r="K297" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I297" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>570</v>
       </c>
@@ -7235,7 +7248,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>570</v>
       </c>
@@ -7249,7 +7262,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>570</v>
       </c>
@@ -7263,7 +7276,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>570</v>
       </c>
@@ -7277,7 +7290,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>570</v>
       </c>
@@ -7291,7 +7304,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>570</v>
       </c>
@@ -7305,7 +7318,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>570</v>
       </c>
@@ -7558,7 +7571,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>228</v>
       </c>
@@ -7572,7 +7585,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>228</v>
       </c>
@@ -7586,7 +7599,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>228</v>
       </c>
@@ -7600,7 +7613,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>228</v>
       </c>
@@ -7614,7 +7627,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>228</v>
       </c>
@@ -7628,7 +7641,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>228</v>
       </c>
@@ -7642,7 +7655,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>234</v>
       </c>
@@ -7665,7 +7678,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>236</v>
       </c>
@@ -7688,7 +7701,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>238</v>
       </c>
@@ -7711,7 +7724,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>240</v>
       </c>
@@ -7734,7 +7747,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>242</v>
       </c>
@@ -7757,7 +7770,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>244</v>
       </c>
@@ -7780,7 +7793,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="333" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A333" s="3" t="s">
         <v>246</v>
       </c>
@@ -7802,9 +7815,11 @@
       <c r="G333" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="L333"/>
-    </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J333"/>
+      <c r="K333"/>
+      <c r="N333"/>
+    </row>
+    <row r="334" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>247</v>
       </c>
@@ -7827,7 +7842,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>249</v>
       </c>
@@ -7850,7 +7865,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>251</v>
       </c>
@@ -7873,7 +7888,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>253</v>
       </c>
@@ -7896,7 +7911,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>255</v>
       </c>
@@ -7919,7 +7934,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>257</v>
       </c>
@@ -7942,7 +7957,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>259</v>
       </c>
@@ -7965,7 +7980,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>261</v>
       </c>
@@ -7988,7 +8003,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>263</v>
       </c>
@@ -8008,7 +8023,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>263</v>
       </c>
@@ -8022,7 +8037,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>263</v>
       </c>
@@ -8036,7 +8051,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>263</v>
       </c>
@@ -8050,7 +8065,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>263</v>
       </c>
@@ -8064,7 +8079,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>269</v>
       </c>
@@ -8083,11 +8098,11 @@
       <c r="F347" t="s">
         <v>487</v>
       </c>
-      <c r="K347" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I347" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>269</v>
       </c>
@@ -8101,7 +8116,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>269</v>
       </c>
@@ -8115,7 +8130,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>269</v>
       </c>
@@ -8129,7 +8144,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>269</v>
       </c>
@@ -8143,7 +8158,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>269</v>
       </c>
@@ -8157,7 +8172,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>269</v>
       </c>
@@ -8171,7 +8186,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>269</v>
       </c>
@@ -8185,7 +8200,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>460</v>
       </c>
@@ -8204,14 +8219,14 @@
       <c r="F355" t="s">
         <v>487</v>
       </c>
-      <c r="I355">
+      <c r="L355">
         <v>0</v>
       </c>
-      <c r="J355">
+      <c r="M355">
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>279</v>
       </c>
@@ -8230,11 +8245,11 @@
       <c r="F356" t="s">
         <v>487</v>
       </c>
-      <c r="K356" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I356" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="357" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>281</v>
       </c>
@@ -8253,11 +8268,11 @@
       <c r="F357" t="s">
         <v>487</v>
       </c>
-      <c r="K357" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I357" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="358" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>281</v>
       </c>
@@ -8271,7 +8286,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>281</v>
       </c>
@@ -8285,7 +8300,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>281</v>
       </c>
@@ -8299,7 +8314,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>281</v>
       </c>
@@ -8313,7 +8328,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>281</v>
       </c>
@@ -8327,7 +8342,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>281</v>
       </c>
@@ -8341,7 +8356,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>281</v>
       </c>
@@ -8355,7 +8370,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>281</v>
       </c>
@@ -8369,7 +8384,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>281</v>
       </c>
@@ -8383,7 +8398,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>281</v>
       </c>
@@ -8397,7 +8412,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>281</v>
       </c>
@@ -8411,7 +8426,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>297</v>
       </c>
@@ -8431,7 +8446,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>297</v>
       </c>
@@ -8445,7 +8460,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>297</v>
       </c>
@@ -8459,7 +8474,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>297</v>
       </c>
@@ -8473,7 +8488,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>297</v>
       </c>
@@ -8487,7 +8502,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>297</v>
       </c>
@@ -8501,7 +8516,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>304</v>
       </c>
@@ -8521,7 +8536,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>304</v>
       </c>
@@ -8535,7 +8550,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>304</v>
       </c>
@@ -8549,7 +8564,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>304</v>
       </c>
@@ -8563,7 +8578,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>304</v>
       </c>
@@ -8577,7 +8592,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>310</v>
       </c>
@@ -8596,11 +8611,11 @@
       <c r="F380" t="s">
         <v>487</v>
       </c>
-      <c r="K380" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I380" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="381" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>310</v>
       </c>
@@ -8614,7 +8629,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>310</v>
       </c>
@@ -8628,7 +8643,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>310</v>
       </c>
@@ -8642,7 +8657,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>310</v>
       </c>
@@ -8898,7 +8913,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>330</v>
       </c>
@@ -8912,7 +8927,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>330</v>
       </c>
@@ -8926,7 +8941,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>330</v>
       </c>
@@ -8940,7 +8955,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="404" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>332</v>
       </c>
@@ -8960,7 +8975,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>332</v>
       </c>
@@ -8974,7 +8989,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>332</v>
       </c>
@@ -8988,7 +9003,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>332</v>
       </c>
@@ -9002,7 +9017,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>332</v>
       </c>
@@ -9016,7 +9031,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="409" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>336</v>
       </c>
@@ -9035,11 +9050,11 @@
       <c r="F409" t="s">
         <v>487</v>
       </c>
-      <c r="K409" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I409" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="410" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>338</v>
       </c>
@@ -9058,11 +9073,11 @@
       <c r="F410" t="s">
         <v>487</v>
       </c>
-      <c r="K410" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I410" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="411" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>340</v>
       </c>
@@ -9081,11 +9096,11 @@
       <c r="F411" t="s">
         <v>487</v>
       </c>
-      <c r="K411" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I411" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="412" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>342</v>
       </c>
@@ -9104,11 +9119,11 @@
       <c r="F412" t="s">
         <v>487</v>
       </c>
-      <c r="K412" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I412" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="413" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>344</v>
       </c>
@@ -9127,11 +9142,11 @@
       <c r="F413" t="s">
         <v>487</v>
       </c>
-      <c r="K413" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I413" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="414" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>346</v>
       </c>
@@ -9150,11 +9165,11 @@
       <c r="F414" t="s">
         <v>487</v>
       </c>
-      <c r="K414" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I414" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="415" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>348</v>
       </c>
@@ -9173,11 +9188,11 @@
       <c r="F415" t="s">
         <v>487</v>
       </c>
-      <c r="K415" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I415" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="416" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>350</v>
       </c>
@@ -9196,11 +9211,11 @@
       <c r="F416" t="s">
         <v>487</v>
       </c>
-      <c r="K416" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I416" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="417" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>352</v>
       </c>
@@ -9219,11 +9234,11 @@
       <c r="F417" t="s">
         <v>487</v>
       </c>
-      <c r="K417" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I417" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="418" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>354</v>
       </c>
@@ -9242,11 +9257,11 @@
       <c r="F418" t="s">
         <v>487</v>
       </c>
-      <c r="K418" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I418" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="419" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>356</v>
       </c>
@@ -9265,11 +9280,11 @@
       <c r="F419" t="s">
         <v>487</v>
       </c>
-      <c r="K419" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I419" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="420" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>358</v>
       </c>
@@ -9288,11 +9303,11 @@
       <c r="F420" t="s">
         <v>487</v>
       </c>
-      <c r="K420" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I420" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="421" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>578</v>
       </c>
@@ -9311,11 +9326,11 @@
       <c r="F421" t="s">
         <v>487</v>
       </c>
-      <c r="K421" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I421" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="422" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>578</v>
       </c>
@@ -9329,7 +9344,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>578</v>
       </c>
@@ -9343,7 +9358,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>578</v>
       </c>
@@ -9357,7 +9372,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>578</v>
       </c>
@@ -9371,7 +9386,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>578</v>
       </c>
@@ -9385,7 +9400,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>578</v>
       </c>
@@ -9399,7 +9414,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>578</v>
       </c>
@@ -9413,7 +9428,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>578</v>
       </c>
@@ -9427,7 +9442,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>578</v>
       </c>
@@ -9441,7 +9456,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>578</v>
       </c>
@@ -9455,7 +9470,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>578</v>
       </c>
@@ -9469,7 +9484,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>578</v>
       </c>
@@ -9483,7 +9498,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="434" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>376</v>
       </c>
@@ -9502,11 +9517,11 @@
       <c r="F434" t="s">
         <v>487</v>
       </c>
-      <c r="K434" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="435" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I434" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="435" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>376</v>
       </c>
@@ -9520,7 +9535,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>376</v>
       </c>
@@ -9534,7 +9549,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>376</v>
       </c>
@@ -9548,7 +9563,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="438" spans="1:11" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:9" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>378</v>
       </c>
@@ -9567,11 +9582,11 @@
       <c r="F438" t="s">
         <v>487</v>
       </c>
-      <c r="K438" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="439" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I438" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="439" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>378</v>
       </c>
@@ -9585,7 +9600,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>378</v>
       </c>
@@ -9599,7 +9614,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>378</v>
       </c>
@@ -9613,7 +9628,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>382</v>
       </c>
@@ -9632,11 +9647,11 @@
       <c r="F442" t="s">
         <v>487</v>
       </c>
-      <c r="K442" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I442" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="443" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>382</v>
       </c>
@@ -9650,7 +9665,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>382</v>
       </c>
@@ -9664,7 +9679,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>382</v>
       </c>
@@ -9678,7 +9693,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>382</v>
       </c>
@@ -9692,7 +9707,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>382</v>
       </c>
@@ -9706,7 +9721,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>384</v>
       </c>
@@ -9725,11 +9740,11 @@
       <c r="F448" t="s">
         <v>487</v>
       </c>
-      <c r="K448" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I448" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="449" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>384</v>
       </c>
@@ -9743,7 +9758,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>384</v>
       </c>
@@ -9757,7 +9772,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>384</v>
       </c>
@@ -9771,7 +9786,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>384</v>
       </c>
@@ -9785,7 +9800,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>384</v>
       </c>
@@ -9799,7 +9814,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>391</v>
       </c>
@@ -9818,11 +9833,11 @@
       <c r="F454" t="s">
         <v>487</v>
       </c>
-      <c r="K454" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I454" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="455" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>393</v>
       </c>
@@ -9841,11 +9856,11 @@
       <c r="F455" t="s">
         <v>487</v>
       </c>
-      <c r="K455" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I455" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="456" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>395</v>
       </c>
@@ -9865,7 +9880,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>396</v>
       </c>
@@ -9885,7 +9900,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>397</v>
       </c>
@@ -9908,7 +9923,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>399</v>
       </c>
@@ -9931,7 +9946,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>401</v>
       </c>
@@ -9950,11 +9965,11 @@
       <c r="F460" t="s">
         <v>487</v>
       </c>
-      <c r="K460" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I460" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="461" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>403</v>
       </c>
@@ -9973,11 +9988,11 @@
       <c r="F461" t="s">
         <v>487</v>
       </c>
-      <c r="K461" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I461" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="462" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>405</v>
       </c>
@@ -10000,7 +10015,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>406</v>
       </c>
@@ -10019,11 +10034,11 @@
       <c r="F463" t="s">
         <v>487</v>
       </c>
-      <c r="K463" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I463" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="464" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>0</v>
       </c>
@@ -10044,13 +10059,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M464" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O587">
+  <autoFilter ref="A1:O464" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q587">
       <sortCondition ref="F1:F587"/>
     </sortState>
   </autoFilter>
   <dataValidations count="1">
-    <dataValidation type="decimal" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="decimal" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576 J2:M1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -10068,7 +10083,7 @@
           <x14:formula1>
             <xm:f>validation_values!$B$1:$B$2</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F1048576 K2:K1048576</xm:sqref>
+          <xm:sqref>F2:F1048576 I2:I1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -10315,15 +10330,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DE904D578DFE6844BEAE84BDC2B4097E" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="50ebab51745edbac74153c776eff7922">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="847bd2b6-c417-48b3-84b7-e392c504f3bb" xmlns:ns4="f32a61f4-5698-46d5-9f56-343e6d7dc7d7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="48e32a04494ad4991fdbd7a90d4a41aa" ns3:_="" ns4:_="">
     <xsd:import namespace="847bd2b6-c417-48b3-84b7-e392c504f3bb"/>
@@ -10532,6 +10538,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8450404-B5A9-4CAE-AD2F-E650514D4870}">
   <ds:schemaRefs>
@@ -10550,14 +10565,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F5B82C4-8D32-4858-AE49-B9F718EB1758}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82216217-E566-4EBA-B2A2-632151E5C36C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10574,4 +10581,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F5B82C4-8D32-4858-AE49-B9F718EB1758}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/inst/extdata/e.g.dictionary.xlsx
+++ b/inst/extdata/e.g.dictionary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10313"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hdvincelette/Documents/GitHub/mdJSONdictio/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85503F46-D124-8E48-AC4A-6930E3AD5D7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5935625C-A82D-434A-AEFD-472AED192B24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="21320" windowHeight="10620" tabRatio="747" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1421,9 +1421,6 @@
     <t>megahertz</t>
   </si>
   <si>
-    <t>colname</t>
-  </si>
-  <si>
     <t>domainItem_name</t>
   </si>
   <si>
@@ -1827,6 +1824,9 @@
   </si>
   <si>
     <t>missingValue</t>
+  </si>
+  <si>
+    <t>dataElement</t>
   </si>
 </sst>
 </file>
@@ -2660,7 +2660,7 @@
   <dimension ref="A1:N464"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:M1048576"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2679,10 +2679,10 @@
         <v>409</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>466</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>467</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>412</v>
@@ -2703,10 +2703,10 @@
         <v>458</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>599</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>600</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>455</v>
@@ -2723,10 +2723,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="C2" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -2735,10 +2735,10 @@
         <v>459</v>
       </c>
       <c r="F2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="I2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -2774,10 +2774,10 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="C5" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -2786,7 +2786,7 @@
         <v>430</v>
       </c>
       <c r="F5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -2794,10 +2794,10 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="C6" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -2806,7 +2806,7 @@
         <v>430</v>
       </c>
       <c r="F6" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -2814,10 +2814,10 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="C7" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
@@ -2826,7 +2826,7 @@
         <v>452</v>
       </c>
       <c r="F7" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -2834,19 +2834,19 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="C8" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="D8" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E8" t="s">
         <v>430</v>
       </c>
       <c r="F8" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="L8">
         <v>1</v>
@@ -2860,10 +2860,10 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="C9" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
@@ -2872,7 +2872,7 @@
         <v>430</v>
       </c>
       <c r="F9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -2883,13 +2883,13 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B10" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="C10" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="D10" t="s">
         <v>19</v>
@@ -2898,21 +2898,21 @@
         <v>459</v>
       </c>
       <c r="F10" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I10" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B11" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="C11" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="D11" t="s">
         <v>20</v>
@@ -2921,15 +2921,15 @@
         <v>459</v>
       </c>
       <c r="F11" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I11" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
@@ -2943,7 +2943,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B13" t="s">
         <v>23</v>
@@ -2957,7 +2957,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -2971,7 +2971,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B15" t="s">
         <v>27</v>
@@ -2985,7 +2985,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -2999,13 +2999,13 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B17" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="C17" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="D17" t="s">
         <v>31</v>
@@ -3014,15 +3014,15 @@
         <v>459</v>
       </c>
       <c r="F17" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I17" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B18" t="s">
         <v>32</v>
@@ -3036,7 +3036,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B19" t="s">
         <v>34</v>
@@ -3050,7 +3050,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B20" t="s">
         <v>36</v>
@@ -3064,7 +3064,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B21" t="s">
         <v>38</v>
@@ -3078,7 +3078,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B22" t="s">
         <v>40</v>
@@ -3092,7 +3092,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B23" t="s">
         <v>42</v>
@@ -3106,13 +3106,13 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B24" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="C24" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="D24" t="s">
         <v>44</v>
@@ -3121,15 +3121,15 @@
         <v>459</v>
       </c>
       <c r="F24" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I24" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B25" t="s">
         <v>1</v>
@@ -3138,12 +3138,12 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B26" t="s">
         <v>2</v>
@@ -3157,7 +3157,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B27" t="s">
         <v>45</v>
@@ -3171,7 +3171,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B28" t="s">
         <v>47</v>
@@ -3180,12 +3180,12 @@
         <v>47</v>
       </c>
       <c r="D28" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B29" t="s">
         <v>48</v>
@@ -3199,7 +3199,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B30" t="s">
         <v>50</v>
@@ -3213,7 +3213,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B31" t="s">
         <v>52</v>
@@ -3227,7 +3227,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B32" t="s">
         <v>54</v>
@@ -3241,7 +3241,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B33" t="s">
         <v>56</v>
@@ -3255,7 +3255,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B34" t="s">
         <v>58</v>
@@ -3264,21 +3264,21 @@
         <v>58</v>
       </c>
       <c r="D34" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B35" t="s">
+        <v>572</v>
+      </c>
+      <c r="C35" t="s">
+        <v>572</v>
+      </c>
+      <c r="D35" t="s">
         <v>573</v>
-      </c>
-      <c r="C35" t="s">
-        <v>573</v>
-      </c>
-      <c r="D35" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -3286,22 +3286,22 @@
         <v>59</v>
       </c>
       <c r="B36" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="C36" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="D36" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E36" t="s">
         <v>459</v>
       </c>
       <c r="F36" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I36" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -3309,22 +3309,22 @@
         <v>60</v>
       </c>
       <c r="B37" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="C37" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="D37" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E37" t="s">
         <v>459</v>
       </c>
       <c r="F37" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I37" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
@@ -3332,10 +3332,10 @@
         <v>61</v>
       </c>
       <c r="B38" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="C38" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="D38" t="s">
         <v>62</v>
@@ -3344,7 +3344,7 @@
         <v>443</v>
       </c>
       <c r="F38" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G38" t="s">
         <v>462</v>
@@ -3355,10 +3355,10 @@
         <v>63</v>
       </c>
       <c r="B39" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="C39" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="D39" t="s">
         <v>64</v>
@@ -3367,7 +3367,7 @@
         <v>443</v>
       </c>
       <c r="F39" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G39" t="s">
         <v>462</v>
@@ -3378,10 +3378,10 @@
         <v>65</v>
       </c>
       <c r="B40" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="C40" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="D40" t="s">
         <v>66</v>
@@ -3390,7 +3390,7 @@
         <v>443</v>
       </c>
       <c r="F40" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
@@ -3398,10 +3398,10 @@
         <v>67</v>
       </c>
       <c r="B41" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="C41" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="D41" t="s">
         <v>68</v>
@@ -3410,7 +3410,7 @@
         <v>443</v>
       </c>
       <c r="F41" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
@@ -3418,10 +3418,10 @@
         <v>69</v>
       </c>
       <c r="B42" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="C42" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="D42" t="s">
         <v>70</v>
@@ -3430,10 +3430,10 @@
         <v>421</v>
       </c>
       <c r="F42" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I42" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
@@ -3469,10 +3469,10 @@
         <v>75</v>
       </c>
       <c r="B45" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="C45" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="D45" t="s">
         <v>76</v>
@@ -3481,7 +3481,7 @@
         <v>430</v>
       </c>
       <c r="F45" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
@@ -3489,22 +3489,22 @@
         <v>77</v>
       </c>
       <c r="B46" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="C46" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="D46" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E46" t="s">
         <v>459</v>
       </c>
       <c r="F46" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I46" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
@@ -3512,22 +3512,22 @@
         <v>78</v>
       </c>
       <c r="B47" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="C47" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="D47" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E47" t="s">
         <v>459</v>
       </c>
       <c r="F47" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I47" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
@@ -3535,10 +3535,10 @@
         <v>79</v>
       </c>
       <c r="B48" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="C48" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="D48" t="s">
         <v>80</v>
@@ -3547,7 +3547,7 @@
         <v>447</v>
       </c>
       <c r="F48" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
@@ -3555,10 +3555,10 @@
         <v>81</v>
       </c>
       <c r="B49" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="C49" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="D49" t="s">
         <v>82</v>
@@ -3567,35 +3567,35 @@
         <v>447</v>
       </c>
       <c r="F49" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B50" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="C50" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="D50" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E50" t="s">
         <v>421</v>
       </c>
       <c r="F50" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I50" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -3609,7 +3609,7 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B52">
         <v>4</v>
@@ -3623,7 +3623,7 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B53">
         <v>5</v>
@@ -3637,7 +3637,7 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B54">
         <v>6</v>
@@ -3651,7 +3651,7 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B55">
         <v>8</v>
@@ -3665,7 +3665,7 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B56">
         <v>9</v>
@@ -3679,7 +3679,7 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B57" t="s">
         <v>88</v>
@@ -3693,7 +3693,7 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B58" t="s">
         <v>90</v>
@@ -3707,21 +3707,21 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B59" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C59" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D59" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B60" t="s">
         <v>73</v>
@@ -3730,46 +3730,46 @@
         <v>73</v>
       </c>
       <c r="D60" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B61" t="s">
+        <v>539</v>
+      </c>
+      <c r="C61" t="s">
+        <v>539</v>
+      </c>
+      <c r="D61" t="s">
         <v>540</v>
-      </c>
-      <c r="C61" t="s">
-        <v>540</v>
-      </c>
-      <c r="D61" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B62" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="C62" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="D62" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E62" t="s">
         <v>459</v>
       </c>
       <c r="F62" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B63" t="s">
         <v>92</v>
@@ -3783,7 +3783,7 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B64" t="s">
         <v>94</v>
@@ -3797,7 +3797,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B65">
         <v>300</v>
@@ -3811,7 +3811,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B66">
         <v>301</v>
@@ -3825,7 +3825,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B67">
         <v>310</v>
@@ -3839,7 +3839,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B68">
         <v>315</v>
@@ -3853,7 +3853,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B69">
         <v>317</v>
@@ -3867,7 +3867,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B70">
         <v>318</v>
@@ -3881,7 +3881,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B71">
         <v>319</v>
@@ -3895,7 +3895,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B72">
         <v>325</v>
@@ -3909,7 +3909,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B73">
         <v>333</v>
@@ -3923,7 +3923,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B74">
         <v>334</v>
@@ -3937,7 +3937,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B75">
         <v>380</v>
@@ -3951,7 +3951,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B76">
         <v>381</v>
@@ -3965,7 +3965,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B77">
         <v>389</v>
@@ -3979,7 +3979,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B78">
         <v>390</v>
@@ -3993,162 +3993,162 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B79" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="C79" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="D79" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E79" t="s">
         <v>430</v>
       </c>
       <c r="F79" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
@@ -4156,22 +4156,22 @@
         <v>109</v>
       </c>
       <c r="B90" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="C90" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="D90" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E90" t="s">
         <v>459</v>
       </c>
       <c r="F90" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I90" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
@@ -4179,10 +4179,10 @@
         <v>109</v>
       </c>
       <c r="B91" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C91" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D91" t="s">
         <v>118</v>
@@ -4417,22 +4417,22 @@
         <v>110</v>
       </c>
       <c r="B108" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="C108" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="D108" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E108" t="s">
         <v>459</v>
       </c>
       <c r="F108" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I108" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
@@ -4440,10 +4440,10 @@
         <v>110</v>
       </c>
       <c r="B109" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C109" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D109" t="s">
         <v>118</v>
@@ -4678,22 +4678,22 @@
         <v>111</v>
       </c>
       <c r="B126" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="C126" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="D126" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E126" t="s">
         <v>459</v>
       </c>
       <c r="F126" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I126" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.2">
@@ -4701,10 +4701,10 @@
         <v>111</v>
       </c>
       <c r="B127" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C127" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D127" t="s">
         <v>118</v>
@@ -4939,22 +4939,22 @@
         <v>112</v>
       </c>
       <c r="B144" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="C144" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="D144" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E144" t="s">
         <v>459</v>
       </c>
       <c r="F144" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I144" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
@@ -4962,10 +4962,10 @@
         <v>112</v>
       </c>
       <c r="B145" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C145" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D145" t="s">
         <v>118</v>
@@ -5200,22 +5200,22 @@
         <v>113</v>
       </c>
       <c r="B162" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="C162" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="D162" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E162" t="s">
         <v>459</v>
       </c>
       <c r="F162" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I162" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.2">
@@ -5223,10 +5223,10 @@
         <v>113</v>
       </c>
       <c r="B163" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C163" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D163" t="s">
         <v>118</v>
@@ -5461,22 +5461,22 @@
         <v>114</v>
       </c>
       <c r="B180" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="C180" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="D180" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E180" t="s">
         <v>459</v>
       </c>
       <c r="F180" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I180" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.2">
@@ -5484,10 +5484,10 @@
         <v>114</v>
       </c>
       <c r="B181" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C181" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D181" t="s">
         <v>118</v>
@@ -5722,22 +5722,22 @@
         <v>115</v>
       </c>
       <c r="B198" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="C198" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="D198" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E198" t="s">
         <v>459</v>
       </c>
       <c r="F198" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I198" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.2">
@@ -5745,10 +5745,10 @@
         <v>115</v>
       </c>
       <c r="B199" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C199" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D199" t="s">
         <v>118</v>
@@ -5983,22 +5983,22 @@
         <v>116</v>
       </c>
       <c r="B216" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="C216" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="D216" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E216" t="s">
         <v>459</v>
       </c>
       <c r="F216" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I216" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.2">
@@ -6006,10 +6006,10 @@
         <v>116</v>
       </c>
       <c r="B217" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C217" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D217" t="s">
         <v>118</v>
@@ -6244,10 +6244,10 @@
         <v>150</v>
       </c>
       <c r="B234" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="C234" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="D234" t="s">
         <v>151</v>
@@ -6256,10 +6256,10 @@
         <v>459</v>
       </c>
       <c r="F234" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I234" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.2">
@@ -6323,10 +6323,10 @@
         <v>152</v>
       </c>
       <c r="B239" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="C239" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="D239" t="s">
         <v>153</v>
@@ -6335,10 +6335,10 @@
         <v>459</v>
       </c>
       <c r="F239" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I239" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.2">
@@ -6402,10 +6402,10 @@
         <v>159</v>
       </c>
       <c r="B244" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="C244" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="D244" t="s">
         <v>160</v>
@@ -6414,10 +6414,10 @@
         <v>459</v>
       </c>
       <c r="F244" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I244" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.2">
@@ -6425,10 +6425,10 @@
         <v>161</v>
       </c>
       <c r="B245" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="C245" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="D245" t="s">
         <v>162</v>
@@ -6437,10 +6437,10 @@
         <v>459</v>
       </c>
       <c r="F245" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I245" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.2">
@@ -6448,10 +6448,10 @@
         <v>163</v>
       </c>
       <c r="B246" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="C246" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="D246" t="s">
         <v>164</v>
@@ -6460,10 +6460,10 @@
         <v>459</v>
       </c>
       <c r="F246" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I246" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.2">
@@ -6471,22 +6471,22 @@
         <v>165</v>
       </c>
       <c r="B247" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="C247" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="D247" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E247" t="s">
         <v>459</v>
       </c>
       <c r="F247" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I247" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.2">
@@ -6494,10 +6494,10 @@
         <v>166</v>
       </c>
       <c r="B248" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="C248" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="D248" t="s">
         <v>167</v>
@@ -6506,10 +6506,10 @@
         <v>459</v>
       </c>
       <c r="F248" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I248" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.2">
@@ -6629,10 +6629,10 @@
         <v>184</v>
       </c>
       <c r="B257" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="C257" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="D257" t="s">
         <v>185</v>
@@ -6641,10 +6641,10 @@
         <v>459</v>
       </c>
       <c r="F257" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I257" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.2">
@@ -6761,13 +6761,13 @@
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B266" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="C266" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="D266" t="s">
         <v>202</v>
@@ -6776,15 +6776,15 @@
         <v>421</v>
       </c>
       <c r="F266" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I266" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B267" t="s">
         <v>203</v>
@@ -6798,7 +6798,7 @@
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B268" t="s">
         <v>88</v>
@@ -6812,7 +6812,7 @@
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B269" t="s">
         <v>200</v>
@@ -6826,30 +6826,30 @@
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B270" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="C270" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="D270" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E270" t="s">
         <v>459</v>
       </c>
       <c r="F270" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I270" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B271" t="s">
         <v>207</v>
@@ -6863,7 +6863,7 @@
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B272" t="s">
         <v>209</v>
@@ -6877,7 +6877,7 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B273" t="s">
         <v>211</v>
@@ -6891,21 +6891,21 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B274" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="C274" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="D274" s="4" t="s">
         <v>518</v>
-      </c>
-      <c r="C274" s="4" t="s">
-        <v>518</v>
-      </c>
-      <c r="D274" s="4" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B275" t="s">
         <v>213</v>
@@ -6919,55 +6919,55 @@
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D276" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D277" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D278" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B279" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C279" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D279" t="s">
         <v>206</v>
@@ -6975,105 +6975,105 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B280" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="C280" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="D280" s="4" t="s">
         <v>521</v>
-      </c>
-      <c r="C280" s="4" t="s">
-        <v>521</v>
-      </c>
-      <c r="D280" s="4" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B281" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="C281" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="D281" s="4" t="s">
         <v>523</v>
-      </c>
-      <c r="C281" s="4" t="s">
-        <v>523</v>
-      </c>
-      <c r="D281" s="4" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D282" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B283" t="s">
+        <v>525</v>
+      </c>
+      <c r="C283" t="s">
+        <v>525</v>
+      </c>
+      <c r="D283" s="4" t="s">
         <v>526</v>
-      </c>
-      <c r="C283" t="s">
-        <v>526</v>
-      </c>
-      <c r="D283" s="4" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D284" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B285" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="C285" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="D285" s="4" t="s">
         <v>528</v>
-      </c>
-      <c r="C285" s="4" t="s">
-        <v>528</v>
-      </c>
-      <c r="D285" s="4" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D286" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B287" s="4" t="s">
         <v>216</v>
@@ -7082,26 +7082,26 @@
         <v>216</v>
       </c>
       <c r="D287" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B288" t="s">
+        <v>530</v>
+      </c>
+      <c r="C288" t="s">
+        <v>530</v>
+      </c>
+      <c r="D288" t="s">
         <v>531</v>
-      </c>
-      <c r="C288" t="s">
-        <v>531</v>
-      </c>
-      <c r="D288" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B289" s="4" t="s">
         <v>217</v>
@@ -7110,12 +7110,12 @@
         <v>217</v>
       </c>
       <c r="D289" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B290" t="s">
         <v>218</v>
@@ -7129,7 +7129,7 @@
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B291" s="4" t="s">
         <v>360</v>
@@ -7138,12 +7138,12 @@
         <v>360</v>
       </c>
       <c r="D291" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B292" t="s">
         <v>220</v>
@@ -7157,21 +7157,21 @@
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C293" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D293" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B294" s="4" t="s">
         <v>224</v>
@@ -7185,58 +7185,58 @@
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C295" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D295" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B296" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="C296" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="D296" s="4" t="s">
         <v>536</v>
-      </c>
-      <c r="C296" s="4" t="s">
-        <v>536</v>
-      </c>
-      <c r="D296" s="4" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B297" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="C297" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="D297" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E297" t="s">
         <v>459</v>
       </c>
       <c r="F297" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I297" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B298" t="s">
         <v>209</v>
@@ -7250,7 +7250,7 @@
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B299" t="s">
         <v>211</v>
@@ -7264,35 +7264,35 @@
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B300" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C300" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D300" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B301" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C301" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D301" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B302" t="s">
         <v>215</v>
@@ -7301,32 +7301,32 @@
         <v>215</v>
       </c>
       <c r="D302" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B303" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C303" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D303" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B304" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C304" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D304" t="s">
         <v>206</v>
@@ -7334,77 +7334,77 @@
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B305" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C305" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D305" s="4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B306" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C306" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D306" s="4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B307" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C307" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D307" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B308" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C308" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D308" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B309" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C309" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D309" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B310" t="s">
         <v>218</v>
@@ -7418,7 +7418,7 @@
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B311" t="s">
         <v>220</v>
@@ -7427,12 +7427,12 @@
         <v>220</v>
       </c>
       <c r="D311" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B312" t="s">
         <v>222</v>
@@ -7446,21 +7446,21 @@
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B313" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C313" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D313" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B314" t="s">
         <v>224</v>
@@ -7474,30 +7474,30 @@
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B315" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C315" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D315" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B316" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C316" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D316" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.2">
@@ -7505,10 +7505,10 @@
         <v>226</v>
       </c>
       <c r="B317" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="C317" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="D317" t="s">
         <v>227</v>
@@ -7517,7 +7517,7 @@
         <v>443</v>
       </c>
       <c r="F317" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G317" t="s">
         <v>461</v>
@@ -7528,10 +7528,10 @@
         <v>228</v>
       </c>
       <c r="B318" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="C318" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="D318" t="s">
         <v>229</v>
@@ -7540,7 +7540,7 @@
         <v>430</v>
       </c>
       <c r="F318" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.2">
@@ -7596,7 +7596,7 @@
         <v>3</v>
       </c>
       <c r="D322" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="323" spans="1:14" x14ac:dyDescent="0.2">
@@ -7624,7 +7624,7 @@
         <v>5</v>
       </c>
       <c r="D324" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="325" spans="1:14" x14ac:dyDescent="0.2">
@@ -7638,7 +7638,7 @@
         <v>6</v>
       </c>
       <c r="D325" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="326" spans="1:14" x14ac:dyDescent="0.2">
@@ -7652,7 +7652,7 @@
         <v>7</v>
       </c>
       <c r="D326" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="327" spans="1:14" x14ac:dyDescent="0.2">
@@ -7660,10 +7660,10 @@
         <v>234</v>
       </c>
       <c r="B327" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="C327" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="D327" t="s">
         <v>235</v>
@@ -7672,7 +7672,7 @@
         <v>443</v>
       </c>
       <c r="F327" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G327" t="s">
         <v>463</v>
@@ -7683,10 +7683,10 @@
         <v>236</v>
       </c>
       <c r="B328" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="C328" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="D328" t="s">
         <v>237</v>
@@ -7695,7 +7695,7 @@
         <v>443</v>
       </c>
       <c r="F328" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G328" t="s">
         <v>463</v>
@@ -7706,10 +7706,10 @@
         <v>238</v>
       </c>
       <c r="B329" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="C329" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="D329" t="s">
         <v>239</v>
@@ -7718,7 +7718,7 @@
         <v>443</v>
       </c>
       <c r="F329" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G329" t="s">
         <v>463</v>
@@ -7729,10 +7729,10 @@
         <v>240</v>
       </c>
       <c r="B330" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="C330" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="D330" t="s">
         <v>241</v>
@@ -7741,7 +7741,7 @@
         <v>443</v>
       </c>
       <c r="F330" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G330" t="s">
         <v>463</v>
@@ -7752,10 +7752,10 @@
         <v>242</v>
       </c>
       <c r="B331" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="C331" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="D331" t="s">
         <v>243</v>
@@ -7764,7 +7764,7 @@
         <v>443</v>
       </c>
       <c r="F331" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G331" t="s">
         <v>463</v>
@@ -7775,10 +7775,10 @@
         <v>244</v>
       </c>
       <c r="B332" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="C332" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="D332" t="s">
         <v>245</v>
@@ -7787,7 +7787,7 @@
         <v>443</v>
       </c>
       <c r="F332" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G332" t="s">
         <v>463</v>
@@ -7798,19 +7798,19 @@
         <v>246</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="C333" s="3" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="D333" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E333" s="3" t="s">
         <v>443</v>
       </c>
       <c r="F333" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G333" s="3" t="s">
         <v>463</v>
@@ -7824,10 +7824,10 @@
         <v>247</v>
       </c>
       <c r="B334" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="C334" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="D334" t="s">
         <v>248</v>
@@ -7836,7 +7836,7 @@
         <v>443</v>
       </c>
       <c r="F334" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G334" t="s">
         <v>463</v>
@@ -7847,10 +7847,10 @@
         <v>249</v>
       </c>
       <c r="B335" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="C335" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="D335" t="s">
         <v>250</v>
@@ -7859,7 +7859,7 @@
         <v>443</v>
       </c>
       <c r="F335" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G335" t="s">
         <v>463</v>
@@ -7870,10 +7870,10 @@
         <v>251</v>
       </c>
       <c r="B336" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="C336" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="D336" t="s">
         <v>252</v>
@@ -7882,7 +7882,7 @@
         <v>443</v>
       </c>
       <c r="F336" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G336" t="s">
         <v>463</v>
@@ -7893,10 +7893,10 @@
         <v>253</v>
       </c>
       <c r="B337" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="C337" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="D337" t="s">
         <v>254</v>
@@ -7905,7 +7905,7 @@
         <v>443</v>
       </c>
       <c r="F337" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G337" t="s">
         <v>463</v>
@@ -7916,10 +7916,10 @@
         <v>255</v>
       </c>
       <c r="B338" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="C338" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="D338" t="s">
         <v>256</v>
@@ -7928,7 +7928,7 @@
         <v>443</v>
       </c>
       <c r="F338" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G338" t="s">
         <v>463</v>
@@ -7939,10 +7939,10 @@
         <v>257</v>
       </c>
       <c r="B339" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="C339" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="D339" t="s">
         <v>258</v>
@@ -7951,7 +7951,7 @@
         <v>443</v>
       </c>
       <c r="F339" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G339" t="s">
         <v>463</v>
@@ -7962,10 +7962,10 @@
         <v>259</v>
       </c>
       <c r="B340" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="C340" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="D340" t="s">
         <v>260</v>
@@ -7974,7 +7974,7 @@
         <v>443</v>
       </c>
       <c r="F340" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G340" t="s">
         <v>463</v>
@@ -7985,10 +7985,10 @@
         <v>261</v>
       </c>
       <c r="B341" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="C341" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="D341" t="s">
         <v>262</v>
@@ -7997,7 +7997,7 @@
         <v>443</v>
       </c>
       <c r="F341" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G341" t="s">
         <v>463</v>
@@ -8008,10 +8008,10 @@
         <v>263</v>
       </c>
       <c r="B342" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="C342" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="D342" t="s">
         <v>264</v>
@@ -8020,7 +8020,7 @@
         <v>430</v>
       </c>
       <c r="F342" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.2">
@@ -8084,10 +8084,10 @@
         <v>269</v>
       </c>
       <c r="B347" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="C347" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="D347" t="s">
         <v>270</v>
@@ -8096,10 +8096,10 @@
         <v>421</v>
       </c>
       <c r="F347" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I347" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.2">
@@ -8205,19 +8205,19 @@
         <v>460</v>
       </c>
       <c r="B355" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="C355" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="D355" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E355" t="s">
         <v>443</v>
       </c>
       <c r="F355" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="L355">
         <v>0</v>
@@ -8231,10 +8231,10 @@
         <v>279</v>
       </c>
       <c r="B356" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="C356" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="D356" t="s">
         <v>280</v>
@@ -8243,10 +8243,10 @@
         <v>415</v>
       </c>
       <c r="F356" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I356" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="357" spans="1:13" x14ac:dyDescent="0.2">
@@ -8254,10 +8254,10 @@
         <v>281</v>
       </c>
       <c r="B357" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="C357" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="D357" t="s">
         <v>282</v>
@@ -8266,10 +8266,10 @@
         <v>421</v>
       </c>
       <c r="F357" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I357" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="358" spans="1:13" x14ac:dyDescent="0.2">
@@ -8431,10 +8431,10 @@
         <v>297</v>
       </c>
       <c r="B369" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="C369" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="D369" t="s">
         <v>298</v>
@@ -8443,7 +8443,7 @@
         <v>430</v>
       </c>
       <c r="F369" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="370" spans="1:9" x14ac:dyDescent="0.2">
@@ -8521,10 +8521,10 @@
         <v>304</v>
       </c>
       <c r="B375" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="C375" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="D375" t="s">
         <v>305</v>
@@ -8533,7 +8533,7 @@
         <v>430</v>
       </c>
       <c r="F375" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="376" spans="1:9" x14ac:dyDescent="0.2">
@@ -8597,10 +8597,10 @@
         <v>310</v>
       </c>
       <c r="B380" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="C380" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="D380" t="s">
         <v>311</v>
@@ -8609,10 +8609,10 @@
         <v>421</v>
       </c>
       <c r="F380" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I380" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="381" spans="1:9" x14ac:dyDescent="0.2">
@@ -8676,10 +8676,10 @@
         <v>317</v>
       </c>
       <c r="B385" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="C385" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="D385" t="s">
         <v>318</v>
@@ -8688,7 +8688,7 @@
         <v>430</v>
       </c>
       <c r="F385" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.2">
@@ -8780,10 +8780,10 @@
         <v>324</v>
       </c>
       <c r="B392" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="C392" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="D392" t="s">
         <v>325</v>
@@ -8792,7 +8792,7 @@
         <v>430</v>
       </c>
       <c r="F392" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.2">
@@ -8856,10 +8856,10 @@
         <v>330</v>
       </c>
       <c r="B397" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="C397" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="D397" t="s">
         <v>331</v>
@@ -8868,7 +8868,7 @@
         <v>430</v>
       </c>
       <c r="F397" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.2">
@@ -8960,10 +8960,10 @@
         <v>332</v>
       </c>
       <c r="B404" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="C404" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="D404" t="s">
         <v>333</v>
@@ -8972,7 +8972,7 @@
         <v>430</v>
       </c>
       <c r="F404" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="405" spans="1:9" x14ac:dyDescent="0.2">
@@ -9000,7 +9000,7 @@
         <v>1</v>
       </c>
       <c r="D406" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="407" spans="1:9" x14ac:dyDescent="0.2">
@@ -9014,7 +9014,7 @@
         <v>2</v>
       </c>
       <c r="D407" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="408" spans="1:9" x14ac:dyDescent="0.2">
@@ -9036,10 +9036,10 @@
         <v>336</v>
       </c>
       <c r="B409" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="C409" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="D409" t="s">
         <v>337</v>
@@ -9048,10 +9048,10 @@
         <v>415</v>
       </c>
       <c r="F409" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I409" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="410" spans="1:9" x14ac:dyDescent="0.2">
@@ -9059,10 +9059,10 @@
         <v>338</v>
       </c>
       <c r="B410" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="C410" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="D410" t="s">
         <v>339</v>
@@ -9071,10 +9071,10 @@
         <v>415</v>
       </c>
       <c r="F410" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I410" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="411" spans="1:9" x14ac:dyDescent="0.2">
@@ -9082,10 +9082,10 @@
         <v>340</v>
       </c>
       <c r="B411" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="C411" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="D411" t="s">
         <v>341</v>
@@ -9094,10 +9094,10 @@
         <v>415</v>
       </c>
       <c r="F411" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I411" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="412" spans="1:9" x14ac:dyDescent="0.2">
@@ -9105,10 +9105,10 @@
         <v>342</v>
       </c>
       <c r="B412" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="C412" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="D412" t="s">
         <v>343</v>
@@ -9117,10 +9117,10 @@
         <v>415</v>
       </c>
       <c r="F412" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I412" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="413" spans="1:9" x14ac:dyDescent="0.2">
@@ -9128,10 +9128,10 @@
         <v>344</v>
       </c>
       <c r="B413" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="C413" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="D413" t="s">
         <v>345</v>
@@ -9140,10 +9140,10 @@
         <v>415</v>
       </c>
       <c r="F413" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I413" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="414" spans="1:9" x14ac:dyDescent="0.2">
@@ -9151,10 +9151,10 @@
         <v>346</v>
       </c>
       <c r="B414" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="C414" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="D414" t="s">
         <v>347</v>
@@ -9163,10 +9163,10 @@
         <v>415</v>
       </c>
       <c r="F414" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I414" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="415" spans="1:9" x14ac:dyDescent="0.2">
@@ -9174,10 +9174,10 @@
         <v>348</v>
       </c>
       <c r="B415" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="C415" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="D415" t="s">
         <v>349</v>
@@ -9186,10 +9186,10 @@
         <v>415</v>
       </c>
       <c r="F415" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I415" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="416" spans="1:9" x14ac:dyDescent="0.2">
@@ -9197,10 +9197,10 @@
         <v>350</v>
       </c>
       <c r="B416" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="C416" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="D416" t="s">
         <v>351</v>
@@ -9209,10 +9209,10 @@
         <v>415</v>
       </c>
       <c r="F416" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I416" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="417" spans="1:9" x14ac:dyDescent="0.2">
@@ -9220,10 +9220,10 @@
         <v>352</v>
       </c>
       <c r="B417" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="C417" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="D417" t="s">
         <v>353</v>
@@ -9232,10 +9232,10 @@
         <v>415</v>
       </c>
       <c r="F417" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I417" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="418" spans="1:9" x14ac:dyDescent="0.2">
@@ -9243,10 +9243,10 @@
         <v>354</v>
       </c>
       <c r="B418" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="C418" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="D418" t="s">
         <v>355</v>
@@ -9255,10 +9255,10 @@
         <v>415</v>
       </c>
       <c r="F418" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I418" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="419" spans="1:9" x14ac:dyDescent="0.2">
@@ -9266,10 +9266,10 @@
         <v>356</v>
       </c>
       <c r="B419" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="C419" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="D419" t="s">
         <v>357</v>
@@ -9278,10 +9278,10 @@
         <v>415</v>
       </c>
       <c r="F419" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I419" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="420" spans="1:9" x14ac:dyDescent="0.2">
@@ -9289,10 +9289,10 @@
         <v>358</v>
       </c>
       <c r="B420" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="C420" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="D420" t="s">
         <v>359</v>
@@ -9301,38 +9301,38 @@
         <v>415</v>
       </c>
       <c r="F420" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I420" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="421" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B421" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="C421" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="D421" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E421" t="s">
         <v>459</v>
       </c>
       <c r="F421" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I421" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="422" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B422" t="s">
         <v>360</v>
@@ -9346,7 +9346,7 @@
     </row>
     <row r="423" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B423" t="s">
         <v>362</v>
@@ -9360,7 +9360,7 @@
     </row>
     <row r="424" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B424" t="s">
         <v>143</v>
@@ -9374,7 +9374,7 @@
     </row>
     <row r="425" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B425" t="s">
         <v>73</v>
@@ -9388,7 +9388,7 @@
     </row>
     <row r="426" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B426" t="s">
         <v>366</v>
@@ -9402,7 +9402,7 @@
     </row>
     <row r="427" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B427" t="s">
         <v>90</v>
@@ -9416,7 +9416,7 @@
     </row>
     <row r="428" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B428" t="s">
         <v>369</v>
@@ -9425,12 +9425,12 @@
         <v>369</v>
       </c>
       <c r="D428" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="429" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B429" t="s">
         <v>370</v>
@@ -9439,12 +9439,12 @@
         <v>370</v>
       </c>
       <c r="D429" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="430" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B430" t="s">
         <v>371</v>
@@ -9453,12 +9453,12 @@
         <v>371</v>
       </c>
       <c r="D430" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="431" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B431" t="s">
         <v>372</v>
@@ -9467,12 +9467,12 @@
         <v>372</v>
       </c>
       <c r="D431" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="432" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B432" t="s">
         <v>373</v>
@@ -9486,7 +9486,7 @@
     </row>
     <row r="433" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B433" t="s">
         <v>375</v>
@@ -9495,7 +9495,7 @@
         <v>375</v>
       </c>
       <c r="D433" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="434" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9503,10 +9503,10 @@
         <v>376</v>
       </c>
       <c r="B434" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="C434" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="D434" t="s">
         <v>377</v>
@@ -9515,10 +9515,10 @@
         <v>459</v>
       </c>
       <c r="F434" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I434" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="435" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9546,7 +9546,7 @@
         <v>380</v>
       </c>
       <c r="D436" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="437" spans="1:9" x14ac:dyDescent="0.2">
@@ -9560,7 +9560,7 @@
         <v>381</v>
       </c>
       <c r="D437" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="438" spans="1:9" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9568,10 +9568,10 @@
         <v>378</v>
       </c>
       <c r="B438" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="C438" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="D438" t="s">
         <v>379</v>
@@ -9580,10 +9580,10 @@
         <v>459</v>
       </c>
       <c r="F438" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I438" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="439" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9611,7 +9611,7 @@
         <v>380</v>
       </c>
       <c r="D440" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="441" spans="1:9" x14ac:dyDescent="0.2">
@@ -9625,7 +9625,7 @@
         <v>381</v>
       </c>
       <c r="D441" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="442" spans="1:9" x14ac:dyDescent="0.2">
@@ -9633,10 +9633,10 @@
         <v>382</v>
       </c>
       <c r="B442" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="C442" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="D442" t="s">
         <v>383</v>
@@ -9645,10 +9645,10 @@
         <v>459</v>
       </c>
       <c r="F442" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I442" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="443" spans="1:9" x14ac:dyDescent="0.2">
@@ -9662,7 +9662,7 @@
         <v>386</v>
       </c>
       <c r="D443" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="444" spans="1:9" x14ac:dyDescent="0.2">
@@ -9676,7 +9676,7 @@
         <v>387</v>
       </c>
       <c r="D444" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="445" spans="1:9" x14ac:dyDescent="0.2">
@@ -9690,7 +9690,7 @@
         <v>388</v>
       </c>
       <c r="D445" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="446" spans="1:9" x14ac:dyDescent="0.2">
@@ -9704,7 +9704,7 @@
         <v>389</v>
       </c>
       <c r="D446" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="447" spans="1:9" x14ac:dyDescent="0.2">
@@ -9718,7 +9718,7 @@
         <v>390</v>
       </c>
       <c r="D447" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="448" spans="1:9" x14ac:dyDescent="0.2">
@@ -9726,10 +9726,10 @@
         <v>384</v>
       </c>
       <c r="B448" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="C448" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="D448" t="s">
         <v>385</v>
@@ -9738,10 +9738,10 @@
         <v>459</v>
       </c>
       <c r="F448" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I448" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="449" spans="1:9" x14ac:dyDescent="0.2">
@@ -9755,7 +9755,7 @@
         <v>386</v>
       </c>
       <c r="D449" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="450" spans="1:9" x14ac:dyDescent="0.2">
@@ -9769,7 +9769,7 @@
         <v>387</v>
       </c>
       <c r="D450" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="451" spans="1:9" x14ac:dyDescent="0.2">
@@ -9783,7 +9783,7 @@
         <v>388</v>
       </c>
       <c r="D451" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="452" spans="1:9" x14ac:dyDescent="0.2">
@@ -9797,7 +9797,7 @@
         <v>389</v>
       </c>
       <c r="D452" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="453" spans="1:9" x14ac:dyDescent="0.2">
@@ -9811,7 +9811,7 @@
         <v>390</v>
       </c>
       <c r="D453" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="454" spans="1:9" x14ac:dyDescent="0.2">
@@ -9819,10 +9819,10 @@
         <v>391</v>
       </c>
       <c r="B454" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="C454" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="D454" t="s">
         <v>392</v>
@@ -9831,10 +9831,10 @@
         <v>459</v>
       </c>
       <c r="F454" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I454" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="455" spans="1:9" x14ac:dyDescent="0.2">
@@ -9842,10 +9842,10 @@
         <v>393</v>
       </c>
       <c r="B455" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="C455" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="D455" t="s">
         <v>394</v>
@@ -9854,10 +9854,10 @@
         <v>459</v>
       </c>
       <c r="F455" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I455" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="456" spans="1:9" x14ac:dyDescent="0.2">
@@ -9865,19 +9865,19 @@
         <v>395</v>
       </c>
       <c r="B456" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="C456" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="D456" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E456" t="s">
         <v>459</v>
       </c>
       <c r="F456" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="457" spans="1:9" x14ac:dyDescent="0.2">
@@ -9885,19 +9885,19 @@
         <v>396</v>
       </c>
       <c r="B457" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="C457" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="D457" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E457" t="s">
         <v>459</v>
       </c>
       <c r="F457" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="458" spans="1:9" x14ac:dyDescent="0.2">
@@ -9905,10 +9905,10 @@
         <v>397</v>
       </c>
       <c r="B458" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="C458" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="D458" t="s">
         <v>398</v>
@@ -9917,7 +9917,7 @@
         <v>443</v>
       </c>
       <c r="F458" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G458" t="s">
         <v>461</v>
@@ -9928,10 +9928,10 @@
         <v>399</v>
       </c>
       <c r="B459" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="C459" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="D459" t="s">
         <v>400</v>
@@ -9940,7 +9940,7 @@
         <v>443</v>
       </c>
       <c r="F459" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G459" t="s">
         <v>461</v>
@@ -9951,10 +9951,10 @@
         <v>401</v>
       </c>
       <c r="B460" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="C460" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="D460" t="s">
         <v>402</v>
@@ -9963,10 +9963,10 @@
         <v>459</v>
       </c>
       <c r="F460" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I460" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="461" spans="1:9" x14ac:dyDescent="0.2">
@@ -9974,10 +9974,10 @@
         <v>403</v>
       </c>
       <c r="B461" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="C461" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="D461" t="s">
         <v>404</v>
@@ -9986,10 +9986,10 @@
         <v>459</v>
       </c>
       <c r="F461" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I461" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="462" spans="1:9" x14ac:dyDescent="0.2">
@@ -9997,19 +9997,19 @@
         <v>405</v>
       </c>
       <c r="B462" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="C462" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="D462" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E462" t="s">
         <v>443</v>
       </c>
       <c r="F462" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G462" t="s">
         <v>464</v>
@@ -10020,10 +10020,10 @@
         <v>406</v>
       </c>
       <c r="B463" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="C463" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="D463" t="s">
         <v>407</v>
@@ -10032,10 +10032,10 @@
         <v>415</v>
       </c>
       <c r="F463" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I463" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="464" spans="1:9" x14ac:dyDescent="0.2">
@@ -10043,10 +10043,10 @@
         <v>0</v>
       </c>
       <c r="B464" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="C464" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="D464" t="s">
         <v>408</v>
@@ -10055,7 +10055,7 @@
         <v>459</v>
       </c>
       <c r="F464" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
   </sheetData>
@@ -10106,7 +10106,7 @@
         <v>414</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -10114,7 +10114,7 @@
         <v>415</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -10324,9 +10324,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10539,27 +10542,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8450404-B5A9-4CAE-AD2F-E650514D4870}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F5B82C4-8D32-4858-AE49-B9F718EB1758}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="f32a61f4-5698-46d5-9f56-343e6d7dc7d7"/>
-    <ds:schemaRef ds:uri="847bd2b6-c417-48b3-84b7-e392c504f3bb"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -10584,9 +10575,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F5B82C4-8D32-4858-AE49-B9F718EB1758}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8450404-B5A9-4CAE-AD2F-E650514D4870}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f32a61f4-5698-46d5-9f56-343e6d7dc7d7"/>
+    <ds:schemaRef ds:uri="847bd2b6-c417-48b3-84b7-e392c504f3bb"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/inst/extdata/e.g.dictionary.xlsx
+++ b/inst/extdata/e.g.dictionary.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10313"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hdvincelette/Documents/GitHub/mdJSONdictio/inst/extdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hvincelette\Documents\GitHub\mdJSONdictio\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5935625C-A82D-434A-AEFD-472AED192B24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="21320" windowHeight="10620" tabRatio="747" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="504" windowWidth="21324" windowHeight="10620" tabRatio="747"/>
   </bookViews>
   <sheets>
     <sheet name="data_dictionary" sheetId="1" r:id="rId1"/>
@@ -1730,12 +1729,6 @@
     <t>BBLDisposition</t>
   </si>
   <si>
-    <t>BBLHowAged</t>
-  </si>
-  <si>
-    <t>BBLHowSexed</t>
-  </si>
-  <si>
     <t>The BBL HowAged code describing how the captured bird was aged; multiple methods seperated by ','</t>
   </si>
   <si>
@@ -1827,12 +1820,18 @@
   </si>
   <si>
     <t>dataElement</t>
+  </si>
+  <si>
+    <t>HowAged</t>
+  </si>
+  <si>
+    <t>HowSexed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2656,25 +2655,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N464"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.83203125" customWidth="1"/>
-    <col min="2" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="30.83203125" customWidth="1"/>
+    <col min="1" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="30.77734375" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
     <col min="9" max="9" width="9" customWidth="1"/>
     <col min="10" max="11" width="15.33203125" customWidth="1"/>
     <col min="14" max="14" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>409</v>
       </c>
@@ -2703,10 +2703,10 @@
         <v>458</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>455</v>
@@ -2718,15 +2718,15 @@
         <v>413</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C2" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -2741,7 +2741,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2755,7 +2755,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2769,15 +2769,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C5" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -2789,15 +2789,15 @@
         <v>486</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C6" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -2809,15 +2809,15 @@
         <v>486</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C7" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
@@ -2829,15 +2829,15 @@
         <v>486</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C8" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D8" t="s">
         <v>483</v>
@@ -2855,15 +2855,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C9" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
@@ -2881,15 +2881,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>488</v>
       </c>
       <c r="B10" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C10" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D10" t="s">
         <v>19</v>
@@ -2904,15 +2904,15 @@
         <v>486</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>489</v>
       </c>
       <c r="B11" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C11" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D11" t="s">
         <v>20</v>
@@ -2927,7 +2927,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>489</v>
       </c>
@@ -2941,7 +2941,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>489</v>
       </c>
@@ -2955,7 +2955,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>489</v>
       </c>
@@ -2969,7 +2969,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>489</v>
       </c>
@@ -2983,7 +2983,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>489</v>
       </c>
@@ -2997,15 +2997,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>490</v>
       </c>
       <c r="B17" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C17" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D17" t="s">
         <v>31</v>
@@ -3020,7 +3020,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>490</v>
       </c>
@@ -3034,7 +3034,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>490</v>
       </c>
@@ -3048,7 +3048,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>490</v>
       </c>
@@ -3062,7 +3062,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>490</v>
       </c>
@@ -3076,7 +3076,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>490</v>
       </c>
@@ -3090,7 +3090,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>490</v>
       </c>
@@ -3104,15 +3104,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>491</v>
       </c>
       <c r="B24" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C24" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D24" t="s">
         <v>44</v>
@@ -3127,7 +3127,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>491</v>
       </c>
@@ -3138,10 +3138,10 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>491</v>
       </c>
@@ -3155,7 +3155,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>491</v>
       </c>
@@ -3169,7 +3169,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>491</v>
       </c>
@@ -3183,7 +3183,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>491</v>
       </c>
@@ -3197,7 +3197,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>491</v>
       </c>
@@ -3211,7 +3211,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>491</v>
       </c>
@@ -3225,7 +3225,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>491</v>
       </c>
@@ -3239,7 +3239,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>491</v>
       </c>
@@ -3253,7 +3253,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>491</v>
       </c>
@@ -3264,32 +3264,32 @@
         <v>58</v>
       </c>
       <c r="D34" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>491</v>
       </c>
       <c r="B35" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C35" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D35" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>59</v>
       </c>
       <c r="B36" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C36" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D36" t="s">
         <v>482</v>
@@ -3304,15 +3304,15 @@
         <v>486</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>60</v>
       </c>
       <c r="B37" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C37" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D37" t="s">
         <v>484</v>
@@ -3327,15 +3327,15 @@
         <v>486</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>61</v>
       </c>
       <c r="B38" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C38" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D38" t="s">
         <v>62</v>
@@ -3350,15 +3350,15 @@
         <v>462</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>63</v>
       </c>
       <c r="B39" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C39" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D39" t="s">
         <v>64</v>
@@ -3373,15 +3373,15 @@
         <v>462</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>65</v>
       </c>
       <c r="B40" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C40" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D40" t="s">
         <v>66</v>
@@ -3393,15 +3393,15 @@
         <v>486</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>67</v>
       </c>
       <c r="B41" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C41" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D41" t="s">
         <v>68</v>
@@ -3413,15 +3413,15 @@
         <v>486</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>69</v>
       </c>
       <c r="B42" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C42" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D42" t="s">
         <v>70</v>
@@ -3436,7 +3436,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>69</v>
       </c>
@@ -3450,7 +3450,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>69</v>
       </c>
@@ -3464,15 +3464,15 @@
         <v>74</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>75</v>
       </c>
       <c r="B45" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C45" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D45" t="s">
         <v>76</v>
@@ -3484,18 +3484,18 @@
         <v>486</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>77</v>
       </c>
       <c r="B46" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C46" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D46" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="E46" t="s">
         <v>459</v>
@@ -3507,18 +3507,18 @@
         <v>486</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>78</v>
       </c>
       <c r="B47" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C47" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D47" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E47" t="s">
         <v>459</v>
@@ -3530,15 +3530,15 @@
         <v>486</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>79</v>
       </c>
       <c r="B48" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C48" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D48" t="s">
         <v>80</v>
@@ -3550,15 +3550,15 @@
         <v>486</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>81</v>
       </c>
       <c r="B49" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C49" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D49" t="s">
         <v>82</v>
@@ -3570,15 +3570,15 @@
         <v>486</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>567</v>
       </c>
       <c r="B50" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C50" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D50" t="s">
         <v>564</v>
@@ -3593,7 +3593,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>567</v>
       </c>
@@ -3607,7 +3607,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>567</v>
       </c>
@@ -3621,7 +3621,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>567</v>
       </c>
@@ -3635,7 +3635,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>567</v>
       </c>
@@ -3649,7 +3649,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>567</v>
       </c>
@@ -3663,7 +3663,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>567</v>
       </c>
@@ -3677,7 +3677,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>567</v>
       </c>
@@ -3691,7 +3691,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>567</v>
       </c>
@@ -3705,7 +3705,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>567</v>
       </c>
@@ -3719,7 +3719,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>567</v>
       </c>
@@ -3733,7 +3733,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>567</v>
       </c>
@@ -3747,18 +3747,18 @@
         <v>540</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>566</v>
       </c>
       <c r="B62" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C62" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D62" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E62" t="s">
         <v>459</v>
@@ -3767,7 +3767,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>566</v>
       </c>
@@ -3781,7 +3781,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>566</v>
       </c>
@@ -3795,7 +3795,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>566</v>
       </c>
@@ -3809,7 +3809,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>566</v>
       </c>
@@ -3823,7 +3823,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>566</v>
       </c>
@@ -3837,7 +3837,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>566</v>
       </c>
@@ -3851,7 +3851,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>566</v>
       </c>
@@ -3865,7 +3865,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>566</v>
       </c>
@@ -3879,7 +3879,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>566</v>
       </c>
@@ -3893,7 +3893,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>566</v>
       </c>
@@ -3907,7 +3907,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>566</v>
       </c>
@@ -3921,7 +3921,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>566</v>
       </c>
@@ -3935,7 +3935,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>566</v>
       </c>
@@ -3949,7 +3949,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>566</v>
       </c>
@@ -3963,7 +3963,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>566</v>
       </c>
@@ -3977,7 +3977,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>566</v>
       </c>
@@ -3991,15 +3991,15 @@
         <v>108</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>565</v>
       </c>
       <c r="B79" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C79" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D79" t="s">
         <v>563</v>
@@ -4011,7 +4011,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>565</v>
       </c>
@@ -4025,7 +4025,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>565</v>
       </c>
@@ -4039,7 +4039,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>565</v>
       </c>
@@ -4053,7 +4053,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>565</v>
       </c>
@@ -4067,7 +4067,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>565</v>
       </c>
@@ -4081,7 +4081,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>565</v>
       </c>
@@ -4095,7 +4095,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>565</v>
       </c>
@@ -4109,7 +4109,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>565</v>
       </c>
@@ -4123,7 +4123,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>565</v>
       </c>
@@ -4137,7 +4137,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>565</v>
       </c>
@@ -4151,18 +4151,18 @@
         <v>560</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>109</v>
       </c>
       <c r="B90" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C90" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D90" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="E90" t="s">
         <v>459</v>
@@ -4174,7 +4174,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>109</v>
       </c>
@@ -4188,7 +4188,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>109</v>
       </c>
@@ -4202,7 +4202,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>109</v>
       </c>
@@ -4216,7 +4216,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>109</v>
       </c>
@@ -4230,7 +4230,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>109</v>
       </c>
@@ -4244,7 +4244,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>109</v>
       </c>
@@ -4258,7 +4258,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>109</v>
       </c>
@@ -4272,7 +4272,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>109</v>
       </c>
@@ -4286,7 +4286,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>109</v>
       </c>
@@ -4300,7 +4300,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>109</v>
       </c>
@@ -4314,7 +4314,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>109</v>
       </c>
@@ -4328,7 +4328,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>109</v>
       </c>
@@ -4342,7 +4342,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>109</v>
       </c>
@@ -4356,7 +4356,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>109</v>
       </c>
@@ -4370,7 +4370,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>109</v>
       </c>
@@ -4384,7 +4384,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>109</v>
       </c>
@@ -4398,7 +4398,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>109</v>
       </c>
@@ -4412,18 +4412,18 @@
         <v>149</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>110</v>
       </c>
       <c r="B108" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C108" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D108" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="E108" t="s">
         <v>459</v>
@@ -4435,7 +4435,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>110</v>
       </c>
@@ -4449,7 +4449,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>110</v>
       </c>
@@ -4463,7 +4463,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -4477,7 +4477,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>110</v>
       </c>
@@ -4491,7 +4491,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>110</v>
       </c>
@@ -4505,7 +4505,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>110</v>
       </c>
@@ -4519,7 +4519,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>110</v>
       </c>
@@ -4533,7 +4533,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>110</v>
       </c>
@@ -4547,7 +4547,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>110</v>
       </c>
@@ -4561,7 +4561,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>110</v>
       </c>
@@ -4575,7 +4575,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>110</v>
       </c>
@@ -4589,7 +4589,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>110</v>
       </c>
@@ -4603,7 +4603,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>110</v>
       </c>
@@ -4617,7 +4617,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>110</v>
       </c>
@@ -4631,7 +4631,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>110</v>
       </c>
@@ -4645,7 +4645,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>110</v>
       </c>
@@ -4659,7 +4659,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>110</v>
       </c>
@@ -4673,18 +4673,18 @@
         <v>149</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>111</v>
       </c>
       <c r="B126" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C126" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D126" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="E126" t="s">
         <v>459</v>
@@ -4696,7 +4696,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>111</v>
       </c>
@@ -4710,7 +4710,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>111</v>
       </c>
@@ -4724,7 +4724,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>111</v>
       </c>
@@ -4738,7 +4738,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>111</v>
       </c>
@@ -4752,7 +4752,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>111</v>
       </c>
@@ -4766,7 +4766,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>111</v>
       </c>
@@ -4780,7 +4780,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>111</v>
       </c>
@@ -4794,7 +4794,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>111</v>
       </c>
@@ -4808,7 +4808,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>111</v>
       </c>
@@ -4822,7 +4822,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>111</v>
       </c>
@@ -4836,7 +4836,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>111</v>
       </c>
@@ -4850,7 +4850,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>111</v>
       </c>
@@ -4864,7 +4864,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>111</v>
       </c>
@@ -4878,7 +4878,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>111</v>
       </c>
@@ -4892,7 +4892,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>111</v>
       </c>
@@ -4906,7 +4906,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>111</v>
       </c>
@@ -4920,7 +4920,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>111</v>
       </c>
@@ -4934,18 +4934,18 @@
         <v>149</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>112</v>
       </c>
       <c r="B144" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C144" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D144" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="E144" t="s">
         <v>459</v>
@@ -4957,7 +4957,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>112</v>
       </c>
@@ -4971,7 +4971,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>112</v>
       </c>
@@ -4985,7 +4985,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>112</v>
       </c>
@@ -4999,7 +4999,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>112</v>
       </c>
@@ -5013,7 +5013,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>112</v>
       </c>
@@ -5027,7 +5027,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>112</v>
       </c>
@@ -5041,7 +5041,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>112</v>
       </c>
@@ -5055,7 +5055,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>112</v>
       </c>
@@ -5069,7 +5069,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>112</v>
       </c>
@@ -5083,7 +5083,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>112</v>
       </c>
@@ -5097,7 +5097,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>112</v>
       </c>
@@ -5111,7 +5111,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>112</v>
       </c>
@@ -5125,7 +5125,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>112</v>
       </c>
@@ -5139,7 +5139,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>112</v>
       </c>
@@ -5153,7 +5153,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>112</v>
       </c>
@@ -5167,7 +5167,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>112</v>
       </c>
@@ -5181,7 +5181,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>112</v>
       </c>
@@ -5195,18 +5195,18 @@
         <v>149</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>113</v>
       </c>
       <c r="B162" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C162" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D162" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E162" t="s">
         <v>459</v>
@@ -5218,7 +5218,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>113</v>
       </c>
@@ -5232,7 +5232,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>113</v>
       </c>
@@ -5246,7 +5246,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>113</v>
       </c>
@@ -5260,7 +5260,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>113</v>
       </c>
@@ -5274,7 +5274,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>113</v>
       </c>
@@ -5288,7 +5288,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>113</v>
       </c>
@@ -5302,7 +5302,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>113</v>
       </c>
@@ -5316,7 +5316,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>113</v>
       </c>
@@ -5330,7 +5330,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>113</v>
       </c>
@@ -5344,7 +5344,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>113</v>
       </c>
@@ -5358,7 +5358,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>113</v>
       </c>
@@ -5372,7 +5372,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>113</v>
       </c>
@@ -5386,7 +5386,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>113</v>
       </c>
@@ -5400,7 +5400,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>113</v>
       </c>
@@ -5414,7 +5414,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>113</v>
       </c>
@@ -5428,7 +5428,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>113</v>
       </c>
@@ -5442,7 +5442,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>113</v>
       </c>
@@ -5456,18 +5456,18 @@
         <v>149</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>114</v>
       </c>
       <c r="B180" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C180" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D180" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E180" t="s">
         <v>459</v>
@@ -5479,7 +5479,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>114</v>
       </c>
@@ -5493,7 +5493,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>114</v>
       </c>
@@ -5507,7 +5507,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>114</v>
       </c>
@@ -5521,7 +5521,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>114</v>
       </c>
@@ -5535,7 +5535,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>114</v>
       </c>
@@ -5549,7 +5549,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>114</v>
       </c>
@@ -5563,7 +5563,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>114</v>
       </c>
@@ -5577,7 +5577,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>114</v>
       </c>
@@ -5591,7 +5591,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>114</v>
       </c>
@@ -5605,7 +5605,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>114</v>
       </c>
@@ -5619,7 +5619,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>114</v>
       </c>
@@ -5633,7 +5633,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>114</v>
       </c>
@@ -5647,7 +5647,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>114</v>
       </c>
@@ -5661,7 +5661,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>114</v>
       </c>
@@ -5675,7 +5675,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>114</v>
       </c>
@@ -5689,7 +5689,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>114</v>
       </c>
@@ -5703,7 +5703,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>114</v>
       </c>
@@ -5717,18 +5717,18 @@
         <v>149</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>115</v>
       </c>
       <c r="B198" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C198" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D198" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E198" t="s">
         <v>459</v>
@@ -5740,7 +5740,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>115</v>
       </c>
@@ -5754,7 +5754,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>115</v>
       </c>
@@ -5768,7 +5768,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>115</v>
       </c>
@@ -5782,7 +5782,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>115</v>
       </c>
@@ -5796,7 +5796,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>115</v>
       </c>
@@ -5810,7 +5810,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>115</v>
       </c>
@@ -5824,7 +5824,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>115</v>
       </c>
@@ -5838,7 +5838,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>115</v>
       </c>
@@ -5852,7 +5852,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>115</v>
       </c>
@@ -5866,7 +5866,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>115</v>
       </c>
@@ -5880,7 +5880,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>115</v>
       </c>
@@ -5894,7 +5894,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>115</v>
       </c>
@@ -5908,7 +5908,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>115</v>
       </c>
@@ -5922,7 +5922,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>115</v>
       </c>
@@ -5936,7 +5936,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>115</v>
       </c>
@@ -5950,7 +5950,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>115</v>
       </c>
@@ -5964,7 +5964,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>115</v>
       </c>
@@ -5978,18 +5978,18 @@
         <v>149</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>116</v>
       </c>
       <c r="B216" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C216" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D216" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E216" t="s">
         <v>459</v>
@@ -6001,7 +6001,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>116</v>
       </c>
@@ -6015,7 +6015,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>116</v>
       </c>
@@ -6029,7 +6029,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>116</v>
       </c>
@@ -6043,7 +6043,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>116</v>
       </c>
@@ -6057,7 +6057,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>116</v>
       </c>
@@ -6071,7 +6071,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>116</v>
       </c>
@@ -6085,7 +6085,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>116</v>
       </c>
@@ -6099,7 +6099,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>116</v>
       </c>
@@ -6113,7 +6113,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>116</v>
       </c>
@@ -6127,7 +6127,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>116</v>
       </c>
@@ -6141,7 +6141,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>116</v>
       </c>
@@ -6155,7 +6155,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>116</v>
       </c>
@@ -6169,7 +6169,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>116</v>
       </c>
@@ -6183,7 +6183,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>116</v>
       </c>
@@ -6197,7 +6197,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>116</v>
       </c>
@@ -6211,7 +6211,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>116</v>
       </c>
@@ -6225,7 +6225,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>116</v>
       </c>
@@ -6239,15 +6239,15 @@
         <v>149</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>150</v>
       </c>
       <c r="B234" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C234" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D234" t="s">
         <v>151</v>
@@ -6262,7 +6262,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>150</v>
       </c>
@@ -6276,7 +6276,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>150</v>
       </c>
@@ -6290,7 +6290,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>150</v>
       </c>
@@ -6304,7 +6304,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>150</v>
       </c>
@@ -6318,15 +6318,15 @@
         <v>158</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>152</v>
       </c>
       <c r="B239" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C239" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D239" t="s">
         <v>153</v>
@@ -6341,7 +6341,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>152</v>
       </c>
@@ -6355,7 +6355,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>152</v>
       </c>
@@ -6369,7 +6369,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>152</v>
       </c>
@@ -6383,7 +6383,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>152</v>
       </c>
@@ -6397,15 +6397,15 @@
         <v>158</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>159</v>
       </c>
       <c r="B244" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C244" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D244" t="s">
         <v>160</v>
@@ -6420,15 +6420,15 @@
         <v>486</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>161</v>
       </c>
       <c r="B245" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C245" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D245" t="s">
         <v>162</v>
@@ -6443,15 +6443,15 @@
         <v>486</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>163</v>
       </c>
       <c r="B246" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C246" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D246" t="s">
         <v>164</v>
@@ -6466,15 +6466,15 @@
         <v>486</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>165</v>
       </c>
       <c r="B247" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C247" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D247" t="s">
         <v>537</v>
@@ -6489,15 +6489,15 @@
         <v>486</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>166</v>
       </c>
       <c r="B248" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C248" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D248" t="s">
         <v>167</v>
@@ -6512,7 +6512,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>166</v>
       </c>
@@ -6526,7 +6526,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>166</v>
       </c>
@@ -6540,7 +6540,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>166</v>
       </c>
@@ -6554,7 +6554,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>166</v>
       </c>
@@ -6568,7 +6568,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>166</v>
       </c>
@@ -6582,7 +6582,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>166</v>
       </c>
@@ -6596,7 +6596,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>166</v>
       </c>
@@ -6610,7 +6610,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>166</v>
       </c>
@@ -6624,15 +6624,15 @@
         <v>183</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>184</v>
       </c>
       <c r="B257" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C257" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D257" t="s">
         <v>185</v>
@@ -6647,7 +6647,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>184</v>
       </c>
@@ -6661,7 +6661,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>184</v>
       </c>
@@ -6675,7 +6675,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>184</v>
       </c>
@@ -6689,7 +6689,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>184</v>
       </c>
@@ -6703,7 +6703,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>184</v>
       </c>
@@ -6717,7 +6717,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>184</v>
       </c>
@@ -6731,7 +6731,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>184</v>
       </c>
@@ -6745,7 +6745,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>184</v>
       </c>
@@ -6759,15 +6759,15 @@
         <v>201</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B266" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C266" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D266" t="s">
         <v>202</v>
@@ -6782,9 +6782,9 @@
         <v>486</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B267" t="s">
         <v>203</v>
@@ -6796,9 +6796,9 @@
         <v>204</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B268" t="s">
         <v>88</v>
@@ -6810,9 +6810,9 @@
         <v>205</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B269" t="s">
         <v>200</v>
@@ -6824,18 +6824,18 @@
         <v>201</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
+        <v>599</v>
+      </c>
+      <c r="B270" t="s">
+        <v>598</v>
+      </c>
+      <c r="C270" t="s">
+        <v>598</v>
+      </c>
+      <c r="D270" t="s">
         <v>568</v>
-      </c>
-      <c r="B270" t="s">
-        <v>600</v>
-      </c>
-      <c r="C270" t="s">
-        <v>600</v>
-      </c>
-      <c r="D270" t="s">
-        <v>570</v>
       </c>
       <c r="E270" t="s">
         <v>459</v>
@@ -6847,9 +6847,9 @@
         <v>486</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>568</v>
+        <v>599</v>
       </c>
       <c r="B271" t="s">
         <v>207</v>
@@ -6861,9 +6861,9 @@
         <v>208</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>568</v>
+        <v>599</v>
       </c>
       <c r="B272" t="s">
         <v>209</v>
@@ -6875,9 +6875,9 @@
         <v>210</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>568</v>
+        <v>599</v>
       </c>
       <c r="B273" t="s">
         <v>211</v>
@@ -6889,9 +6889,9 @@
         <v>212</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>568</v>
+        <v>599</v>
       </c>
       <c r="B274" s="4" t="s">
         <v>517</v>
@@ -6903,9 +6903,9 @@
         <v>518</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>568</v>
+        <v>599</v>
       </c>
       <c r="B275" t="s">
         <v>213</v>
@@ -6917,9 +6917,9 @@
         <v>214</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>568</v>
+        <v>599</v>
       </c>
       <c r="B276" s="4" t="s">
         <v>492</v>
@@ -6931,9 +6931,9 @@
         <v>519</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>568</v>
+        <v>599</v>
       </c>
       <c r="B277" s="4" t="s">
         <v>493</v>
@@ -6945,9 +6945,9 @@
         <v>504</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>568</v>
+        <v>599</v>
       </c>
       <c r="B278" s="4" t="s">
         <v>494</v>
@@ -6959,9 +6959,9 @@
         <v>506</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>568</v>
+        <v>599</v>
       </c>
       <c r="B279" t="s">
         <v>495</v>
@@ -6973,9 +6973,9 @@
         <v>206</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>568</v>
+        <v>599</v>
       </c>
       <c r="B280" s="4" t="s">
         <v>520</v>
@@ -6987,9 +6987,9 @@
         <v>521</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>568</v>
+        <v>599</v>
       </c>
       <c r="B281" s="4" t="s">
         <v>522</v>
@@ -7001,9 +7001,9 @@
         <v>523</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>568</v>
+        <v>599</v>
       </c>
       <c r="B282" s="4" t="s">
         <v>497</v>
@@ -7015,9 +7015,9 @@
         <v>524</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>568</v>
+        <v>599</v>
       </c>
       <c r="B283" t="s">
         <v>525</v>
@@ -7029,9 +7029,9 @@
         <v>526</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>568</v>
+        <v>599</v>
       </c>
       <c r="B284" s="4" t="s">
         <v>499</v>
@@ -7043,9 +7043,9 @@
         <v>511</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>568</v>
+        <v>599</v>
       </c>
       <c r="B285" s="4" t="s">
         <v>527</v>
@@ -7057,9 +7057,9 @@
         <v>528</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>568</v>
+        <v>599</v>
       </c>
       <c r="B286" s="4" t="s">
         <v>500</v>
@@ -7071,9 +7071,9 @@
         <v>512</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>568</v>
+        <v>599</v>
       </c>
       <c r="B287" s="4" t="s">
         <v>216</v>
@@ -7085,9 +7085,9 @@
         <v>529</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>568</v>
+        <v>599</v>
       </c>
       <c r="B288" t="s">
         <v>530</v>
@@ -7099,9 +7099,9 @@
         <v>531</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>568</v>
+        <v>599</v>
       </c>
       <c r="B289" s="4" t="s">
         <v>217</v>
@@ -7113,9 +7113,9 @@
         <v>532</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>568</v>
+        <v>599</v>
       </c>
       <c r="B290" t="s">
         <v>218</v>
@@ -7127,9 +7127,9 @@
         <v>219</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>568</v>
+        <v>599</v>
       </c>
       <c r="B291" s="4" t="s">
         <v>360</v>
@@ -7141,9 +7141,9 @@
         <v>533</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>568</v>
+        <v>599</v>
       </c>
       <c r="B292" t="s">
         <v>220</v>
@@ -7155,9 +7155,9 @@
         <v>221</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>568</v>
+        <v>599</v>
       </c>
       <c r="B293" s="4" t="s">
         <v>501</v>
@@ -7169,9 +7169,9 @@
         <v>534</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>568</v>
+        <v>599</v>
       </c>
       <c r="B294" s="4" t="s">
         <v>224</v>
@@ -7183,9 +7183,9 @@
         <v>225</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>568</v>
+        <v>599</v>
       </c>
       <c r="B295" s="4" t="s">
         <v>502</v>
@@ -7197,9 +7197,9 @@
         <v>515</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>568</v>
+        <v>599</v>
       </c>
       <c r="B296" s="4" t="s">
         <v>535</v>
@@ -7211,18 +7211,18 @@
         <v>536</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
+        <v>600</v>
+      </c>
+      <c r="B297" t="s">
+        <v>598</v>
+      </c>
+      <c r="C297" t="s">
+        <v>598</v>
+      </c>
+      <c r="D297" t="s">
         <v>569</v>
-      </c>
-      <c r="B297" t="s">
-        <v>600</v>
-      </c>
-      <c r="C297" t="s">
-        <v>600</v>
-      </c>
-      <c r="D297" t="s">
-        <v>571</v>
       </c>
       <c r="E297" t="s">
         <v>459</v>
@@ -7234,9 +7234,9 @@
         <v>486</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>569</v>
+        <v>600</v>
       </c>
       <c r="B298" t="s">
         <v>209</v>
@@ -7248,9 +7248,9 @@
         <v>210</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>569</v>
+        <v>600</v>
       </c>
       <c r="B299" t="s">
         <v>211</v>
@@ -7262,9 +7262,9 @@
         <v>212</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>569</v>
+        <v>600</v>
       </c>
       <c r="B300" t="s">
         <v>492</v>
@@ -7276,9 +7276,9 @@
         <v>507</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>569</v>
+        <v>600</v>
       </c>
       <c r="B301" t="s">
         <v>493</v>
@@ -7290,9 +7290,9 @@
         <v>504</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>569</v>
+        <v>600</v>
       </c>
       <c r="B302" t="s">
         <v>215</v>
@@ -7304,9 +7304,9 @@
         <v>505</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>569</v>
+        <v>600</v>
       </c>
       <c r="B303" t="s">
         <v>494</v>
@@ -7318,9 +7318,9 @@
         <v>506</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>569</v>
+        <v>600</v>
       </c>
       <c r="B304" t="s">
         <v>495</v>
@@ -7332,9 +7332,9 @@
         <v>206</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>569</v>
+        <v>600</v>
       </c>
       <c r="B305" t="s">
         <v>496</v>
@@ -7346,9 +7346,9 @@
         <v>508</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>569</v>
+        <v>600</v>
       </c>
       <c r="B306" t="s">
         <v>497</v>
@@ -7360,9 +7360,9 @@
         <v>509</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>569</v>
+        <v>600</v>
       </c>
       <c r="B307" t="s">
         <v>498</v>
@@ -7374,9 +7374,9 @@
         <v>510</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>569</v>
+        <v>600</v>
       </c>
       <c r="B308" t="s">
         <v>499</v>
@@ -7388,9 +7388,9 @@
         <v>511</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>569</v>
+        <v>600</v>
       </c>
       <c r="B309" t="s">
         <v>500</v>
@@ -7402,9 +7402,9 @@
         <v>512</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>569</v>
+        <v>600</v>
       </c>
       <c r="B310" t="s">
         <v>218</v>
@@ -7416,9 +7416,9 @@
         <v>219</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>569</v>
+        <v>600</v>
       </c>
       <c r="B311" t="s">
         <v>220</v>
@@ -7430,9 +7430,9 @@
         <v>513</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>569</v>
+        <v>600</v>
       </c>
       <c r="B312" t="s">
         <v>222</v>
@@ -7444,9 +7444,9 @@
         <v>223</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>569</v>
+        <v>600</v>
       </c>
       <c r="B313" t="s">
         <v>501</v>
@@ -7458,9 +7458,9 @@
         <v>514</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>569</v>
+        <v>600</v>
       </c>
       <c r="B314" t="s">
         <v>224</v>
@@ -7472,9 +7472,9 @@
         <v>225</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>569</v>
+        <v>600</v>
       </c>
       <c r="B315" t="s">
         <v>502</v>
@@ -7486,9 +7486,9 @@
         <v>515</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>569</v>
+        <v>600</v>
       </c>
       <c r="B316" t="s">
         <v>503</v>
@@ -7500,15 +7500,15 @@
         <v>516</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>226</v>
       </c>
       <c r="B317" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C317" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D317" t="s">
         <v>227</v>
@@ -7523,15 +7523,15 @@
         <v>461</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>228</v>
       </c>
       <c r="B318" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C318" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D318" t="s">
         <v>229</v>
@@ -7543,7 +7543,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>228</v>
       </c>
@@ -7557,7 +7557,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>228</v>
       </c>
@@ -7571,7 +7571,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="321" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>228</v>
       </c>
@@ -7585,7 +7585,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="322" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>228</v>
       </c>
@@ -7596,10 +7596,10 @@
         <v>3</v>
       </c>
       <c r="D322" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="323" spans="1:14" x14ac:dyDescent="0.2">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="323" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>228</v>
       </c>
@@ -7613,7 +7613,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="324" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>228</v>
       </c>
@@ -7624,10 +7624,10 @@
         <v>5</v>
       </c>
       <c r="D324" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="325" spans="1:14" x14ac:dyDescent="0.2">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="325" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>228</v>
       </c>
@@ -7638,10 +7638,10 @@
         <v>6</v>
       </c>
       <c r="D325" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="326" spans="1:14" x14ac:dyDescent="0.2">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="326" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>228</v>
       </c>
@@ -7652,18 +7652,18 @@
         <v>7</v>
       </c>
       <c r="D326" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="327" spans="1:14" x14ac:dyDescent="0.2">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="327" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>234</v>
       </c>
       <c r="B327" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C327" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D327" t="s">
         <v>235</v>
@@ -7678,15 +7678,15 @@
         <v>463</v>
       </c>
     </row>
-    <row r="328" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>236</v>
       </c>
       <c r="B328" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C328" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D328" t="s">
         <v>237</v>
@@ -7701,15 +7701,15 @@
         <v>463</v>
       </c>
     </row>
-    <row r="329" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>238</v>
       </c>
       <c r="B329" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C329" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D329" t="s">
         <v>239</v>
@@ -7724,15 +7724,15 @@
         <v>463</v>
       </c>
     </row>
-    <row r="330" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>240</v>
       </c>
       <c r="B330" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C330" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D330" t="s">
         <v>241</v>
@@ -7747,15 +7747,15 @@
         <v>463</v>
       </c>
     </row>
-    <row r="331" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>242</v>
       </c>
       <c r="B331" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C331" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D331" t="s">
         <v>243</v>
@@ -7770,15 +7770,15 @@
         <v>463</v>
       </c>
     </row>
-    <row r="332" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>244</v>
       </c>
       <c r="B332" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C332" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D332" t="s">
         <v>245</v>
@@ -7793,18 +7793,18 @@
         <v>463</v>
       </c>
     </row>
-    <row r="333" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A333" s="3" t="s">
         <v>246</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C333" s="3" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D333" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E333" s="3" t="s">
         <v>443</v>
@@ -7819,15 +7819,15 @@
       <c r="K333"/>
       <c r="N333"/>
     </row>
-    <row r="334" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>247</v>
       </c>
       <c r="B334" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C334" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D334" t="s">
         <v>248</v>
@@ -7842,15 +7842,15 @@
         <v>463</v>
       </c>
     </row>
-    <row r="335" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>249</v>
       </c>
       <c r="B335" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C335" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D335" t="s">
         <v>250</v>
@@ -7865,15 +7865,15 @@
         <v>463</v>
       </c>
     </row>
-    <row r="336" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>251</v>
       </c>
       <c r="B336" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C336" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D336" t="s">
         <v>252</v>
@@ -7888,15 +7888,15 @@
         <v>463</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>253</v>
       </c>
       <c r="B337" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C337" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D337" t="s">
         <v>254</v>
@@ -7911,15 +7911,15 @@
         <v>463</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>255</v>
       </c>
       <c r="B338" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C338" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D338" t="s">
         <v>256</v>
@@ -7934,15 +7934,15 @@
         <v>463</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>257</v>
       </c>
       <c r="B339" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C339" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D339" t="s">
         <v>258</v>
@@ -7957,15 +7957,15 @@
         <v>463</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>259</v>
       </c>
       <c r="B340" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C340" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D340" t="s">
         <v>260</v>
@@ -7980,15 +7980,15 @@
         <v>463</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>261</v>
       </c>
       <c r="B341" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C341" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D341" t="s">
         <v>262</v>
@@ -8003,15 +8003,15 @@
         <v>463</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>263</v>
       </c>
       <c r="B342" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C342" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D342" t="s">
         <v>264</v>
@@ -8023,7 +8023,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>263</v>
       </c>
@@ -8037,7 +8037,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>263</v>
       </c>
@@ -8051,7 +8051,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>263</v>
       </c>
@@ -8065,7 +8065,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>263</v>
       </c>
@@ -8079,15 +8079,15 @@
         <v>268</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>269</v>
       </c>
       <c r="B347" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C347" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D347" t="s">
         <v>270</v>
@@ -8102,7 +8102,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>269</v>
       </c>
@@ -8116,7 +8116,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>269</v>
       </c>
@@ -8130,7 +8130,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>269</v>
       </c>
@@ -8144,7 +8144,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>269</v>
       </c>
@@ -8158,7 +8158,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>269</v>
       </c>
@@ -8172,7 +8172,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>269</v>
       </c>
@@ -8186,7 +8186,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>269</v>
       </c>
@@ -8200,15 +8200,15 @@
         <v>277</v>
       </c>
     </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>460</v>
       </c>
       <c r="B355" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C355" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D355" t="s">
         <v>485</v>
@@ -8226,15 +8226,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>279</v>
       </c>
       <c r="B356" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C356" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D356" t="s">
         <v>280</v>
@@ -8249,15 +8249,15 @@
         <v>486</v>
       </c>
     </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>281</v>
       </c>
       <c r="B357" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C357" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D357" t="s">
         <v>282</v>
@@ -8272,7 +8272,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>281</v>
       </c>
@@ -8286,7 +8286,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>281</v>
       </c>
@@ -8300,7 +8300,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>281</v>
       </c>
@@ -8314,7 +8314,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>281</v>
       </c>
@@ -8328,7 +8328,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>281</v>
       </c>
@@ -8342,7 +8342,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>281</v>
       </c>
@@ -8356,7 +8356,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>281</v>
       </c>
@@ -8370,7 +8370,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>281</v>
       </c>
@@ -8384,7 +8384,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>281</v>
       </c>
@@ -8398,7 +8398,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>281</v>
       </c>
@@ -8412,7 +8412,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>281</v>
       </c>
@@ -8426,15 +8426,15 @@
         <v>296</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>297</v>
       </c>
       <c r="B369" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C369" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D369" t="s">
         <v>298</v>
@@ -8446,7 +8446,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>297</v>
       </c>
@@ -8460,7 +8460,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>297</v>
       </c>
@@ -8474,7 +8474,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>297</v>
       </c>
@@ -8488,7 +8488,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>297</v>
       </c>
@@ -8502,7 +8502,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>297</v>
       </c>
@@ -8516,15 +8516,15 @@
         <v>303</v>
       </c>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>304</v>
       </c>
       <c r="B375" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C375" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D375" t="s">
         <v>305</v>
@@ -8536,7 +8536,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>304</v>
       </c>
@@ -8550,7 +8550,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>304</v>
       </c>
@@ -8564,7 +8564,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>304</v>
       </c>
@@ -8578,7 +8578,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>304</v>
       </c>
@@ -8592,15 +8592,15 @@
         <v>309</v>
       </c>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>310</v>
       </c>
       <c r="B380" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C380" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D380" t="s">
         <v>311</v>
@@ -8615,7 +8615,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>310</v>
       </c>
@@ -8629,7 +8629,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>310</v>
       </c>
@@ -8643,7 +8643,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>310</v>
       </c>
@@ -8657,7 +8657,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>310</v>
       </c>
@@ -8671,15 +8671,15 @@
         <v>316</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>317</v>
       </c>
       <c r="B385" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C385" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D385" t="s">
         <v>318</v>
@@ -8691,7 +8691,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>317</v>
       </c>
@@ -8705,7 +8705,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>317</v>
       </c>
@@ -8719,7 +8719,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>317</v>
       </c>
@@ -8733,7 +8733,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>317</v>
       </c>
@@ -8747,7 +8747,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>317</v>
       </c>
@@ -8761,7 +8761,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>317</v>
       </c>
@@ -8775,15 +8775,15 @@
         <v>323</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>324</v>
       </c>
       <c r="B392" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C392" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D392" t="s">
         <v>325</v>
@@ -8795,7 +8795,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>324</v>
       </c>
@@ -8809,7 +8809,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>324</v>
       </c>
@@ -8823,7 +8823,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>324</v>
       </c>
@@ -8837,7 +8837,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>324</v>
       </c>
@@ -8851,15 +8851,15 @@
         <v>329</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>330</v>
       </c>
       <c r="B397" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C397" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D397" t="s">
         <v>331</v>
@@ -8871,7 +8871,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>330</v>
       </c>
@@ -8885,7 +8885,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>330</v>
       </c>
@@ -8899,7 +8899,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>330</v>
       </c>
@@ -8913,7 +8913,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>330</v>
       </c>
@@ -8927,7 +8927,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>330</v>
       </c>
@@ -8941,7 +8941,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>330</v>
       </c>
@@ -8955,15 +8955,15 @@
         <v>323</v>
       </c>
     </row>
-    <row r="404" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>332</v>
       </c>
       <c r="B404" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C404" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D404" t="s">
         <v>333</v>
@@ -8975,7 +8975,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>332</v>
       </c>
@@ -8989,7 +8989,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>332</v>
       </c>
@@ -9003,7 +9003,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>332</v>
       </c>
@@ -9017,7 +9017,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>332</v>
       </c>
@@ -9031,15 +9031,15 @@
         <v>335</v>
       </c>
     </row>
-    <row r="409" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>336</v>
       </c>
       <c r="B409" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C409" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D409" t="s">
         <v>337</v>
@@ -9054,15 +9054,15 @@
         <v>486</v>
       </c>
     </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>338</v>
       </c>
       <c r="B410" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C410" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D410" t="s">
         <v>339</v>
@@ -9077,15 +9077,15 @@
         <v>486</v>
       </c>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>340</v>
       </c>
       <c r="B411" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C411" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D411" t="s">
         <v>341</v>
@@ -9100,15 +9100,15 @@
         <v>486</v>
       </c>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>342</v>
       </c>
       <c r="B412" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C412" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D412" t="s">
         <v>343</v>
@@ -9123,15 +9123,15 @@
         <v>486</v>
       </c>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>344</v>
       </c>
       <c r="B413" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C413" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D413" t="s">
         <v>345</v>
@@ -9146,15 +9146,15 @@
         <v>486</v>
       </c>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>346</v>
       </c>
       <c r="B414" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C414" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D414" t="s">
         <v>347</v>
@@ -9169,15 +9169,15 @@
         <v>486</v>
       </c>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>348</v>
       </c>
       <c r="B415" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C415" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D415" t="s">
         <v>349</v>
@@ -9192,15 +9192,15 @@
         <v>486</v>
       </c>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>350</v>
       </c>
       <c r="B416" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C416" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D416" t="s">
         <v>351</v>
@@ -9215,15 +9215,15 @@
         <v>486</v>
       </c>
     </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>352</v>
       </c>
       <c r="B417" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C417" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D417" t="s">
         <v>353</v>
@@ -9238,15 +9238,15 @@
         <v>486</v>
       </c>
     </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>354</v>
       </c>
       <c r="B418" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C418" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D418" t="s">
         <v>355</v>
@@ -9261,15 +9261,15 @@
         <v>486</v>
       </c>
     </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>356</v>
       </c>
       <c r="B419" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C419" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D419" t="s">
         <v>357</v>
@@ -9284,15 +9284,15 @@
         <v>486</v>
       </c>
     </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>358</v>
       </c>
       <c r="B420" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C420" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D420" t="s">
         <v>359</v>
@@ -9307,18 +9307,18 @@
         <v>486</v>
       </c>
     </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B421" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C421" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D421" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="E421" t="s">
         <v>459</v>
@@ -9330,9 +9330,9 @@
         <v>486</v>
       </c>
     </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B422" t="s">
         <v>360</v>
@@ -9344,9 +9344,9 @@
         <v>361</v>
       </c>
     </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B423" t="s">
         <v>362</v>
@@ -9358,9 +9358,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B424" t="s">
         <v>143</v>
@@ -9372,9 +9372,9 @@
         <v>364</v>
       </c>
     </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B425" t="s">
         <v>73</v>
@@ -9386,9 +9386,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B426" t="s">
         <v>366</v>
@@ -9400,9 +9400,9 @@
         <v>367</v>
       </c>
     </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B427" t="s">
         <v>90</v>
@@ -9414,9 +9414,9 @@
         <v>368</v>
       </c>
     </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B428" t="s">
         <v>369</v>
@@ -9428,9 +9428,9 @@
         <v>468</v>
       </c>
     </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B429" t="s">
         <v>370</v>
@@ -9442,9 +9442,9 @@
         <v>469</v>
       </c>
     </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B430" t="s">
         <v>371</v>
@@ -9456,9 +9456,9 @@
         <v>470</v>
       </c>
     </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B431" t="s">
         <v>372</v>
@@ -9470,9 +9470,9 @@
         <v>471</v>
       </c>
     </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B432" t="s">
         <v>373</v>
@@ -9484,9 +9484,9 @@
         <v>374</v>
       </c>
     </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B433" t="s">
         <v>375</v>
@@ -9498,15 +9498,15 @@
         <v>472</v>
       </c>
     </row>
-    <row r="434" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:9" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>376</v>
       </c>
       <c r="B434" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C434" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D434" t="s">
         <v>377</v>
@@ -9521,7 +9521,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="435" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>376</v>
       </c>
@@ -9535,7 +9535,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>376</v>
       </c>
@@ -9549,7 +9549,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>376</v>
       </c>
@@ -9563,15 +9563,15 @@
         <v>474</v>
       </c>
     </row>
-    <row r="438" spans="1:9" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:9" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>378</v>
       </c>
       <c r="B438" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C438" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D438" t="s">
         <v>379</v>
@@ -9586,7 +9586,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="439" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:9" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>378</v>
       </c>
@@ -9600,7 +9600,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>378</v>
       </c>
@@ -9614,7 +9614,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>378</v>
       </c>
@@ -9628,15 +9628,15 @@
         <v>474</v>
       </c>
     </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>382</v>
       </c>
       <c r="B442" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C442" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D442" t="s">
         <v>383</v>
@@ -9651,7 +9651,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>382</v>
       </c>
@@ -9665,7 +9665,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>382</v>
       </c>
@@ -9679,7 +9679,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>382</v>
       </c>
@@ -9693,7 +9693,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="446" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>382</v>
       </c>
@@ -9707,7 +9707,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>382</v>
       </c>
@@ -9721,15 +9721,15 @@
         <v>479</v>
       </c>
     </row>
-    <row r="448" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>384</v>
       </c>
       <c r="B448" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C448" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D448" t="s">
         <v>385</v>
@@ -9744,7 +9744,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>384</v>
       </c>
@@ -9758,7 +9758,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>384</v>
       </c>
@@ -9772,7 +9772,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>384</v>
       </c>
@@ -9786,7 +9786,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>384</v>
       </c>
@@ -9800,7 +9800,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>384</v>
       </c>
@@ -9814,15 +9814,15 @@
         <v>479</v>
       </c>
     </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>391</v>
       </c>
       <c r="B454" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C454" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D454" t="s">
         <v>392</v>
@@ -9837,15 +9837,15 @@
         <v>486</v>
       </c>
     </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>393</v>
       </c>
       <c r="B455" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C455" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D455" t="s">
         <v>394</v>
@@ -9860,18 +9860,18 @@
         <v>486</v>
       </c>
     </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>395</v>
       </c>
       <c r="B456" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C456" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D456" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="E456" t="s">
         <v>459</v>
@@ -9880,18 +9880,18 @@
         <v>486</v>
       </c>
     </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>396</v>
       </c>
       <c r="B457" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C457" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D457" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="E457" t="s">
         <v>459</v>
@@ -9900,15 +9900,15 @@
         <v>486</v>
       </c>
     </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>397</v>
       </c>
       <c r="B458" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C458" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D458" t="s">
         <v>398</v>
@@ -9923,15 +9923,15 @@
         <v>461</v>
       </c>
     </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>399</v>
       </c>
       <c r="B459" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C459" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D459" t="s">
         <v>400</v>
@@ -9946,15 +9946,15 @@
         <v>461</v>
       </c>
     </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>401</v>
       </c>
       <c r="B460" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C460" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D460" t="s">
         <v>402</v>
@@ -9969,15 +9969,15 @@
         <v>486</v>
       </c>
     </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>403</v>
       </c>
       <c r="B461" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C461" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D461" t="s">
         <v>404</v>
@@ -9992,18 +9992,18 @@
         <v>486</v>
       </c>
     </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>405</v>
       </c>
       <c r="B462" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C462" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D462" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="E462" t="s">
         <v>443</v>
@@ -10015,15 +10015,15 @@
         <v>464</v>
       </c>
     </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>406</v>
       </c>
       <c r="B463" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C463" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D463" t="s">
         <v>407</v>
@@ -10038,15 +10038,15 @@
         <v>486</v>
       </c>
     </row>
-    <row r="464" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>0</v>
       </c>
       <c r="B464" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C464" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D464" t="s">
         <v>408</v>
@@ -10059,13 +10059,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O464" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q587">
+  <autoFilter ref="A1:O464">
+    <sortState ref="A2:Q587">
       <sortCondition ref="F1:F587"/>
     </sortState>
   </autoFilter>
   <dataValidations count="1">
-    <dataValidation type="decimal" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576 J2:M1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="decimal" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576 J2:M1048576">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -10073,13 +10073,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>validation_values!$A$1:$A$62</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>validation_values!$B$1:$B$2</xm:f>
           </x14:formula1>
@@ -10092,16 +10092,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>414</v>
       </c>
@@ -10109,7 +10109,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>415</v>
       </c>
@@ -10117,202 +10117,202 @@
         <v>487</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>453</v>
       </c>
@@ -10324,15 +10324,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DE904D578DFE6844BEAE84BDC2B4097E" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="50ebab51745edbac74153c776eff7922">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="847bd2b6-c417-48b3-84b7-e392c504f3bb" xmlns:ns4="f32a61f4-5698-46d5-9f56-343e6d7dc7d7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="48e32a04494ad4991fdbd7a90d4a41aa" ns3:_="" ns4:_="">
     <xsd:import namespace="847bd2b6-c417-48b3-84b7-e392c504f3bb"/>
@@ -10541,21 +10532,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F5B82C4-8D32-4858-AE49-B9F718EB1758}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82216217-E566-4EBA-B2A2-632151E5C36C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10574,7 +10566,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8450404-B5A9-4CAE-AD2F-E650514D4870}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -10589,4 +10581,12 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F5B82C4-8D32-4858-AE49-B9F718EB1758}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/inst/extdata/e.g.dictionary.xlsx
+++ b/inst/extdata/e.g.dictionary.xlsx
@@ -1735,9 +1735,6 @@
     <t>missingValue</t>
   </si>
   <si>
-    <t>dataElement</t>
-  </si>
-  <si>
     <t>HowAged</t>
   </si>
   <si>
@@ -1805,6 +1802,9 @@
   </si>
   <si>
     <t>Radio transmitter</t>
+  </si>
+  <si>
+    <t>dataField</t>
   </si>
 </sst>
 </file>
@@ -2641,7 +2641,7 @@
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="E131" sqref="E131"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2703,10 +2703,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="C2" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -2754,10 +2754,10 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="C5" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -2774,10 +2774,10 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="C6" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -2794,10 +2794,10 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="C7" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
@@ -2814,10 +2814,10 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="C8" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="D8" t="s">
         <v>462</v>
@@ -2840,10 +2840,10 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="C9" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
@@ -2866,10 +2866,10 @@
         <v>467</v>
       </c>
       <c r="B10" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="C10" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="D10" t="s">
         <v>19</v>
@@ -2889,10 +2889,10 @@
         <v>468</v>
       </c>
       <c r="B11" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="C11" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="D11" t="s">
         <v>20</v>
@@ -2982,10 +2982,10 @@
         <v>469</v>
       </c>
       <c r="B17" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="C17" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="D17" t="s">
         <v>31</v>
@@ -3089,10 +3089,10 @@
         <v>470</v>
       </c>
       <c r="B24" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="C24" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="D24" t="s">
         <v>44</v>
@@ -3266,10 +3266,10 @@
         <v>59</v>
       </c>
       <c r="B36" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="C36" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="D36" t="s">
         <v>461</v>
@@ -3289,10 +3289,10 @@
         <v>60</v>
       </c>
       <c r="B37" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="C37" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="D37" t="s">
         <v>463</v>
@@ -3312,10 +3312,10 @@
         <v>61</v>
       </c>
       <c r="B38" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="C38" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="D38" t="s">
         <v>62</v>
@@ -3335,10 +3335,10 @@
         <v>63</v>
       </c>
       <c r="B39" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="C39" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="D39" t="s">
         <v>64</v>
@@ -3358,10 +3358,10 @@
         <v>67</v>
       </c>
       <c r="B40" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="C40" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="D40" t="s">
         <v>566</v>
@@ -3381,10 +3381,10 @@
         <v>68</v>
       </c>
       <c r="B41" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="C41" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="D41" t="s">
         <v>567</v>
@@ -3404,10 +3404,10 @@
         <v>69</v>
       </c>
       <c r="B42" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="C42" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="D42" t="s">
         <v>70</v>
@@ -3424,10 +3424,10 @@
         <v>71</v>
       </c>
       <c r="B43" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="C43" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="D43" t="s">
         <v>72</v>
@@ -3444,10 +3444,10 @@
         <v>546</v>
       </c>
       <c r="B44" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="C44" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="D44" t="s">
         <v>543</v>
@@ -3621,10 +3621,10 @@
         <v>545</v>
       </c>
       <c r="B56" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="C56" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="D56" t="s">
         <v>557</v>
@@ -3865,10 +3865,10 @@
         <v>544</v>
       </c>
       <c r="B73" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="C73" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="D73" t="s">
         <v>542</v>
@@ -4025,10 +4025,10 @@
         <v>99</v>
       </c>
       <c r="B84" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="C84" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="D84" t="s">
         <v>565</v>
@@ -4216,10 +4216,10 @@
         <v>99</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D97" s="6" t="s">
         <v>131</v>
@@ -4230,10 +4230,10 @@
         <v>99</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D98" s="6" t="s">
         <v>133</v>
@@ -4244,10 +4244,10 @@
         <v>99</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D99" s="6" t="s">
         <v>134</v>
@@ -4258,10 +4258,10 @@
         <v>99</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D100" s="6" t="s">
         <v>135</v>
@@ -4272,13 +4272,13 @@
         <v>99</v>
       </c>
       <c r="B101" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="D101" s="6" t="s">
         <v>577</v>
-      </c>
-      <c r="C101" s="6" t="s">
-        <v>577</v>
-      </c>
-      <c r="D101" s="6" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
@@ -4286,13 +4286,13 @@
         <v>100</v>
       </c>
       <c r="B102" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="D102" s="6" t="s">
         <v>579</v>
-      </c>
-      <c r="C102" s="6" t="s">
-        <v>579</v>
-      </c>
-      <c r="D102" s="6" t="s">
-        <v>580</v>
       </c>
       <c r="E102" t="s">
         <v>443</v>
@@ -4477,10 +4477,10 @@
         <v>100</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D115" s="6" t="s">
         <v>131</v>
@@ -4491,10 +4491,10 @@
         <v>100</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D116" s="6" t="s">
         <v>133</v>
@@ -4505,10 +4505,10 @@
         <v>100</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D117" s="6" t="s">
         <v>134</v>
@@ -4519,10 +4519,10 @@
         <v>100</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D118" s="6" t="s">
         <v>135</v>
@@ -4533,13 +4533,13 @@
         <v>100</v>
       </c>
       <c r="B119" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="D119" s="6" t="s">
         <v>577</v>
-      </c>
-      <c r="C119" s="6" t="s">
-        <v>577</v>
-      </c>
-      <c r="D119" s="6" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
@@ -4547,13 +4547,13 @@
         <v>101</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E120" t="s">
         <v>443</v>
@@ -4738,10 +4738,10 @@
         <v>101</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D133" s="6" t="s">
         <v>131</v>
@@ -4752,10 +4752,10 @@
         <v>101</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D134" s="6" t="s">
         <v>133</v>
@@ -4766,10 +4766,10 @@
         <v>101</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D135" s="6" t="s">
         <v>134</v>
@@ -4780,10 +4780,10 @@
         <v>101</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D136" s="6" t="s">
         <v>135</v>
@@ -4794,13 +4794,13 @@
         <v>101</v>
       </c>
       <c r="B137" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="D137" s="6" t="s">
         <v>577</v>
-      </c>
-      <c r="C137" s="6" t="s">
-        <v>577</v>
-      </c>
-      <c r="D137" s="6" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
@@ -4808,13 +4808,13 @@
         <v>102</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E138" t="s">
         <v>443</v>
@@ -4999,10 +4999,10 @@
         <v>102</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D151" s="6" t="s">
         <v>131</v>
@@ -5013,10 +5013,10 @@
         <v>102</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D152" s="6" t="s">
         <v>133</v>
@@ -5027,10 +5027,10 @@
         <v>102</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D153" s="6" t="s">
         <v>134</v>
@@ -5041,10 +5041,10 @@
         <v>102</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D154" s="6" t="s">
         <v>135</v>
@@ -5055,13 +5055,13 @@
         <v>102</v>
       </c>
       <c r="B155" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="C155" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="D155" s="6" t="s">
         <v>577</v>
-      </c>
-      <c r="C155" s="6" t="s">
-        <v>577</v>
-      </c>
-      <c r="D155" s="6" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.3">
@@ -5069,13 +5069,13 @@
         <v>103</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E156" t="s">
         <v>443</v>
@@ -5260,10 +5260,10 @@
         <v>103</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D169" s="6" t="s">
         <v>131</v>
@@ -5274,10 +5274,10 @@
         <v>103</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D170" s="6" t="s">
         <v>133</v>
@@ -5288,10 +5288,10 @@
         <v>103</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D171" s="6" t="s">
         <v>134</v>
@@ -5302,10 +5302,10 @@
         <v>103</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D172" s="6" t="s">
         <v>135</v>
@@ -5316,13 +5316,13 @@
         <v>103</v>
       </c>
       <c r="B173" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="C173" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="D173" s="6" t="s">
         <v>577</v>
-      </c>
-      <c r="C173" s="6" t="s">
-        <v>577</v>
-      </c>
-      <c r="D173" s="6" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.3">
@@ -5330,13 +5330,13 @@
         <v>104</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D174" s="6" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E174" t="s">
         <v>443</v>
@@ -5521,10 +5521,10 @@
         <v>104</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C187" s="6" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D187" s="6" t="s">
         <v>131</v>
@@ -5535,10 +5535,10 @@
         <v>104</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D188" s="6" t="s">
         <v>133</v>
@@ -5549,10 +5549,10 @@
         <v>104</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C189" s="6" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D189" s="6" t="s">
         <v>134</v>
@@ -5563,10 +5563,10 @@
         <v>104</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C190" s="6" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D190" s="6" t="s">
         <v>135</v>
@@ -5577,13 +5577,13 @@
         <v>104</v>
       </c>
       <c r="B191" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="C191" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="D191" s="6" t="s">
         <v>577</v>
-      </c>
-      <c r="C191" s="6" t="s">
-        <v>577</v>
-      </c>
-      <c r="D191" s="6" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.3">
@@ -5591,13 +5591,13 @@
         <v>105</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C192" s="6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D192" s="6" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E192" t="s">
         <v>443</v>
@@ -5782,10 +5782,10 @@
         <v>105</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C205" s="6" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D205" s="6" t="s">
         <v>131</v>
@@ -5796,10 +5796,10 @@
         <v>105</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C206" s="6" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D206" s="6" t="s">
         <v>133</v>
@@ -5810,10 +5810,10 @@
         <v>105</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C207" s="6" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D207" s="6" t="s">
         <v>134</v>
@@ -5824,10 +5824,10 @@
         <v>105</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C208" s="6" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D208" s="6" t="s">
         <v>135</v>
@@ -5838,13 +5838,13 @@
         <v>105</v>
       </c>
       <c r="B209" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="C209" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="D209" s="6" t="s">
         <v>577</v>
-      </c>
-      <c r="C209" s="6" t="s">
-        <v>577</v>
-      </c>
-      <c r="D209" s="6" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.3">
@@ -5852,13 +5852,13 @@
         <v>106</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D210" s="6" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E210" t="s">
         <v>443</v>
@@ -6043,10 +6043,10 @@
         <v>106</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C223" s="6" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D223" s="6" t="s">
         <v>131</v>
@@ -6057,10 +6057,10 @@
         <v>106</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C224" s="6" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D224" s="6" t="s">
         <v>133</v>
@@ -6071,10 +6071,10 @@
         <v>106</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C225" s="6" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D225" s="6" t="s">
         <v>134</v>
@@ -6085,10 +6085,10 @@
         <v>106</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C226" s="6" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D226" s="6" t="s">
         <v>135</v>
@@ -6099,13 +6099,13 @@
         <v>106</v>
       </c>
       <c r="B227" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="C227" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="D227" s="6" t="s">
         <v>577</v>
-      </c>
-      <c r="C227" s="6" t="s">
-        <v>577</v>
-      </c>
-      <c r="D227" s="6" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.3">
@@ -6113,10 +6113,10 @@
         <v>136</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C228" s="6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D228" s="6" t="s">
         <v>137</v>
@@ -6164,10 +6164,10 @@
         <v>136</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C231" s="6" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D231" s="6" t="s">
         <v>135</v>
@@ -6178,13 +6178,13 @@
         <v>136</v>
       </c>
       <c r="B232" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="C232" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="D232" s="6" t="s">
         <v>577</v>
-      </c>
-      <c r="C232" s="6" t="s">
-        <v>577</v>
-      </c>
-      <c r="D232" s="6" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.3">
@@ -6192,10 +6192,10 @@
         <v>138</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C233" s="6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D233" s="6" t="s">
         <v>139</v>
@@ -6243,10 +6243,10 @@
         <v>138</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C236" s="6" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D236" s="6" t="s">
         <v>135</v>
@@ -6257,13 +6257,13 @@
         <v>138</v>
       </c>
       <c r="B237" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="C237" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="D237" s="6" t="s">
         <v>577</v>
-      </c>
-      <c r="C237" s="6" t="s">
-        <v>577</v>
-      </c>
-      <c r="D237" s="6" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.3">
@@ -6271,10 +6271,10 @@
         <v>143</v>
       </c>
       <c r="B238" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="C238" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="D238" t="s">
         <v>144</v>
@@ -6294,10 +6294,10 @@
         <v>145</v>
       </c>
       <c r="B239" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="C239" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="D239" t="s">
         <v>146</v>
@@ -6317,10 +6317,10 @@
         <v>147</v>
       </c>
       <c r="B240" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="C240" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="D240" t="s">
         <v>148</v>
@@ -6340,10 +6340,10 @@
         <v>149</v>
       </c>
       <c r="B241" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="C241" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="D241" t="s">
         <v>516</v>
@@ -6363,10 +6363,10 @@
         <v>150</v>
       </c>
       <c r="B242" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="C242" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="D242" t="s">
         <v>151</v>
@@ -6498,10 +6498,10 @@
         <v>168</v>
       </c>
       <c r="B251" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="C251" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="D251" t="s">
         <v>169</v>
@@ -6633,10 +6633,10 @@
         <v>553</v>
       </c>
       <c r="B260" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="C260" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="D260" t="s">
         <v>186</v>
@@ -6695,13 +6695,13 @@
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B264" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="C264" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="D264" t="s">
         <v>547</v>
@@ -6718,7 +6718,7 @@
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B265" t="s">
         <v>191</v>
@@ -6732,7 +6732,7 @@
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B266" t="s">
         <v>193</v>
@@ -6746,7 +6746,7 @@
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B267" t="s">
         <v>195</v>
@@ -6760,7 +6760,7 @@
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B268" s="4" t="s">
         <v>496</v>
@@ -6774,7 +6774,7 @@
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B269" t="s">
         <v>197</v>
@@ -6788,7 +6788,7 @@
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B270" s="4" t="s">
         <v>471</v>
@@ -6802,7 +6802,7 @@
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B271" s="4" t="s">
         <v>472</v>
@@ -6816,7 +6816,7 @@
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B272" s="4" t="s">
         <v>473</v>
@@ -6830,7 +6830,7 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B273" t="s">
         <v>474</v>
@@ -6844,7 +6844,7 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B274" s="4" t="s">
         <v>499</v>
@@ -6858,7 +6858,7 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B275" s="4" t="s">
         <v>501</v>
@@ -6872,7 +6872,7 @@
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B276" s="4" t="s">
         <v>476</v>
@@ -6886,7 +6886,7 @@
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B277" t="s">
         <v>504</v>
@@ -6900,7 +6900,7 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B278" s="4" t="s">
         <v>478</v>
@@ -6914,7 +6914,7 @@
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B279" s="4" t="s">
         <v>506</v>
@@ -6928,7 +6928,7 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B280" s="4" t="s">
         <v>479</v>
@@ -6942,7 +6942,7 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B281" s="4" t="s">
         <v>200</v>
@@ -6956,7 +6956,7 @@
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B282" t="s">
         <v>509</v>
@@ -6970,7 +6970,7 @@
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B283" s="4" t="s">
         <v>201</v>
@@ -6984,7 +6984,7 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B284" t="s">
         <v>202</v>
@@ -6998,7 +6998,7 @@
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B285" s="4" t="s">
         <v>344</v>
@@ -7012,7 +7012,7 @@
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B286" t="s">
         <v>204</v>
@@ -7026,7 +7026,7 @@
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B287" s="4" t="s">
         <v>480</v>
@@ -7040,7 +7040,7 @@
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B288" s="4" t="s">
         <v>208</v>
@@ -7054,7 +7054,7 @@
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B289" s="4" t="s">
         <v>481</v>
@@ -7068,7 +7068,7 @@
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B290" s="4" t="s">
         <v>514</v>
@@ -7082,13 +7082,13 @@
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B291" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="C291" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="D291" t="s">
         <v>548</v>
@@ -7105,7 +7105,7 @@
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B292" t="s">
         <v>193</v>
@@ -7119,7 +7119,7 @@
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B293" t="s">
         <v>195</v>
@@ -7133,7 +7133,7 @@
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B294" t="s">
         <v>471</v>
@@ -7147,7 +7147,7 @@
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B295" t="s">
         <v>472</v>
@@ -7161,7 +7161,7 @@
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B296" t="s">
         <v>199</v>
@@ -7175,7 +7175,7 @@
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B297" t="s">
         <v>473</v>
@@ -7189,7 +7189,7 @@
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B298" t="s">
         <v>474</v>
@@ -7203,7 +7203,7 @@
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B299" t="s">
         <v>475</v>
@@ -7217,7 +7217,7 @@
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B300" t="s">
         <v>476</v>
@@ -7231,7 +7231,7 @@
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B301" t="s">
         <v>477</v>
@@ -7245,7 +7245,7 @@
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B302" t="s">
         <v>478</v>
@@ -7259,7 +7259,7 @@
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B303" t="s">
         <v>479</v>
@@ -7273,7 +7273,7 @@
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B304" t="s">
         <v>202</v>
@@ -7287,7 +7287,7 @@
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B305" t="s">
         <v>204</v>
@@ -7301,7 +7301,7 @@
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B306" t="s">
         <v>206</v>
@@ -7315,7 +7315,7 @@
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B307" t="s">
         <v>480</v>
@@ -7329,7 +7329,7 @@
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B308" t="s">
         <v>208</v>
@@ -7343,7 +7343,7 @@
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B309" t="s">
         <v>481</v>
@@ -7357,7 +7357,7 @@
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B310" t="s">
         <v>482</v>
@@ -7374,10 +7374,10 @@
         <v>210</v>
       </c>
       <c r="B311" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="C311" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="D311" t="s">
         <v>211</v>
@@ -7397,10 +7397,10 @@
         <v>212</v>
       </c>
       <c r="B312" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="C312" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="D312" t="s">
         <v>213</v>
@@ -7529,10 +7529,10 @@
         <v>218</v>
       </c>
       <c r="B321" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="C321" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="D321" t="s">
         <v>219</v>
@@ -7552,10 +7552,10 @@
         <v>220</v>
       </c>
       <c r="B322" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="C322" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="D322" t="s">
         <v>221</v>
@@ -7575,10 +7575,10 @@
         <v>222</v>
       </c>
       <c r="B323" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="C323" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="D323" t="s">
         <v>223</v>
@@ -7598,10 +7598,10 @@
         <v>224</v>
       </c>
       <c r="B324" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="C324" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="D324" t="s">
         <v>225</v>
@@ -7621,10 +7621,10 @@
         <v>226</v>
       </c>
       <c r="B325" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="C325" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="D325" t="s">
         <v>227</v>
@@ -7644,10 +7644,10 @@
         <v>228</v>
       </c>
       <c r="B326" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="C326" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="D326" t="s">
         <v>229</v>
@@ -7667,10 +7667,10 @@
         <v>230</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="C327" s="3" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="D327" s="3" t="s">
         <v>555</v>
@@ -7693,10 +7693,10 @@
         <v>231</v>
       </c>
       <c r="B328" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="C328" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="D328" t="s">
         <v>232</v>
@@ -7716,10 +7716,10 @@
         <v>233</v>
       </c>
       <c r="B329" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="C329" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="D329" t="s">
         <v>234</v>
@@ -7739,10 +7739,10 @@
         <v>235</v>
       </c>
       <c r="B330" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="C330" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="D330" t="s">
         <v>236</v>
@@ -7762,10 +7762,10 @@
         <v>237</v>
       </c>
       <c r="B331" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="C331" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="D331" t="s">
         <v>238</v>
@@ -7785,10 +7785,10 @@
         <v>239</v>
       </c>
       <c r="B332" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="C332" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="D332" t="s">
         <v>240</v>
@@ -7808,10 +7808,10 @@
         <v>241</v>
       </c>
       <c r="B333" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="C333" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="D333" t="s">
         <v>242</v>
@@ -7831,10 +7831,10 @@
         <v>243</v>
       </c>
       <c r="B334" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="C334" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="D334" t="s">
         <v>244</v>
@@ -7854,10 +7854,10 @@
         <v>245</v>
       </c>
       <c r="B335" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="C335" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="D335" t="s">
         <v>246</v>
@@ -7877,10 +7877,10 @@
         <v>247</v>
       </c>
       <c r="B336" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="C336" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="D336" t="s">
         <v>248</v>
@@ -7953,10 +7953,10 @@
         <v>253</v>
       </c>
       <c r="B341" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="C341" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="D341" t="s">
         <v>254</v>
@@ -8074,10 +8074,10 @@
         <v>444</v>
       </c>
       <c r="B349" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="C349" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="D349" t="s">
         <v>464</v>
@@ -8100,10 +8100,10 @@
         <v>263</v>
       </c>
       <c r="B350" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="C350" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="D350" t="s">
         <v>264</v>
@@ -8123,10 +8123,10 @@
         <v>265</v>
       </c>
       <c r="B351" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="C351" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="D351" t="s">
         <v>266</v>
@@ -8300,10 +8300,10 @@
         <v>281</v>
       </c>
       <c r="B363" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="C363" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="D363" t="s">
         <v>282</v>
@@ -8390,10 +8390,10 @@
         <v>288</v>
       </c>
       <c r="B369" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="C369" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="D369" t="s">
         <v>289</v>
@@ -8466,10 +8466,10 @@
         <v>294</v>
       </c>
       <c r="B374" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="C374" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="D374" t="s">
         <v>295</v>
@@ -8545,10 +8545,10 @@
         <v>301</v>
       </c>
       <c r="B379" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="C379" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="D379" t="s">
         <v>302</v>
@@ -8649,10 +8649,10 @@
         <v>308</v>
       </c>
       <c r="B386" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="C386" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="D386" t="s">
         <v>309</v>
@@ -8725,10 +8725,10 @@
         <v>314</v>
       </c>
       <c r="B391" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="C391" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="D391" t="s">
         <v>315</v>
@@ -8829,10 +8829,10 @@
         <v>316</v>
       </c>
       <c r="B398" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="C398" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="D398" t="s">
         <v>317</v>
@@ -8905,10 +8905,10 @@
         <v>320</v>
       </c>
       <c r="B403" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="C403" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="D403" t="s">
         <v>321</v>
@@ -8928,10 +8928,10 @@
         <v>322</v>
       </c>
       <c r="B404" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="C404" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="D404" t="s">
         <v>323</v>
@@ -8951,10 +8951,10 @@
         <v>324</v>
       </c>
       <c r="B405" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="C405" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="D405" t="s">
         <v>325</v>
@@ -8974,10 +8974,10 @@
         <v>326</v>
       </c>
       <c r="B406" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="C406" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="D406" t="s">
         <v>327</v>
@@ -8997,10 +8997,10 @@
         <v>328</v>
       </c>
       <c r="B407" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="C407" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="D407" t="s">
         <v>329</v>
@@ -9020,10 +9020,10 @@
         <v>330</v>
       </c>
       <c r="B408" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="C408" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="D408" t="s">
         <v>331</v>
@@ -9043,10 +9043,10 @@
         <v>332</v>
       </c>
       <c r="B409" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="C409" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="D409" t="s">
         <v>333</v>
@@ -9066,10 +9066,10 @@
         <v>334</v>
       </c>
       <c r="B410" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="C410" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="D410" t="s">
         <v>335</v>
@@ -9089,10 +9089,10 @@
         <v>336</v>
       </c>
       <c r="B411" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="C411" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="D411" t="s">
         <v>337</v>
@@ -9112,10 +9112,10 @@
         <v>338</v>
       </c>
       <c r="B412" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="C412" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="D412" t="s">
         <v>339</v>
@@ -9135,10 +9135,10 @@
         <v>340</v>
       </c>
       <c r="B413" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="C413" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="D413" t="s">
         <v>341</v>
@@ -9158,10 +9158,10 @@
         <v>342</v>
       </c>
       <c r="B414" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="C414" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="D414" t="s">
         <v>343</v>
@@ -9181,10 +9181,10 @@
         <v>554</v>
       </c>
       <c r="B415" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="C415" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="D415" t="s">
         <v>560</v>
@@ -9372,10 +9372,10 @@
         <v>360</v>
       </c>
       <c r="B428" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="C428" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="D428" t="s">
         <v>361</v>
@@ -9437,10 +9437,10 @@
         <v>362</v>
       </c>
       <c r="B432" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="C432" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="D432" t="s">
         <v>363</v>
@@ -9480,7 +9480,7 @@
         <v>364</v>
       </c>
       <c r="D434" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="435" spans="1:9" x14ac:dyDescent="0.3">
@@ -9494,7 +9494,7 @@
         <v>365</v>
       </c>
       <c r="D435" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="436" spans="1:9" x14ac:dyDescent="0.3">
@@ -9502,10 +9502,10 @@
         <v>366</v>
       </c>
       <c r="B436" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="C436" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="D436" t="s">
         <v>367</v>
@@ -9531,7 +9531,7 @@
         <v>370</v>
       </c>
       <c r="D437" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="438" spans="1:9" x14ac:dyDescent="0.3">
@@ -9545,7 +9545,7 @@
         <v>371</v>
       </c>
       <c r="D438" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="439" spans="1:9" x14ac:dyDescent="0.3">
@@ -9559,7 +9559,7 @@
         <v>372</v>
       </c>
       <c r="D439" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="440" spans="1:9" x14ac:dyDescent="0.3">
@@ -9573,7 +9573,7 @@
         <v>373</v>
       </c>
       <c r="D440" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="441" spans="1:9" x14ac:dyDescent="0.3">
@@ -9587,7 +9587,7 @@
         <v>374</v>
       </c>
       <c r="D441" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="442" spans="1:9" x14ac:dyDescent="0.3">
@@ -9595,10 +9595,10 @@
         <v>368</v>
       </c>
       <c r="B442" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="C442" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="D442" t="s">
         <v>369</v>
@@ -9624,7 +9624,7 @@
         <v>370</v>
       </c>
       <c r="D443" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="444" spans="1:9" x14ac:dyDescent="0.3">
@@ -9638,7 +9638,7 @@
         <v>371</v>
       </c>
       <c r="D444" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="445" spans="1:9" x14ac:dyDescent="0.3">
@@ -9652,7 +9652,7 @@
         <v>372</v>
       </c>
       <c r="D445" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="446" spans="1:9" x14ac:dyDescent="0.3">
@@ -9666,7 +9666,7 @@
         <v>373</v>
       </c>
       <c r="D446" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="447" spans="1:9" x14ac:dyDescent="0.3">
@@ -9680,7 +9680,7 @@
         <v>374</v>
       </c>
       <c r="D447" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="448" spans="1:9" x14ac:dyDescent="0.3">
@@ -9688,10 +9688,10 @@
         <v>375</v>
       </c>
       <c r="B448" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="C448" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="D448" t="s">
         <v>376</v>
@@ -9711,10 +9711,10 @@
         <v>377</v>
       </c>
       <c r="B449" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="C449" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="D449" t="s">
         <v>378</v>
@@ -9734,10 +9734,10 @@
         <v>379</v>
       </c>
       <c r="B450" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="C450" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="D450" t="s">
         <v>558</v>
@@ -9754,10 +9754,10 @@
         <v>380</v>
       </c>
       <c r="B451" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="C451" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="D451" t="s">
         <v>559</v>
@@ -9774,10 +9774,10 @@
         <v>381</v>
       </c>
       <c r="B452" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="C452" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="D452" t="s">
         <v>382</v>
@@ -9797,10 +9797,10 @@
         <v>383</v>
       </c>
       <c r="B453" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="C453" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="D453" t="s">
         <v>384</v>
@@ -9820,10 +9820,10 @@
         <v>385</v>
       </c>
       <c r="B454" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="C454" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="D454" t="s">
         <v>386</v>
@@ -9843,10 +9843,10 @@
         <v>387</v>
       </c>
       <c r="B455" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="C455" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="D455" t="s">
         <v>388</v>
@@ -9866,10 +9866,10 @@
         <v>389</v>
       </c>
       <c r="B456" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="C456" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="D456" t="s">
         <v>556</v>
@@ -9889,10 +9889,10 @@
         <v>390</v>
       </c>
       <c r="B457" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="C457" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="D457" t="s">
         <v>391</v>
@@ -9912,10 +9912,10 @@
         <v>0</v>
       </c>
       <c r="B458" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="C458" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="D458" t="s">
         <v>392</v>
@@ -10193,18 +10193,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10417,14 +10417,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F5B82C4-8D32-4858-AE49-B9F718EB1758}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8450404-B5A9-4CAE-AD2F-E650514D4870}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -10437,6 +10429,14 @@
     <ds:schemaRef ds:uri="f32a61f4-5698-46d5-9f56-343e6d7dc7d7"/>
     <ds:schemaRef ds:uri="847bd2b6-c417-48b3-84b7-e392c504f3bb"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F5B82C4-8D32-4858-AE49-B9F718EB1758}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/inst/extdata/e.g.dictionary.xlsx
+++ b/inst/extdata/e.g.dictionary.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2020" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2020" uniqueCount="593">
   <si>
     <t>Notes</t>
   </si>
@@ -1757,9 +1757,6 @@
   </si>
   <si>
     <t>Yellow colorband</t>
-  </si>
-  <si>
-    <t>colname</t>
   </si>
   <si>
     <t>Lower left leg; combination of bands, flags, and data loggers attached to bird's leg when captured; individual attachments seperated by '-'</t>
@@ -2638,10 +2635,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N458"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2703,10 +2700,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -2754,10 +2751,10 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C5" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -2774,10 +2771,10 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -2794,10 +2791,10 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C7" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
@@ -2814,10 +2811,10 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C8" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D8" t="s">
         <v>462</v>
@@ -2840,10 +2837,10 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C9" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
@@ -2866,10 +2863,10 @@
         <v>467</v>
       </c>
       <c r="B10" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C10" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D10" t="s">
         <v>19</v>
@@ -2889,10 +2886,10 @@
         <v>468</v>
       </c>
       <c r="B11" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C11" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D11" t="s">
         <v>20</v>
@@ -2982,10 +2979,10 @@
         <v>469</v>
       </c>
       <c r="B17" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C17" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D17" t="s">
         <v>31</v>
@@ -3089,10 +3086,10 @@
         <v>470</v>
       </c>
       <c r="B24" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C24" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D24" t="s">
         <v>44</v>
@@ -3266,10 +3263,10 @@
         <v>59</v>
       </c>
       <c r="B36" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C36" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D36" t="s">
         <v>461</v>
@@ -3289,10 +3286,10 @@
         <v>60</v>
       </c>
       <c r="B37" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C37" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D37" t="s">
         <v>463</v>
@@ -3312,10 +3309,10 @@
         <v>61</v>
       </c>
       <c r="B38" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C38" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D38" t="s">
         <v>62</v>
@@ -3335,10 +3332,10 @@
         <v>63</v>
       </c>
       <c r="B39" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C39" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D39" t="s">
         <v>64</v>
@@ -3358,10 +3355,10 @@
         <v>67</v>
       </c>
       <c r="B40" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C40" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D40" t="s">
         <v>566</v>
@@ -3381,10 +3378,10 @@
         <v>68</v>
       </c>
       <c r="B41" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C41" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D41" t="s">
         <v>567</v>
@@ -3404,10 +3401,10 @@
         <v>69</v>
       </c>
       <c r="B42" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C42" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D42" t="s">
         <v>70</v>
@@ -3424,10 +3421,10 @@
         <v>71</v>
       </c>
       <c r="B43" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C43" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D43" t="s">
         <v>72</v>
@@ -3444,10 +3441,10 @@
         <v>546</v>
       </c>
       <c r="B44" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C44" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D44" t="s">
         <v>543</v>
@@ -3621,10 +3618,10 @@
         <v>545</v>
       </c>
       <c r="B56" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C56" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D56" t="s">
         <v>557</v>
@@ -3865,10 +3862,10 @@
         <v>544</v>
       </c>
       <c r="B73" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C73" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D73" t="s">
         <v>542</v>
@@ -4025,10 +4022,10 @@
         <v>99</v>
       </c>
       <c r="B84" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C84" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D84" t="s">
         <v>565</v>
@@ -4286,13 +4283,13 @@
         <v>100</v>
       </c>
       <c r="B102" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="D102" s="6" t="s">
         <v>578</v>
-      </c>
-      <c r="C102" s="6" t="s">
-        <v>578</v>
-      </c>
-      <c r="D102" s="6" t="s">
-        <v>579</v>
       </c>
       <c r="E102" t="s">
         <v>443</v>
@@ -4547,13 +4544,13 @@
         <v>101</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>578</v>
+        <v>592</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>578</v>
+        <v>592</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E120" t="s">
         <v>443</v>
@@ -4808,13 +4805,13 @@
         <v>102</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>578</v>
+        <v>592</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>578</v>
+        <v>592</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E138" t="s">
         <v>443</v>
@@ -5069,13 +5066,13 @@
         <v>103</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>578</v>
+        <v>592</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>578</v>
+        <v>592</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E156" t="s">
         <v>443</v>
@@ -5330,13 +5327,13 @@
         <v>104</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>578</v>
+        <v>592</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>578</v>
+        <v>592</v>
       </c>
       <c r="D174" s="6" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E174" t="s">
         <v>443</v>
@@ -5591,13 +5588,13 @@
         <v>105</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>578</v>
+        <v>592</v>
       </c>
       <c r="C192" s="6" t="s">
-        <v>578</v>
+        <v>592</v>
       </c>
       <c r="D192" s="6" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E192" t="s">
         <v>443</v>
@@ -5852,13 +5849,13 @@
         <v>106</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>578</v>
+        <v>592</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>578</v>
+        <v>592</v>
       </c>
       <c r="D210" s="6" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E210" t="s">
         <v>443</v>
@@ -6113,10 +6110,10 @@
         <v>136</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>578</v>
+        <v>592</v>
       </c>
       <c r="C228" s="6" t="s">
-        <v>578</v>
+        <v>592</v>
       </c>
       <c r="D228" s="6" t="s">
         <v>137</v>
@@ -6192,10 +6189,10 @@
         <v>138</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>578</v>
+        <v>592</v>
       </c>
       <c r="C233" s="6" t="s">
-        <v>578</v>
+        <v>592</v>
       </c>
       <c r="D233" s="6" t="s">
         <v>139</v>
@@ -6271,10 +6268,10 @@
         <v>143</v>
       </c>
       <c r="B238" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C238" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D238" t="s">
         <v>144</v>
@@ -6294,10 +6291,10 @@
         <v>145</v>
       </c>
       <c r="B239" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C239" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D239" t="s">
         <v>146</v>
@@ -6317,10 +6314,10 @@
         <v>147</v>
       </c>
       <c r="B240" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C240" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D240" t="s">
         <v>148</v>
@@ -6340,10 +6337,10 @@
         <v>149</v>
       </c>
       <c r="B241" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C241" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D241" t="s">
         <v>516</v>
@@ -6363,10 +6360,10 @@
         <v>150</v>
       </c>
       <c r="B242" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C242" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D242" t="s">
         <v>151</v>
@@ -6498,10 +6495,10 @@
         <v>168</v>
       </c>
       <c r="B251" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C251" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D251" t="s">
         <v>169</v>
@@ -6633,10 +6630,10 @@
         <v>553</v>
       </c>
       <c r="B260" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C260" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D260" t="s">
         <v>186</v>
@@ -6698,10 +6695,10 @@
         <v>570</v>
       </c>
       <c r="B264" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C264" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D264" t="s">
         <v>547</v>
@@ -7085,10 +7082,10 @@
         <v>571</v>
       </c>
       <c r="B291" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C291" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D291" t="s">
         <v>548</v>
@@ -7374,10 +7371,10 @@
         <v>210</v>
       </c>
       <c r="B311" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C311" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D311" t="s">
         <v>211</v>
@@ -7397,10 +7394,10 @@
         <v>212</v>
       </c>
       <c r="B312" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C312" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D312" t="s">
         <v>213</v>
@@ -7529,10 +7526,10 @@
         <v>218</v>
       </c>
       <c r="B321" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C321" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D321" t="s">
         <v>219</v>
@@ -7552,10 +7549,10 @@
         <v>220</v>
       </c>
       <c r="B322" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C322" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D322" t="s">
         <v>221</v>
@@ -7575,10 +7572,10 @@
         <v>222</v>
       </c>
       <c r="B323" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C323" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D323" t="s">
         <v>223</v>
@@ -7598,10 +7595,10 @@
         <v>224</v>
       </c>
       <c r="B324" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C324" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D324" t="s">
         <v>225</v>
@@ -7621,10 +7618,10 @@
         <v>226</v>
       </c>
       <c r="B325" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C325" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D325" t="s">
         <v>227</v>
@@ -7644,10 +7641,10 @@
         <v>228</v>
       </c>
       <c r="B326" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C326" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D326" t="s">
         <v>229</v>
@@ -7667,10 +7664,10 @@
         <v>230</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C327" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D327" s="3" t="s">
         <v>555</v>
@@ -7693,10 +7690,10 @@
         <v>231</v>
       </c>
       <c r="B328" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C328" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D328" t="s">
         <v>232</v>
@@ -7716,10 +7713,10 @@
         <v>233</v>
       </c>
       <c r="B329" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C329" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D329" t="s">
         <v>234</v>
@@ -7739,10 +7736,10 @@
         <v>235</v>
       </c>
       <c r="B330" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C330" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D330" t="s">
         <v>236</v>
@@ -7762,10 +7759,10 @@
         <v>237</v>
       </c>
       <c r="B331" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C331" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D331" t="s">
         <v>238</v>
@@ -7785,10 +7782,10 @@
         <v>239</v>
       </c>
       <c r="B332" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C332" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D332" t="s">
         <v>240</v>
@@ -7808,10 +7805,10 @@
         <v>241</v>
       </c>
       <c r="B333" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C333" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D333" t="s">
         <v>242</v>
@@ -7831,10 +7828,10 @@
         <v>243</v>
       </c>
       <c r="B334" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C334" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D334" t="s">
         <v>244</v>
@@ -7854,10 +7851,10 @@
         <v>245</v>
       </c>
       <c r="B335" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C335" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D335" t="s">
         <v>246</v>
@@ -7877,10 +7874,10 @@
         <v>247</v>
       </c>
       <c r="B336" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C336" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D336" t="s">
         <v>248</v>
@@ -7953,10 +7950,10 @@
         <v>253</v>
       </c>
       <c r="B341" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C341" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D341" t="s">
         <v>254</v>
@@ -8074,10 +8071,10 @@
         <v>444</v>
       </c>
       <c r="B349" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C349" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D349" t="s">
         <v>464</v>
@@ -8100,10 +8097,10 @@
         <v>263</v>
       </c>
       <c r="B350" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C350" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D350" t="s">
         <v>264</v>
@@ -8123,10 +8120,10 @@
         <v>265</v>
       </c>
       <c r="B351" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C351" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D351" t="s">
         <v>266</v>
@@ -8300,10 +8297,10 @@
         <v>281</v>
       </c>
       <c r="B363" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C363" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D363" t="s">
         <v>282</v>
@@ -8390,10 +8387,10 @@
         <v>288</v>
       </c>
       <c r="B369" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C369" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D369" t="s">
         <v>289</v>
@@ -8466,10 +8463,10 @@
         <v>294</v>
       </c>
       <c r="B374" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C374" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D374" t="s">
         <v>295</v>
@@ -8545,10 +8542,10 @@
         <v>301</v>
       </c>
       <c r="B379" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C379" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D379" t="s">
         <v>302</v>
@@ -8649,10 +8646,10 @@
         <v>308</v>
       </c>
       <c r="B386" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C386" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D386" t="s">
         <v>309</v>
@@ -8725,10 +8722,10 @@
         <v>314</v>
       </c>
       <c r="B391" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C391" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D391" t="s">
         <v>315</v>
@@ -8829,10 +8826,10 @@
         <v>316</v>
       </c>
       <c r="B398" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C398" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D398" t="s">
         <v>317</v>
@@ -8905,10 +8902,10 @@
         <v>320</v>
       </c>
       <c r="B403" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C403" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D403" t="s">
         <v>321</v>
@@ -8928,10 +8925,10 @@
         <v>322</v>
       </c>
       <c r="B404" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C404" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D404" t="s">
         <v>323</v>
@@ -8951,10 +8948,10 @@
         <v>324</v>
       </c>
       <c r="B405" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C405" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D405" t="s">
         <v>325</v>
@@ -8974,10 +8971,10 @@
         <v>326</v>
       </c>
       <c r="B406" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C406" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D406" t="s">
         <v>327</v>
@@ -8997,10 +8994,10 @@
         <v>328</v>
       </c>
       <c r="B407" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C407" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D407" t="s">
         <v>329</v>
@@ -9020,10 +9017,10 @@
         <v>330</v>
       </c>
       <c r="B408" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C408" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D408" t="s">
         <v>331</v>
@@ -9043,10 +9040,10 @@
         <v>332</v>
       </c>
       <c r="B409" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C409" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D409" t="s">
         <v>333</v>
@@ -9066,10 +9063,10 @@
         <v>334</v>
       </c>
       <c r="B410" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C410" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D410" t="s">
         <v>335</v>
@@ -9089,10 +9086,10 @@
         <v>336</v>
       </c>
       <c r="B411" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C411" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D411" t="s">
         <v>337</v>
@@ -9112,10 +9109,10 @@
         <v>338</v>
       </c>
       <c r="B412" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C412" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D412" t="s">
         <v>339</v>
@@ -9135,10 +9132,10 @@
         <v>340</v>
       </c>
       <c r="B413" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C413" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D413" t="s">
         <v>341</v>
@@ -9158,10 +9155,10 @@
         <v>342</v>
       </c>
       <c r="B414" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C414" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D414" t="s">
         <v>343</v>
@@ -9181,10 +9178,10 @@
         <v>554</v>
       </c>
       <c r="B415" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C415" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D415" t="s">
         <v>560</v>
@@ -9372,10 +9369,10 @@
         <v>360</v>
       </c>
       <c r="B428" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C428" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D428" t="s">
         <v>361</v>
@@ -9437,10 +9434,10 @@
         <v>362</v>
       </c>
       <c r="B432" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C432" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D432" t="s">
         <v>363</v>
@@ -9480,7 +9477,7 @@
         <v>364</v>
       </c>
       <c r="D434" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="435" spans="1:9" x14ac:dyDescent="0.3">
@@ -9494,7 +9491,7 @@
         <v>365</v>
       </c>
       <c r="D435" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="436" spans="1:9" x14ac:dyDescent="0.3">
@@ -9502,10 +9499,10 @@
         <v>366</v>
       </c>
       <c r="B436" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C436" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D436" t="s">
         <v>367</v>
@@ -9531,7 +9528,7 @@
         <v>370</v>
       </c>
       <c r="D437" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="438" spans="1:9" x14ac:dyDescent="0.3">
@@ -9545,7 +9542,7 @@
         <v>371</v>
       </c>
       <c r="D438" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="439" spans="1:9" x14ac:dyDescent="0.3">
@@ -9559,7 +9556,7 @@
         <v>372</v>
       </c>
       <c r="D439" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="440" spans="1:9" x14ac:dyDescent="0.3">
@@ -9573,7 +9570,7 @@
         <v>373</v>
       </c>
       <c r="D440" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="441" spans="1:9" x14ac:dyDescent="0.3">
@@ -9587,7 +9584,7 @@
         <v>374</v>
       </c>
       <c r="D441" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="442" spans="1:9" x14ac:dyDescent="0.3">
@@ -9595,10 +9592,10 @@
         <v>368</v>
       </c>
       <c r="B442" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C442" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D442" t="s">
         <v>369</v>
@@ -9624,7 +9621,7 @@
         <v>370</v>
       </c>
       <c r="D443" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="444" spans="1:9" x14ac:dyDescent="0.3">
@@ -9638,7 +9635,7 @@
         <v>371</v>
       </c>
       <c r="D444" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="445" spans="1:9" x14ac:dyDescent="0.3">
@@ -9652,7 +9649,7 @@
         <v>372</v>
       </c>
       <c r="D445" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="446" spans="1:9" x14ac:dyDescent="0.3">
@@ -9666,7 +9663,7 @@
         <v>373</v>
       </c>
       <c r="D446" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="447" spans="1:9" x14ac:dyDescent="0.3">
@@ -9680,7 +9677,7 @@
         <v>374</v>
       </c>
       <c r="D447" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="448" spans="1:9" x14ac:dyDescent="0.3">
@@ -9688,10 +9685,10 @@
         <v>375</v>
       </c>
       <c r="B448" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C448" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D448" t="s">
         <v>376</v>
@@ -9711,10 +9708,10 @@
         <v>377</v>
       </c>
       <c r="B449" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C449" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D449" t="s">
         <v>378</v>
@@ -9734,10 +9731,10 @@
         <v>379</v>
       </c>
       <c r="B450" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C450" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D450" t="s">
         <v>558</v>
@@ -9754,10 +9751,10 @@
         <v>380</v>
       </c>
       <c r="B451" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C451" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D451" t="s">
         <v>559</v>
@@ -9774,10 +9771,10 @@
         <v>381</v>
       </c>
       <c r="B452" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C452" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D452" t="s">
         <v>382</v>
@@ -9797,10 +9794,10 @@
         <v>383</v>
       </c>
       <c r="B453" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C453" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D453" t="s">
         <v>384</v>
@@ -9820,10 +9817,10 @@
         <v>385</v>
       </c>
       <c r="B454" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C454" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D454" t="s">
         <v>386</v>
@@ -9843,10 +9840,10 @@
         <v>387</v>
       </c>
       <c r="B455" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C455" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D455" t="s">
         <v>388</v>
@@ -9866,10 +9863,10 @@
         <v>389</v>
       </c>
       <c r="B456" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C456" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D456" t="s">
         <v>556</v>
@@ -9889,10 +9886,10 @@
         <v>390</v>
       </c>
       <c r="B457" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C457" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D457" t="s">
         <v>391</v>
@@ -9912,10 +9909,10 @@
         <v>0</v>
       </c>
       <c r="B458" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C458" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D458" t="s">
         <v>392</v>

--- a/inst/extdata/e.g.dictionary.xlsx
+++ b/inst/extdata/e.g.dictionary.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hvincelette\Documents\GitHub\mdJSONdictio\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hdvincelette/Documents/GitHub/mdJSONdictio/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{792C6A8A-EC55-CA45-8473-19380B087E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="504" windowWidth="21324" windowHeight="10620" tabRatio="747"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="21320" windowHeight="10620" tabRatio="747" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_dictionary" sheetId="1" r:id="rId1"/>
@@ -1807,7 +1808,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2632,26 +2633,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N458"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="H411" sqref="H411"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="30.77734375" customWidth="1"/>
+    <col min="4" max="4" width="30.83203125" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
     <col min="9" max="9" width="9" customWidth="1"/>
     <col min="10" max="11" width="15.33203125" customWidth="1"/>
     <col min="14" max="14" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>393</v>
       </c>
@@ -2695,7 +2696,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2718,7 +2719,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2732,7 +2733,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2746,7 +2747,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -2766,7 +2767,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -2786,7 +2787,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -2806,7 +2807,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -2832,7 +2833,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -2858,7 +2859,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>467</v>
       </c>
@@ -2881,7 +2882,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>468</v>
       </c>
@@ -2904,7 +2905,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>468</v>
       </c>
@@ -2918,7 +2919,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>468</v>
       </c>
@@ -2932,7 +2933,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>468</v>
       </c>
@@ -2946,7 +2947,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>468</v>
       </c>
@@ -2960,7 +2961,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>468</v>
       </c>
@@ -2974,7 +2975,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>469</v>
       </c>
@@ -2997,7 +2998,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>469</v>
       </c>
@@ -3011,7 +3012,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>469</v>
       </c>
@@ -3025,7 +3026,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>469</v>
       </c>
@@ -3039,7 +3040,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>469</v>
       </c>
@@ -3053,7 +3054,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>469</v>
       </c>
@@ -3067,7 +3068,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>469</v>
       </c>
@@ -3081,7 +3082,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>470</v>
       </c>
@@ -3104,7 +3105,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>470</v>
       </c>
@@ -3118,7 +3119,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>470</v>
       </c>
@@ -3132,7 +3133,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>470</v>
       </c>
@@ -3146,7 +3147,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>470</v>
       </c>
@@ -3160,7 +3161,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>470</v>
       </c>
@@ -3174,7 +3175,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>470</v>
       </c>
@@ -3188,7 +3189,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>470</v>
       </c>
@@ -3202,7 +3203,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>470</v>
       </c>
@@ -3216,7 +3217,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>470</v>
       </c>
@@ -3230,7 +3231,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>470</v>
       </c>
@@ -3244,7 +3245,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>470</v>
       </c>
@@ -3258,7 +3259,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>59</v>
       </c>
@@ -3281,7 +3282,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>60</v>
       </c>
@@ -3304,7 +3305,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>61</v>
       </c>
@@ -3327,7 +3328,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>63</v>
       </c>
@@ -3350,7 +3351,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>67</v>
       </c>
@@ -3373,7 +3374,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>68</v>
       </c>
@@ -3396,7 +3397,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>69</v>
       </c>
@@ -3416,7 +3417,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>71</v>
       </c>
@@ -3436,7 +3437,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>546</v>
       </c>
@@ -3459,7 +3460,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>546</v>
       </c>
@@ -3473,7 +3474,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>546</v>
       </c>
@@ -3487,7 +3488,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>546</v>
       </c>
@@ -3501,7 +3502,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>546</v>
       </c>
@@ -3515,7 +3516,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>546</v>
       </c>
@@ -3529,7 +3530,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>546</v>
       </c>
@@ -3543,7 +3544,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>546</v>
       </c>
@@ -3557,7 +3558,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>546</v>
       </c>
@@ -3571,7 +3572,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>546</v>
       </c>
@@ -3585,7 +3586,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>546</v>
       </c>
@@ -3599,7 +3600,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>546</v>
       </c>
@@ -3613,7 +3614,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>545</v>
       </c>
@@ -3633,7 +3634,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>545</v>
       </c>
@@ -3647,7 +3648,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>545</v>
       </c>
@@ -3661,7 +3662,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>545</v>
       </c>
@@ -3675,7 +3676,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>545</v>
       </c>
@@ -3689,7 +3690,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>545</v>
       </c>
@@ -3703,7 +3704,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>545</v>
       </c>
@@ -3717,7 +3718,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>545</v>
       </c>
@@ -3731,7 +3732,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>545</v>
       </c>
@@ -3745,7 +3746,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>545</v>
       </c>
@@ -3759,7 +3760,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>545</v>
       </c>
@@ -3773,7 +3774,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>545</v>
       </c>
@@ -3787,7 +3788,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>545</v>
       </c>
@@ -3801,7 +3802,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>545</v>
       </c>
@@ -3815,7 +3816,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>545</v>
       </c>
@@ -3829,7 +3830,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>545</v>
       </c>
@@ -3843,7 +3844,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>545</v>
       </c>
@@ -3857,7 +3858,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>544</v>
       </c>
@@ -3877,7 +3878,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>544</v>
       </c>
@@ -3891,7 +3892,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>544</v>
       </c>
@@ -3905,7 +3906,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>544</v>
       </c>
@@ -3919,7 +3920,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>544</v>
       </c>
@@ -3933,7 +3934,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>544</v>
       </c>
@@ -3947,7 +3948,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>544</v>
       </c>
@@ -3961,7 +3962,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>544</v>
       </c>
@@ -3975,7 +3976,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>544</v>
       </c>
@@ -3989,7 +3990,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>544</v>
       </c>
@@ -4003,7 +4004,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>544</v>
       </c>
@@ -4017,7 +4018,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>99</v>
       </c>
@@ -4040,7 +4041,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
         <v>99</v>
       </c>
@@ -4054,7 +4055,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
         <v>99</v>
       </c>
@@ -4068,7 +4069,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
         <v>99</v>
       </c>
@@ -4082,7 +4083,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="s">
         <v>99</v>
       </c>
@@ -4096,7 +4097,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
         <v>99</v>
       </c>
@@ -4110,7 +4111,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
         <v>99</v>
       </c>
@@ -4124,7 +4125,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
         <v>99</v>
       </c>
@@ -4138,7 +4139,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="6" t="s">
         <v>99</v>
       </c>
@@ -4152,7 +4153,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
         <v>99</v>
       </c>
@@ -4166,7 +4167,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="6" t="s">
         <v>99</v>
       </c>
@@ -4180,7 +4181,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
         <v>99</v>
       </c>
@@ -4194,7 +4195,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="6" t="s">
         <v>99</v>
       </c>
@@ -4208,7 +4209,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
         <v>99</v>
       </c>
@@ -4222,7 +4223,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" s="6" t="s">
         <v>99</v>
       </c>
@@ -4236,7 +4237,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="s">
         <v>99</v>
       </c>
@@ -4250,7 +4251,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="6" t="s">
         <v>99</v>
       </c>
@@ -4264,7 +4265,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="6" t="s">
         <v>99</v>
       </c>
@@ -4278,7 +4279,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" s="6" t="s">
         <v>100</v>
       </c>
@@ -4301,7 +4302,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" s="6" t="s">
         <v>100</v>
       </c>
@@ -4315,7 +4316,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
         <v>100</v>
       </c>
@@ -4329,7 +4330,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" s="6" t="s">
         <v>100</v>
       </c>
@@ -4343,7 +4344,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" s="6" t="s">
         <v>100</v>
       </c>
@@ -4357,7 +4358,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" s="6" t="s">
         <v>100</v>
       </c>
@@ -4371,7 +4372,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" s="6" t="s">
         <v>100</v>
       </c>
@@ -4385,7 +4386,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" s="6" t="s">
         <v>100</v>
       </c>
@@ -4399,7 +4400,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" s="6" t="s">
         <v>100</v>
       </c>
@@ -4413,7 +4414,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" s="6" t="s">
         <v>100</v>
       </c>
@@ -4427,7 +4428,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" s="6" t="s">
         <v>100</v>
       </c>
@@ -4441,7 +4442,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" s="6" t="s">
         <v>100</v>
       </c>
@@ -4455,7 +4456,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" s="6" t="s">
         <v>100</v>
       </c>
@@ -4469,7 +4470,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" s="6" t="s">
         <v>100</v>
       </c>
@@ -4483,7 +4484,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" s="6" t="s">
         <v>100</v>
       </c>
@@ -4497,7 +4498,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" s="6" t="s">
         <v>100</v>
       </c>
@@ -4511,7 +4512,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" s="6" t="s">
         <v>100</v>
       </c>
@@ -4525,7 +4526,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" s="6" t="s">
         <v>100</v>
       </c>
@@ -4539,7 +4540,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" s="6" t="s">
         <v>101</v>
       </c>
@@ -4562,7 +4563,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" s="6" t="s">
         <v>101</v>
       </c>
@@ -4576,7 +4577,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" s="6" t="s">
         <v>101</v>
       </c>
@@ -4590,7 +4591,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="s">
         <v>101</v>
       </c>
@@ -4604,7 +4605,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" s="6" t="s">
         <v>101</v>
       </c>
@@ -4618,7 +4619,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" s="6" t="s">
         <v>101</v>
       </c>
@@ -4632,7 +4633,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" s="6" t="s">
         <v>101</v>
       </c>
@@ -4646,7 +4647,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" s="6" t="s">
         <v>101</v>
       </c>
@@ -4660,7 +4661,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" s="6" t="s">
         <v>101</v>
       </c>
@@ -4674,7 +4675,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" s="6" t="s">
         <v>101</v>
       </c>
@@ -4688,7 +4689,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" s="6" t="s">
         <v>101</v>
       </c>
@@ -4702,7 +4703,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" s="6" t="s">
         <v>101</v>
       </c>
@@ -4716,7 +4717,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" s="6" t="s">
         <v>101</v>
       </c>
@@ -4730,7 +4731,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" s="6" t="s">
         <v>101</v>
       </c>
@@ -4744,7 +4745,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" s="6" t="s">
         <v>101</v>
       </c>
@@ -4758,7 +4759,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" s="6" t="s">
         <v>101</v>
       </c>
@@ -4772,7 +4773,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" s="6" t="s">
         <v>101</v>
       </c>
@@ -4786,7 +4787,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" s="6" t="s">
         <v>101</v>
       </c>
@@ -4800,7 +4801,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" s="6" t="s">
         <v>102</v>
       </c>
@@ -4823,7 +4824,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" s="6" t="s">
         <v>102</v>
       </c>
@@ -4837,7 +4838,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" s="6" t="s">
         <v>102</v>
       </c>
@@ -4851,7 +4852,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" s="6" t="s">
         <v>102</v>
       </c>
@@ -4865,7 +4866,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142" s="6" t="s">
         <v>102</v>
       </c>
@@ -4879,7 +4880,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" s="6" t="s">
         <v>102</v>
       </c>
@@ -4893,7 +4894,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" s="6" t="s">
         <v>102</v>
       </c>
@@ -4907,7 +4908,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145" s="6" t="s">
         <v>102</v>
       </c>
@@ -4921,7 +4922,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" s="6" t="s">
         <v>102</v>
       </c>
@@ -4935,7 +4936,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" s="6" t="s">
         <v>102</v>
       </c>
@@ -4949,7 +4950,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" s="6" t="s">
         <v>102</v>
       </c>
@@ -4963,7 +4964,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" s="6" t="s">
         <v>102</v>
       </c>
@@ -4977,7 +4978,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" s="6" t="s">
         <v>102</v>
       </c>
@@ -4991,7 +4992,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" s="6" t="s">
         <v>102</v>
       </c>
@@ -5005,7 +5006,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" s="6" t="s">
         <v>102</v>
       </c>
@@ -5019,7 +5020,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" s="6" t="s">
         <v>102</v>
       </c>
@@ -5033,7 +5034,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154" s="6" t="s">
         <v>102</v>
       </c>
@@ -5047,7 +5048,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155" s="6" t="s">
         <v>102</v>
       </c>
@@ -5061,7 +5062,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156" s="6" t="s">
         <v>103</v>
       </c>
@@ -5084,7 +5085,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157" s="6" t="s">
         <v>103</v>
       </c>
@@ -5098,7 +5099,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158" s="6" t="s">
         <v>103</v>
       </c>
@@ -5112,7 +5113,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159" s="6" t="s">
         <v>103</v>
       </c>
@@ -5126,7 +5127,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160" s="6" t="s">
         <v>103</v>
       </c>
@@ -5140,7 +5141,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161" s="6" t="s">
         <v>103</v>
       </c>
@@ -5154,7 +5155,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162" s="6" t="s">
         <v>103</v>
       </c>
@@ -5168,7 +5169,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163" s="6" t="s">
         <v>103</v>
       </c>
@@ -5182,7 +5183,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164" s="6" t="s">
         <v>103</v>
       </c>
@@ -5196,7 +5197,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165" s="6" t="s">
         <v>103</v>
       </c>
@@ -5210,7 +5211,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166" s="6" t="s">
         <v>103</v>
       </c>
@@ -5224,7 +5225,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167" s="6" t="s">
         <v>103</v>
       </c>
@@ -5238,7 +5239,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168" s="6" t="s">
         <v>103</v>
       </c>
@@ -5252,7 +5253,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169" s="6" t="s">
         <v>103</v>
       </c>
@@ -5266,7 +5267,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170" s="6" t="s">
         <v>103</v>
       </c>
@@ -5280,7 +5281,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171" s="6" t="s">
         <v>103</v>
       </c>
@@ -5294,7 +5295,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A172" s="6" t="s">
         <v>103</v>
       </c>
@@ -5308,7 +5309,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173" s="6" t="s">
         <v>103</v>
       </c>
@@ -5322,7 +5323,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174" s="6" t="s">
         <v>104</v>
       </c>
@@ -5345,7 +5346,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175" s="6" t="s">
         <v>104</v>
       </c>
@@ -5359,7 +5360,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176" s="6" t="s">
         <v>104</v>
       </c>
@@ -5373,7 +5374,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177" s="6" t="s">
         <v>104</v>
       </c>
@@ -5387,7 +5388,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178" s="6" t="s">
         <v>104</v>
       </c>
@@ -5401,7 +5402,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179" s="6" t="s">
         <v>104</v>
       </c>
@@ -5415,7 +5416,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180" s="6" t="s">
         <v>104</v>
       </c>
@@ -5429,7 +5430,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181" s="6" t="s">
         <v>104</v>
       </c>
@@ -5443,7 +5444,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182" s="6" t="s">
         <v>104</v>
       </c>
@@ -5457,7 +5458,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183" s="6" t="s">
         <v>104</v>
       </c>
@@ -5471,7 +5472,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184" s="6" t="s">
         <v>104</v>
       </c>
@@ -5485,7 +5486,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185" s="6" t="s">
         <v>104</v>
       </c>
@@ -5499,7 +5500,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A186" s="6" t="s">
         <v>104</v>
       </c>
@@ -5513,7 +5514,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A187" s="6" t="s">
         <v>104</v>
       </c>
@@ -5527,7 +5528,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188" s="6" t="s">
         <v>104</v>
       </c>
@@ -5541,7 +5542,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189" s="6" t="s">
         <v>104</v>
       </c>
@@ -5555,7 +5556,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190" s="6" t="s">
         <v>104</v>
       </c>
@@ -5569,7 +5570,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191" s="6" t="s">
         <v>104</v>
       </c>
@@ -5583,7 +5584,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192" s="6" t="s">
         <v>105</v>
       </c>
@@ -5606,7 +5607,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" s="6" t="s">
         <v>105</v>
       </c>
@@ -5620,7 +5621,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" s="6" t="s">
         <v>105</v>
       </c>
@@ -5634,7 +5635,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" s="6" t="s">
         <v>105</v>
       </c>
@@ -5648,7 +5649,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" s="6" t="s">
         <v>105</v>
       </c>
@@ -5662,7 +5663,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" s="6" t="s">
         <v>105</v>
       </c>
@@ -5676,7 +5677,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" s="6" t="s">
         <v>105</v>
       </c>
@@ -5690,7 +5691,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" s="6" t="s">
         <v>105</v>
       </c>
@@ -5704,7 +5705,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" s="6" t="s">
         <v>105</v>
       </c>
@@ -5718,7 +5719,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" s="6" t="s">
         <v>105</v>
       </c>
@@ -5732,7 +5733,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" s="6" t="s">
         <v>105</v>
       </c>
@@ -5746,7 +5747,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" s="6" t="s">
         <v>105</v>
       </c>
@@ -5760,7 +5761,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" s="6" t="s">
         <v>105</v>
       </c>
@@ -5774,7 +5775,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" s="6" t="s">
         <v>105</v>
       </c>
@@ -5788,7 +5789,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" s="6" t="s">
         <v>105</v>
       </c>
@@ -5802,7 +5803,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" s="6" t="s">
         <v>105</v>
       </c>
@@ -5816,7 +5817,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" s="6" t="s">
         <v>105</v>
       </c>
@@ -5830,7 +5831,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209" s="6" t="s">
         <v>105</v>
       </c>
@@ -5844,7 +5845,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A210" s="6" t="s">
         <v>106</v>
       </c>
@@ -5867,7 +5868,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A211" s="6" t="s">
         <v>106</v>
       </c>
@@ -5881,7 +5882,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A212" s="6" t="s">
         <v>106</v>
       </c>
@@ -5895,7 +5896,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213" s="6" t="s">
         <v>106</v>
       </c>
@@ -5909,7 +5910,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A214" s="6" t="s">
         <v>106</v>
       </c>
@@ -5923,7 +5924,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215" s="6" t="s">
         <v>106</v>
       </c>
@@ -5937,7 +5938,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A216" s="6" t="s">
         <v>106</v>
       </c>
@@ -5951,7 +5952,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A217" s="6" t="s">
         <v>106</v>
       </c>
@@ -5965,7 +5966,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A218" s="6" t="s">
         <v>106</v>
       </c>
@@ -5979,7 +5980,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A219" s="6" t="s">
         <v>106</v>
       </c>
@@ -5993,7 +5994,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A220" s="6" t="s">
         <v>106</v>
       </c>
@@ -6007,7 +6008,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A221" s="6" t="s">
         <v>106</v>
       </c>
@@ -6021,7 +6022,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A222" s="6" t="s">
         <v>106</v>
       </c>
@@ -6035,7 +6036,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223" s="6" t="s">
         <v>106</v>
       </c>
@@ -6049,7 +6050,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A224" s="6" t="s">
         <v>106</v>
       </c>
@@ -6063,7 +6064,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A225" s="6" t="s">
         <v>106</v>
       </c>
@@ -6077,7 +6078,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A226" s="6" t="s">
         <v>106</v>
       </c>
@@ -6091,7 +6092,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A227" s="6" t="s">
         <v>106</v>
       </c>
@@ -6105,7 +6106,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A228" s="6" t="s">
         <v>136</v>
       </c>
@@ -6128,7 +6129,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A229" s="6" t="s">
         <v>136</v>
       </c>
@@ -6142,7 +6143,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A230" s="6" t="s">
         <v>136</v>
       </c>
@@ -6156,7 +6157,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A231" s="6" t="s">
         <v>136</v>
       </c>
@@ -6170,7 +6171,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A232" s="6" t="s">
         <v>136</v>
       </c>
@@ -6184,7 +6185,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A233" s="6" t="s">
         <v>138</v>
       </c>
@@ -6207,7 +6208,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A234" s="6" t="s">
         <v>138</v>
       </c>
@@ -6221,7 +6222,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A235" s="6" t="s">
         <v>138</v>
       </c>
@@ -6235,7 +6236,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A236" s="6" t="s">
         <v>138</v>
       </c>
@@ -6249,7 +6250,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A237" s="6" t="s">
         <v>138</v>
       </c>
@@ -6263,7 +6264,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>143</v>
       </c>
@@ -6286,7 +6287,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>145</v>
       </c>
@@ -6309,7 +6310,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>147</v>
       </c>
@@ -6332,7 +6333,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>149</v>
       </c>
@@ -6355,7 +6356,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>150</v>
       </c>
@@ -6378,7 +6379,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>150</v>
       </c>
@@ -6392,7 +6393,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>150</v>
       </c>
@@ -6406,7 +6407,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>150</v>
       </c>
@@ -6420,7 +6421,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>150</v>
       </c>
@@ -6434,7 +6435,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>150</v>
       </c>
@@ -6448,7 +6449,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>150</v>
       </c>
@@ -6462,7 +6463,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>150</v>
       </c>
@@ -6476,7 +6477,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>150</v>
       </c>
@@ -6490,7 +6491,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>168</v>
       </c>
@@ -6513,7 +6514,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>168</v>
       </c>
@@ -6527,7 +6528,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>168</v>
       </c>
@@ -6541,7 +6542,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>168</v>
       </c>
@@ -6555,7 +6556,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>168</v>
       </c>
@@ -6569,7 +6570,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>168</v>
       </c>
@@ -6583,7 +6584,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>168</v>
       </c>
@@ -6597,7 +6598,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>168</v>
       </c>
@@ -6611,7 +6612,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>168</v>
       </c>
@@ -6625,7 +6626,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>553</v>
       </c>
@@ -6648,7 +6649,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>553</v>
       </c>
@@ -6662,7 +6663,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>553</v>
       </c>
@@ -6676,7 +6677,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>553</v>
       </c>
@@ -6690,7 +6691,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>570</v>
       </c>
@@ -6713,7 +6714,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>570</v>
       </c>
@@ -6727,7 +6728,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>570</v>
       </c>
@@ -6741,7 +6742,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>570</v>
       </c>
@@ -6755,7 +6756,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>570</v>
       </c>
@@ -6769,7 +6770,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>570</v>
       </c>
@@ -6783,7 +6784,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>570</v>
       </c>
@@ -6797,7 +6798,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>570</v>
       </c>
@@ -6811,7 +6812,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>570</v>
       </c>
@@ -6825,7 +6826,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>570</v>
       </c>
@@ -6839,7 +6840,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>570</v>
       </c>
@@ -6853,7 +6854,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>570</v>
       </c>
@@ -6867,7 +6868,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>570</v>
       </c>
@@ -6881,7 +6882,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>570</v>
       </c>
@@ -6895,7 +6896,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>570</v>
       </c>
@@ -6909,7 +6910,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>570</v>
       </c>
@@ -6923,7 +6924,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>570</v>
       </c>
@@ -6937,7 +6938,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>570</v>
       </c>
@@ -6951,7 +6952,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>570</v>
       </c>
@@ -6965,7 +6966,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>570</v>
       </c>
@@ -6979,7 +6980,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>570</v>
       </c>
@@ -6993,7 +6994,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>570</v>
       </c>
@@ -7007,7 +7008,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>570</v>
       </c>
@@ -7021,7 +7022,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>570</v>
       </c>
@@ -7035,7 +7036,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>570</v>
       </c>
@@ -7049,7 +7050,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>570</v>
       </c>
@@ -7063,7 +7064,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>570</v>
       </c>
@@ -7077,7 +7078,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>571</v>
       </c>
@@ -7100,7 +7101,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>571</v>
       </c>
@@ -7114,7 +7115,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>571</v>
       </c>
@@ -7128,7 +7129,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>571</v>
       </c>
@@ -7142,7 +7143,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>571</v>
       </c>
@@ -7156,7 +7157,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>571</v>
       </c>
@@ -7170,7 +7171,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>571</v>
       </c>
@@ -7184,7 +7185,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>571</v>
       </c>
@@ -7198,7 +7199,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>571</v>
       </c>
@@ -7212,7 +7213,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>571</v>
       </c>
@@ -7226,7 +7227,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>571</v>
       </c>
@@ -7240,7 +7241,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>571</v>
       </c>
@@ -7254,7 +7255,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>571</v>
       </c>
@@ -7268,7 +7269,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>571</v>
       </c>
@@ -7282,7 +7283,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>571</v>
       </c>
@@ -7296,7 +7297,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>571</v>
       </c>
@@ -7310,7 +7311,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>571</v>
       </c>
@@ -7324,7 +7325,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>571</v>
       </c>
@@ -7338,7 +7339,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>571</v>
       </c>
@@ -7352,7 +7353,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>571</v>
       </c>
@@ -7366,7 +7367,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>210</v>
       </c>
@@ -7389,7 +7390,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>212</v>
       </c>
@@ -7409,7 +7410,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>212</v>
       </c>
@@ -7423,7 +7424,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>212</v>
       </c>
@@ -7437,7 +7438,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>212</v>
       </c>
@@ -7451,7 +7452,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>212</v>
       </c>
@@ -7465,7 +7466,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>212</v>
       </c>
@@ -7479,7 +7480,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>212</v>
       </c>
@@ -7493,7 +7494,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>212</v>
       </c>
@@ -7507,7 +7508,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>212</v>
       </c>
@@ -7521,7 +7522,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="321" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>218</v>
       </c>
@@ -7544,7 +7545,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="322" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>220</v>
       </c>
@@ -7567,7 +7568,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="323" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>222</v>
       </c>
@@ -7590,7 +7591,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="324" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>224</v>
       </c>
@@ -7613,7 +7614,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="325" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>226</v>
       </c>
@@ -7636,7 +7637,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="326" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>228</v>
       </c>
@@ -7659,7 +7660,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="327" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A327" s="3" t="s">
         <v>230</v>
       </c>
@@ -7685,7 +7686,7 @@
       <c r="K327"/>
       <c r="N327"/>
     </row>
-    <row r="328" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>231</v>
       </c>
@@ -7708,7 +7709,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="329" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>233</v>
       </c>
@@ -7731,7 +7732,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="330" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>235</v>
       </c>
@@ -7754,7 +7755,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="331" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>237</v>
       </c>
@@ -7777,7 +7778,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="332" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>239</v>
       </c>
@@ -7800,7 +7801,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="333" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>241</v>
       </c>
@@ -7823,7 +7824,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="334" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>243</v>
       </c>
@@ -7846,7 +7847,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="335" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>245</v>
       </c>
@@ -7869,7 +7870,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="336" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>247</v>
       </c>
@@ -7889,7 +7890,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>247</v>
       </c>
@@ -7903,7 +7904,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>247</v>
       </c>
@@ -7917,7 +7918,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>247</v>
       </c>
@@ -7931,7 +7932,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>247</v>
       </c>
@@ -7945,7 +7946,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>253</v>
       </c>
@@ -7968,7 +7969,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>253</v>
       </c>
@@ -7982,7 +7983,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>253</v>
       </c>
@@ -7996,7 +7997,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>253</v>
       </c>
@@ -8010,7 +8011,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>253</v>
       </c>
@@ -8024,7 +8025,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>253</v>
       </c>
@@ -8038,7 +8039,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>253</v>
       </c>
@@ -8052,7 +8053,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>253</v>
       </c>
@@ -8066,7 +8067,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>444</v>
       </c>
@@ -8092,7 +8093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>263</v>
       </c>
@@ -8106,7 +8107,7 @@
         <v>264</v>
       </c>
       <c r="E350" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="F350" t="s">
         <v>465</v>
@@ -8115,7 +8116,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>265</v>
       </c>
@@ -8138,7 +8139,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>265</v>
       </c>
@@ -8152,7 +8153,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>265</v>
       </c>
@@ -8166,7 +8167,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>265</v>
       </c>
@@ -8180,7 +8181,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>265</v>
       </c>
@@ -8194,7 +8195,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>265</v>
       </c>
@@ -8208,7 +8209,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>265</v>
       </c>
@@ -8222,7 +8223,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>265</v>
       </c>
@@ -8236,7 +8237,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>265</v>
       </c>
@@ -8250,7 +8251,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>265</v>
       </c>
@@ -8264,7 +8265,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>265</v>
       </c>
@@ -8278,7 +8279,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>265</v>
       </c>
@@ -8292,7 +8293,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>281</v>
       </c>
@@ -8312,7 +8313,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>281</v>
       </c>
@@ -8326,7 +8327,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>281</v>
       </c>
@@ -8340,7 +8341,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>281</v>
       </c>
@@ -8354,7 +8355,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>281</v>
       </c>
@@ -8368,7 +8369,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>281</v>
       </c>
@@ -8382,7 +8383,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>288</v>
       </c>
@@ -8402,7 +8403,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>288</v>
       </c>
@@ -8416,7 +8417,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>288</v>
       </c>
@@ -8430,7 +8431,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>288</v>
       </c>
@@ -8444,7 +8445,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>288</v>
       </c>
@@ -8458,7 +8459,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>294</v>
       </c>
@@ -8481,7 +8482,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>294</v>
       </c>
@@ -8495,7 +8496,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>294</v>
       </c>
@@ -8509,7 +8510,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>294</v>
       </c>
@@ -8523,7 +8524,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>294</v>
       </c>
@@ -8537,7 +8538,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>301</v>
       </c>
@@ -8557,7 +8558,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>301</v>
       </c>
@@ -8571,7 +8572,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>301</v>
       </c>
@@ -8585,7 +8586,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>301</v>
       </c>
@@ -8599,7 +8600,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>301</v>
       </c>
@@ -8613,7 +8614,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>301</v>
       </c>
@@ -8627,7 +8628,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>301</v>
       </c>
@@ -8641,7 +8642,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>308</v>
       </c>
@@ -8661,7 +8662,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>308</v>
       </c>
@@ -8675,7 +8676,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>308</v>
       </c>
@@ -8689,7 +8690,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>308</v>
       </c>
@@ -8703,7 +8704,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>308</v>
       </c>
@@ -8717,7 +8718,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>314</v>
       </c>
@@ -8737,7 +8738,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>314</v>
       </c>
@@ -8751,7 +8752,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>314</v>
       </c>
@@ -8765,7 +8766,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>314</v>
       </c>
@@ -8779,7 +8780,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>314</v>
       </c>
@@ -8793,7 +8794,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>314</v>
       </c>
@@ -8807,7 +8808,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>314</v>
       </c>
@@ -8821,7 +8822,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="398" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>316</v>
       </c>
@@ -8841,7 +8842,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>316</v>
       </c>
@@ -8855,7 +8856,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>316</v>
       </c>
@@ -8869,7 +8870,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>316</v>
       </c>
@@ -8883,7 +8884,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>316</v>
       </c>
@@ -8897,7 +8898,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="403" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>320</v>
       </c>
@@ -8911,7 +8912,7 @@
         <v>321</v>
       </c>
       <c r="E403" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="F403" t="s">
         <v>465</v>
@@ -8920,7 +8921,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>322</v>
       </c>
@@ -8934,7 +8935,7 @@
         <v>323</v>
       </c>
       <c r="E404" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="F404" t="s">
         <v>465</v>
@@ -8943,7 +8944,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>324</v>
       </c>
@@ -8957,7 +8958,7 @@
         <v>325</v>
       </c>
       <c r="E405" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="F405" t="s">
         <v>465</v>
@@ -8966,7 +8967,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>326</v>
       </c>
@@ -8980,7 +8981,7 @@
         <v>327</v>
       </c>
       <c r="E406" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="F406" t="s">
         <v>465</v>
@@ -8989,7 +8990,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>328</v>
       </c>
@@ -9003,7 +9004,7 @@
         <v>329</v>
       </c>
       <c r="E407" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="F407" t="s">
         <v>465</v>
@@ -9012,7 +9013,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>330</v>
       </c>
@@ -9026,7 +9027,7 @@
         <v>331</v>
       </c>
       <c r="E408" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="F408" t="s">
         <v>465</v>
@@ -9035,7 +9036,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>332</v>
       </c>
@@ -9049,7 +9050,7 @@
         <v>333</v>
       </c>
       <c r="E409" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="F409" t="s">
         <v>465</v>
@@ -9058,7 +9059,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>334</v>
       </c>
@@ -9072,7 +9073,7 @@
         <v>335</v>
       </c>
       <c r="E410" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="F410" t="s">
         <v>465</v>
@@ -9081,7 +9082,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>336</v>
       </c>
@@ -9095,7 +9096,7 @@
         <v>337</v>
       </c>
       <c r="E411" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="F411" t="s">
         <v>465</v>
@@ -9104,7 +9105,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>338</v>
       </c>
@@ -9118,7 +9119,7 @@
         <v>339</v>
       </c>
       <c r="E412" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="F412" t="s">
         <v>465</v>
@@ -9127,7 +9128,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>340</v>
       </c>
@@ -9141,7 +9142,7 @@
         <v>341</v>
       </c>
       <c r="E413" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="F413" t="s">
         <v>465</v>
@@ -9150,7 +9151,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>342</v>
       </c>
@@ -9164,7 +9165,7 @@
         <v>343</v>
       </c>
       <c r="E414" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="F414" t="s">
         <v>465</v>
@@ -9173,7 +9174,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>554</v>
       </c>
@@ -9196,7 +9197,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>554</v>
       </c>
@@ -9210,7 +9211,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>554</v>
       </c>
@@ -9224,7 +9225,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>554</v>
       </c>
@@ -9238,7 +9239,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>554</v>
       </c>
@@ -9252,7 +9253,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>554</v>
       </c>
@@ -9266,7 +9267,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>554</v>
       </c>
@@ -9280,7 +9281,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>554</v>
       </c>
@@ -9294,7 +9295,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>554</v>
       </c>
@@ -9308,7 +9309,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>554</v>
       </c>
@@ -9322,7 +9323,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>554</v>
       </c>
@@ -9336,7 +9337,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>554</v>
       </c>
@@ -9350,7 +9351,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>554</v>
       </c>
@@ -9364,7 +9365,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="428" spans="1:9" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>360</v>
       </c>
@@ -9387,7 +9388,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="429" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>360</v>
       </c>
@@ -9401,7 +9402,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>360</v>
       </c>
@@ -9415,7 +9416,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>360</v>
       </c>
@@ -9429,7 +9430,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="432" spans="1:9" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:9" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>362</v>
       </c>
@@ -9452,7 +9453,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="433" spans="1:9" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>362</v>
       </c>
@@ -9466,7 +9467,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>362</v>
       </c>
@@ -9480,7 +9481,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>362</v>
       </c>
@@ -9494,7 +9495,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>366</v>
       </c>
@@ -9517,7 +9518,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>366</v>
       </c>
@@ -9531,7 +9532,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>366</v>
       </c>
@@ -9545,7 +9546,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>366</v>
       </c>
@@ -9559,7 +9560,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>366</v>
       </c>
@@ -9573,7 +9574,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>366</v>
       </c>
@@ -9587,7 +9588,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>368</v>
       </c>
@@ -9610,7 +9611,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>368</v>
       </c>
@@ -9624,7 +9625,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>368</v>
       </c>
@@ -9638,7 +9639,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>368</v>
       </c>
@@ -9652,7 +9653,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="446" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>368</v>
       </c>
@@ -9666,7 +9667,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>368</v>
       </c>
@@ -9680,7 +9681,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="448" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>375</v>
       </c>
@@ -9703,7 +9704,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>377</v>
       </c>
@@ -9726,7 +9727,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>379</v>
       </c>
@@ -9746,7 +9747,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>380</v>
       </c>
@@ -9766,7 +9767,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>381</v>
       </c>
@@ -9789,7 +9790,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>383</v>
       </c>
@@ -9812,7 +9813,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>385</v>
       </c>
@@ -9835,7 +9836,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>387</v>
       </c>
@@ -9858,7 +9859,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>389</v>
       </c>
@@ -9881,7 +9882,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>390</v>
       </c>
@@ -9895,7 +9896,7 @@
         <v>391</v>
       </c>
       <c r="E457" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="F457" t="s">
         <v>465</v>
@@ -9904,7 +9905,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>0</v>
       </c>
@@ -9925,13 +9926,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O458">
-    <sortState ref="A2:Q587">
+  <autoFilter ref="A1:O458" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q587">
       <sortCondition ref="F1:F587"/>
     </sortState>
   </autoFilter>
   <dataValidations count="1">
-    <dataValidation type="decimal" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:M1048576 H2:H1048576">
+    <dataValidation type="decimal" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:M1048576 H2:H1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -9939,13 +9940,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>validation_values!$A$1:$A$62</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>validation_values!$B$1:$B$2</xm:f>
           </x14:formula1>
@@ -9958,16 +9959,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>398</v>
       </c>
@@ -9975,7 +9976,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>399</v>
       </c>
@@ -9983,202 +9984,202 @@
         <v>466</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>437</v>
       </c>
@@ -10190,21 +10191,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DE904D578DFE6844BEAE84BDC2B4097E" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="50ebab51745edbac74153c776eff7922">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="847bd2b6-c417-48b3-84b7-e392c504f3bb" xmlns:ns4="f32a61f4-5698-46d5-9f56-343e6d7dc7d7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="48e32a04494ad4991fdbd7a90d4a41aa" ns3:_="" ns4:_="">
     <xsd:import namespace="847bd2b6-c417-48b3-84b7-e392c504f3bb"/>
@@ -10413,32 +10399,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8450404-B5A9-4CAE-AD2F-E650514D4870}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="f32a61f4-5698-46d5-9f56-343e6d7dc7d7"/>
-    <ds:schemaRef ds:uri="847bd2b6-c417-48b3-84b7-e392c504f3bb"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F5B82C4-8D32-4858-AE49-B9F718EB1758}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82216217-E566-4EBA-B2A2-632151E5C36C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10455,4 +10431,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F5B82C4-8D32-4858-AE49-B9F718EB1758}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8450404-B5A9-4CAE-AD2F-E650514D4870}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f32a61f4-5698-46d5-9f56-343e6d7dc7d7"/>
+    <ds:schemaRef ds:uri="847bd2b6-c417-48b3-84b7-e392c504f3bb"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/inst/extdata/e.g.dictionary.xlsx
+++ b/inst/extdata/e.g.dictionary.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hdvincelette/Documents/GitHub/mdJSONdictio/inst/extdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hvincelette\Documents\GitHub\mdJSONdictio\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{792C6A8A-EC55-CA45-8473-19380B087E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="21320" windowHeight="10620" tabRatio="747" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="504" windowWidth="21324" windowHeight="10620" tabRatio="747"/>
   </bookViews>
   <sheets>
     <sheet name="data_dictionary" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2020" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2024" uniqueCount="596">
   <si>
     <t>Notes</t>
   </si>
@@ -1803,12 +1802,21 @@
   </si>
   <si>
     <t>dataField</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>NULL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2633,26 +2641,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N458"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="H411" sqref="H411"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="30.83203125" customWidth="1"/>
+    <col min="4" max="4" width="30.77734375" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
     <col min="9" max="9" width="9" customWidth="1"/>
     <col min="10" max="11" width="15.33203125" customWidth="1"/>
     <col min="14" max="14" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>393</v>
       </c>
@@ -2696,7 +2704,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2710,7 +2718,7 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>443</v>
+        <v>405</v>
       </c>
       <c r="F2" t="s">
         <v>466</v>
@@ -2719,7 +2727,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2733,7 +2741,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2747,7 +2755,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -2764,10 +2772,13 @@
         <v>414</v>
       </c>
       <c r="F5" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+        <v>466</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -2784,10 +2795,13 @@
         <v>414</v>
       </c>
       <c r="F6" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+        <v>466</v>
+      </c>
+      <c r="J6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -2806,8 +2820,11 @@
       <c r="F7" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -2826,6 +2843,9 @@
       <c r="F8" t="s">
         <v>465</v>
       </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
       <c r="L8">
         <v>1</v>
       </c>
@@ -2833,7 +2853,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -2853,13 +2873,13 @@
         <v>465</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="M9">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>467</v>
       </c>
@@ -2882,7 +2902,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>468</v>
       </c>
@@ -2905,7 +2925,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>468</v>
       </c>
@@ -2919,7 +2939,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>468</v>
       </c>
@@ -2933,7 +2953,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>468</v>
       </c>
@@ -2947,7 +2967,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>468</v>
       </c>
@@ -2961,7 +2981,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>468</v>
       </c>
@@ -2975,7 +2995,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>469</v>
       </c>
@@ -2998,7 +3018,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>469</v>
       </c>
@@ -3012,7 +3032,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>469</v>
       </c>
@@ -3026,7 +3046,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>469</v>
       </c>
@@ -3040,7 +3060,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>469</v>
       </c>
@@ -3054,7 +3074,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>469</v>
       </c>
@@ -3068,7 +3088,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>469</v>
       </c>
@@ -3082,7 +3102,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>470</v>
       </c>
@@ -3105,7 +3125,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>470</v>
       </c>
@@ -3119,7 +3139,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>470</v>
       </c>
@@ -3133,7 +3153,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>470</v>
       </c>
@@ -3147,7 +3167,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>470</v>
       </c>
@@ -3161,7 +3181,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>470</v>
       </c>
@@ -3175,7 +3195,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>470</v>
       </c>
@@ -3189,7 +3209,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>470</v>
       </c>
@@ -3203,7 +3223,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>470</v>
       </c>
@@ -3217,7 +3237,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>470</v>
       </c>
@@ -3231,7 +3251,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>470</v>
       </c>
@@ -3245,7 +3265,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>470</v>
       </c>
@@ -3259,7 +3279,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>59</v>
       </c>
@@ -3282,7 +3302,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>60</v>
       </c>
@@ -3305,7 +3325,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>61</v>
       </c>
@@ -3328,7 +3348,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>63</v>
       </c>
@@ -3351,7 +3371,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>67</v>
       </c>
@@ -3374,7 +3394,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>68</v>
       </c>
@@ -3397,7 +3417,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>69</v>
       </c>
@@ -3417,7 +3437,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>71</v>
       </c>
@@ -3437,7 +3457,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>546</v>
       </c>
@@ -3460,7 +3480,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>546</v>
       </c>
@@ -3474,7 +3494,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>546</v>
       </c>
@@ -3488,7 +3508,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>546</v>
       </c>
@@ -3502,7 +3522,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>546</v>
       </c>
@@ -3516,7 +3536,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>546</v>
       </c>
@@ -3530,7 +3550,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>546</v>
       </c>
@@ -3544,7 +3564,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>546</v>
       </c>
@@ -3558,7 +3578,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>546</v>
       </c>
@@ -3572,7 +3592,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>546</v>
       </c>
@@ -3586,7 +3606,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>546</v>
       </c>
@@ -3600,7 +3620,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>546</v>
       </c>
@@ -3614,7 +3634,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>545</v>
       </c>
@@ -3631,10 +3651,13 @@
         <v>443</v>
       </c>
       <c r="F56" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+        <v>466</v>
+      </c>
+      <c r="K56" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>545</v>
       </c>
@@ -3648,7 +3671,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>545</v>
       </c>
@@ -3662,7 +3685,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>545</v>
       </c>
@@ -3676,7 +3699,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>545</v>
       </c>
@@ -3690,7 +3713,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>545</v>
       </c>
@@ -3704,7 +3727,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>545</v>
       </c>
@@ -3718,7 +3741,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>545</v>
       </c>
@@ -3732,7 +3755,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>545</v>
       </c>
@@ -3746,7 +3769,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>545</v>
       </c>
@@ -3760,7 +3783,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>545</v>
       </c>
@@ -3774,7 +3797,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>545</v>
       </c>
@@ -3788,7 +3811,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>545</v>
       </c>
@@ -3802,7 +3825,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>545</v>
       </c>
@@ -3816,7 +3839,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>545</v>
       </c>
@@ -3830,7 +3853,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>545</v>
       </c>
@@ -3844,7 +3867,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>545</v>
       </c>
@@ -3858,7 +3881,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>544</v>
       </c>
@@ -3878,7 +3901,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>544</v>
       </c>
@@ -3892,7 +3915,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>544</v>
       </c>
@@ -3906,7 +3929,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>544</v>
       </c>
@@ -3920,7 +3943,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>544</v>
       </c>
@@ -3934,7 +3957,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>544</v>
       </c>
@@ -3948,7 +3971,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>544</v>
       </c>
@@ -3962,7 +3985,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>544</v>
       </c>
@@ -3976,7 +3999,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>544</v>
       </c>
@@ -3990,7 +4013,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>544</v>
       </c>
@@ -4004,7 +4027,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>544</v>
       </c>
@@ -4018,7 +4041,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>99</v>
       </c>
@@ -4040,8 +4063,11 @@
       <c r="I84" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K84" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
         <v>99</v>
       </c>
@@ -4055,7 +4081,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
         <v>99</v>
       </c>
@@ -4069,7 +4095,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
         <v>99</v>
       </c>
@@ -4083,7 +4109,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
         <v>99</v>
       </c>
@@ -4097,7 +4123,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
         <v>99</v>
       </c>
@@ -4111,7 +4137,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
         <v>99</v>
       </c>
@@ -4125,7 +4151,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
         <v>99</v>
       </c>
@@ -4139,7 +4165,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
         <v>99</v>
       </c>
@@ -4153,7 +4179,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
         <v>99</v>
       </c>
@@ -4167,7 +4193,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
         <v>99</v>
       </c>
@@ -4181,7 +4207,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
         <v>99</v>
       </c>
@@ -4195,7 +4221,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
         <v>99</v>
       </c>
@@ -4209,7 +4235,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
         <v>99</v>
       </c>
@@ -4223,7 +4249,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
         <v>99</v>
       </c>
@@ -4237,7 +4263,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
         <v>99</v>
       </c>
@@ -4251,7 +4277,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
         <v>99</v>
       </c>
@@ -4265,7 +4291,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
         <v>99</v>
       </c>
@@ -4279,7 +4305,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
         <v>100</v>
       </c>
@@ -4301,8 +4327,11 @@
       <c r="I102" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K102" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
         <v>100</v>
       </c>
@@ -4316,7 +4345,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
         <v>100</v>
       </c>
@@ -4330,7 +4359,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="6" t="s">
         <v>100</v>
       </c>
@@ -4344,7 +4373,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="6" t="s">
         <v>100</v>
       </c>
@@ -4358,7 +4387,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="6" t="s">
         <v>100</v>
       </c>
@@ -4372,7 +4401,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
         <v>100</v>
       </c>
@@ -4386,7 +4415,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="6" t="s">
         <v>100</v>
       </c>
@@ -4400,7 +4429,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="6" t="s">
         <v>100</v>
       </c>
@@ -4414,7 +4443,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
         <v>100</v>
       </c>
@@ -4428,7 +4457,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
         <v>100</v>
       </c>
@@ -4442,7 +4471,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="6" t="s">
         <v>100</v>
       </c>
@@ -4456,7 +4485,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="6" t="s">
         <v>100</v>
       </c>
@@ -4470,7 +4499,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="6" t="s">
         <v>100</v>
       </c>
@@ -4484,7 +4513,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="6" t="s">
         <v>100</v>
       </c>
@@ -4498,7 +4527,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
         <v>100</v>
       </c>
@@ -4512,7 +4541,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="6" t="s">
         <v>100</v>
       </c>
@@ -4526,7 +4555,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
         <v>100</v>
       </c>
@@ -4540,7 +4569,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="6" t="s">
         <v>101</v>
       </c>
@@ -4562,8 +4591,11 @@
       <c r="I120" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K120" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="6" t="s">
         <v>101</v>
       </c>
@@ -4577,7 +4609,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
         <v>101</v>
       </c>
@@ -4591,7 +4623,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="6" t="s">
         <v>101</v>
       </c>
@@ -4605,7 +4637,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="6" t="s">
         <v>101</v>
       </c>
@@ -4619,7 +4651,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="6" t="s">
         <v>101</v>
       </c>
@@ -4633,7 +4665,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="6" t="s">
         <v>101</v>
       </c>
@@ -4647,7 +4679,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
         <v>101</v>
       </c>
@@ -4661,7 +4693,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
         <v>101</v>
       </c>
@@ -4675,7 +4707,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" s="6" t="s">
         <v>101</v>
       </c>
@@ -4689,7 +4721,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" s="6" t="s">
         <v>101</v>
       </c>
@@ -4703,7 +4735,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" s="6" t="s">
         <v>101</v>
       </c>
@@ -4717,7 +4749,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" s="6" t="s">
         <v>101</v>
       </c>
@@ -4731,7 +4763,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" s="6" t="s">
         <v>101</v>
       </c>
@@ -4745,7 +4777,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" s="6" t="s">
         <v>101</v>
       </c>
@@ -4759,7 +4791,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" s="6" t="s">
         <v>101</v>
       </c>
@@ -4773,7 +4805,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" s="6" t="s">
         <v>101</v>
       </c>
@@ -4787,7 +4819,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" s="6" t="s">
         <v>101</v>
       </c>
@@ -4801,7 +4833,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" s="6" t="s">
         <v>102</v>
       </c>
@@ -4824,7 +4856,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" s="6" t="s">
         <v>102</v>
       </c>
@@ -4838,7 +4870,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" s="6" t="s">
         <v>102</v>
       </c>
@@ -4852,7 +4884,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" s="6" t="s">
         <v>102</v>
       </c>
@@ -4866,7 +4898,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" s="6" t="s">
         <v>102</v>
       </c>
@@ -4880,7 +4912,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" s="6" t="s">
         <v>102</v>
       </c>
@@ -4894,7 +4926,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" s="6" t="s">
         <v>102</v>
       </c>
@@ -4908,7 +4940,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" s="6" t="s">
         <v>102</v>
       </c>
@@ -4922,7 +4954,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" s="6" t="s">
         <v>102</v>
       </c>
@@ -4936,7 +4968,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" s="6" t="s">
         <v>102</v>
       </c>
@@ -4950,7 +4982,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" s="6" t="s">
         <v>102</v>
       </c>
@@ -4964,7 +4996,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" s="6" t="s">
         <v>102</v>
       </c>
@@ -4978,7 +5010,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" s="6" t="s">
         <v>102</v>
       </c>
@@ -4992,7 +5024,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" s="6" t="s">
         <v>102</v>
       </c>
@@ -5006,7 +5038,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" s="6" t="s">
         <v>102</v>
       </c>
@@ -5020,7 +5052,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" s="6" t="s">
         <v>102</v>
       </c>
@@ -5034,7 +5066,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" s="6" t="s">
         <v>102</v>
       </c>
@@ -5048,7 +5080,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" s="6" t="s">
         <v>102</v>
       </c>
@@ -5062,7 +5094,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" s="6" t="s">
         <v>103</v>
       </c>
@@ -5085,7 +5117,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" s="6" t="s">
         <v>103</v>
       </c>
@@ -5099,7 +5131,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" s="6" t="s">
         <v>103</v>
       </c>
@@ -5113,7 +5145,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" s="6" t="s">
         <v>103</v>
       </c>
@@ -5127,7 +5159,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" s="6" t="s">
         <v>103</v>
       </c>
@@ -5141,7 +5173,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" s="6" t="s">
         <v>103</v>
       </c>
@@ -5155,7 +5187,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" s="6" t="s">
         <v>103</v>
       </c>
@@ -5169,7 +5201,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" s="6" t="s">
         <v>103</v>
       </c>
@@ -5183,7 +5215,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" s="6" t="s">
         <v>103</v>
       </c>
@@ -5197,7 +5229,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" s="6" t="s">
         <v>103</v>
       </c>
@@ -5211,7 +5243,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" s="6" t="s">
         <v>103</v>
       </c>
@@ -5225,7 +5257,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" s="6" t="s">
         <v>103</v>
       </c>
@@ -5239,7 +5271,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" s="6" t="s">
         <v>103</v>
       </c>
@@ -5253,7 +5285,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169" s="6" t="s">
         <v>103</v>
       </c>
@@ -5267,7 +5299,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" s="6" t="s">
         <v>103</v>
       </c>
@@ -5281,7 +5313,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" s="6" t="s">
         <v>103</v>
       </c>
@@ -5295,7 +5327,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172" s="6" t="s">
         <v>103</v>
       </c>
@@ -5309,7 +5341,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" s="6" t="s">
         <v>103</v>
       </c>
@@ -5323,7 +5355,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174" s="6" t="s">
         <v>104</v>
       </c>
@@ -5346,7 +5378,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175" s="6" t="s">
         <v>104</v>
       </c>
@@ -5360,7 +5392,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176" s="6" t="s">
         <v>104</v>
       </c>
@@ -5374,7 +5406,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177" s="6" t="s">
         <v>104</v>
       </c>
@@ -5388,7 +5420,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178" s="6" t="s">
         <v>104</v>
       </c>
@@ -5402,7 +5434,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179" s="6" t="s">
         <v>104</v>
       </c>
@@ -5416,7 +5448,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180" s="6" t="s">
         <v>104</v>
       </c>
@@ -5430,7 +5462,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181" s="6" t="s">
         <v>104</v>
       </c>
@@ -5444,7 +5476,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182" s="6" t="s">
         <v>104</v>
       </c>
@@ -5458,7 +5490,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" s="6" t="s">
         <v>104</v>
       </c>
@@ -5472,7 +5504,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184" s="6" t="s">
         <v>104</v>
       </c>
@@ -5486,7 +5518,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185" s="6" t="s">
         <v>104</v>
       </c>
@@ -5500,7 +5532,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186" s="6" t="s">
         <v>104</v>
       </c>
@@ -5514,7 +5546,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187" s="6" t="s">
         <v>104</v>
       </c>
@@ -5528,7 +5560,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188" s="6" t="s">
         <v>104</v>
       </c>
@@ -5542,7 +5574,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189" s="6" t="s">
         <v>104</v>
       </c>
@@ -5556,7 +5588,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190" s="6" t="s">
         <v>104</v>
       </c>
@@ -5570,7 +5602,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191" s="6" t="s">
         <v>104</v>
       </c>
@@ -5584,7 +5616,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192" s="6" t="s">
         <v>105</v>
       </c>
@@ -5607,7 +5639,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="6" t="s">
         <v>105</v>
       </c>
@@ -5621,7 +5653,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="6" t="s">
         <v>105</v>
       </c>
@@ -5635,7 +5667,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="6" t="s">
         <v>105</v>
       </c>
@@ -5649,7 +5681,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="6" t="s">
         <v>105</v>
       </c>
@@ -5663,7 +5695,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="6" t="s">
         <v>105</v>
       </c>
@@ -5677,7 +5709,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="6" t="s">
         <v>105</v>
       </c>
@@ -5691,7 +5723,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="6" t="s">
         <v>105</v>
       </c>
@@ -5705,7 +5737,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="6" t="s">
         <v>105</v>
       </c>
@@ -5719,7 +5751,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="6" t="s">
         <v>105</v>
       </c>
@@ -5733,7 +5765,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="6" t="s">
         <v>105</v>
       </c>
@@ -5747,7 +5779,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="6" t="s">
         <v>105</v>
       </c>
@@ -5761,7 +5793,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="6" t="s">
         <v>105</v>
       </c>
@@ -5775,7 +5807,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="6" t="s">
         <v>105</v>
       </c>
@@ -5789,7 +5821,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="6" t="s">
         <v>105</v>
       </c>
@@ -5803,7 +5835,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="6" t="s">
         <v>105</v>
       </c>
@@ -5817,7 +5849,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="6" t="s">
         <v>105</v>
       </c>
@@ -5831,7 +5863,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A209" s="6" t="s">
         <v>105</v>
       </c>
@@ -5845,7 +5877,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A210" s="6" t="s">
         <v>106</v>
       </c>
@@ -5868,7 +5900,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A211" s="6" t="s">
         <v>106</v>
       </c>
@@ -5882,7 +5914,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A212" s="6" t="s">
         <v>106</v>
       </c>
@@ -5896,7 +5928,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A213" s="6" t="s">
         <v>106</v>
       </c>
@@ -5910,7 +5942,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A214" s="6" t="s">
         <v>106</v>
       </c>
@@ -5924,7 +5956,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215" s="6" t="s">
         <v>106</v>
       </c>
@@ -5938,7 +5970,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A216" s="6" t="s">
         <v>106</v>
       </c>
@@ -5952,7 +5984,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A217" s="6" t="s">
         <v>106</v>
       </c>
@@ -5966,7 +5998,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A218" s="6" t="s">
         <v>106</v>
       </c>
@@ -5980,7 +6012,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A219" s="6" t="s">
         <v>106</v>
       </c>
@@ -5994,7 +6026,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A220" s="6" t="s">
         <v>106</v>
       </c>
@@ -6008,7 +6040,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A221" s="6" t="s">
         <v>106</v>
       </c>
@@ -6022,7 +6054,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222" s="6" t="s">
         <v>106</v>
       </c>
@@ -6036,7 +6068,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A223" s="6" t="s">
         <v>106</v>
       </c>
@@ -6050,7 +6082,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A224" s="6" t="s">
         <v>106</v>
       </c>
@@ -6064,7 +6096,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A225" s="6" t="s">
         <v>106</v>
       </c>
@@ -6078,7 +6110,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A226" s="6" t="s">
         <v>106</v>
       </c>
@@ -6092,7 +6124,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A227" s="6" t="s">
         <v>106</v>
       </c>
@@ -6106,7 +6138,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A228" s="6" t="s">
         <v>136</v>
       </c>
@@ -6129,7 +6161,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A229" s="6" t="s">
         <v>136</v>
       </c>
@@ -6143,7 +6175,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A230" s="6" t="s">
         <v>136</v>
       </c>
@@ -6157,7 +6189,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A231" s="6" t="s">
         <v>136</v>
       </c>
@@ -6171,7 +6203,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A232" s="6" t="s">
         <v>136</v>
       </c>
@@ -6185,7 +6217,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A233" s="6" t="s">
         <v>138</v>
       </c>
@@ -6208,7 +6240,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A234" s="6" t="s">
         <v>138</v>
       </c>
@@ -6222,7 +6254,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A235" s="6" t="s">
         <v>138</v>
       </c>
@@ -6236,7 +6268,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A236" s="6" t="s">
         <v>138</v>
       </c>
@@ -6250,7 +6282,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A237" s="6" t="s">
         <v>138</v>
       </c>
@@ -6264,7 +6296,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>143</v>
       </c>
@@ -6287,7 +6319,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>145</v>
       </c>
@@ -6310,7 +6342,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>147</v>
       </c>
@@ -6333,7 +6365,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>149</v>
       </c>
@@ -6356,7 +6388,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>150</v>
       </c>
@@ -6379,7 +6411,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>150</v>
       </c>
@@ -6393,7 +6425,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>150</v>
       </c>
@@ -6407,7 +6439,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>150</v>
       </c>
@@ -6421,7 +6453,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>150</v>
       </c>
@@ -6435,7 +6467,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>150</v>
       </c>
@@ -6449,7 +6481,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>150</v>
       </c>
@@ -6463,7 +6495,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>150</v>
       </c>
@@ -6477,7 +6509,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>150</v>
       </c>
@@ -6491,7 +6523,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>168</v>
       </c>
@@ -6514,7 +6546,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>168</v>
       </c>
@@ -6528,7 +6560,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>168</v>
       </c>
@@ -6542,7 +6574,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>168</v>
       </c>
@@ -6556,7 +6588,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>168</v>
       </c>
@@ -6570,7 +6602,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>168</v>
       </c>
@@ -6584,7 +6616,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>168</v>
       </c>
@@ -6598,7 +6630,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>168</v>
       </c>
@@ -6612,7 +6644,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>168</v>
       </c>
@@ -6626,7 +6658,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>553</v>
       </c>
@@ -6649,7 +6681,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>553</v>
       </c>
@@ -6663,7 +6695,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>553</v>
       </c>
@@ -6677,7 +6709,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>553</v>
       </c>
@@ -6691,7 +6723,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>570</v>
       </c>
@@ -6714,7 +6746,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>570</v>
       </c>
@@ -6728,7 +6760,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>570</v>
       </c>
@@ -6742,7 +6774,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>570</v>
       </c>
@@ -6756,7 +6788,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>570</v>
       </c>
@@ -6770,7 +6802,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>570</v>
       </c>
@@ -6784,7 +6816,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>570</v>
       </c>
@@ -6798,7 +6830,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>570</v>
       </c>
@@ -6812,7 +6844,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>570</v>
       </c>
@@ -6826,7 +6858,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>570</v>
       </c>
@@ -6840,7 +6872,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>570</v>
       </c>
@@ -6854,7 +6886,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>570</v>
       </c>
@@ -6868,7 +6900,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>570</v>
       </c>
@@ -6882,7 +6914,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>570</v>
       </c>
@@ -6896,7 +6928,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>570</v>
       </c>
@@ -6910,7 +6942,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>570</v>
       </c>
@@ -6924,7 +6956,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>570</v>
       </c>
@@ -6938,7 +6970,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>570</v>
       </c>
@@ -6952,7 +6984,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>570</v>
       </c>
@@ -6966,7 +6998,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>570</v>
       </c>
@@ -6980,7 +7012,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>570</v>
       </c>
@@ -6994,7 +7026,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>570</v>
       </c>
@@ -7008,7 +7040,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>570</v>
       </c>
@@ -7022,7 +7054,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>570</v>
       </c>
@@ -7036,7 +7068,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>570</v>
       </c>
@@ -7050,7 +7082,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>570</v>
       </c>
@@ -7064,7 +7096,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>570</v>
       </c>
@@ -7078,7 +7110,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>571</v>
       </c>
@@ -7101,7 +7133,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>571</v>
       </c>
@@ -7115,7 +7147,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>571</v>
       </c>
@@ -7129,7 +7161,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>571</v>
       </c>
@@ -7143,7 +7175,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>571</v>
       </c>
@@ -7157,7 +7189,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>571</v>
       </c>
@@ -7171,7 +7203,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>571</v>
       </c>
@@ -7185,7 +7217,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>571</v>
       </c>
@@ -7199,7 +7231,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>571</v>
       </c>
@@ -7213,7 +7245,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>571</v>
       </c>
@@ -7227,7 +7259,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>571</v>
       </c>
@@ -7241,7 +7273,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>571</v>
       </c>
@@ -7255,7 +7287,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>571</v>
       </c>
@@ -7269,7 +7301,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>571</v>
       </c>
@@ -7283,7 +7315,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>571</v>
       </c>
@@ -7297,7 +7329,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>571</v>
       </c>
@@ -7311,7 +7343,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>571</v>
       </c>
@@ -7325,7 +7357,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>571</v>
       </c>
@@ -7339,7 +7371,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>571</v>
       </c>
@@ -7353,7 +7385,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>571</v>
       </c>
@@ -7367,7 +7399,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>210</v>
       </c>
@@ -7390,7 +7422,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>212</v>
       </c>
@@ -7410,7 +7442,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>212</v>
       </c>
@@ -7424,7 +7456,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>212</v>
       </c>
@@ -7438,7 +7470,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>212</v>
       </c>
@@ -7452,7 +7484,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>212</v>
       </c>
@@ -7466,7 +7498,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>212</v>
       </c>
@@ -7480,7 +7512,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>212</v>
       </c>
@@ -7494,7 +7526,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>212</v>
       </c>
@@ -7508,7 +7540,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>212</v>
       </c>
@@ -7522,7 +7554,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="321" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>218</v>
       </c>
@@ -7544,8 +7576,17 @@
       <c r="G321" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="322" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H321">
+        <v>0.01</v>
+      </c>
+      <c r="L321">
+        <v>10</v>
+      </c>
+      <c r="M321">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="322" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>220</v>
       </c>
@@ -7567,8 +7608,17 @@
       <c r="G322" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="323" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H322">
+        <v>1E-3</v>
+      </c>
+      <c r="L322">
+        <v>2</v>
+      </c>
+      <c r="M322">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="323" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>222</v>
       </c>
@@ -7590,8 +7640,17 @@
       <c r="G323" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="324" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H323">
+        <v>0.1</v>
+      </c>
+      <c r="L323">
+        <v>4</v>
+      </c>
+      <c r="M323">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="324" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>224</v>
       </c>
@@ -7613,8 +7672,11 @@
       <c r="G324" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="325" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>226</v>
       </c>
@@ -7636,8 +7698,11 @@
       <c r="G325" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="326" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>228</v>
       </c>
@@ -7659,8 +7724,11 @@
       <c r="G326" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="327" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A327" s="3" t="s">
         <v>230</v>
       </c>
@@ -7681,12 +7749,15 @@
       </c>
       <c r="G327" s="3" t="s">
         <v>447</v>
+      </c>
+      <c r="H327" s="3">
+        <v>0.1</v>
       </c>
       <c r="J327"/>
       <c r="K327"/>
       <c r="N327"/>
     </row>
-    <row r="328" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>231</v>
       </c>
@@ -7708,8 +7779,11 @@
       <c r="G328" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="329" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H328" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="329" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>233</v>
       </c>
@@ -7732,7 +7806,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="330" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>235</v>
       </c>
@@ -7755,7 +7829,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="331" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>237</v>
       </c>
@@ -7778,7 +7852,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="332" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>239</v>
       </c>
@@ -7801,7 +7875,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="333" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>241</v>
       </c>
@@ -7824,7 +7898,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="334" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>243</v>
       </c>
@@ -7847,7 +7921,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="335" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>245</v>
       </c>
@@ -7870,7 +7944,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="336" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>247</v>
       </c>
@@ -7890,7 +7964,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>247</v>
       </c>
@@ -7904,7 +7978,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>247</v>
       </c>
@@ -7918,7 +7992,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>247</v>
       </c>
@@ -7932,7 +8006,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>247</v>
       </c>
@@ -7946,7 +8020,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>253</v>
       </c>
@@ -7969,7 +8043,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>253</v>
       </c>
@@ -7983,7 +8057,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>253</v>
       </c>
@@ -7997,7 +8071,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>253</v>
       </c>
@@ -8011,7 +8085,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>253</v>
       </c>
@@ -8025,7 +8099,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>253</v>
       </c>
@@ -8039,7 +8113,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>253</v>
       </c>
@@ -8053,7 +8127,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>253</v>
       </c>
@@ -8067,7 +8141,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>444</v>
       </c>
@@ -8093,7 +8167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>263</v>
       </c>
@@ -8116,7 +8190,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>265</v>
       </c>
@@ -8139,7 +8213,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>265</v>
       </c>
@@ -8153,7 +8227,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>265</v>
       </c>
@@ -8167,7 +8241,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>265</v>
       </c>
@@ -8181,7 +8255,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>265</v>
       </c>
@@ -8195,7 +8269,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>265</v>
       </c>
@@ -8209,7 +8283,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>265</v>
       </c>
@@ -8223,7 +8297,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>265</v>
       </c>
@@ -8237,7 +8311,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>265</v>
       </c>
@@ -8251,7 +8325,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>265</v>
       </c>
@@ -8265,7 +8339,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>265</v>
       </c>
@@ -8279,7 +8353,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>265</v>
       </c>
@@ -8293,7 +8367,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>281</v>
       </c>
@@ -8313,7 +8387,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>281</v>
       </c>
@@ -8327,7 +8401,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>281</v>
       </c>
@@ -8341,7 +8415,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>281</v>
       </c>
@@ -8355,7 +8429,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>281</v>
       </c>
@@ -8369,7 +8443,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>281</v>
       </c>
@@ -8383,7 +8457,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>288</v>
       </c>
@@ -8403,7 +8477,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>288</v>
       </c>
@@ -8417,7 +8491,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>288</v>
       </c>
@@ -8431,7 +8505,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>288</v>
       </c>
@@ -8445,7 +8519,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>288</v>
       </c>
@@ -8459,7 +8533,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>294</v>
       </c>
@@ -8482,7 +8556,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>294</v>
       </c>
@@ -8496,7 +8570,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>294</v>
       </c>
@@ -8510,7 +8584,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>294</v>
       </c>
@@ -8524,7 +8598,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>294</v>
       </c>
@@ -8538,7 +8612,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>301</v>
       </c>
@@ -8558,7 +8632,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>301</v>
       </c>
@@ -8572,7 +8646,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>301</v>
       </c>
@@ -8586,7 +8660,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>301</v>
       </c>
@@ -8600,7 +8674,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>301</v>
       </c>
@@ -8614,7 +8688,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>301</v>
       </c>
@@ -8628,7 +8702,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>301</v>
       </c>
@@ -8642,7 +8716,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>308</v>
       </c>
@@ -8662,7 +8736,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>308</v>
       </c>
@@ -8676,7 +8750,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>308</v>
       </c>
@@ -8690,7 +8764,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>308</v>
       </c>
@@ -8704,7 +8778,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>308</v>
       </c>
@@ -8718,7 +8792,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>314</v>
       </c>
@@ -8738,7 +8812,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>314</v>
       </c>
@@ -8752,7 +8826,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>314</v>
       </c>
@@ -8766,7 +8840,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>314</v>
       </c>
@@ -8780,7 +8854,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>314</v>
       </c>
@@ -8794,7 +8868,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>314</v>
       </c>
@@ -8808,7 +8882,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>314</v>
       </c>
@@ -8822,7 +8896,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="398" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>316</v>
       </c>
@@ -8842,7 +8916,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>316</v>
       </c>
@@ -8856,7 +8930,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>316</v>
       </c>
@@ -8870,7 +8944,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>316</v>
       </c>
@@ -8884,7 +8958,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>316</v>
       </c>
@@ -8898,7 +8972,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="403" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>320</v>
       </c>
@@ -8921,7 +8995,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>322</v>
       </c>
@@ -8944,7 +9018,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>324</v>
       </c>
@@ -8967,7 +9041,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>326</v>
       </c>
@@ -8990,7 +9064,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>328</v>
       </c>
@@ -9013,7 +9087,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>330</v>
       </c>
@@ -9036,7 +9110,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>332</v>
       </c>
@@ -9059,7 +9133,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>334</v>
       </c>
@@ -9082,7 +9156,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>336</v>
       </c>
@@ -9105,7 +9179,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>338</v>
       </c>
@@ -9128,7 +9202,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>340</v>
       </c>
@@ -9151,7 +9225,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>342</v>
       </c>
@@ -9174,7 +9248,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>554</v>
       </c>
@@ -9197,7 +9271,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>554</v>
       </c>
@@ -9211,7 +9285,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>554</v>
       </c>
@@ -9225,7 +9299,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>554</v>
       </c>
@@ -9239,7 +9313,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>554</v>
       </c>
@@ -9253,7 +9327,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>554</v>
       </c>
@@ -9267,7 +9341,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>554</v>
       </c>
@@ -9281,7 +9355,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>554</v>
       </c>
@@ -9295,7 +9369,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>554</v>
       </c>
@@ -9309,7 +9383,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>554</v>
       </c>
@@ -9323,7 +9397,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>554</v>
       </c>
@@ -9337,7 +9411,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>554</v>
       </c>
@@ -9351,7 +9425,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>554</v>
       </c>
@@ -9365,7 +9439,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="428" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:9" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>360</v>
       </c>
@@ -9388,7 +9462,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="429" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>360</v>
       </c>
@@ -9402,7 +9476,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>360</v>
       </c>
@@ -9416,7 +9490,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>360</v>
       </c>
@@ -9430,7 +9504,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="432" spans="1:9" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:9" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>362</v>
       </c>
@@ -9453,7 +9527,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="433" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:9" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>362</v>
       </c>
@@ -9467,7 +9541,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>362</v>
       </c>
@@ -9481,7 +9555,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>362</v>
       </c>
@@ -9495,7 +9569,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>366</v>
       </c>
@@ -9518,7 +9592,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>366</v>
       </c>
@@ -9532,7 +9606,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>366</v>
       </c>
@@ -9546,7 +9620,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>366</v>
       </c>
@@ -9560,7 +9634,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>366</v>
       </c>
@@ -9574,7 +9648,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>366</v>
       </c>
@@ -9588,7 +9662,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>368</v>
       </c>
@@ -9611,7 +9685,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>368</v>
       </c>
@@ -9625,7 +9699,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>368</v>
       </c>
@@ -9639,7 +9713,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>368</v>
       </c>
@@ -9653,7 +9727,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="446" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>368</v>
       </c>
@@ -9667,7 +9741,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>368</v>
       </c>
@@ -9681,7 +9755,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="448" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>375</v>
       </c>
@@ -9704,7 +9778,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>377</v>
       </c>
@@ -9727,7 +9801,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>379</v>
       </c>
@@ -9747,7 +9821,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>380</v>
       </c>
@@ -9767,7 +9841,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>381</v>
       </c>
@@ -9790,7 +9864,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>383</v>
       </c>
@@ -9813,7 +9887,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>385</v>
       </c>
@@ -9836,7 +9910,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>387</v>
       </c>
@@ -9859,7 +9933,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>389</v>
       </c>
@@ -9882,7 +9956,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>390</v>
       </c>
@@ -9905,7 +9979,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>0</v>
       </c>
@@ -9926,27 +10000,22 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O458" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q587">
+  <autoFilter ref="A1:O458">
+    <sortState ref="A2:Q587">
       <sortCondition ref="F1:F587"/>
     </sortState>
   </autoFilter>
-  <dataValidations count="1">
-    <dataValidation type="decimal" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:M1048576 H2:H1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>0</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>validation_values!$A$1:$A$62</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>validation_values!$B$1:$B$2</xm:f>
           </x14:formula1>
@@ -9959,16 +10028,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>398</v>
       </c>
@@ -9976,7 +10045,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>399</v>
       </c>
@@ -9984,202 +10053,202 @@
         <v>466</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>437</v>
       </c>
@@ -10191,6 +10260,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DE904D578DFE6844BEAE84BDC2B4097E" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="50ebab51745edbac74153c776eff7922">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="847bd2b6-c417-48b3-84b7-e392c504f3bb" xmlns:ns4="f32a61f4-5698-46d5-9f56-343e6d7dc7d7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="48e32a04494ad4991fdbd7a90d4a41aa" ns3:_="" ns4:_="">
     <xsd:import namespace="847bd2b6-c417-48b3-84b7-e392c504f3bb"/>
@@ -10399,22 +10483,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8450404-B5A9-4CAE-AD2F-E650514D4870}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="847bd2b6-c417-48b3-84b7-e392c504f3bb"/>
+    <ds:schemaRef ds:uri="f32a61f4-5698-46d5-9f56-343e6d7dc7d7"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F5B82C4-8D32-4858-AE49-B9F718EB1758}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82216217-E566-4EBA-B2A2-632151E5C36C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10431,29 +10525,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F5B82C4-8D32-4858-AE49-B9F718EB1758}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8450404-B5A9-4CAE-AD2F-E650514D4870}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="f32a61f4-5698-46d5-9f56-343e6d7dc7d7"/>
-    <ds:schemaRef ds:uri="847bd2b6-c417-48b3-84b7-e392c504f3bb"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/inst/extdata/e.g.dictionary.xlsx
+++ b/inst/extdata/e.g.dictionary.xlsx
@@ -16,14 +16,14 @@
     <sheet name="validation_values" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data_dictionary!$A$1:$O$458</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data_dictionary!$A$1:$O$461</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2024" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2042" uniqueCount="602">
   <si>
     <t>Notes</t>
   </si>
@@ -1811,6 +1811,24 @@
   </si>
   <si>
     <t>NULL</t>
+  </si>
+  <si>
+    <t>Date2</t>
+  </si>
+  <si>
+    <t>Date of capture; M/D/YYYY</t>
+  </si>
+  <si>
+    <t>Date of capture; YYYY-M-D</t>
+  </si>
+  <si>
+    <t>Date3</t>
+  </si>
+  <si>
+    <t>Date of capture; empty</t>
+  </si>
+  <si>
+    <t>Date1</t>
   </si>
 </sst>
 </file>
@@ -2642,12 +2660,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N458"/>
+  <dimension ref="A1:N461"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2881,7 +2899,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>467</v>
+        <v>601</v>
       </c>
       <c r="B10" t="s">
         <v>592</v>
@@ -2890,21 +2908,18 @@
         <v>592</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>597</v>
       </c>
       <c r="E10" t="s">
-        <v>443</v>
+        <v>408</v>
       </c>
       <c r="F10" t="s">
-        <v>465</v>
-      </c>
-      <c r="I10" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>468</v>
+        <v>596</v>
       </c>
       <c r="B11" t="s">
         <v>592</v>
@@ -2913,44 +2928,56 @@
         <v>592</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>598</v>
       </c>
       <c r="E11" t="s">
-        <v>443</v>
+        <v>409</v>
       </c>
       <c r="F11" t="s">
-        <v>465</v>
-      </c>
-      <c r="I11" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>468</v>
+        <v>599</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>592</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>592</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>600</v>
+      </c>
+      <c r="E12" t="s">
+        <v>409</v>
+      </c>
+      <c r="F12" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>592</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>592</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="E13" t="s">
+        <v>443</v>
+      </c>
+      <c r="F13" t="s">
+        <v>465</v>
+      </c>
+      <c r="I13" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -2958,13 +2985,22 @@
         <v>468</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>592</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>592</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>20</v>
+      </c>
+      <c r="E14" t="s">
+        <v>443</v>
+      </c>
+      <c r="F14" t="s">
+        <v>465</v>
+      </c>
+      <c r="I14" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
@@ -2972,13 +3008,13 @@
         <v>468</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
@@ -2986,64 +3022,55 @@
         <v>468</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B17" t="s">
-        <v>592</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>592</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" t="s">
-        <v>443</v>
-      </c>
-      <c r="F17" t="s">
-        <v>465</v>
-      </c>
-      <c r="I17" t="s">
-        <v>465</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -3051,13 +3078,22 @@
         <v>469</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>592</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>592</v>
       </c>
       <c r="D20" t="s">
-        <v>37</v>
+        <v>31</v>
+      </c>
+      <c r="E20" t="s">
+        <v>443</v>
+      </c>
+      <c r="F20" t="s">
+        <v>465</v>
+      </c>
+      <c r="I20" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -3065,13 +3101,13 @@
         <v>469</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D21" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -3079,13 +3115,13 @@
         <v>469</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D22" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -3093,64 +3129,55 @@
         <v>469</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D23" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B24" t="s">
-        <v>592</v>
+        <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>592</v>
+        <v>38</v>
       </c>
       <c r="D24" t="s">
-        <v>44</v>
-      </c>
-      <c r="E24" t="s">
-        <v>443</v>
-      </c>
-      <c r="F24" t="s">
-        <v>465</v>
-      </c>
-      <c r="I24" t="s">
-        <v>465</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B25" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="C25" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="D25" t="s">
-        <v>551</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B26" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="C26" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="D26" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -3158,13 +3185,22 @@
         <v>470</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>592</v>
       </c>
       <c r="C27" t="s">
-        <v>45</v>
+        <v>592</v>
       </c>
       <c r="D27" t="s">
-        <v>46</v>
+        <v>44</v>
+      </c>
+      <c r="E27" t="s">
+        <v>443</v>
+      </c>
+      <c r="F27" t="s">
+        <v>465</v>
+      </c>
+      <c r="I27" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
@@ -3172,13 +3208,13 @@
         <v>470</v>
       </c>
       <c r="B28" t="s">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>451</v>
+        <v>551</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
@@ -3186,13 +3222,13 @@
         <v>470</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>49</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
@@ -3200,13 +3236,13 @@
         <v>470</v>
       </c>
       <c r="B30" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C30" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D30" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
@@ -3214,13 +3250,13 @@
         <v>470</v>
       </c>
       <c r="B31" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C31" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D31" t="s">
-        <v>53</v>
+        <v>451</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
@@ -3228,13 +3264,13 @@
         <v>470</v>
       </c>
       <c r="B32" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C32" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D32" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -3242,13 +3278,13 @@
         <v>470</v>
       </c>
       <c r="B33" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C33" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D33" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -3256,13 +3292,13 @@
         <v>470</v>
       </c>
       <c r="B34" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C34" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D34" t="s">
-        <v>552</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -3270,87 +3306,60 @@
         <v>470</v>
       </c>
       <c r="B35" t="s">
-        <v>549</v>
+        <v>54</v>
       </c>
       <c r="C35" t="s">
-        <v>549</v>
+        <v>54</v>
       </c>
       <c r="D35" t="s">
-        <v>550</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>59</v>
+        <v>470</v>
       </c>
       <c r="B36" t="s">
-        <v>592</v>
+        <v>56</v>
       </c>
       <c r="C36" t="s">
-        <v>592</v>
+        <v>56</v>
       </c>
       <c r="D36" t="s">
-        <v>461</v>
-      </c>
-      <c r="E36" t="s">
-        <v>443</v>
-      </c>
-      <c r="F36" t="s">
-        <v>465</v>
-      </c>
-      <c r="I36" t="s">
-        <v>465</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>60</v>
+        <v>470</v>
       </c>
       <c r="B37" t="s">
-        <v>592</v>
+        <v>58</v>
       </c>
       <c r="C37" t="s">
-        <v>592</v>
+        <v>58</v>
       </c>
       <c r="D37" t="s">
-        <v>463</v>
-      </c>
-      <c r="E37" t="s">
-        <v>443</v>
-      </c>
-      <c r="F37" t="s">
-        <v>465</v>
-      </c>
-      <c r="I37" t="s">
-        <v>465</v>
+        <v>552</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>61</v>
+        <v>470</v>
       </c>
       <c r="B38" t="s">
-        <v>592</v>
+        <v>549</v>
       </c>
       <c r="C38" t="s">
-        <v>592</v>
+        <v>549</v>
       </c>
       <c r="D38" t="s">
-        <v>62</v>
-      </c>
-      <c r="E38" t="s">
-        <v>427</v>
-      </c>
-      <c r="F38" t="s">
-        <v>465</v>
-      </c>
-      <c r="G38" t="s">
-        <v>446</v>
+        <v>550</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B39" t="s">
         <v>592</v>
@@ -3359,21 +3368,21 @@
         <v>592</v>
       </c>
       <c r="D39" t="s">
-        <v>64</v>
+        <v>461</v>
       </c>
       <c r="E39" t="s">
-        <v>427</v>
+        <v>443</v>
       </c>
       <c r="F39" t="s">
         <v>465</v>
       </c>
-      <c r="G39" t="s">
-        <v>446</v>
+      <c r="I39" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B40" t="s">
         <v>592</v>
@@ -3382,7 +3391,7 @@
         <v>592</v>
       </c>
       <c r="D40" t="s">
-        <v>566</v>
+        <v>463</v>
       </c>
       <c r="E40" t="s">
         <v>443</v>
@@ -3396,7 +3405,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B41" t="s">
         <v>592</v>
@@ -3405,21 +3414,21 @@
         <v>592</v>
       </c>
       <c r="D41" t="s">
-        <v>567</v>
+        <v>62</v>
       </c>
       <c r="E41" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="F41" t="s">
         <v>465</v>
       </c>
-      <c r="I41" t="s">
-        <v>465</v>
+      <c r="G41" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B42" t="s">
         <v>592</v>
@@ -3428,18 +3437,21 @@
         <v>592</v>
       </c>
       <c r="D42" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E42" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F42" t="s">
         <v>465</v>
+      </c>
+      <c r="G42" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B43" t="s">
         <v>592</v>
@@ -3448,18 +3460,21 @@
         <v>592</v>
       </c>
       <c r="D43" t="s">
-        <v>72</v>
+        <v>566</v>
       </c>
       <c r="E43" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="F43" t="s">
+        <v>465</v>
+      </c>
+      <c r="I43" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>546</v>
+        <v>68</v>
       </c>
       <c r="B44" t="s">
         <v>592</v>
@@ -3468,10 +3483,10 @@
         <v>592</v>
       </c>
       <c r="D44" t="s">
-        <v>543</v>
+        <v>567</v>
       </c>
       <c r="E44" t="s">
-        <v>405</v>
+        <v>443</v>
       </c>
       <c r="F44" t="s">
         <v>465</v>
@@ -3482,44 +3497,65 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>546</v>
-      </c>
-      <c r="B45">
-        <v>1</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
+        <v>69</v>
+      </c>
+      <c r="B45" t="s">
+        <v>592</v>
+      </c>
+      <c r="C45" t="s">
+        <v>592</v>
       </c>
       <c r="D45" t="s">
-        <v>73</v>
+        <v>70</v>
+      </c>
+      <c r="E45" t="s">
+        <v>431</v>
+      </c>
+      <c r="F45" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>546</v>
-      </c>
-      <c r="B46">
-        <v>4</v>
-      </c>
-      <c r="C46">
-        <v>4</v>
+        <v>71</v>
+      </c>
+      <c r="B46" t="s">
+        <v>592</v>
+      </c>
+      <c r="C46" t="s">
+        <v>592</v>
       </c>
       <c r="D46" t="s">
-        <v>74</v>
+        <v>72</v>
+      </c>
+      <c r="E46" t="s">
+        <v>431</v>
+      </c>
+      <c r="F46" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>546</v>
       </c>
-      <c r="B47">
-        <v>5</v>
-      </c>
-      <c r="C47">
-        <v>5</v>
+      <c r="B47" t="s">
+        <v>592</v>
+      </c>
+      <c r="C47" t="s">
+        <v>592</v>
       </c>
       <c r="D47" t="s">
-        <v>75</v>
+        <v>543</v>
+      </c>
+      <c r="E47" t="s">
+        <v>405</v>
+      </c>
+      <c r="F47" t="s">
+        <v>465</v>
+      </c>
+      <c r="I47" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
@@ -3527,13 +3563,13 @@
         <v>546</v>
       </c>
       <c r="B48">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C48">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
@@ -3541,13 +3577,13 @@
         <v>546</v>
       </c>
       <c r="B49">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C49">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
@@ -3555,55 +3591,55 @@
         <v>546</v>
       </c>
       <c r="B50">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C50">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D50" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>546</v>
       </c>
-      <c r="B51" t="s">
-        <v>78</v>
-      </c>
-      <c r="C51" t="s">
-        <v>78</v>
+      <c r="B51">
+        <v>6</v>
+      </c>
+      <c r="C51">
+        <v>6</v>
       </c>
       <c r="D51" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>546</v>
       </c>
-      <c r="B52" t="s">
-        <v>80</v>
-      </c>
-      <c r="C52" t="s">
-        <v>80</v>
+      <c r="B52">
+        <v>8</v>
+      </c>
+      <c r="C52">
+        <v>8</v>
       </c>
       <c r="D52" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>546</v>
       </c>
-      <c r="B53" t="s">
-        <v>517</v>
-      </c>
-      <c r="C53" t="s">
-        <v>517</v>
+      <c r="B53">
+        <v>9</v>
+      </c>
+      <c r="C53">
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>520</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
@@ -3611,13 +3647,13 @@
         <v>546</v>
       </c>
       <c r="B54" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="C54" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="D54" t="s">
-        <v>521</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
@@ -3625,106 +3661,106 @@
         <v>546</v>
       </c>
       <c r="B55" t="s">
-        <v>518</v>
+        <v>80</v>
       </c>
       <c r="C55" t="s">
-        <v>518</v>
+        <v>80</v>
       </c>
       <c r="D55" t="s">
-        <v>519</v>
+        <v>81</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B56" t="s">
-        <v>592</v>
+        <v>517</v>
       </c>
       <c r="C56" t="s">
-        <v>592</v>
+        <v>517</v>
       </c>
       <c r="D56" t="s">
-        <v>557</v>
-      </c>
-      <c r="E56" t="s">
-        <v>443</v>
-      </c>
-      <c r="F56" t="s">
-        <v>466</v>
-      </c>
-      <c r="K56" t="s">
-        <v>479</v>
+        <v>520</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B57" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="C57" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="D57" t="s">
-        <v>83</v>
+        <v>521</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B58" t="s">
-        <v>84</v>
+        <v>518</v>
       </c>
       <c r="C58" t="s">
-        <v>84</v>
+        <v>518</v>
       </c>
       <c r="D58" t="s">
-        <v>85</v>
+        <v>519</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>545</v>
       </c>
-      <c r="B59">
-        <v>300</v>
-      </c>
-      <c r="C59">
-        <v>300</v>
+      <c r="B59" t="s">
+        <v>592</v>
+      </c>
+      <c r="C59" t="s">
+        <v>592</v>
       </c>
       <c r="D59" t="s">
-        <v>86</v>
+        <v>557</v>
+      </c>
+      <c r="E59" t="s">
+        <v>443</v>
+      </c>
+      <c r="F59" t="s">
+        <v>466</v>
+      </c>
+      <c r="K59" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>545</v>
       </c>
-      <c r="B60">
-        <v>301</v>
-      </c>
-      <c r="C60">
-        <v>301</v>
+      <c r="B60" t="s">
+        <v>82</v>
+      </c>
+      <c r="C60" t="s">
+        <v>82</v>
       </c>
       <c r="D60" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>545</v>
       </c>
-      <c r="B61">
-        <v>310</v>
-      </c>
-      <c r="C61">
-        <v>310</v>
+      <c r="B61" t="s">
+        <v>84</v>
+      </c>
+      <c r="C61" t="s">
+        <v>84</v>
       </c>
       <c r="D61" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
@@ -3732,13 +3768,13 @@
         <v>545</v>
       </c>
       <c r="B62">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="C62">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="D62" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
@@ -3746,13 +3782,13 @@
         <v>545</v>
       </c>
       <c r="B63">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="C63">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="D63" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
@@ -3760,13 +3796,13 @@
         <v>545</v>
       </c>
       <c r="B64">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="C64">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="D64" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -3774,13 +3810,13 @@
         <v>545</v>
       </c>
       <c r="B65">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C65">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D65" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -3788,13 +3824,13 @@
         <v>545</v>
       </c>
       <c r="B66">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="C66">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="D66" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -3802,13 +3838,13 @@
         <v>545</v>
       </c>
       <c r="B67">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="C67">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="D67" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -3816,13 +3852,13 @@
         <v>545</v>
       </c>
       <c r="B68">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="C68">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="D68" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -3830,13 +3866,13 @@
         <v>545</v>
       </c>
       <c r="B69">
-        <v>380</v>
+        <v>325</v>
       </c>
       <c r="C69">
-        <v>380</v>
+        <v>325</v>
       </c>
       <c r="D69" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -3844,13 +3880,13 @@
         <v>545</v>
       </c>
       <c r="B70">
-        <v>381</v>
+        <v>333</v>
       </c>
       <c r="C70">
-        <v>381</v>
+        <v>333</v>
       </c>
       <c r="D70" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -3858,13 +3894,13 @@
         <v>545</v>
       </c>
       <c r="B71">
-        <v>389</v>
+        <v>334</v>
       </c>
       <c r="C71">
-        <v>389</v>
+        <v>334</v>
       </c>
       <c r="D71" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -3872,75 +3908,75 @@
         <v>545</v>
       </c>
       <c r="B72">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="C72">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="D72" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>544</v>
-      </c>
-      <c r="B73" t="s">
-        <v>592</v>
-      </c>
-      <c r="C73" t="s">
-        <v>592</v>
+        <v>545</v>
+      </c>
+      <c r="B73">
+        <v>381</v>
+      </c>
+      <c r="C73">
+        <v>381</v>
       </c>
       <c r="D73" t="s">
-        <v>542</v>
-      </c>
-      <c r="E73" t="s">
-        <v>414</v>
-      </c>
-      <c r="F73" t="s">
-        <v>465</v>
+        <v>96</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>544</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>524</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>524</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>540</v>
+        <v>545</v>
+      </c>
+      <c r="B74">
+        <v>389</v>
+      </c>
+      <c r="C74">
+        <v>389</v>
+      </c>
+      <c r="D74" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>544</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>525</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>525</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>532</v>
+        <v>545</v>
+      </c>
+      <c r="B75">
+        <v>390</v>
+      </c>
+      <c r="C75">
+        <v>390</v>
+      </c>
+      <c r="D75" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>544</v>
       </c>
-      <c r="B76" s="4" t="s">
-        <v>526</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>526</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>533</v>
+      <c r="B76" t="s">
+        <v>592</v>
+      </c>
+      <c r="C76" t="s">
+        <v>592</v>
+      </c>
+      <c r="D76" t="s">
+        <v>542</v>
+      </c>
+      <c r="E76" t="s">
+        <v>414</v>
+      </c>
+      <c r="F76" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -3948,13 +3984,13 @@
         <v>544</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -3962,13 +3998,13 @@
         <v>544</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -3976,13 +4012,13 @@
         <v>544</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -3990,13 +4026,13 @@
         <v>544</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
@@ -4004,13 +4040,13 @@
         <v>544</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
@@ -4018,13 +4054,13 @@
         <v>544</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
@@ -4032,81 +4068,81 @@
         <v>544</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
+        <v>544</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>544</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>544</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
         <v>99</v>
       </c>
-      <c r="B84" t="s">
-        <v>592</v>
-      </c>
-      <c r="C84" t="s">
-        <v>592</v>
-      </c>
-      <c r="D84" t="s">
+      <c r="B87" t="s">
+        <v>592</v>
+      </c>
+      <c r="C87" t="s">
+        <v>592</v>
+      </c>
+      <c r="D87" t="s">
         <v>565</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E87" t="s">
         <v>443</v>
       </c>
-      <c r="F84" t="s">
-        <v>465</v>
-      </c>
-      <c r="I84" t="s">
-        <v>465</v>
-      </c>
-      <c r="K84" t="s">
+      <c r="F87" t="s">
+        <v>465</v>
+      </c>
+      <c r="I87" t="s">
+        <v>465</v>
+      </c>
+      <c r="K87" t="s">
         <v>594</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A85" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B85" s="6" t="s">
-        <v>518</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>518</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A86" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B86" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="D86" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A87" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B87" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D87" s="6" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
@@ -4114,13 +4150,13 @@
         <v>99</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>113</v>
+        <v>518</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>113</v>
+        <v>518</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
@@ -4128,13 +4164,13 @@
         <v>99</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
@@ -4142,13 +4178,13 @@
         <v>99</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
@@ -4156,13 +4192,13 @@
         <v>99</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
@@ -4170,13 +4206,13 @@
         <v>99</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
@@ -4184,13 +4220,13 @@
         <v>99</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
@@ -4198,13 +4234,13 @@
         <v>99</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
@@ -4212,13 +4248,13 @@
         <v>99</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
@@ -4226,13 +4262,13 @@
         <v>99</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
@@ -4240,13 +4276,13 @@
         <v>99</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>572</v>
+        <v>125</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>572</v>
+        <v>125</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
@@ -4254,13 +4290,13 @@
         <v>99</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>573</v>
+        <v>127</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>573</v>
+        <v>127</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
@@ -4268,13 +4304,13 @@
         <v>99</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>574</v>
+        <v>129</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>574</v>
+        <v>129</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
@@ -4282,13 +4318,13 @@
         <v>99</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
@@ -4296,67 +4332,55 @@
         <v>99</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>577</v>
+        <v>133</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>592</v>
+        <v>574</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>592</v>
+        <v>574</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>578</v>
-      </c>
-      <c r="E102" t="s">
-        <v>443</v>
-      </c>
-      <c r="F102" t="s">
-        <v>465</v>
-      </c>
-      <c r="I102" t="s">
-        <v>465</v>
-      </c>
-      <c r="K102" t="s">
-        <v>593</v>
+        <v>134</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>518</v>
+        <v>575</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>518</v>
+        <v>575</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>109</v>
+        <v>576</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>109</v>
+        <v>576</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>110</v>
+        <v>577</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
@@ -4364,13 +4388,25 @@
         <v>100</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>111</v>
+        <v>592</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>111</v>
+        <v>592</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>112</v>
+        <v>578</v>
+      </c>
+      <c r="E105" t="s">
+        <v>443</v>
+      </c>
+      <c r="F105" t="s">
+        <v>465</v>
+      </c>
+      <c r="I105" t="s">
+        <v>465</v>
+      </c>
+      <c r="K105" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
@@ -4378,13 +4414,13 @@
         <v>100</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>113</v>
+        <v>518</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>113</v>
+        <v>518</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
@@ -4392,13 +4428,13 @@
         <v>100</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
@@ -4406,13 +4442,13 @@
         <v>100</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
@@ -4420,13 +4456,13 @@
         <v>100</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
@@ -4434,13 +4470,13 @@
         <v>100</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
@@ -4448,13 +4484,13 @@
         <v>100</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
@@ -4462,13 +4498,13 @@
         <v>100</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
@@ -4476,13 +4512,13 @@
         <v>100</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
@@ -4490,13 +4526,13 @@
         <v>100</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
@@ -4504,13 +4540,13 @@
         <v>100</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>572</v>
+        <v>125</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>572</v>
+        <v>125</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
@@ -4518,13 +4554,13 @@
         <v>100</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>573</v>
+        <v>127</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>573</v>
+        <v>127</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
@@ -4532,13 +4568,13 @@
         <v>100</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>574</v>
+        <v>129</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>574</v>
+        <v>129</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
@@ -4546,13 +4582,13 @@
         <v>100</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
@@ -4560,67 +4596,55 @@
         <v>100</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>577</v>
+        <v>133</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>592</v>
+        <v>574</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>592</v>
+        <v>574</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>579</v>
-      </c>
-      <c r="E120" t="s">
-        <v>443</v>
-      </c>
-      <c r="F120" t="s">
-        <v>465</v>
-      </c>
-      <c r="I120" t="s">
-        <v>465</v>
-      </c>
-      <c r="K120" t="s">
-        <v>595</v>
+        <v>134</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>518</v>
+        <v>575</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>518</v>
+        <v>575</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>109</v>
+        <v>576</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>109</v>
+        <v>576</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>110</v>
+        <v>577</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
@@ -4628,13 +4652,25 @@
         <v>101</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>111</v>
+        <v>592</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>111</v>
+        <v>592</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>112</v>
+        <v>579</v>
+      </c>
+      <c r="E123" t="s">
+        <v>443</v>
+      </c>
+      <c r="F123" t="s">
+        <v>465</v>
+      </c>
+      <c r="I123" t="s">
+        <v>465</v>
+      </c>
+      <c r="K123" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
@@ -4642,13 +4678,13 @@
         <v>101</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>113</v>
+        <v>518</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>113</v>
+        <v>518</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
@@ -4656,13 +4692,13 @@
         <v>101</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
@@ -4670,13 +4706,13 @@
         <v>101</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
@@ -4684,13 +4720,13 @@
         <v>101</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
@@ -4698,13 +4734,13 @@
         <v>101</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
@@ -4712,13 +4748,13 @@
         <v>101</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
@@ -4726,13 +4762,13 @@
         <v>101</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
@@ -4740,13 +4776,13 @@
         <v>101</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
@@ -4754,13 +4790,13 @@
         <v>101</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
@@ -4768,13 +4804,13 @@
         <v>101</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>572</v>
+        <v>125</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>572</v>
+        <v>125</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
@@ -4782,13 +4818,13 @@
         <v>101</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>573</v>
+        <v>127</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>573</v>
+        <v>127</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
@@ -4796,13 +4832,13 @@
         <v>101</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>574</v>
+        <v>129</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>574</v>
+        <v>129</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
@@ -4810,13 +4846,13 @@
         <v>101</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
@@ -4824,64 +4860,55 @@
         <v>101</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>577</v>
+        <v>133</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>592</v>
+        <v>574</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>592</v>
+        <v>574</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>580</v>
-      </c>
-      <c r="E138" t="s">
-        <v>443</v>
-      </c>
-      <c r="F138" t="s">
-        <v>465</v>
-      </c>
-      <c r="I138" t="s">
-        <v>465</v>
+        <v>134</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>518</v>
+        <v>575</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>518</v>
+        <v>575</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>109</v>
+        <v>576</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>109</v>
+        <v>576</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>110</v>
+        <v>577</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
@@ -4889,13 +4916,22 @@
         <v>102</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>111</v>
+        <v>592</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>111</v>
+        <v>592</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>112</v>
+        <v>580</v>
+      </c>
+      <c r="E141" t="s">
+        <v>443</v>
+      </c>
+      <c r="F141" t="s">
+        <v>465</v>
+      </c>
+      <c r="I141" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
@@ -4903,13 +4939,13 @@
         <v>102</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>113</v>
+        <v>518</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>113</v>
+        <v>518</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
@@ -4917,13 +4953,13 @@
         <v>102</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
@@ -4931,13 +4967,13 @@
         <v>102</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.3">
@@ -4945,13 +4981,13 @@
         <v>102</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.3">
@@ -4959,13 +4995,13 @@
         <v>102</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.3">
@@ -4973,13 +5009,13 @@
         <v>102</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
@@ -4987,13 +5023,13 @@
         <v>102</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
@@ -5001,13 +5037,13 @@
         <v>102</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
@@ -5015,13 +5051,13 @@
         <v>102</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
@@ -5029,13 +5065,13 @@
         <v>102</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>572</v>
+        <v>125</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>572</v>
+        <v>125</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
@@ -5043,13 +5079,13 @@
         <v>102</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>573</v>
+        <v>127</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>573</v>
+        <v>127</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
@@ -5057,13 +5093,13 @@
         <v>102</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>574</v>
+        <v>129</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>574</v>
+        <v>129</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.3">
@@ -5071,13 +5107,13 @@
         <v>102</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.3">
@@ -5085,64 +5121,55 @@
         <v>102</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>577</v>
+        <v>133</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>592</v>
+        <v>574</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>592</v>
+        <v>574</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>581</v>
-      </c>
-      <c r="E156" t="s">
-        <v>443</v>
-      </c>
-      <c r="F156" t="s">
-        <v>465</v>
-      </c>
-      <c r="I156" t="s">
-        <v>465</v>
+        <v>134</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>518</v>
+        <v>575</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>518</v>
+        <v>575</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>109</v>
+        <v>576</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>109</v>
+        <v>576</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>110</v>
+        <v>577</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.3">
@@ -5150,13 +5177,22 @@
         <v>103</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>111</v>
+        <v>592</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>111</v>
+        <v>592</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>112</v>
+        <v>581</v>
+      </c>
+      <c r="E159" t="s">
+        <v>443</v>
+      </c>
+      <c r="F159" t="s">
+        <v>465</v>
+      </c>
+      <c r="I159" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.3">
@@ -5164,246 +5200,237 @@
         <v>103</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>113</v>
+        <v>518</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>113</v>
+        <v>518</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="6" t="s">
         <v>103</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D161" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="6" t="s">
         <v>103</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="6" t="s">
         <v>103</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D163" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="6" t="s">
         <v>103</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="6" t="s">
         <v>103</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="6" t="s">
         <v>103</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="6" t="s">
         <v>103</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="6" t="s">
         <v>103</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="6" t="s">
         <v>103</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>572</v>
+        <v>125</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>572</v>
+        <v>125</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="6" t="s">
         <v>103</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>573</v>
+        <v>127</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>573</v>
+        <v>127</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="6" t="s">
         <v>103</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>574</v>
+        <v>129</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>574</v>
+        <v>129</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="6" t="s">
         <v>103</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="D172" s="6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="6" t="s">
         <v>103</v>
       </c>
       <c r="B173" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="C173" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="D173" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B174" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="C174" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="D174" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A175" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B175" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="C175" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="D175" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A176" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B176" s="6" t="s">
         <v>576</v>
       </c>
-      <c r="C173" s="6" t="s">
+      <c r="C176" s="6" t="s">
         <v>576</v>
       </c>
-      <c r="D173" s="6" t="s">
+      <c r="D176" s="6" t="s">
         <v>577</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A174" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B174" s="6" t="s">
-        <v>592</v>
-      </c>
-      <c r="C174" s="6" t="s">
-        <v>592</v>
-      </c>
-      <c r="D174" s="6" t="s">
-        <v>582</v>
-      </c>
-      <c r="E174" t="s">
-        <v>443</v>
-      </c>
-      <c r="F174" t="s">
-        <v>465</v>
-      </c>
-      <c r="I174" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A175" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B175" s="6" t="s">
-        <v>518</v>
-      </c>
-      <c r="C175" s="6" t="s">
-        <v>518</v>
-      </c>
-      <c r="D175" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A176" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B176" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C176" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="D176" s="6" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.3">
@@ -5411,13 +5438,22 @@
         <v>104</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>111</v>
+        <v>592</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>111</v>
+        <v>592</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>112</v>
+        <v>582</v>
+      </c>
+      <c r="E177" t="s">
+        <v>443</v>
+      </c>
+      <c r="F177" t="s">
+        <v>465</v>
+      </c>
+      <c r="I177" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.3">
@@ -5425,13 +5461,13 @@
         <v>104</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>113</v>
+        <v>518</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>113</v>
+        <v>518</v>
       </c>
       <c r="D178" s="6" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.3">
@@ -5439,13 +5475,13 @@
         <v>104</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C179" s="6" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D179" s="6" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.3">
@@ -5453,13 +5489,13 @@
         <v>104</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D180" s="6" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.3">
@@ -5467,13 +5503,13 @@
         <v>104</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D181" s="6" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.3">
@@ -5481,13 +5517,13 @@
         <v>104</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C182" s="6" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D182" s="6" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.3">
@@ -5495,13 +5531,13 @@
         <v>104</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D183" s="6" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.3">
@@ -5509,13 +5545,13 @@
         <v>104</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C184" s="6" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D184" s="6" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.3">
@@ -5523,13 +5559,13 @@
         <v>104</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C185" s="6" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D185" s="6" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.3">
@@ -5537,13 +5573,13 @@
         <v>104</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D186" s="6" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.3">
@@ -5551,13 +5587,13 @@
         <v>104</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>572</v>
+        <v>125</v>
       </c>
       <c r="C187" s="6" t="s">
-        <v>572</v>
+        <v>125</v>
       </c>
       <c r="D187" s="6" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.3">
@@ -5565,13 +5601,13 @@
         <v>104</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>573</v>
+        <v>127</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>573</v>
+        <v>127</v>
       </c>
       <c r="D188" s="6" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.3">
@@ -5579,13 +5615,13 @@
         <v>104</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>574</v>
+        <v>129</v>
       </c>
       <c r="C189" s="6" t="s">
-        <v>574</v>
+        <v>129</v>
       </c>
       <c r="D189" s="6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.3">
@@ -5593,13 +5629,13 @@
         <v>104</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C190" s="6" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="D190" s="6" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.3">
@@ -5607,260 +5643,260 @@
         <v>104</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="C191" s="6" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="D191" s="6" t="s">
-        <v>577</v>
+        <v>133</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>592</v>
+        <v>574</v>
       </c>
       <c r="C192" s="6" t="s">
-        <v>592</v>
+        <v>574</v>
       </c>
       <c r="D192" s="6" t="s">
-        <v>583</v>
-      </c>
-      <c r="E192" t="s">
-        <v>443</v>
-      </c>
-      <c r="F192" t="s">
-        <v>465</v>
-      </c>
-      <c r="I192" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>518</v>
+        <v>575</v>
       </c>
       <c r="C193" s="6" t="s">
-        <v>518</v>
+        <v>575</v>
       </c>
       <c r="D193" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>109</v>
+        <v>576</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>109</v>
+        <v>576</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195" s="6" t="s">
         <v>105</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>111</v>
+        <v>592</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>111</v>
+        <v>592</v>
       </c>
       <c r="D195" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+        <v>583</v>
+      </c>
+      <c r="E195" t="s">
+        <v>443</v>
+      </c>
+      <c r="F195" t="s">
+        <v>465</v>
+      </c>
+      <c r="I195" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196" s="6" t="s">
         <v>105</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>113</v>
+        <v>518</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>113</v>
+        <v>518</v>
       </c>
       <c r="D196" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197" s="6" t="s">
         <v>105</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D197" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198" s="6" t="s">
         <v>105</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D198" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199" s="6" t="s">
         <v>105</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C199" s="6" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D199" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A200" s="6" t="s">
         <v>105</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C200" s="6" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D200" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201" s="6" t="s">
         <v>105</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C201" s="6" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D201" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A202" s="6" t="s">
         <v>105</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C202" s="6" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D202" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A203" s="6" t="s">
         <v>105</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C203" s="6" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D203" s="6" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A204" s="6" t="s">
         <v>105</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C204" s="6" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D204" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A205" s="6" t="s">
         <v>105</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>572</v>
+        <v>125</v>
       </c>
       <c r="C205" s="6" t="s">
-        <v>572</v>
+        <v>125</v>
       </c>
       <c r="D205" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A206" s="6" t="s">
         <v>105</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>573</v>
+        <v>127</v>
       </c>
       <c r="C206" s="6" t="s">
-        <v>573</v>
+        <v>127</v>
       </c>
       <c r="D206" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A207" s="6" t="s">
         <v>105</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>574</v>
+        <v>129</v>
       </c>
       <c r="C207" s="6" t="s">
-        <v>574</v>
+        <v>129</v>
       </c>
       <c r="D207" s="6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A208" s="6" t="s">
         <v>105</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C208" s="6" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="D208" s="6" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.3">
@@ -5868,64 +5904,55 @@
         <v>105</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="C209" s="6" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="D209" s="6" t="s">
-        <v>577</v>
+        <v>133</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A210" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>592</v>
+        <v>574</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>592</v>
+        <v>574</v>
       </c>
       <c r="D210" s="6" t="s">
-        <v>584</v>
-      </c>
-      <c r="E210" t="s">
-        <v>443</v>
-      </c>
-      <c r="F210" t="s">
-        <v>465</v>
-      </c>
-      <c r="I210" t="s">
-        <v>465</v>
+        <v>134</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A211" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>518</v>
+        <v>575</v>
       </c>
       <c r="C211" s="6" t="s">
-        <v>518</v>
+        <v>575</v>
       </c>
       <c r="D211" s="6" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A212" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>109</v>
+        <v>576</v>
       </c>
       <c r="C212" s="6" t="s">
-        <v>109</v>
+        <v>576</v>
       </c>
       <c r="D212" s="6" t="s">
-        <v>110</v>
+        <v>577</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.3">
@@ -5933,13 +5960,22 @@
         <v>106</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>111</v>
+        <v>592</v>
       </c>
       <c r="C213" s="6" t="s">
-        <v>111</v>
+        <v>592</v>
       </c>
       <c r="D213" s="6" t="s">
-        <v>112</v>
+        <v>584</v>
+      </c>
+      <c r="E213" t="s">
+        <v>443</v>
+      </c>
+      <c r="F213" t="s">
+        <v>465</v>
+      </c>
+      <c r="I213" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.3">
@@ -5947,13 +5983,13 @@
         <v>106</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>113</v>
+        <v>518</v>
       </c>
       <c r="C214" s="6" t="s">
-        <v>113</v>
+        <v>518</v>
       </c>
       <c r="D214" s="6" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.3">
@@ -5961,13 +5997,13 @@
         <v>106</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C215" s="6" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D215" s="6" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.3">
@@ -5975,13 +6011,13 @@
         <v>106</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C216" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D216" s="6" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.3">
@@ -5989,13 +6025,13 @@
         <v>106</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C217" s="6" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D217" s="6" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.3">
@@ -6003,13 +6039,13 @@
         <v>106</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C218" s="6" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D218" s="6" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.3">
@@ -6017,13 +6053,13 @@
         <v>106</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C219" s="6" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D219" s="6" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.3">
@@ -6031,13 +6067,13 @@
         <v>106</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C220" s="6" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D220" s="6" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.3">
@@ -6045,13 +6081,13 @@
         <v>106</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C221" s="6" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D221" s="6" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.3">
@@ -6059,13 +6095,13 @@
         <v>106</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C222" s="6" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D222" s="6" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.3">
@@ -6073,13 +6109,13 @@
         <v>106</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>572</v>
+        <v>125</v>
       </c>
       <c r="C223" s="6" t="s">
-        <v>572</v>
+        <v>125</v>
       </c>
       <c r="D223" s="6" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.3">
@@ -6087,13 +6123,13 @@
         <v>106</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>573</v>
+        <v>127</v>
       </c>
       <c r="C224" s="6" t="s">
-        <v>573</v>
+        <v>127</v>
       </c>
       <c r="D224" s="6" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.3">
@@ -6101,13 +6137,13 @@
         <v>106</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>574</v>
+        <v>129</v>
       </c>
       <c r="C225" s="6" t="s">
-        <v>574</v>
+        <v>129</v>
       </c>
       <c r="D225" s="6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.3">
@@ -6115,13 +6151,13 @@
         <v>106</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C226" s="6" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="D226" s="6" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.3">
@@ -6129,64 +6165,55 @@
         <v>106</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="C227" s="6" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="D227" s="6" t="s">
-        <v>577</v>
+        <v>133</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A228" s="6" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>592</v>
+        <v>574</v>
       </c>
       <c r="C228" s="6" t="s">
-        <v>592</v>
+        <v>574</v>
       </c>
       <c r="D228" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="E228" t="s">
-        <v>443</v>
-      </c>
-      <c r="F228" t="s">
-        <v>465</v>
-      </c>
-      <c r="I228" t="s">
-        <v>465</v>
+        <v>134</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A229" s="6" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>115</v>
+        <v>575</v>
       </c>
       <c r="C229" s="6" t="s">
-        <v>115</v>
+        <v>575</v>
       </c>
       <c r="D229" s="6" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A230" s="6" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>141</v>
+        <v>576</v>
       </c>
       <c r="C230" s="6" t="s">
-        <v>141</v>
+        <v>576</v>
       </c>
       <c r="D230" s="6" t="s">
-        <v>142</v>
+        <v>577</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.3">
@@ -6194,13 +6221,22 @@
         <v>136</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>575</v>
+        <v>592</v>
       </c>
       <c r="C231" s="6" t="s">
-        <v>575</v>
+        <v>592</v>
       </c>
       <c r="D231" s="6" t="s">
-        <v>135</v>
+        <v>137</v>
+      </c>
+      <c r="E231" t="s">
+        <v>443</v>
+      </c>
+      <c r="F231" t="s">
+        <v>465</v>
+      </c>
+      <c r="I231" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.3">
@@ -6208,64 +6244,55 @@
         <v>136</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>576</v>
+        <v>115</v>
       </c>
       <c r="C232" s="6" t="s">
-        <v>576</v>
+        <v>115</v>
       </c>
       <c r="D232" s="6" t="s">
-        <v>577</v>
+        <v>140</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A233" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>592</v>
+        <v>141</v>
       </c>
       <c r="C233" s="6" t="s">
-        <v>592</v>
+        <v>141</v>
       </c>
       <c r="D233" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="E233" t="s">
-        <v>443</v>
-      </c>
-      <c r="F233" t="s">
-        <v>465</v>
-      </c>
-      <c r="I233" t="s">
-        <v>465</v>
+        <v>142</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A234" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>115</v>
+        <v>575</v>
       </c>
       <c r="C234" s="6" t="s">
-        <v>115</v>
+        <v>575</v>
       </c>
       <c r="D234" s="6" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A235" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>141</v>
+        <v>576</v>
       </c>
       <c r="C235" s="6" t="s">
-        <v>141</v>
+        <v>576</v>
       </c>
       <c r="D235" s="6" t="s">
-        <v>142</v>
+        <v>577</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.3">
@@ -6273,13 +6300,22 @@
         <v>138</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>575</v>
+        <v>592</v>
       </c>
       <c r="C236" s="6" t="s">
-        <v>575</v>
+        <v>592</v>
       </c>
       <c r="D236" s="6" t="s">
-        <v>135</v>
+        <v>139</v>
+      </c>
+      <c r="E236" t="s">
+        <v>443</v>
+      </c>
+      <c r="F236" t="s">
+        <v>465</v>
+      </c>
+      <c r="I236" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.3">
@@ -6287,87 +6323,60 @@
         <v>138</v>
       </c>
       <c r="B237" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C237" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D237" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A238" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B238" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C238" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D238" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A239" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B239" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="C239" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="D239" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A240" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B240" s="6" t="s">
         <v>576</v>
       </c>
-      <c r="C237" s="6" t="s">
+      <c r="C240" s="6" t="s">
         <v>576</v>
       </c>
-      <c r="D237" s="6" t="s">
+      <c r="D240" s="6" t="s">
         <v>577</v>
-      </c>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A238" t="s">
-        <v>143</v>
-      </c>
-      <c r="B238" t="s">
-        <v>592</v>
-      </c>
-      <c r="C238" t="s">
-        <v>592</v>
-      </c>
-      <c r="D238" t="s">
-        <v>144</v>
-      </c>
-      <c r="E238" t="s">
-        <v>443</v>
-      </c>
-      <c r="F238" t="s">
-        <v>465</v>
-      </c>
-      <c r="I238" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A239" t="s">
-        <v>145</v>
-      </c>
-      <c r="B239" t="s">
-        <v>592</v>
-      </c>
-      <c r="C239" t="s">
-        <v>592</v>
-      </c>
-      <c r="D239" t="s">
-        <v>146</v>
-      </c>
-      <c r="E239" t="s">
-        <v>443</v>
-      </c>
-      <c r="F239" t="s">
-        <v>465</v>
-      </c>
-      <c r="I239" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A240" t="s">
-        <v>147</v>
-      </c>
-      <c r="B240" t="s">
-        <v>592</v>
-      </c>
-      <c r="C240" t="s">
-        <v>592</v>
-      </c>
-      <c r="D240" t="s">
-        <v>148</v>
-      </c>
-      <c r="E240" t="s">
-        <v>443</v>
-      </c>
-      <c r="F240" t="s">
-        <v>465</v>
-      </c>
-      <c r="I240" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B241" t="s">
         <v>592</v>
@@ -6376,7 +6385,7 @@
         <v>592</v>
       </c>
       <c r="D241" t="s">
-        <v>516</v>
+        <v>144</v>
       </c>
       <c r="E241" t="s">
         <v>443</v>
@@ -6390,7 +6399,7 @@
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B242" t="s">
         <v>592</v>
@@ -6399,7 +6408,7 @@
         <v>592</v>
       </c>
       <c r="D242" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E242" t="s">
         <v>443</v>
@@ -6413,30 +6422,48 @@
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B243" t="s">
-        <v>152</v>
+        <v>592</v>
       </c>
       <c r="C243" t="s">
-        <v>152</v>
+        <v>592</v>
       </c>
       <c r="D243" t="s">
-        <v>153</v>
+        <v>148</v>
+      </c>
+      <c r="E243" t="s">
+        <v>443</v>
+      </c>
+      <c r="F243" t="s">
+        <v>465</v>
+      </c>
+      <c r="I243" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B244" t="s">
-        <v>154</v>
+        <v>592</v>
       </c>
       <c r="C244" t="s">
-        <v>154</v>
+        <v>592</v>
       </c>
       <c r="D244" t="s">
-        <v>155</v>
+        <v>516</v>
+      </c>
+      <c r="E244" t="s">
+        <v>443</v>
+      </c>
+      <c r="F244" t="s">
+        <v>465</v>
+      </c>
+      <c r="I244" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.3">
@@ -6444,13 +6471,22 @@
         <v>150</v>
       </c>
       <c r="B245" t="s">
-        <v>156</v>
+        <v>592</v>
       </c>
       <c r="C245" t="s">
-        <v>156</v>
+        <v>592</v>
       </c>
       <c r="D245" t="s">
-        <v>157</v>
+        <v>151</v>
+      </c>
+      <c r="E245" t="s">
+        <v>443</v>
+      </c>
+      <c r="F245" t="s">
+        <v>465</v>
+      </c>
+      <c r="I245" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.3">
@@ -6458,13 +6494,13 @@
         <v>150</v>
       </c>
       <c r="B246" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C246" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D246" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.3">
@@ -6472,13 +6508,13 @@
         <v>150</v>
       </c>
       <c r="B247" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C247" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D247" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.3">
@@ -6486,13 +6522,13 @@
         <v>150</v>
       </c>
       <c r="B248" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C248" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D248" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.3">
@@ -6500,13 +6536,13 @@
         <v>150</v>
       </c>
       <c r="B249" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C249" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D249" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.3">
@@ -6514,64 +6550,55 @@
         <v>150</v>
       </c>
       <c r="B250" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C250" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D250" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="B251" t="s">
-        <v>592</v>
+        <v>162</v>
       </c>
       <c r="C251" t="s">
-        <v>592</v>
+        <v>162</v>
       </c>
       <c r="D251" t="s">
-        <v>169</v>
-      </c>
-      <c r="E251" t="s">
-        <v>443</v>
-      </c>
-      <c r="F251" t="s">
-        <v>465</v>
-      </c>
-      <c r="I251" t="s">
-        <v>465</v>
+        <v>163</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="B252" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C252" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D252" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="B253" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C253" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D253" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.3">
@@ -6579,13 +6606,22 @@
         <v>168</v>
       </c>
       <c r="B254" t="s">
-        <v>174</v>
+        <v>592</v>
       </c>
       <c r="C254" t="s">
-        <v>174</v>
+        <v>592</v>
       </c>
       <c r="D254" t="s">
-        <v>175</v>
+        <v>169</v>
+      </c>
+      <c r="E254" t="s">
+        <v>443</v>
+      </c>
+      <c r="F254" t="s">
+        <v>465</v>
+      </c>
+      <c r="I254" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.3">
@@ -6593,13 +6629,13 @@
         <v>168</v>
       </c>
       <c r="B255" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C255" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D255" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.3">
@@ -6607,13 +6643,13 @@
         <v>168</v>
       </c>
       <c r="B256" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C256" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D256" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.3">
@@ -6621,13 +6657,13 @@
         <v>168</v>
       </c>
       <c r="B257" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C257" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D257" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.3">
@@ -6635,13 +6671,13 @@
         <v>168</v>
       </c>
       <c r="B258" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C258" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D258" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.3">
@@ -6649,64 +6685,55 @@
         <v>168</v>
       </c>
       <c r="B259" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C259" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D259" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>553</v>
+        <v>168</v>
       </c>
       <c r="B260" t="s">
-        <v>592</v>
+        <v>180</v>
       </c>
       <c r="C260" t="s">
-        <v>592</v>
+        <v>180</v>
       </c>
       <c r="D260" t="s">
-        <v>186</v>
-      </c>
-      <c r="E260" t="s">
-        <v>405</v>
-      </c>
-      <c r="F260" t="s">
-        <v>465</v>
-      </c>
-      <c r="I260" t="s">
-        <v>465</v>
+        <v>181</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>553</v>
+        <v>168</v>
       </c>
       <c r="B261" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C261" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D261" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>553</v>
+        <v>168</v>
       </c>
       <c r="B262" t="s">
-        <v>78</v>
+        <v>184</v>
       </c>
       <c r="C262" t="s">
-        <v>78</v>
+        <v>184</v>
       </c>
       <c r="D262" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.3">
@@ -6714,64 +6741,64 @@
         <v>553</v>
       </c>
       <c r="B263" t="s">
-        <v>184</v>
+        <v>592</v>
       </c>
       <c r="C263" t="s">
-        <v>184</v>
+        <v>592</v>
       </c>
       <c r="D263" t="s">
-        <v>185</v>
+        <v>186</v>
+      </c>
+      <c r="E263" t="s">
+        <v>405</v>
+      </c>
+      <c r="F263" t="s">
+        <v>465</v>
+      </c>
+      <c r="I263" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>570</v>
+        <v>553</v>
       </c>
       <c r="B264" t="s">
-        <v>592</v>
+        <v>187</v>
       </c>
       <c r="C264" t="s">
-        <v>592</v>
+        <v>187</v>
       </c>
       <c r="D264" t="s">
-        <v>547</v>
-      </c>
-      <c r="E264" t="s">
-        <v>443</v>
-      </c>
-      <c r="F264" t="s">
-        <v>465</v>
-      </c>
-      <c r="I264" t="s">
-        <v>465</v>
+        <v>188</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>570</v>
+        <v>553</v>
       </c>
       <c r="B265" t="s">
-        <v>191</v>
+        <v>78</v>
       </c>
       <c r="C265" t="s">
-        <v>191</v>
+        <v>78</v>
       </c>
       <c r="D265" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>570</v>
+        <v>553</v>
       </c>
       <c r="B266" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="C266" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="D266" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.3">
@@ -6779,27 +6806,36 @@
         <v>570</v>
       </c>
       <c r="B267" t="s">
-        <v>195</v>
+        <v>592</v>
       </c>
       <c r="C267" t="s">
-        <v>195</v>
+        <v>592</v>
       </c>
       <c r="D267" t="s">
-        <v>196</v>
+        <v>547</v>
+      </c>
+      <c r="E267" t="s">
+        <v>443</v>
+      </c>
+      <c r="F267" t="s">
+        <v>465</v>
+      </c>
+      <c r="I267" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>570</v>
       </c>
-      <c r="B268" s="4" t="s">
-        <v>496</v>
-      </c>
-      <c r="C268" s="4" t="s">
-        <v>496</v>
-      </c>
-      <c r="D268" s="4" t="s">
-        <v>497</v>
+      <c r="B268" t="s">
+        <v>191</v>
+      </c>
+      <c r="C268" t="s">
+        <v>191</v>
+      </c>
+      <c r="D268" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.3">
@@ -6807,27 +6843,27 @@
         <v>570</v>
       </c>
       <c r="B269" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C269" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D269" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>570</v>
       </c>
-      <c r="B270" s="4" t="s">
-        <v>471</v>
-      </c>
-      <c r="C270" s="4" t="s">
-        <v>471</v>
-      </c>
-      <c r="D270" s="4" t="s">
-        <v>498</v>
+      <c r="B270" t="s">
+        <v>195</v>
+      </c>
+      <c r="C270" t="s">
+        <v>195</v>
+      </c>
+      <c r="D270" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.3">
@@ -6835,41 +6871,41 @@
         <v>570</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>472</v>
+        <v>496</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>472</v>
+        <v>496</v>
       </c>
       <c r="D271" s="4" t="s">
-        <v>483</v>
+        <v>497</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>570</v>
       </c>
-      <c r="B272" s="4" t="s">
-        <v>473</v>
-      </c>
-      <c r="C272" s="4" t="s">
-        <v>473</v>
-      </c>
-      <c r="D272" s="4" t="s">
-        <v>485</v>
+      <c r="B272" t="s">
+        <v>197</v>
+      </c>
+      <c r="C272" t="s">
+        <v>197</v>
+      </c>
+      <c r="D272" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>570</v>
       </c>
-      <c r="B273" t="s">
-        <v>474</v>
-      </c>
-      <c r="C273" t="s">
-        <v>474</v>
-      </c>
-      <c r="D273" t="s">
-        <v>190</v>
+      <c r="B273" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="C273" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="D273" s="4" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
@@ -6877,13 +6913,13 @@
         <v>570</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
       <c r="D274" s="4" t="s">
-        <v>500</v>
+        <v>483</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
@@ -6891,41 +6927,41 @@
         <v>570</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>501</v>
+        <v>473</v>
       </c>
       <c r="C275" s="4" t="s">
-        <v>501</v>
+        <v>473</v>
       </c>
       <c r="D275" s="4" t="s">
-        <v>502</v>
+        <v>485</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>570</v>
       </c>
-      <c r="B276" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="C276" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="D276" s="4" t="s">
-        <v>503</v>
+      <c r="B276" t="s">
+        <v>474</v>
+      </c>
+      <c r="C276" t="s">
+        <v>474</v>
+      </c>
+      <c r="D276" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>570</v>
       </c>
-      <c r="B277" t="s">
-        <v>504</v>
-      </c>
-      <c r="C277" t="s">
-        <v>504</v>
+      <c r="B277" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="C277" s="4" t="s">
+        <v>499</v>
       </c>
       <c r="D277" s="4" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
@@ -6933,13 +6969,13 @@
         <v>570</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>478</v>
+        <v>501</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>478</v>
+        <v>501</v>
       </c>
       <c r="D278" s="4" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
@@ -6947,27 +6983,27 @@
         <v>570</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>506</v>
+        <v>476</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>506</v>
+        <v>476</v>
       </c>
       <c r="D279" s="4" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>570</v>
       </c>
-      <c r="B280" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="C280" s="4" t="s">
-        <v>479</v>
+      <c r="B280" t="s">
+        <v>504</v>
+      </c>
+      <c r="C280" t="s">
+        <v>504</v>
       </c>
       <c r="D280" s="4" t="s">
-        <v>491</v>
+        <v>505</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
@@ -6975,27 +7011,27 @@
         <v>570</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>200</v>
+        <v>478</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>200</v>
+        <v>478</v>
       </c>
       <c r="D281" s="4" t="s">
-        <v>508</v>
+        <v>490</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>570</v>
       </c>
-      <c r="B282" t="s">
-        <v>509</v>
-      </c>
-      <c r="C282" t="s">
-        <v>509</v>
-      </c>
-      <c r="D282" t="s">
-        <v>510</v>
+      <c r="B282" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="C282" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="D282" s="4" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
@@ -7003,69 +7039,69 @@
         <v>570</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>201</v>
+        <v>479</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>201</v>
+        <v>479</v>
       </c>
       <c r="D283" s="4" t="s">
-        <v>511</v>
+        <v>491</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>570</v>
       </c>
-      <c r="B284" t="s">
-        <v>202</v>
-      </c>
-      <c r="C284" t="s">
-        <v>202</v>
-      </c>
-      <c r="D284" t="s">
-        <v>203</v>
+      <c r="B284" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C284" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D284" s="4" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>570</v>
       </c>
-      <c r="B285" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="C285" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="D285" s="4" t="s">
-        <v>512</v>
+      <c r="B285" t="s">
+        <v>509</v>
+      </c>
+      <c r="C285" t="s">
+        <v>509</v>
+      </c>
+      <c r="D285" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>570</v>
       </c>
-      <c r="B286" t="s">
-        <v>204</v>
-      </c>
-      <c r="C286" t="s">
-        <v>204</v>
-      </c>
-      <c r="D286" t="s">
-        <v>205</v>
+      <c r="B286" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C286" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D286" s="4" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>570</v>
       </c>
-      <c r="B287" s="4" t="s">
-        <v>480</v>
-      </c>
-      <c r="C287" s="4" t="s">
-        <v>480</v>
-      </c>
-      <c r="D287" s="4" t="s">
-        <v>513</v>
+      <c r="B287" t="s">
+        <v>202</v>
+      </c>
+      <c r="C287" t="s">
+        <v>202</v>
+      </c>
+      <c r="D287" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
@@ -7073,27 +7109,27 @@
         <v>570</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>208</v>
+        <v>344</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>208</v>
+        <v>344</v>
       </c>
       <c r="D288" s="4" t="s">
-        <v>209</v>
+        <v>512</v>
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>570</v>
       </c>
-      <c r="B289" s="4" t="s">
-        <v>481</v>
-      </c>
-      <c r="C289" s="4" t="s">
-        <v>481</v>
-      </c>
-      <c r="D289" s="4" t="s">
-        <v>494</v>
+      <c r="B289" t="s">
+        <v>204</v>
+      </c>
+      <c r="C289" t="s">
+        <v>204</v>
+      </c>
+      <c r="D289" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.3">
@@ -7101,64 +7137,55 @@
         <v>570</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>514</v>
+        <v>480</v>
       </c>
       <c r="C290" s="4" t="s">
-        <v>514</v>
+        <v>480</v>
       </c>
       <c r="D290" s="4" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>571</v>
-      </c>
-      <c r="B291" t="s">
-        <v>592</v>
-      </c>
-      <c r="C291" t="s">
-        <v>592</v>
-      </c>
-      <c r="D291" t="s">
-        <v>548</v>
-      </c>
-      <c r="E291" t="s">
-        <v>443</v>
-      </c>
-      <c r="F291" t="s">
-        <v>465</v>
-      </c>
-      <c r="I291" t="s">
-        <v>465</v>
+        <v>570</v>
+      </c>
+      <c r="B291" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C291" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D291" s="4" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>571</v>
-      </c>
-      <c r="B292" t="s">
-        <v>193</v>
-      </c>
-      <c r="C292" t="s">
-        <v>193</v>
-      </c>
-      <c r="D292" t="s">
-        <v>194</v>
+        <v>570</v>
+      </c>
+      <c r="B292" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="C292" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="D292" s="4" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>571</v>
-      </c>
-      <c r="B293" t="s">
-        <v>195</v>
-      </c>
-      <c r="C293" t="s">
-        <v>195</v>
-      </c>
-      <c r="D293" t="s">
-        <v>196</v>
+        <v>570</v>
+      </c>
+      <c r="B293" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C293" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="D293" s="4" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.3">
@@ -7166,13 +7193,22 @@
         <v>571</v>
       </c>
       <c r="B294" t="s">
-        <v>471</v>
+        <v>592</v>
       </c>
       <c r="C294" t="s">
-        <v>471</v>
+        <v>592</v>
       </c>
       <c r="D294" t="s">
-        <v>486</v>
+        <v>548</v>
+      </c>
+      <c r="E294" t="s">
+        <v>443</v>
+      </c>
+      <c r="F294" t="s">
+        <v>465</v>
+      </c>
+      <c r="I294" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.3">
@@ -7180,13 +7216,13 @@
         <v>571</v>
       </c>
       <c r="B295" t="s">
-        <v>472</v>
+        <v>193</v>
       </c>
       <c r="C295" t="s">
-        <v>472</v>
+        <v>193</v>
       </c>
       <c r="D295" t="s">
-        <v>483</v>
+        <v>194</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.3">
@@ -7194,13 +7230,13 @@
         <v>571</v>
       </c>
       <c r="B296" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C296" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D296" t="s">
-        <v>484</v>
+        <v>196</v>
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.3">
@@ -7208,13 +7244,13 @@
         <v>571</v>
       </c>
       <c r="B297" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C297" t="s">
-        <v>473</v>
-      </c>
-      <c r="D297" s="4" t="s">
-        <v>485</v>
+        <v>471</v>
+      </c>
+      <c r="D297" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.3">
@@ -7222,13 +7258,13 @@
         <v>571</v>
       </c>
       <c r="B298" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C298" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D298" t="s">
-        <v>190</v>
+        <v>483</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.3">
@@ -7236,13 +7272,13 @@
         <v>571</v>
       </c>
       <c r="B299" t="s">
-        <v>475</v>
+        <v>199</v>
       </c>
       <c r="C299" t="s">
-        <v>475</v>
-      </c>
-      <c r="D299" s="4" t="s">
-        <v>487</v>
+        <v>199</v>
+      </c>
+      <c r="D299" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.3">
@@ -7250,13 +7286,13 @@
         <v>571</v>
       </c>
       <c r="B300" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C300" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D300" s="4" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.3">
@@ -7264,13 +7300,13 @@
         <v>571</v>
       </c>
       <c r="B301" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C301" t="s">
-        <v>477</v>
-      </c>
-      <c r="D301" s="4" t="s">
-        <v>489</v>
+        <v>474</v>
+      </c>
+      <c r="D301" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.3">
@@ -7278,13 +7314,13 @@
         <v>571</v>
       </c>
       <c r="B302" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C302" t="s">
-        <v>478</v>
-      </c>
-      <c r="D302" t="s">
-        <v>490</v>
+        <v>475</v>
+      </c>
+      <c r="D302" s="4" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.3">
@@ -7292,13 +7328,13 @@
         <v>571</v>
       </c>
       <c r="B303" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C303" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="D303" s="4" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.3">
@@ -7306,13 +7342,13 @@
         <v>571</v>
       </c>
       <c r="B304" t="s">
-        <v>202</v>
+        <v>477</v>
       </c>
       <c r="C304" t="s">
-        <v>202</v>
-      </c>
-      <c r="D304" t="s">
-        <v>203</v>
+        <v>477</v>
+      </c>
+      <c r="D304" s="4" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.3">
@@ -7320,13 +7356,13 @@
         <v>571</v>
       </c>
       <c r="B305" t="s">
-        <v>204</v>
+        <v>478</v>
       </c>
       <c r="C305" t="s">
-        <v>204</v>
+        <v>478</v>
       </c>
       <c r="D305" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.3">
@@ -7334,13 +7370,13 @@
         <v>571</v>
       </c>
       <c r="B306" t="s">
-        <v>206</v>
+        <v>479</v>
       </c>
       <c r="C306" t="s">
-        <v>206</v>
-      </c>
-      <c r="D306" t="s">
-        <v>207</v>
+        <v>479</v>
+      </c>
+      <c r="D306" s="4" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.3">
@@ -7348,13 +7384,13 @@
         <v>571</v>
       </c>
       <c r="B307" t="s">
-        <v>480</v>
+        <v>202</v>
       </c>
       <c r="C307" t="s">
-        <v>480</v>
-      </c>
-      <c r="D307" s="4" t="s">
-        <v>493</v>
+        <v>202</v>
+      </c>
+      <c r="D307" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.3">
@@ -7362,13 +7398,13 @@
         <v>571</v>
       </c>
       <c r="B308" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C308" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D308" t="s">
-        <v>209</v>
+        <v>492</v>
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.3">
@@ -7376,13 +7412,13 @@
         <v>571</v>
       </c>
       <c r="B309" t="s">
-        <v>481</v>
+        <v>206</v>
       </c>
       <c r="C309" t="s">
-        <v>481</v>
-      </c>
-      <c r="D309" s="4" t="s">
-        <v>494</v>
+        <v>206</v>
+      </c>
+      <c r="D309" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.3">
@@ -7390,98 +7426,98 @@
         <v>571</v>
       </c>
       <c r="B310" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C310" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D310" s="4" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>210</v>
+        <v>571</v>
       </c>
       <c r="B311" t="s">
-        <v>592</v>
+        <v>208</v>
       </c>
       <c r="C311" t="s">
-        <v>592</v>
+        <v>208</v>
       </c>
       <c r="D311" t="s">
-        <v>211</v>
-      </c>
-      <c r="E311" t="s">
-        <v>427</v>
-      </c>
-      <c r="F311" t="s">
-        <v>465</v>
-      </c>
-      <c r="G311" t="s">
-        <v>445</v>
+        <v>209</v>
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>212</v>
+        <v>571</v>
       </c>
       <c r="B312" t="s">
-        <v>592</v>
+        <v>481</v>
       </c>
       <c r="C312" t="s">
-        <v>592</v>
-      </c>
-      <c r="D312" t="s">
-        <v>213</v>
-      </c>
-      <c r="E312" t="s">
-        <v>414</v>
-      </c>
-      <c r="F312" t="s">
-        <v>465</v>
+        <v>481</v>
+      </c>
+      <c r="D312" s="4" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>212</v>
-      </c>
-      <c r="B313">
-        <v>0</v>
-      </c>
-      <c r="C313">
-        <v>0</v>
-      </c>
-      <c r="D313" t="s">
-        <v>214</v>
+        <v>571</v>
+      </c>
+      <c r="B313" t="s">
+        <v>482</v>
+      </c>
+      <c r="C313" t="s">
+        <v>482</v>
+      </c>
+      <c r="D313" s="4" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>212</v>
-      </c>
-      <c r="B314">
-        <v>1</v>
-      </c>
-      <c r="C314">
-        <v>1</v>
+        <v>210</v>
+      </c>
+      <c r="B314" t="s">
+        <v>592</v>
+      </c>
+      <c r="C314" t="s">
+        <v>592</v>
       </c>
       <c r="D314" t="s">
-        <v>215</v>
+        <v>211</v>
+      </c>
+      <c r="E314" t="s">
+        <v>427</v>
+      </c>
+      <c r="F314" t="s">
+        <v>465</v>
+      </c>
+      <c r="G314" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>212</v>
       </c>
-      <c r="B315">
-        <v>2</v>
-      </c>
-      <c r="C315">
-        <v>2</v>
+      <c r="B315" t="s">
+        <v>592</v>
+      </c>
+      <c r="C315" t="s">
+        <v>592</v>
       </c>
       <c r="D315" t="s">
-        <v>216</v>
+        <v>213</v>
+      </c>
+      <c r="E315" t="s">
+        <v>414</v>
+      </c>
+      <c r="F315" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.3">
@@ -7489,13 +7525,13 @@
         <v>212</v>
       </c>
       <c r="B316">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C316">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D316" t="s">
-        <v>561</v>
+        <v>214</v>
       </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.3">
@@ -7503,13 +7539,13 @@
         <v>212</v>
       </c>
       <c r="B317">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C317">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D317" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.3">
@@ -7517,13 +7553,13 @@
         <v>212</v>
       </c>
       <c r="B318">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C318">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D318" t="s">
-        <v>562</v>
+        <v>216</v>
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.3">
@@ -7531,13 +7567,13 @@
         <v>212</v>
       </c>
       <c r="B319">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C319">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D319" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.3">
@@ -7545,114 +7581,60 @@
         <v>212</v>
       </c>
       <c r="B320">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C320">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D320" t="s">
-        <v>564</v>
+        <v>217</v>
       </c>
     </row>
     <row r="321" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>218</v>
-      </c>
-      <c r="B321" t="s">
-        <v>592</v>
-      </c>
-      <c r="C321" t="s">
-        <v>592</v>
+        <v>212</v>
+      </c>
+      <c r="B321">
+        <v>5</v>
+      </c>
+      <c r="C321">
+        <v>5</v>
       </c>
       <c r="D321" t="s">
-        <v>219</v>
-      </c>
-      <c r="E321" t="s">
-        <v>427</v>
-      </c>
-      <c r="F321" t="s">
-        <v>465</v>
-      </c>
-      <c r="G321" t="s">
-        <v>447</v>
-      </c>
-      <c r="H321">
-        <v>0.01</v>
-      </c>
-      <c r="L321">
-        <v>10</v>
-      </c>
-      <c r="M321">
-        <v>10</v>
+        <v>562</v>
       </c>
     </row>
     <row r="322" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>220</v>
-      </c>
-      <c r="B322" t="s">
-        <v>592</v>
-      </c>
-      <c r="C322" t="s">
-        <v>592</v>
+        <v>212</v>
+      </c>
+      <c r="B322">
+        <v>6</v>
+      </c>
+      <c r="C322">
+        <v>6</v>
       </c>
       <c r="D322" t="s">
-        <v>221</v>
-      </c>
-      <c r="E322" t="s">
-        <v>427</v>
-      </c>
-      <c r="F322" t="s">
-        <v>465</v>
-      </c>
-      <c r="G322" t="s">
-        <v>447</v>
-      </c>
-      <c r="H322">
-        <v>1E-3</v>
-      </c>
-      <c r="L322">
-        <v>2</v>
-      </c>
-      <c r="M322">
-        <v>5</v>
+        <v>563</v>
       </c>
     </row>
     <row r="323" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>222</v>
-      </c>
-      <c r="B323" t="s">
-        <v>592</v>
-      </c>
-      <c r="C323" t="s">
-        <v>592</v>
+        <v>212</v>
+      </c>
+      <c r="B323">
+        <v>7</v>
+      </c>
+      <c r="C323">
+        <v>7</v>
       </c>
       <c r="D323" t="s">
-        <v>223</v>
-      </c>
-      <c r="E323" t="s">
-        <v>427</v>
-      </c>
-      <c r="F323" t="s">
-        <v>465</v>
-      </c>
-      <c r="G323" t="s">
-        <v>447</v>
-      </c>
-      <c r="H323">
-        <v>0.1</v>
-      </c>
-      <c r="L323">
-        <v>4</v>
-      </c>
-      <c r="M323">
-        <v>15</v>
+        <v>564</v>
       </c>
     </row>
     <row r="324" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B324" t="s">
         <v>592</v>
@@ -7661,7 +7643,7 @@
         <v>592</v>
       </c>
       <c r="D324" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="E324" t="s">
         <v>427</v>
@@ -7673,12 +7655,18 @@
         <v>447</v>
       </c>
       <c r="H324">
-        <v>1</v>
+        <v>0.01</v>
+      </c>
+      <c r="L324">
+        <v>10</v>
+      </c>
+      <c r="M324">
+        <v>10</v>
       </c>
     </row>
     <row r="325" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B325" t="s">
         <v>592</v>
@@ -7687,7 +7675,7 @@
         <v>592</v>
       </c>
       <c r="D325" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="E325" t="s">
         <v>427</v>
@@ -7699,12 +7687,18 @@
         <v>447</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>1E-3</v>
+      </c>
+      <c r="L325">
+        <v>2</v>
+      </c>
+      <c r="M325">
+        <v>5</v>
       </c>
     </row>
     <row r="326" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B326" t="s">
         <v>592</v>
@@ -7713,7 +7707,7 @@
         <v>592</v>
       </c>
       <c r="D326" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="E326" t="s">
         <v>427</v>
@@ -7725,41 +7719,44 @@
         <v>447</v>
       </c>
       <c r="H326">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="327" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A327" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="B327" s="3" t="s">
-        <v>592</v>
-      </c>
-      <c r="C327" s="3" t="s">
-        <v>592</v>
-      </c>
-      <c r="D327" s="3" t="s">
-        <v>555</v>
-      </c>
-      <c r="E327" s="3" t="s">
+        <v>0.1</v>
+      </c>
+      <c r="L326">
+        <v>4</v>
+      </c>
+      <c r="M326">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="327" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>224</v>
+      </c>
+      <c r="B327" t="s">
+        <v>592</v>
+      </c>
+      <c r="C327" t="s">
+        <v>592</v>
+      </c>
+      <c r="D327" t="s">
+        <v>225</v>
+      </c>
+      <c r="E327" t="s">
         <v>427</v>
       </c>
-      <c r="F327" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="G327" s="3" t="s">
+      <c r="F327" t="s">
+        <v>465</v>
+      </c>
+      <c r="G327" t="s">
         <v>447</v>
       </c>
-      <c r="H327" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="J327"/>
-      <c r="K327"/>
-      <c r="N327"/>
+      <c r="H327">
+        <v>1</v>
+      </c>
     </row>
     <row r="328" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B328" t="s">
         <v>592</v>
@@ -7768,7 +7765,7 @@
         <v>592</v>
       </c>
       <c r="D328" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E328" t="s">
         <v>427</v>
@@ -7779,13 +7776,13 @@
       <c r="G328" t="s">
         <v>447</v>
       </c>
-      <c r="H328" s="3">
-        <v>0.01</v>
+      <c r="H328">
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B329" t="s">
         <v>592</v>
@@ -7794,7 +7791,7 @@
         <v>592</v>
       </c>
       <c r="D329" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="E329" t="s">
         <v>427</v>
@@ -7805,33 +7802,42 @@
       <c r="G329" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="330" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A330" t="s">
-        <v>235</v>
-      </c>
-      <c r="B330" t="s">
-        <v>592</v>
-      </c>
-      <c r="C330" t="s">
-        <v>592</v>
-      </c>
-      <c r="D330" t="s">
-        <v>236</v>
-      </c>
-      <c r="E330" t="s">
+      <c r="H329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A330" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B330" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="C330" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="D330" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="E330" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="F330" t="s">
-        <v>465</v>
-      </c>
-      <c r="G330" t="s">
+      <c r="F330" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="G330" s="3" t="s">
         <v>447</v>
       </c>
+      <c r="H330" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="J330"/>
+      <c r="K330"/>
+      <c r="N330"/>
     </row>
     <row r="331" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B331" t="s">
         <v>592</v>
@@ -7840,7 +7846,7 @@
         <v>592</v>
       </c>
       <c r="D331" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="E331" t="s">
         <v>427</v>
@@ -7851,10 +7857,13 @@
       <c r="G331" t="s">
         <v>447</v>
       </c>
+      <c r="H331" s="3">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="332" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B332" t="s">
         <v>592</v>
@@ -7863,7 +7872,7 @@
         <v>592</v>
       </c>
       <c r="D332" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="E332" t="s">
         <v>427</v>
@@ -7877,7 +7886,7 @@
     </row>
     <row r="333" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B333" t="s">
         <v>592</v>
@@ -7886,7 +7895,7 @@
         <v>592</v>
       </c>
       <c r="D333" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="E333" t="s">
         <v>427</v>
@@ -7900,7 +7909,7 @@
     </row>
     <row r="334" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B334" t="s">
         <v>592</v>
@@ -7909,7 +7918,7 @@
         <v>592</v>
       </c>
       <c r="D334" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="E334" t="s">
         <v>427</v>
@@ -7923,7 +7932,7 @@
     </row>
     <row r="335" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B335" t="s">
         <v>592</v>
@@ -7932,7 +7941,7 @@
         <v>592</v>
       </c>
       <c r="D335" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="E335" t="s">
         <v>427</v>
@@ -7946,7 +7955,7 @@
     </row>
     <row r="336" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B336" t="s">
         <v>592</v>
@@ -7955,55 +7964,82 @@
         <v>592</v>
       </c>
       <c r="D336" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="E336" t="s">
-        <v>414</v>
+        <v>427</v>
       </c>
       <c r="F336" t="s">
         <v>465</v>
+      </c>
+      <c r="G336" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="337" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>247</v>
-      </c>
-      <c r="B337">
-        <v>0</v>
-      </c>
-      <c r="C337">
-        <v>0</v>
+        <v>243</v>
+      </c>
+      <c r="B337" t="s">
+        <v>592</v>
+      </c>
+      <c r="C337" t="s">
+        <v>592</v>
       </c>
       <c r="D337" t="s">
-        <v>249</v>
+        <v>244</v>
+      </c>
+      <c r="E337" t="s">
+        <v>427</v>
+      </c>
+      <c r="F337" t="s">
+        <v>465</v>
+      </c>
+      <c r="G337" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="338" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>247</v>
-      </c>
-      <c r="B338">
-        <v>1</v>
-      </c>
-      <c r="C338">
-        <v>1</v>
+        <v>245</v>
+      </c>
+      <c r="B338" t="s">
+        <v>592</v>
+      </c>
+      <c r="C338" t="s">
+        <v>592</v>
       </c>
       <c r="D338" t="s">
-        <v>250</v>
+        <v>246</v>
+      </c>
+      <c r="E338" t="s">
+        <v>427</v>
+      </c>
+      <c r="F338" t="s">
+        <v>465</v>
+      </c>
+      <c r="G338" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="339" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>247</v>
       </c>
-      <c r="B339">
-        <v>2</v>
-      </c>
-      <c r="C339">
-        <v>2</v>
+      <c r="B339" t="s">
+        <v>592</v>
+      </c>
+      <c r="C339" t="s">
+        <v>592</v>
       </c>
       <c r="D339" t="s">
-        <v>251</v>
+        <v>248</v>
+      </c>
+      <c r="E339" t="s">
+        <v>414</v>
+      </c>
+      <c r="F339" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="340" spans="1:13" x14ac:dyDescent="0.3">
@@ -8011,78 +8047,78 @@
         <v>247</v>
       </c>
       <c r="B340">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C340">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D340" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="341" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>253</v>
-      </c>
-      <c r="B341" t="s">
-        <v>592</v>
-      </c>
-      <c r="C341" t="s">
-        <v>592</v>
+        <v>247</v>
+      </c>
+      <c r="B341">
+        <v>1</v>
+      </c>
+      <c r="C341">
+        <v>1</v>
       </c>
       <c r="D341" t="s">
-        <v>254</v>
-      </c>
-      <c r="E341" t="s">
-        <v>405</v>
-      </c>
-      <c r="F341" t="s">
-        <v>465</v>
-      </c>
-      <c r="I341" t="s">
-        <v>465</v>
+        <v>250</v>
       </c>
     </row>
     <row r="342" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B342">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C342">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D342" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="343" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B343">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C343">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D343" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="344" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>253</v>
       </c>
-      <c r="B344">
-        <v>2</v>
-      </c>
-      <c r="C344">
-        <v>2</v>
+      <c r="B344" t="s">
+        <v>592</v>
+      </c>
+      <c r="C344" t="s">
+        <v>592</v>
       </c>
       <c r="D344" t="s">
-        <v>257</v>
+        <v>254</v>
+      </c>
+      <c r="E344" t="s">
+        <v>405</v>
+      </c>
+      <c r="F344" t="s">
+        <v>465</v>
+      </c>
+      <c r="I344" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="345" spans="1:13" x14ac:dyDescent="0.3">
@@ -8090,13 +8126,13 @@
         <v>253</v>
       </c>
       <c r="B345">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C345">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D345" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="346" spans="1:13" x14ac:dyDescent="0.3">
@@ -8104,13 +8140,13 @@
         <v>253</v>
       </c>
       <c r="B346">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C346">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D346" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="347" spans="1:13" x14ac:dyDescent="0.3">
@@ -8118,405 +8154,405 @@
         <v>253</v>
       </c>
       <c r="B347">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C347">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D347" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="348" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>253</v>
       </c>
-      <c r="B348" t="s">
-        <v>132</v>
-      </c>
-      <c r="C348" t="s">
-        <v>132</v>
+      <c r="B348">
+        <v>3</v>
+      </c>
+      <c r="C348">
+        <v>3</v>
       </c>
       <c r="D348" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="349" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>444</v>
-      </c>
-      <c r="B349" t="s">
-        <v>592</v>
-      </c>
-      <c r="C349" t="s">
-        <v>592</v>
+        <v>253</v>
+      </c>
+      <c r="B349">
+        <v>4</v>
+      </c>
+      <c r="C349">
+        <v>4</v>
       </c>
       <c r="D349" t="s">
-        <v>464</v>
-      </c>
-      <c r="E349" t="s">
-        <v>427</v>
-      </c>
-      <c r="F349" t="s">
-        <v>465</v>
-      </c>
-      <c r="L349">
-        <v>0</v>
-      </c>
-      <c r="M349">
-        <v>1</v>
+        <v>259</v>
       </c>
     </row>
     <row r="350" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>263</v>
-      </c>
-      <c r="B350" t="s">
-        <v>592</v>
-      </c>
-      <c r="C350" t="s">
-        <v>592</v>
+        <v>253</v>
+      </c>
+      <c r="B350">
+        <v>5</v>
+      </c>
+      <c r="C350">
+        <v>5</v>
       </c>
       <c r="D350" t="s">
-        <v>264</v>
-      </c>
-      <c r="E350" t="s">
-        <v>404</v>
-      </c>
-      <c r="F350" t="s">
-        <v>465</v>
-      </c>
-      <c r="I350" t="s">
-        <v>465</v>
+        <v>260</v>
       </c>
     </row>
     <row r="351" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="B351" t="s">
-        <v>592</v>
+        <v>132</v>
       </c>
       <c r="C351" t="s">
-        <v>592</v>
+        <v>132</v>
       </c>
       <c r="D351" t="s">
-        <v>266</v>
-      </c>
-      <c r="E351" t="s">
-        <v>405</v>
-      </c>
-      <c r="F351" t="s">
-        <v>465</v>
-      </c>
-      <c r="I351" t="s">
-        <v>465</v>
+        <v>261</v>
       </c>
     </row>
     <row r="352" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>265</v>
-      </c>
-      <c r="B352">
+        <v>444</v>
+      </c>
+      <c r="B352" t="s">
+        <v>592</v>
+      </c>
+      <c r="C352" t="s">
+        <v>592</v>
+      </c>
+      <c r="D352" t="s">
+        <v>464</v>
+      </c>
+      <c r="E352" t="s">
+        <v>427</v>
+      </c>
+      <c r="F352" t="s">
+        <v>465</v>
+      </c>
+      <c r="L352">
         <v>0</v>
       </c>
-      <c r="C352">
-        <v>0</v>
-      </c>
-      <c r="D352" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="M352">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B353" t="s">
-        <v>132</v>
+        <v>592</v>
       </c>
       <c r="C353" t="s">
-        <v>132</v>
+        <v>592</v>
       </c>
       <c r="D353" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
+        <v>264</v>
+      </c>
+      <c r="E353" t="s">
+        <v>404</v>
+      </c>
+      <c r="F353" t="s">
+        <v>465</v>
+      </c>
+      <c r="I353" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>265</v>
       </c>
       <c r="B354" t="s">
-        <v>66</v>
+        <v>592</v>
       </c>
       <c r="C354" t="s">
-        <v>66</v>
+        <v>592</v>
       </c>
       <c r="D354" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
+        <v>266</v>
+      </c>
+      <c r="E354" t="s">
+        <v>405</v>
+      </c>
+      <c r="F354" t="s">
+        <v>465</v>
+      </c>
+      <c r="I354" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>265</v>
       </c>
-      <c r="B355" t="s">
-        <v>80</v>
-      </c>
-      <c r="C355" t="s">
-        <v>80</v>
+      <c r="B355">
+        <v>0</v>
+      </c>
+      <c r="C355">
+        <v>0</v>
       </c>
       <c r="D355" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>265</v>
       </c>
       <c r="B356" t="s">
-        <v>262</v>
+        <v>132</v>
       </c>
       <c r="C356" t="s">
-        <v>262</v>
+        <v>132</v>
       </c>
       <c r="D356" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>265</v>
       </c>
       <c r="B357" t="s">
-        <v>184</v>
+        <v>66</v>
       </c>
       <c r="C357" t="s">
-        <v>184</v>
+        <v>66</v>
       </c>
       <c r="D357" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>265</v>
       </c>
       <c r="B358" t="s">
-        <v>273</v>
+        <v>80</v>
       </c>
       <c r="C358" t="s">
-        <v>273</v>
+        <v>80</v>
       </c>
       <c r="D358" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>265</v>
       </c>
       <c r="B359" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="C359" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="D359" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>265</v>
       </c>
       <c r="B360" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="C360" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="D360" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="361" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>265</v>
       </c>
       <c r="B361" t="s">
-        <v>187</v>
+        <v>273</v>
       </c>
       <c r="C361" t="s">
-        <v>187</v>
+        <v>273</v>
       </c>
       <c r="D361" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.3">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="362" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>265</v>
       </c>
       <c r="B362" t="s">
+        <v>275</v>
+      </c>
+      <c r="C362" t="s">
+        <v>275</v>
+      </c>
+      <c r="D362" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>265</v>
+      </c>
+      <c r="B363" t="s">
+        <v>170</v>
+      </c>
+      <c r="C363" t="s">
+        <v>170</v>
+      </c>
+      <c r="D363" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="364" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>265</v>
+      </c>
+      <c r="B364" t="s">
+        <v>187</v>
+      </c>
+      <c r="C364" t="s">
+        <v>187</v>
+      </c>
+      <c r="D364" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>265</v>
+      </c>
+      <c r="B365" t="s">
         <v>279</v>
       </c>
-      <c r="C362" t="s">
+      <c r="C365" t="s">
         <v>279</v>
       </c>
-      <c r="D362" t="s">
+      <c r="D365" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A363" t="s">
-        <v>281</v>
-      </c>
-      <c r="B363" t="s">
-        <v>592</v>
-      </c>
-      <c r="C363" t="s">
-        <v>592</v>
-      </c>
-      <c r="D363" t="s">
-        <v>282</v>
-      </c>
-      <c r="E363" t="s">
-        <v>414</v>
-      </c>
-      <c r="F363" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A364" t="s">
-        <v>281</v>
-      </c>
-      <c r="B364">
-        <v>0</v>
-      </c>
-      <c r="C364">
-        <v>0</v>
-      </c>
-      <c r="D364" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A365" t="s">
-        <v>281</v>
-      </c>
-      <c r="B365">
-        <v>1</v>
-      </c>
-      <c r="C365">
-        <v>1</v>
-      </c>
-      <c r="D365" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>281</v>
       </c>
-      <c r="B366">
-        <v>2</v>
-      </c>
-      <c r="C366">
-        <v>2</v>
+      <c r="B366" t="s">
+        <v>592</v>
+      </c>
+      <c r="C366" t="s">
+        <v>592</v>
       </c>
       <c r="D366" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
+        <v>282</v>
+      </c>
+      <c r="E366" t="s">
+        <v>414</v>
+      </c>
+      <c r="F366" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="367" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>281</v>
       </c>
       <c r="B367">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C367">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D367" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>281</v>
       </c>
       <c r="B368">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C368">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D368" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="369" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>288</v>
-      </c>
-      <c r="B369" t="s">
-        <v>592</v>
-      </c>
-      <c r="C369" t="s">
-        <v>592</v>
+        <v>281</v>
+      </c>
+      <c r="B369">
+        <v>2</v>
+      </c>
+      <c r="C369">
+        <v>2</v>
       </c>
       <c r="D369" t="s">
-        <v>289</v>
-      </c>
-      <c r="E369" t="s">
-        <v>414</v>
-      </c>
-      <c r="F369" t="s">
-        <v>465</v>
+        <v>285</v>
       </c>
     </row>
     <row r="370" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="B370">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C370">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D370" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="371" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="B371">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C371">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D371" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="372" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>288</v>
       </c>
-      <c r="B372">
-        <v>2</v>
-      </c>
-      <c r="C372">
-        <v>2</v>
+      <c r="B372" t="s">
+        <v>592</v>
+      </c>
+      <c r="C372" t="s">
+        <v>592</v>
       </c>
       <c r="D372" t="s">
-        <v>292</v>
+        <v>289</v>
+      </c>
+      <c r="E372" t="s">
+        <v>414</v>
+      </c>
+      <c r="F372" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="373" spans="1:9" x14ac:dyDescent="0.3">
@@ -8524,64 +8560,55 @@
         <v>288</v>
       </c>
       <c r="B373">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C373">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D373" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="374" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>294</v>
-      </c>
-      <c r="B374" t="s">
-        <v>592</v>
-      </c>
-      <c r="C374" t="s">
-        <v>592</v>
+        <v>288</v>
+      </c>
+      <c r="B374">
+        <v>1</v>
+      </c>
+      <c r="C374">
+        <v>1</v>
       </c>
       <c r="D374" t="s">
-        <v>295</v>
-      </c>
-      <c r="E374" t="s">
-        <v>405</v>
-      </c>
-      <c r="F374" t="s">
-        <v>465</v>
-      </c>
-      <c r="I374" t="s">
-        <v>465</v>
+        <v>291</v>
       </c>
     </row>
     <row r="375" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>294</v>
-      </c>
-      <c r="B375" t="s">
-        <v>65</v>
-      </c>
-      <c r="C375" t="s">
-        <v>65</v>
+        <v>288</v>
+      </c>
+      <c r="B375">
+        <v>2</v>
+      </c>
+      <c r="C375">
+        <v>2</v>
       </c>
       <c r="D375" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="376" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>294</v>
-      </c>
-      <c r="B376" t="s">
-        <v>66</v>
-      </c>
-      <c r="C376" t="s">
-        <v>66</v>
+        <v>288</v>
+      </c>
+      <c r="B376">
+        <v>3</v>
+      </c>
+      <c r="C376">
+        <v>3</v>
       </c>
       <c r="D376" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="377" spans="1:9" x14ac:dyDescent="0.3">
@@ -8589,13 +8616,22 @@
         <v>294</v>
       </c>
       <c r="B377" t="s">
-        <v>107</v>
+        <v>592</v>
       </c>
       <c r="C377" t="s">
-        <v>107</v>
+        <v>592</v>
       </c>
       <c r="D377" t="s">
-        <v>298</v>
+        <v>295</v>
+      </c>
+      <c r="E377" t="s">
+        <v>405</v>
+      </c>
+      <c r="F377" t="s">
+        <v>465</v>
+      </c>
+      <c r="I377" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="378" spans="1:9" x14ac:dyDescent="0.3">
@@ -8603,75 +8639,75 @@
         <v>294</v>
       </c>
       <c r="B378" t="s">
-        <v>299</v>
+        <v>65</v>
       </c>
       <c r="C378" t="s">
-        <v>299</v>
+        <v>65</v>
       </c>
       <c r="D378" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="379" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="B379" t="s">
-        <v>592</v>
+        <v>66</v>
       </c>
       <c r="C379" t="s">
-        <v>592</v>
+        <v>66</v>
       </c>
       <c r="D379" t="s">
-        <v>302</v>
-      </c>
-      <c r="E379" t="s">
-        <v>414</v>
-      </c>
-      <c r="F379" t="s">
-        <v>465</v>
+        <v>297</v>
       </c>
     </row>
     <row r="380" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>301</v>
-      </c>
-      <c r="B380">
-        <v>0</v>
-      </c>
-      <c r="C380">
-        <v>0</v>
+        <v>294</v>
+      </c>
+      <c r="B380" t="s">
+        <v>107</v>
+      </c>
+      <c r="C380" t="s">
+        <v>107</v>
       </c>
       <c r="D380" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="381" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>301</v>
-      </c>
-      <c r="B381">
-        <v>1</v>
-      </c>
-      <c r="C381">
-        <v>1</v>
+        <v>294</v>
+      </c>
+      <c r="B381" t="s">
+        <v>299</v>
+      </c>
+      <c r="C381" t="s">
+        <v>299</v>
       </c>
       <c r="D381" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="382" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>301</v>
       </c>
-      <c r="B382">
-        <v>2</v>
-      </c>
-      <c r="C382">
-        <v>2</v>
+      <c r="B382" t="s">
+        <v>592</v>
+      </c>
+      <c r="C382" t="s">
+        <v>592</v>
       </c>
       <c r="D382" t="s">
-        <v>304</v>
+        <v>302</v>
+      </c>
+      <c r="E382" t="s">
+        <v>414</v>
+      </c>
+      <c r="F382" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="383" spans="1:9" x14ac:dyDescent="0.3">
@@ -8679,13 +8715,13 @@
         <v>301</v>
       </c>
       <c r="B383">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C383">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D383" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
     </row>
     <row r="384" spans="1:9" x14ac:dyDescent="0.3">
@@ -8693,13 +8729,13 @@
         <v>301</v>
       </c>
       <c r="B384">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C384">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D384" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.3">
@@ -8707,75 +8743,75 @@
         <v>301</v>
       </c>
       <c r="B385">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C385">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D385" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>308</v>
-      </c>
-      <c r="B386" t="s">
-        <v>592</v>
-      </c>
-      <c r="C386" t="s">
-        <v>592</v>
+        <v>301</v>
+      </c>
+      <c r="B386">
+        <v>3</v>
+      </c>
+      <c r="C386">
+        <v>3</v>
       </c>
       <c r="D386" t="s">
-        <v>309</v>
-      </c>
-      <c r="E386" t="s">
-        <v>414</v>
-      </c>
-      <c r="F386" t="s">
-        <v>465</v>
+        <v>305</v>
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="B387">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C387">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D387" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="B388">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C388">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D388" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>308</v>
       </c>
-      <c r="B389">
-        <v>2</v>
-      </c>
-      <c r="C389">
-        <v>2</v>
+      <c r="B389" t="s">
+        <v>592</v>
+      </c>
+      <c r="C389" t="s">
+        <v>592</v>
       </c>
       <c r="D389" t="s">
-        <v>312</v>
+        <v>309</v>
+      </c>
+      <c r="E389" t="s">
+        <v>414</v>
+      </c>
+      <c r="F389" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.3">
@@ -8783,75 +8819,75 @@
         <v>308</v>
       </c>
       <c r="B390">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C390">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D390" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>314</v>
-      </c>
-      <c r="B391" t="s">
-        <v>592</v>
-      </c>
-      <c r="C391" t="s">
-        <v>592</v>
+        <v>308</v>
+      </c>
+      <c r="B391">
+        <v>1</v>
+      </c>
+      <c r="C391">
+        <v>1</v>
       </c>
       <c r="D391" t="s">
-        <v>315</v>
-      </c>
-      <c r="E391" t="s">
-        <v>414</v>
-      </c>
-      <c r="F391" t="s">
-        <v>465</v>
+        <v>311</v>
       </c>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B392">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C392">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D392" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B393">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C393">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D393" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>314</v>
       </c>
-      <c r="B394">
-        <v>2</v>
-      </c>
-      <c r="C394">
-        <v>2</v>
+      <c r="B394" t="s">
+        <v>592</v>
+      </c>
+      <c r="C394" t="s">
+        <v>592</v>
       </c>
       <c r="D394" t="s">
-        <v>304</v>
+        <v>315</v>
+      </c>
+      <c r="E394" t="s">
+        <v>414</v>
+      </c>
+      <c r="F394" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.3">
@@ -8859,13 +8895,13 @@
         <v>314</v>
       </c>
       <c r="B395">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C395">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D395" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.3">
@@ -8873,13 +8909,13 @@
         <v>314</v>
       </c>
       <c r="B396">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C396">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D396" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.3">
@@ -8887,75 +8923,75 @@
         <v>314</v>
       </c>
       <c r="B397">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C397">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D397" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="398" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>316</v>
-      </c>
-      <c r="B398" t="s">
-        <v>592</v>
-      </c>
-      <c r="C398" t="s">
-        <v>592</v>
+        <v>314</v>
+      </c>
+      <c r="B398">
+        <v>3</v>
+      </c>
+      <c r="C398">
+        <v>3</v>
       </c>
       <c r="D398" t="s">
-        <v>317</v>
-      </c>
-      <c r="E398" t="s">
-        <v>414</v>
-      </c>
-      <c r="F398" t="s">
-        <v>465</v>
+        <v>305</v>
       </c>
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B399">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C399">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D399" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B400">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C400">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D400" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.3">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="401" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>316</v>
       </c>
-      <c r="B401">
-        <v>2</v>
-      </c>
-      <c r="C401">
-        <v>2</v>
+      <c r="B401" t="s">
+        <v>592</v>
+      </c>
+      <c r="C401" t="s">
+        <v>592</v>
       </c>
       <c r="D401" t="s">
-        <v>460</v>
+        <v>317</v>
+      </c>
+      <c r="E401" t="s">
+        <v>414</v>
+      </c>
+      <c r="F401" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="402" spans="1:9" x14ac:dyDescent="0.3">
@@ -8963,87 +8999,60 @@
         <v>316</v>
       </c>
       <c r="B402">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C402">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D402" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="403" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="403" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>320</v>
-      </c>
-      <c r="B403" t="s">
-        <v>592</v>
-      </c>
-      <c r="C403" t="s">
-        <v>592</v>
+        <v>316</v>
+      </c>
+      <c r="B403">
+        <v>1</v>
+      </c>
+      <c r="C403">
+        <v>1</v>
       </c>
       <c r="D403" t="s">
-        <v>321</v>
-      </c>
-      <c r="E403" t="s">
-        <v>404</v>
-      </c>
-      <c r="F403" t="s">
-        <v>465</v>
-      </c>
-      <c r="I403" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
     </row>
     <row r="404" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>322</v>
-      </c>
-      <c r="B404" t="s">
-        <v>592</v>
-      </c>
-      <c r="C404" t="s">
-        <v>592</v>
+        <v>316</v>
+      </c>
+      <c r="B404">
+        <v>2</v>
+      </c>
+      <c r="C404">
+        <v>2</v>
       </c>
       <c r="D404" t="s">
-        <v>323</v>
-      </c>
-      <c r="E404" t="s">
-        <v>404</v>
-      </c>
-      <c r="F404" t="s">
-        <v>465</v>
-      </c>
-      <c r="I404" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
     <row r="405" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>324</v>
-      </c>
-      <c r="B405" t="s">
-        <v>592</v>
-      </c>
-      <c r="C405" t="s">
-        <v>592</v>
+        <v>316</v>
+      </c>
+      <c r="B405">
+        <v>3</v>
+      </c>
+      <c r="C405">
+        <v>3</v>
       </c>
       <c r="D405" t="s">
-        <v>325</v>
-      </c>
-      <c r="E405" t="s">
-        <v>404</v>
-      </c>
-      <c r="F405" t="s">
-        <v>465</v>
-      </c>
-      <c r="I405" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.3">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="406" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B406" t="s">
         <v>592</v>
@@ -9052,7 +9061,7 @@
         <v>592</v>
       </c>
       <c r="D406" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="E406" t="s">
         <v>404</v>
@@ -9066,7 +9075,7 @@
     </row>
     <row r="407" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B407" t="s">
         <v>592</v>
@@ -9075,7 +9084,7 @@
         <v>592</v>
       </c>
       <c r="D407" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="E407" t="s">
         <v>404</v>
@@ -9089,7 +9098,7 @@
     </row>
     <row r="408" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B408" t="s">
         <v>592</v>
@@ -9098,7 +9107,7 @@
         <v>592</v>
       </c>
       <c r="D408" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="E408" t="s">
         <v>404</v>
@@ -9112,7 +9121,7 @@
     </row>
     <row r="409" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B409" t="s">
         <v>592</v>
@@ -9121,7 +9130,7 @@
         <v>592</v>
       </c>
       <c r="D409" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="E409" t="s">
         <v>404</v>
@@ -9135,7 +9144,7 @@
     </row>
     <row r="410" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="B410" t="s">
         <v>592</v>
@@ -9144,7 +9153,7 @@
         <v>592</v>
       </c>
       <c r="D410" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="E410" t="s">
         <v>404</v>
@@ -9158,7 +9167,7 @@
     </row>
     <row r="411" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="B411" t="s">
         <v>592</v>
@@ -9167,7 +9176,7 @@
         <v>592</v>
       </c>
       <c r="D411" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="E411" t="s">
         <v>404</v>
@@ -9181,7 +9190,7 @@
     </row>
     <row r="412" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B412" t="s">
         <v>592</v>
@@ -9190,7 +9199,7 @@
         <v>592</v>
       </c>
       <c r="D412" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="E412" t="s">
         <v>404</v>
@@ -9204,7 +9213,7 @@
     </row>
     <row r="413" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="B413" t="s">
         <v>592</v>
@@ -9213,7 +9222,7 @@
         <v>592</v>
       </c>
       <c r="D413" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="E413" t="s">
         <v>404</v>
@@ -9227,7 +9236,7 @@
     </row>
     <row r="414" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B414" t="s">
         <v>592</v>
@@ -9236,7 +9245,7 @@
         <v>592</v>
       </c>
       <c r="D414" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="E414" t="s">
         <v>404</v>
@@ -9250,7 +9259,7 @@
     </row>
     <row r="415" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>554</v>
+        <v>338</v>
       </c>
       <c r="B415" t="s">
         <v>592</v>
@@ -9259,10 +9268,10 @@
         <v>592</v>
       </c>
       <c r="D415" t="s">
-        <v>560</v>
+        <v>339</v>
       </c>
       <c r="E415" t="s">
-        <v>443</v>
+        <v>404</v>
       </c>
       <c r="F415" t="s">
         <v>465</v>
@@ -9273,30 +9282,48 @@
     </row>
     <row r="416" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>554</v>
+        <v>340</v>
       </c>
       <c r="B416" t="s">
-        <v>344</v>
+        <v>592</v>
       </c>
       <c r="C416" t="s">
-        <v>344</v>
+        <v>592</v>
       </c>
       <c r="D416" t="s">
-        <v>345</v>
+        <v>341</v>
+      </c>
+      <c r="E416" t="s">
+        <v>404</v>
+      </c>
+      <c r="F416" t="s">
+        <v>465</v>
+      </c>
+      <c r="I416" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="417" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>554</v>
+        <v>342</v>
       </c>
       <c r="B417" t="s">
-        <v>346</v>
+        <v>592</v>
       </c>
       <c r="C417" t="s">
-        <v>346</v>
+        <v>592</v>
       </c>
       <c r="D417" t="s">
-        <v>347</v>
+        <v>343</v>
+      </c>
+      <c r="E417" t="s">
+        <v>404</v>
+      </c>
+      <c r="F417" t="s">
+        <v>465</v>
+      </c>
+      <c r="I417" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="418" spans="1:9" x14ac:dyDescent="0.3">
@@ -9304,13 +9331,22 @@
         <v>554</v>
       </c>
       <c r="B418" t="s">
-        <v>132</v>
+        <v>592</v>
       </c>
       <c r="C418" t="s">
-        <v>132</v>
+        <v>592</v>
       </c>
       <c r="D418" t="s">
-        <v>348</v>
+        <v>560</v>
+      </c>
+      <c r="E418" t="s">
+        <v>443</v>
+      </c>
+      <c r="F418" t="s">
+        <v>465</v>
+      </c>
+      <c r="I418" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="419" spans="1:9" x14ac:dyDescent="0.3">
@@ -9318,13 +9354,13 @@
         <v>554</v>
       </c>
       <c r="B419" t="s">
-        <v>66</v>
+        <v>344</v>
       </c>
       <c r="C419" t="s">
-        <v>66</v>
+        <v>344</v>
       </c>
       <c r="D419" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="420" spans="1:9" x14ac:dyDescent="0.3">
@@ -9332,13 +9368,13 @@
         <v>554</v>
       </c>
       <c r="B420" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C420" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D420" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="421" spans="1:9" x14ac:dyDescent="0.3">
@@ -9346,13 +9382,13 @@
         <v>554</v>
       </c>
       <c r="B421" t="s">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="C421" t="s">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="D421" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="422" spans="1:9" x14ac:dyDescent="0.3">
@@ -9360,13 +9396,13 @@
         <v>554</v>
       </c>
       <c r="B422" t="s">
-        <v>353</v>
+        <v>66</v>
       </c>
       <c r="C422" t="s">
-        <v>353</v>
+        <v>66</v>
       </c>
       <c r="D422" t="s">
-        <v>452</v>
+        <v>349</v>
       </c>
     </row>
     <row r="423" spans="1:9" x14ac:dyDescent="0.3">
@@ -9374,13 +9410,13 @@
         <v>554</v>
       </c>
       <c r="B423" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C423" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="D423" t="s">
-        <v>453</v>
+        <v>351</v>
       </c>
     </row>
     <row r="424" spans="1:9" x14ac:dyDescent="0.3">
@@ -9388,13 +9424,13 @@
         <v>554</v>
       </c>
       <c r="B424" t="s">
-        <v>355</v>
+        <v>80</v>
       </c>
       <c r="C424" t="s">
-        <v>355</v>
+        <v>80</v>
       </c>
       <c r="D424" t="s">
-        <v>454</v>
+        <v>352</v>
       </c>
     </row>
     <row r="425" spans="1:9" x14ac:dyDescent="0.3">
@@ -9402,13 +9438,13 @@
         <v>554</v>
       </c>
       <c r="B425" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C425" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D425" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="426" spans="1:9" x14ac:dyDescent="0.3">
@@ -9416,13 +9452,13 @@
         <v>554</v>
       </c>
       <c r="B426" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C426" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D426" t="s">
-        <v>358</v>
+        <v>453</v>
       </c>
     </row>
     <row r="427" spans="1:9" x14ac:dyDescent="0.3">
@@ -9430,194 +9466,185 @@
         <v>554</v>
       </c>
       <c r="B427" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C427" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D427" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="428" spans="1:9" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="428" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>360</v>
+        <v>554</v>
       </c>
       <c r="B428" t="s">
-        <v>592</v>
+        <v>356</v>
       </c>
       <c r="C428" t="s">
-        <v>592</v>
+        <v>356</v>
       </c>
       <c r="D428" t="s">
-        <v>361</v>
-      </c>
-      <c r="E428" t="s">
-        <v>443</v>
-      </c>
-      <c r="F428" t="s">
-        <v>465</v>
-      </c>
-      <c r="I428" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="429" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="429" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>360</v>
+        <v>554</v>
       </c>
       <c r="B429" t="s">
-        <v>119</v>
+        <v>357</v>
       </c>
       <c r="C429" t="s">
-        <v>119</v>
+        <v>357</v>
       </c>
       <c r="D429" t="s">
-        <v>120</v>
+        <v>358</v>
       </c>
     </row>
     <row r="430" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>360</v>
+        <v>554</v>
       </c>
       <c r="B430" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C430" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="D430" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.3">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="431" spans="1:9" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>360</v>
       </c>
       <c r="B431" t="s">
-        <v>365</v>
+        <v>592</v>
       </c>
       <c r="C431" t="s">
-        <v>365</v>
+        <v>592</v>
       </c>
       <c r="D431" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="432" spans="1:9" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>361</v>
+      </c>
+      <c r="E431" t="s">
+        <v>443</v>
+      </c>
+      <c r="F431" t="s">
+        <v>465</v>
+      </c>
+      <c r="I431" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="432" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B432" t="s">
-        <v>592</v>
+        <v>119</v>
       </c>
       <c r="C432" t="s">
-        <v>592</v>
+        <v>119</v>
       </c>
       <c r="D432" t="s">
-        <v>363</v>
-      </c>
-      <c r="E432" t="s">
-        <v>443</v>
-      </c>
-      <c r="F432" t="s">
-        <v>465</v>
-      </c>
-      <c r="I432" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="433" spans="1:9" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="433" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B433" t="s">
-        <v>119</v>
+        <v>364</v>
       </c>
       <c r="C433" t="s">
-        <v>119</v>
+        <v>364</v>
       </c>
       <c r="D433" t="s">
-        <v>120</v>
+        <v>457</v>
       </c>
     </row>
     <row r="434" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B434" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C434" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D434" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.3">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="435" spans="1:9" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>362</v>
       </c>
       <c r="B435" t="s">
-        <v>365</v>
+        <v>592</v>
       </c>
       <c r="C435" t="s">
-        <v>365</v>
+        <v>592</v>
       </c>
       <c r="D435" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.3">
+        <v>363</v>
+      </c>
+      <c r="E435" t="s">
+        <v>443</v>
+      </c>
+      <c r="F435" t="s">
+        <v>465</v>
+      </c>
+      <c r="I435" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="436" spans="1:9" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B436" t="s">
-        <v>592</v>
+        <v>119</v>
       </c>
       <c r="C436" t="s">
-        <v>592</v>
+        <v>119</v>
       </c>
       <c r="D436" t="s">
-        <v>367</v>
-      </c>
-      <c r="E436" t="s">
-        <v>443</v>
-      </c>
-      <c r="F436" t="s">
-        <v>465</v>
-      </c>
-      <c r="I436" t="s">
-        <v>465</v>
+        <v>120</v>
       </c>
     </row>
     <row r="437" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B437" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="C437" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="D437" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
     </row>
     <row r="438" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B438" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="C438" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="D438" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
     </row>
     <row r="439" spans="1:9" x14ac:dyDescent="0.3">
@@ -9625,13 +9652,22 @@
         <v>366</v>
       </c>
       <c r="B439" t="s">
-        <v>372</v>
+        <v>592</v>
       </c>
       <c r="C439" t="s">
-        <v>372</v>
+        <v>592</v>
       </c>
       <c r="D439" t="s">
-        <v>587</v>
+        <v>367</v>
+      </c>
+      <c r="E439" t="s">
+        <v>443</v>
+      </c>
+      <c r="F439" t="s">
+        <v>465</v>
+      </c>
+      <c r="I439" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="440" spans="1:9" x14ac:dyDescent="0.3">
@@ -9639,13 +9675,13 @@
         <v>366</v>
       </c>
       <c r="B440" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C440" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D440" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="441" spans="1:9" x14ac:dyDescent="0.3">
@@ -9653,64 +9689,55 @@
         <v>366</v>
       </c>
       <c r="B441" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C441" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D441" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="442" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B442" t="s">
-        <v>592</v>
+        <v>372</v>
       </c>
       <c r="C442" t="s">
-        <v>592</v>
+        <v>372</v>
       </c>
       <c r="D442" t="s">
-        <v>369</v>
-      </c>
-      <c r="E442" t="s">
-        <v>443</v>
-      </c>
-      <c r="F442" t="s">
-        <v>465</v>
-      </c>
-      <c r="I442" t="s">
-        <v>465</v>
+        <v>587</v>
       </c>
     </row>
     <row r="443" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B443" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="C443" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="D443" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
     </row>
     <row r="444" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B444" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C444" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="D444" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
     </row>
     <row r="445" spans="1:9" x14ac:dyDescent="0.3">
@@ -9718,13 +9745,22 @@
         <v>368</v>
       </c>
       <c r="B445" t="s">
-        <v>372</v>
+        <v>592</v>
       </c>
       <c r="C445" t="s">
-        <v>372</v>
+        <v>592</v>
       </c>
       <c r="D445" t="s">
-        <v>587</v>
+        <v>369</v>
+      </c>
+      <c r="E445" t="s">
+        <v>443</v>
+      </c>
+      <c r="F445" t="s">
+        <v>465</v>
+      </c>
+      <c r="I445" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="446" spans="1:9" x14ac:dyDescent="0.3">
@@ -9732,13 +9768,13 @@
         <v>368</v>
       </c>
       <c r="B446" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C446" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D446" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="447" spans="1:9" x14ac:dyDescent="0.3">
@@ -9746,84 +9782,60 @@
         <v>368</v>
       </c>
       <c r="B447" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C447" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D447" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="448" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="B448" t="s">
-        <v>592</v>
+        <v>372</v>
       </c>
       <c r="C448" t="s">
-        <v>592</v>
+        <v>372</v>
       </c>
       <c r="D448" t="s">
-        <v>376</v>
-      </c>
-      <c r="E448" t="s">
-        <v>443</v>
-      </c>
-      <c r="F448" t="s">
-        <v>465</v>
-      </c>
-      <c r="I448" t="s">
-        <v>465</v>
+        <v>587</v>
       </c>
     </row>
     <row r="449" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="B449" t="s">
-        <v>592</v>
+        <v>373</v>
       </c>
       <c r="C449" t="s">
-        <v>592</v>
+        <v>373</v>
       </c>
       <c r="D449" t="s">
-        <v>378</v>
-      </c>
-      <c r="E449" t="s">
-        <v>443</v>
-      </c>
-      <c r="F449" t="s">
-        <v>465</v>
-      </c>
-      <c r="I449" t="s">
-        <v>465</v>
+        <v>588</v>
       </c>
     </row>
     <row r="450" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="B450" t="s">
-        <v>592</v>
+        <v>374</v>
       </c>
       <c r="C450" t="s">
-        <v>592</v>
+        <v>374</v>
       </c>
       <c r="D450" t="s">
-        <v>558</v>
-      </c>
-      <c r="E450" t="s">
-        <v>443</v>
-      </c>
-      <c r="F450" t="s">
-        <v>465</v>
+        <v>589</v>
       </c>
     </row>
     <row r="451" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="B451" t="s">
         <v>592</v>
@@ -9832,7 +9844,7 @@
         <v>592</v>
       </c>
       <c r="D451" t="s">
-        <v>559</v>
+        <v>376</v>
       </c>
       <c r="E451" t="s">
         <v>443</v>
@@ -9840,10 +9852,13 @@
       <c r="F451" t="s">
         <v>465</v>
       </c>
+      <c r="I451" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="452" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B452" t="s">
         <v>592</v>
@@ -9852,21 +9867,21 @@
         <v>592</v>
       </c>
       <c r="D452" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="E452" t="s">
-        <v>427</v>
+        <v>443</v>
       </c>
       <c r="F452" t="s">
         <v>465</v>
       </c>
-      <c r="G452" t="s">
-        <v>445</v>
+      <c r="I452" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="453" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B453" t="s">
         <v>592</v>
@@ -9875,21 +9890,18 @@
         <v>592</v>
       </c>
       <c r="D453" t="s">
-        <v>384</v>
+        <v>558</v>
       </c>
       <c r="E453" t="s">
-        <v>427</v>
+        <v>443</v>
       </c>
       <c r="F453" t="s">
         <v>465</v>
-      </c>
-      <c r="G453" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="454" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="B454" t="s">
         <v>592</v>
@@ -9898,7 +9910,7 @@
         <v>592</v>
       </c>
       <c r="D454" t="s">
-        <v>386</v>
+        <v>559</v>
       </c>
       <c r="E454" t="s">
         <v>443</v>
@@ -9906,13 +9918,10 @@
       <c r="F454" t="s">
         <v>465</v>
       </c>
-      <c r="I454" t="s">
-        <v>465</v>
-      </c>
     </row>
     <row r="455" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="B455" t="s">
         <v>592</v>
@@ -9921,21 +9930,21 @@
         <v>592</v>
       </c>
       <c r="D455" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="E455" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="F455" t="s">
         <v>465</v>
       </c>
-      <c r="I455" t="s">
-        <v>465</v>
+      <c r="G455" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="456" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="B456" t="s">
         <v>592</v>
@@ -9944,7 +9953,7 @@
         <v>592</v>
       </c>
       <c r="D456" t="s">
-        <v>556</v>
+        <v>384</v>
       </c>
       <c r="E456" t="s">
         <v>427</v>
@@ -9953,12 +9962,12 @@
         <v>465</v>
       </c>
       <c r="G456" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="457" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="B457" t="s">
         <v>592</v>
@@ -9967,10 +9976,10 @@
         <v>592</v>
       </c>
       <c r="D457" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="E457" t="s">
-        <v>404</v>
+        <v>443</v>
       </c>
       <c r="F457" t="s">
         <v>465</v>
@@ -9981,7 +9990,7 @@
     </row>
     <row r="458" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
-        <v>0</v>
+        <v>387</v>
       </c>
       <c r="B458" t="s">
         <v>592</v>
@@ -9990,7 +9999,7 @@
         <v>592</v>
       </c>
       <c r="D458" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="E458" t="s">
         <v>443</v>
@@ -9998,9 +10007,78 @@
       <c r="F458" t="s">
         <v>465</v>
       </c>
+      <c r="I458" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="459" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A459" t="s">
+        <v>389</v>
+      </c>
+      <c r="B459" t="s">
+        <v>592</v>
+      </c>
+      <c r="C459" t="s">
+        <v>592</v>
+      </c>
+      <c r="D459" t="s">
+        <v>556</v>
+      </c>
+      <c r="E459" t="s">
+        <v>427</v>
+      </c>
+      <c r="F459" t="s">
+        <v>465</v>
+      </c>
+      <c r="G459" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="460" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A460" t="s">
+        <v>390</v>
+      </c>
+      <c r="B460" t="s">
+        <v>592</v>
+      </c>
+      <c r="C460" t="s">
+        <v>592</v>
+      </c>
+      <c r="D460" t="s">
+        <v>391</v>
+      </c>
+      <c r="E460" t="s">
+        <v>404</v>
+      </c>
+      <c r="F460" t="s">
+        <v>465</v>
+      </c>
+      <c r="I460" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="461" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A461" t="s">
+        <v>0</v>
+      </c>
+      <c r="B461" t="s">
+        <v>592</v>
+      </c>
+      <c r="C461" t="s">
+        <v>592</v>
+      </c>
+      <c r="D461" t="s">
+        <v>392</v>
+      </c>
+      <c r="E461" t="s">
+        <v>443</v>
+      </c>
+      <c r="F461" t="s">
+        <v>465</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O458">
+  <autoFilter ref="A1:O461">
     <sortState ref="A2:Q587">
       <sortCondition ref="F1:F587"/>
     </sortState>
@@ -10019,7 +10097,7 @@
           <x14:formula1>
             <xm:f>validation_values!$B$1:$B$2</xm:f>
           </x14:formula1>
-          <xm:sqref>I2:I1048576 F2:F1048576</xm:sqref>
+          <xm:sqref>F2:F1048576 I2:I1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -10260,18 +10338,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10484,6 +10562,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F5B82C4-8D32-4858-AE49-B9F718EB1758}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8450404-B5A9-4CAE-AD2F-E650514D4870}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -10496,14 +10582,6 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F5B82C4-8D32-4858-AE49-B9F718EB1758}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/inst/extdata/e.g.dictionary.xlsx
+++ b/inst/extdata/e.g.dictionary.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hvincelette\Documents\GitHub\mdJSONdictio\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://doimspp-my.sharepoint.com/personal/hannah_vincelette_fws_gov/Documents/Documents/GitHub/mdJSONdictio/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_04E4F54F1DA4DB28AC54EC957D8A2657997F6570" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BAA4FDF0-5287-49DF-AE7B-B7728D564F82}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="504" windowWidth="21324" windowHeight="10620" tabRatio="747"/>
+    <workbookView xWindow="1455" yWindow="1770" windowWidth="23745" windowHeight="12675" tabRatio="747" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_dictionary" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2042" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1887" uniqueCount="602">
   <si>
     <t>Notes</t>
   </si>
@@ -1420,12 +1421,6 @@
     <t>Estimated cover of body feathers on the captured bird; percent formatted as a decimal</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>Country</t>
   </si>
   <si>
@@ -1829,12 +1824,18 @@
   </si>
   <si>
     <t>Date1</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>FALSE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2659,26 +2660,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N461"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A269" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomLeft" activeCell="D262" sqref="D262"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="30.77734375" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
     <col min="9" max="9" width="9" customWidth="1"/>
-    <col min="10" max="11" width="15.33203125" customWidth="1"/>
-    <col min="14" max="14" width="21.6640625" customWidth="1"/>
+    <col min="10" max="11" width="15.28515625" customWidth="1"/>
+    <col min="14" max="14" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>393</v>
       </c>
@@ -2707,10 +2708,10 @@
         <v>442</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>439</v>
@@ -2722,15 +2723,15 @@
         <v>397</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C2" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -2738,14 +2739,14 @@
       <c r="E2" t="s">
         <v>405</v>
       </c>
-      <c r="F2" t="s">
-        <v>466</v>
-      </c>
-      <c r="I2" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2759,7 +2760,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2773,15 +2774,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C5" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -2789,22 +2790,22 @@
       <c r="E5" t="s">
         <v>414</v>
       </c>
-      <c r="F5" t="s">
-        <v>466</v>
+      <c r="F5" t="b">
+        <v>0</v>
       </c>
       <c r="J5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C6" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -2812,22 +2813,22 @@
       <c r="E6" t="s">
         <v>414</v>
       </c>
-      <c r="F6" t="s">
-        <v>466</v>
+      <c r="F6" t="b">
+        <v>0</v>
       </c>
       <c r="J6">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C7" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
@@ -2835,22 +2836,22 @@
       <c r="E7" t="s">
         <v>436</v>
       </c>
-      <c r="F7" t="s">
-        <v>465</v>
+      <c r="F7" t="b">
+        <v>1</v>
       </c>
       <c r="J7">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C8" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D8" t="s">
         <v>462</v>
@@ -2858,8 +2859,8 @@
       <c r="E8" t="s">
         <v>414</v>
       </c>
-      <c r="F8" t="s">
-        <v>465</v>
+      <c r="F8" t="b">
+        <v>1</v>
       </c>
       <c r="J8">
         <v>2</v>
@@ -2871,15 +2872,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C9" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
@@ -2887,8 +2888,8 @@
       <c r="E9" t="s">
         <v>414</v>
       </c>
-      <c r="F9" t="s">
-        <v>465</v>
+      <c r="F9" t="b">
+        <v>1</v>
       </c>
       <c r="L9">
         <v>10</v>
@@ -2897,75 +2898,75 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B10" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C10" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D10" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E10" t="s">
         <v>408</v>
       </c>
-      <c r="F10" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>594</v>
+      </c>
+      <c r="B11" t="s">
+        <v>590</v>
+      </c>
+      <c r="C11" t="s">
+        <v>590</v>
+      </c>
+      <c r="D11" t="s">
         <v>596</v>
-      </c>
-      <c r="B11" t="s">
-        <v>592</v>
-      </c>
-      <c r="C11" t="s">
-        <v>592</v>
-      </c>
-      <c r="D11" t="s">
-        <v>598</v>
       </c>
       <c r="E11" t="s">
         <v>409</v>
       </c>
-      <c r="F11" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B12" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C12" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D12" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E12" t="s">
         <v>409</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>467</v>
-      </c>
       <c r="B13" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C13" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D13" t="s">
         <v>19</v>
@@ -2973,22 +2974,22 @@
       <c r="E13" t="s">
         <v>443</v>
       </c>
-      <c r="F13" t="s">
-        <v>465</v>
-      </c>
-      <c r="I13" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F13" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B14" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C14" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -2996,16 +2997,16 @@
       <c r="E14" t="s">
         <v>443</v>
       </c>
-      <c r="F14" t="s">
-        <v>465</v>
-      </c>
-      <c r="I14" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F14" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B15" t="s">
         <v>21</v>
@@ -3017,9 +3018,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B16" t="s">
         <v>23</v>
@@ -3031,9 +3032,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B17" t="s">
         <v>25</v>
@@ -3045,9 +3046,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B18" t="s">
         <v>27</v>
@@ -3059,9 +3060,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -3073,15 +3074,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B20" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C20" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D20" t="s">
         <v>31</v>
@@ -3089,16 +3090,16 @@
       <c r="E20" t="s">
         <v>443</v>
       </c>
-      <c r="F20" t="s">
-        <v>465</v>
-      </c>
-      <c r="I20" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F20" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B21" t="s">
         <v>32</v>
@@ -3110,9 +3111,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B22" t="s">
         <v>34</v>
@@ -3124,9 +3125,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B23" t="s">
         <v>36</v>
@@ -3138,9 +3139,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B24" t="s">
         <v>38</v>
@@ -3152,9 +3153,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B25" t="s">
         <v>40</v>
@@ -3166,9 +3167,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B26" t="s">
         <v>42</v>
@@ -3180,15 +3181,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B27" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C27" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D27" t="s">
         <v>44</v>
@@ -3196,16 +3197,16 @@
       <c r="E27" t="s">
         <v>443</v>
       </c>
-      <c r="F27" t="s">
-        <v>465</v>
-      </c>
-      <c r="I27" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F27" t="b">
+        <v>1</v>
+      </c>
+      <c r="I27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B28" t="s">
         <v>1</v>
@@ -3214,12 +3215,12 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B29" t="s">
         <v>2</v>
@@ -3231,9 +3232,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B30" t="s">
         <v>45</v>
@@ -3245,9 +3246,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B31" t="s">
         <v>47</v>
@@ -3259,9 +3260,9 @@
         <v>451</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B32" t="s">
         <v>48</v>
@@ -3273,9 +3274,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B33" t="s">
         <v>50</v>
@@ -3287,9 +3288,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B34" t="s">
         <v>52</v>
@@ -3301,9 +3302,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B35" t="s">
         <v>54</v>
@@ -3315,9 +3316,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B36" t="s">
         <v>56</v>
@@ -3329,9 +3330,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B37" t="s">
         <v>58</v>
@@ -3340,32 +3341,32 @@
         <v>58</v>
       </c>
       <c r="D37" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B38" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C38" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D38" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>59</v>
       </c>
       <c r="B39" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C39" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D39" t="s">
         <v>461</v>
@@ -3373,22 +3374,22 @@
       <c r="E39" t="s">
         <v>443</v>
       </c>
-      <c r="F39" t="s">
-        <v>465</v>
-      </c>
-      <c r="I39" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F39" t="b">
+        <v>1</v>
+      </c>
+      <c r="I39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>60</v>
       </c>
       <c r="B40" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C40" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D40" t="s">
         <v>463</v>
@@ -3396,22 +3397,22 @@
       <c r="E40" t="s">
         <v>443</v>
       </c>
-      <c r="F40" t="s">
-        <v>465</v>
-      </c>
-      <c r="I40" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F40" t="b">
+        <v>1</v>
+      </c>
+      <c r="I40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>61</v>
       </c>
       <c r="B41" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C41" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D41" t="s">
         <v>62</v>
@@ -3419,22 +3420,22 @@
       <c r="E41" t="s">
         <v>427</v>
       </c>
-      <c r="F41" t="s">
-        <v>465</v>
+      <c r="F41" t="b">
+        <v>1</v>
       </c>
       <c r="G41" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>63</v>
       </c>
       <c r="B42" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C42" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D42" t="s">
         <v>64</v>
@@ -3442,68 +3443,68 @@
       <c r="E42" t="s">
         <v>427</v>
       </c>
-      <c r="F42" t="s">
-        <v>465</v>
+      <c r="F42" t="b">
+        <v>1</v>
       </c>
       <c r="G42" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>67</v>
       </c>
       <c r="B43" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C43" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D43" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E43" t="s">
         <v>443</v>
       </c>
-      <c r="F43" t="s">
-        <v>465</v>
-      </c>
-      <c r="I43" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F43" t="b">
+        <v>1</v>
+      </c>
+      <c r="I43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>68</v>
       </c>
       <c r="B44" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C44" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D44" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="E44" t="s">
         <v>443</v>
       </c>
-      <c r="F44" t="s">
-        <v>465</v>
-      </c>
-      <c r="I44" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F44" t="b">
+        <v>1</v>
+      </c>
+      <c r="I44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>69</v>
       </c>
       <c r="B45" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C45" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D45" t="s">
         <v>70</v>
@@ -3511,19 +3512,19 @@
       <c r="E45" t="s">
         <v>431</v>
       </c>
-      <c r="F45" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>71</v>
       </c>
       <c r="B46" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C46" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D46" t="s">
         <v>72</v>
@@ -3531,36 +3532,36 @@
       <c r="E46" t="s">
         <v>431</v>
       </c>
-      <c r="F46" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F46" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B47" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C47" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D47" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E47" t="s">
         <v>405</v>
       </c>
-      <c r="F47" t="s">
-        <v>465</v>
-      </c>
-      <c r="I47" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F47" t="b">
+        <v>1</v>
+      </c>
+      <c r="I47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -3572,9 +3573,9 @@
         <v>73</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B49">
         <v>4</v>
@@ -3586,9 +3587,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B50">
         <v>5</v>
@@ -3600,9 +3601,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B51">
         <v>6</v>
@@ -3614,9 +3615,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B52">
         <v>8</v>
@@ -3628,9 +3629,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B53">
         <v>9</v>
@@ -3642,9 +3643,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B54" t="s">
         <v>78</v>
@@ -3656,9 +3657,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B55" t="s">
         <v>80</v>
@@ -3670,23 +3671,23 @@
         <v>81</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B56" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C56" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D56" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B57" t="s">
         <v>66</v>
@@ -3695,49 +3696,49 @@
         <v>66</v>
       </c>
       <c r="D57" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B58" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C58" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D58" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B59" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C59" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D59" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="E59" t="s">
         <v>443</v>
       </c>
-      <c r="F59" t="s">
-        <v>466</v>
+      <c r="F59" t="b">
+        <v>0</v>
       </c>
       <c r="K59" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B60" t="s">
         <v>82</v>
@@ -3749,9 +3750,9 @@
         <v>83</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B61" t="s">
         <v>84</v>
@@ -3763,9 +3764,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B62">
         <v>300</v>
@@ -3777,9 +3778,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B63">
         <v>301</v>
@@ -3791,9 +3792,9 @@
         <v>87</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B64">
         <v>310</v>
@@ -3805,9 +3806,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B65">
         <v>315</v>
@@ -3819,9 +3820,9 @@
         <v>89</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B66">
         <v>317</v>
@@ -3833,9 +3834,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B67">
         <v>318</v>
@@ -3847,9 +3848,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B68">
         <v>319</v>
@@ -3861,9 +3862,9 @@
         <v>92</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B69">
         <v>325</v>
@@ -3875,9 +3876,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B70">
         <v>333</v>
@@ -3889,9 +3890,9 @@
         <v>94</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B71">
         <v>334</v>
@@ -3903,9 +3904,9 @@
         <v>94</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B72">
         <v>380</v>
@@ -3917,9 +3918,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B73">
         <v>381</v>
@@ -3931,9 +3932,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B74">
         <v>389</v>
@@ -3945,9 +3946,9 @@
         <v>97</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B75">
         <v>390</v>
@@ -3959,207 +3960,207 @@
         <v>98</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B76" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C76" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D76" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E76" t="s">
         <v>414</v>
       </c>
-      <c r="F76" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F76" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B77" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>542</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>542</v>
+      </c>
+      <c r="B79" s="4" t="s">
         <v>524</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="C79" s="4" t="s">
         <v>524</v>
       </c>
-      <c r="D77" s="5" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>544</v>
-      </c>
-      <c r="B78" s="4" t="s">
+      <c r="D79" s="5" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>542</v>
+      </c>
+      <c r="B80" s="4" t="s">
         <v>525</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="C80" s="4" t="s">
         <v>525</v>
       </c>
-      <c r="D78" s="5" t="s">
+      <c r="D80" s="5" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>544</v>
-      </c>
-      <c r="B79" s="4" t="s">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>542</v>
+      </c>
+      <c r="B81" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="C81" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="D79" s="5" t="s">
+      <c r="D81" s="5" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>544</v>
-      </c>
-      <c r="B80" s="4" t="s">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>542</v>
+      </c>
+      <c r="B82" s="4" t="s">
         <v>527</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="C82" s="4" t="s">
         <v>527</v>
       </c>
-      <c r="D80" s="5" t="s">
+      <c r="D82" s="5" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>542</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="D83" s="5" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>544</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>528</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>528</v>
-      </c>
-      <c r="D81" s="5" t="s">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>542</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="D84" s="5" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>544</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>529</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>529</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>544</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>530</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>530</v>
-      </c>
-      <c r="D83" s="5" t="s">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>542</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="D85" s="5" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>544</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="D84" s="5" t="s">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>542</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="D86" s="5" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>544</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>522</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>522</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>544</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>523</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>523</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>99</v>
       </c>
       <c r="B87" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C87" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D87" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E87" t="s">
         <v>443</v>
       </c>
-      <c r="F87" t="s">
-        <v>465</v>
-      </c>
-      <c r="I87" t="s">
-        <v>465</v>
+      <c r="F87" t="b">
+        <v>1</v>
+      </c>
+      <c r="I87" t="b">
+        <v>1</v>
       </c>
       <c r="K87" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>99</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D88" s="6" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>99</v>
       </c>
@@ -4173,7 +4174,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>99</v>
       </c>
@@ -4187,7 +4188,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
         <v>99</v>
       </c>
@@ -4201,7 +4202,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
         <v>99</v>
       </c>
@@ -4215,7 +4216,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
         <v>99</v>
       </c>
@@ -4229,7 +4230,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>99</v>
       </c>
@@ -4243,7 +4244,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
         <v>99</v>
       </c>
@@ -4257,7 +4258,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
         <v>99</v>
       </c>
@@ -4271,7 +4272,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
         <v>99</v>
       </c>
@@ -4285,7 +4286,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
         <v>99</v>
       </c>
@@ -4299,7 +4300,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
         <v>99</v>
       </c>
@@ -4313,117 +4314,117 @@
         <v>130</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
         <v>99</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D100" s="6" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
         <v>99</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D101" s="6" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
         <v>99</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D102" s="6" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
         <v>99</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D103" s="6" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
         <v>99</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
         <v>100</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E105" t="s">
         <v>443</v>
       </c>
-      <c r="F105" t="s">
-        <v>465</v>
-      </c>
-      <c r="I105" t="s">
-        <v>465</v>
+      <c r="F105" t="b">
+        <v>1</v>
+      </c>
+      <c r="I105" t="b">
+        <v>1</v>
       </c>
       <c r="K105" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
         <v>100</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D106" s="6" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
         <v>100</v>
       </c>
@@ -4437,7 +4438,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
         <v>100</v>
       </c>
@@ -4451,7 +4452,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
         <v>100</v>
       </c>
@@ -4465,7 +4466,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
         <v>100</v>
       </c>
@@ -4479,7 +4480,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
         <v>100</v>
       </c>
@@ -4493,7 +4494,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
         <v>100</v>
       </c>
@@ -4507,7 +4508,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
         <v>100</v>
       </c>
@@ -4521,7 +4522,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
         <v>100</v>
       </c>
@@ -4535,7 +4536,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
         <v>100</v>
       </c>
@@ -4549,7 +4550,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
         <v>100</v>
       </c>
@@ -4563,7 +4564,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
         <v>100</v>
       </c>
@@ -4577,117 +4578,117 @@
         <v>130</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
         <v>100</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D118" s="6" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
         <v>100</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D119" s="6" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
         <v>100</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D120" s="6" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
         <v>100</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D121" s="6" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
         <v>100</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
         <v>101</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="E123" t="s">
         <v>443</v>
       </c>
-      <c r="F123" t="s">
-        <v>465</v>
-      </c>
-      <c r="I123" t="s">
-        <v>465</v>
+      <c r="F123" t="b">
+        <v>1</v>
+      </c>
+      <c r="I123" t="b">
+        <v>1</v>
       </c>
       <c r="K123" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
         <v>101</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D124" s="6" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
         <v>101</v>
       </c>
@@ -4701,7 +4702,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
         <v>101</v>
       </c>
@@ -4715,7 +4716,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
         <v>101</v>
       </c>
@@ -4729,7 +4730,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
         <v>101</v>
       </c>
@@ -4743,7 +4744,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
         <v>101</v>
       </c>
@@ -4757,7 +4758,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
         <v>101</v>
       </c>
@@ -4771,7 +4772,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
         <v>101</v>
       </c>
@@ -4785,7 +4786,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
         <v>101</v>
       </c>
@@ -4799,7 +4800,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
         <v>101</v>
       </c>
@@ -4813,7 +4814,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
         <v>101</v>
       </c>
@@ -4827,7 +4828,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
         <v>101</v>
       </c>
@@ -4841,114 +4842,114 @@
         <v>130</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
         <v>101</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D136" s="6" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
         <v>101</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D137" s="6" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
         <v>101</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D138" s="6" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
         <v>101</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D139" s="6" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
         <v>101</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
         <v>102</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E141" t="s">
         <v>443</v>
       </c>
-      <c r="F141" t="s">
-        <v>465</v>
-      </c>
-      <c r="I141" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F141" t="b">
+        <v>1</v>
+      </c>
+      <c r="I141" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
         <v>102</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D142" s="6" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
         <v>102</v>
       </c>
@@ -4962,7 +4963,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
         <v>102</v>
       </c>
@@ -4976,7 +4977,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
         <v>102</v>
       </c>
@@ -4990,7 +4991,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
         <v>102</v>
       </c>
@@ -5004,7 +5005,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
         <v>102</v>
       </c>
@@ -5018,7 +5019,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
         <v>102</v>
       </c>
@@ -5032,7 +5033,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
         <v>102</v>
       </c>
@@ -5046,7 +5047,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="6" t="s">
         <v>102</v>
       </c>
@@ -5060,7 +5061,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="s">
         <v>102</v>
       </c>
@@ -5074,7 +5075,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="6" t="s">
         <v>102</v>
       </c>
@@ -5088,7 +5089,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="6" t="s">
         <v>102</v>
       </c>
@@ -5102,114 +5103,114 @@
         <v>130</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="6" t="s">
         <v>102</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D154" s="6" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="6" t="s">
         <v>102</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D155" s="6" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="6" t="s">
         <v>102</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D156" s="6" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="6" t="s">
         <v>102</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D157" s="6" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="6" t="s">
         <v>102</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="6" t="s">
         <v>103</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="E159" t="s">
         <v>443</v>
       </c>
-      <c r="F159" t="s">
-        <v>465</v>
-      </c>
-      <c r="I159" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F159" t="b">
+        <v>1</v>
+      </c>
+      <c r="I159" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="6" t="s">
         <v>103</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D160" s="6" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="6" t="s">
         <v>103</v>
       </c>
@@ -5223,7 +5224,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="6" t="s">
         <v>103</v>
       </c>
@@ -5237,7 +5238,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="6" t="s">
         <v>103</v>
       </c>
@@ -5251,7 +5252,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="6" t="s">
         <v>103</v>
       </c>
@@ -5265,7 +5266,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="6" t="s">
         <v>103</v>
       </c>
@@ -5279,7 +5280,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="6" t="s">
         <v>103</v>
       </c>
@@ -5293,7 +5294,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="6" t="s">
         <v>103</v>
       </c>
@@ -5307,7 +5308,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="6" t="s">
         <v>103</v>
       </c>
@@ -5321,7 +5322,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="6" t="s">
         <v>103</v>
       </c>
@@ -5335,7 +5336,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="6" t="s">
         <v>103</v>
       </c>
@@ -5349,7 +5350,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="6" t="s">
         <v>103</v>
       </c>
@@ -5363,114 +5364,114 @@
         <v>130</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="6" t="s">
         <v>103</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D172" s="6" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="6" t="s">
         <v>103</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D173" s="6" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="6" t="s">
         <v>103</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D174" s="6" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="6" t="s">
         <v>103</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D175" s="6" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="6" t="s">
         <v>103</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D176" s="6" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="6" t="s">
         <v>104</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="E177" t="s">
         <v>443</v>
       </c>
-      <c r="F177" t="s">
-        <v>465</v>
-      </c>
-      <c r="I177" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F177" t="b">
+        <v>1</v>
+      </c>
+      <c r="I177" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="6" t="s">
         <v>104</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D178" s="6" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="6" t="s">
         <v>104</v>
       </c>
@@ -5484,7 +5485,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="6" t="s">
         <v>104</v>
       </c>
@@ -5498,7 +5499,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="6" t="s">
         <v>104</v>
       </c>
@@ -5512,7 +5513,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="6" t="s">
         <v>104</v>
       </c>
@@ -5526,7 +5527,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="6" t="s">
         <v>104</v>
       </c>
@@ -5540,7 +5541,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="6" t="s">
         <v>104</v>
       </c>
@@ -5554,7 +5555,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" s="6" t="s">
         <v>104</v>
       </c>
@@ -5568,7 +5569,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="6" t="s">
         <v>104</v>
       </c>
@@ -5582,7 +5583,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" s="6" t="s">
         <v>104</v>
       </c>
@@ -5596,7 +5597,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" s="6" t="s">
         <v>104</v>
       </c>
@@ -5610,7 +5611,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" s="6" t="s">
         <v>104</v>
       </c>
@@ -5624,114 +5625,114 @@
         <v>130</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" s="6" t="s">
         <v>104</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C190" s="6" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D190" s="6" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" s="6" t="s">
         <v>104</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C191" s="6" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D191" s="6" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" s="6" t="s">
         <v>104</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C192" s="6" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D192" s="6" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="6" t="s">
         <v>104</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C193" s="6" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D193" s="6" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" s="6" t="s">
         <v>104</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="6" t="s">
         <v>105</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D195" s="6" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="E195" t="s">
         <v>443</v>
       </c>
-      <c r="F195" t="s">
-        <v>465</v>
-      </c>
-      <c r="I195" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F195" t="b">
+        <v>1</v>
+      </c>
+      <c r="I195" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="6" t="s">
         <v>105</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D196" s="6" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="6" t="s">
         <v>105</v>
       </c>
@@ -5745,7 +5746,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="6" t="s">
         <v>105</v>
       </c>
@@ -5759,7 +5760,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="6" t="s">
         <v>105</v>
       </c>
@@ -5773,7 +5774,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="6" t="s">
         <v>105</v>
       </c>
@@ -5787,7 +5788,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="6" t="s">
         <v>105</v>
       </c>
@@ -5801,7 +5802,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" s="6" t="s">
         <v>105</v>
       </c>
@@ -5815,7 +5816,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" s="6" t="s">
         <v>105</v>
       </c>
@@ -5829,7 +5830,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" s="6" t="s">
         <v>105</v>
       </c>
@@ -5843,7 +5844,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" s="6" t="s">
         <v>105</v>
       </c>
@@ -5857,7 +5858,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="6" t="s">
         <v>105</v>
       </c>
@@ -5871,7 +5872,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="6" t="s">
         <v>105</v>
       </c>
@@ -5885,114 +5886,114 @@
         <v>130</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" s="6" t="s">
         <v>105</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C208" s="6" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D208" s="6" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" s="6" t="s">
         <v>105</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C209" s="6" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D209" s="6" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" s="6" t="s">
         <v>105</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D210" s="6" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" s="6" t="s">
         <v>105</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C211" s="6" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D211" s="6" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" s="6" t="s">
         <v>105</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C212" s="6" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D212" s="6" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="6" t="s">
         <v>106</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C213" s="6" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D213" s="6" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="E213" t="s">
         <v>443</v>
       </c>
-      <c r="F213" t="s">
-        <v>465</v>
-      </c>
-      <c r="I213" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F213" t="b">
+        <v>1</v>
+      </c>
+      <c r="I213" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" s="6" t="s">
         <v>106</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C214" s="6" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D214" s="6" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="6" t="s">
         <v>106</v>
       </c>
@@ -6006,7 +6007,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" s="6" t="s">
         <v>106</v>
       </c>
@@ -6020,7 +6021,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" s="6" t="s">
         <v>106</v>
       </c>
@@ -6034,7 +6035,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" s="6" t="s">
         <v>106</v>
       </c>
@@ -6048,7 +6049,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" s="6" t="s">
         <v>106</v>
       </c>
@@ -6062,7 +6063,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" s="6" t="s">
         <v>106</v>
       </c>
@@ -6076,7 +6077,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="6" t="s">
         <v>106</v>
       </c>
@@ -6090,7 +6091,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="6" t="s">
         <v>106</v>
       </c>
@@ -6104,7 +6105,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="6" t="s">
         <v>106</v>
       </c>
@@ -6118,7 +6119,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" s="6" t="s">
         <v>106</v>
       </c>
@@ -6132,7 +6133,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" s="6" t="s">
         <v>106</v>
       </c>
@@ -6146,85 +6147,85 @@
         <v>130</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" s="6" t="s">
         <v>106</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C226" s="6" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D226" s="6" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" s="6" t="s">
         <v>106</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C227" s="6" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D227" s="6" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" s="6" t="s">
         <v>106</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C228" s="6" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D228" s="6" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" s="6" t="s">
         <v>106</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C229" s="6" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D229" s="6" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" s="6" t="s">
         <v>106</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C230" s="6" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D230" s="6" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" s="6" t="s">
         <v>136</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C231" s="6" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D231" s="6" t="s">
         <v>137</v>
@@ -6232,14 +6233,14 @@
       <c r="E231" t="s">
         <v>443</v>
       </c>
-      <c r="F231" t="s">
-        <v>465</v>
-      </c>
-      <c r="I231" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F231" t="b">
+        <v>1</v>
+      </c>
+      <c r="I231" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" s="6" t="s">
         <v>136</v>
       </c>
@@ -6253,7 +6254,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" s="6" t="s">
         <v>136</v>
       </c>
@@ -6267,43 +6268,43 @@
         <v>142</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" s="6" t="s">
         <v>136</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C234" s="6" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D234" s="6" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" s="6" t="s">
         <v>136</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C235" s="6" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D235" s="6" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" s="6" t="s">
         <v>138</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C236" s="6" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D236" s="6" t="s">
         <v>139</v>
@@ -6311,14 +6312,14 @@
       <c r="E236" t="s">
         <v>443</v>
       </c>
-      <c r="F236" t="s">
-        <v>465</v>
-      </c>
-      <c r="I236" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F236" t="b">
+        <v>1</v>
+      </c>
+      <c r="I236" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" s="6" t="s">
         <v>138</v>
       </c>
@@ -6332,7 +6333,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" s="6" t="s">
         <v>138</v>
       </c>
@@ -6346,43 +6347,43 @@
         <v>142</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" s="6" t="s">
         <v>138</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C239" s="6" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D239" s="6" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" s="6" t="s">
         <v>138</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C240" s="6" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D240" s="6" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>143</v>
       </c>
       <c r="B241" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C241" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D241" t="s">
         <v>144</v>
@@ -6390,22 +6391,22 @@
       <c r="E241" t="s">
         <v>443</v>
       </c>
-      <c r="F241" t="s">
-        <v>465</v>
-      </c>
-      <c r="I241" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F241" t="b">
+        <v>1</v>
+      </c>
+      <c r="I241" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>145</v>
       </c>
       <c r="B242" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C242" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D242" t="s">
         <v>146</v>
@@ -6413,22 +6414,22 @@
       <c r="E242" t="s">
         <v>443</v>
       </c>
-      <c r="F242" t="s">
-        <v>465</v>
-      </c>
-      <c r="I242" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F242" t="b">
+        <v>1</v>
+      </c>
+      <c r="I242" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>147</v>
       </c>
       <c r="B243" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C243" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D243" t="s">
         <v>148</v>
@@ -6436,45 +6437,45 @@
       <c r="E243" t="s">
         <v>443</v>
       </c>
-      <c r="F243" t="s">
-        <v>465</v>
-      </c>
-      <c r="I243" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F243" t="b">
+        <v>1</v>
+      </c>
+      <c r="I243" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>149</v>
       </c>
       <c r="B244" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C244" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D244" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E244" t="s">
         <v>443</v>
       </c>
-      <c r="F244" t="s">
-        <v>465</v>
-      </c>
-      <c r="I244" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F244" t="b">
+        <v>1</v>
+      </c>
+      <c r="I244" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>150</v>
       </c>
       <c r="B245" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C245" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D245" t="s">
         <v>151</v>
@@ -6482,14 +6483,14 @@
       <c r="E245" t="s">
         <v>443</v>
       </c>
-      <c r="F245" t="s">
-        <v>465</v>
-      </c>
-      <c r="I245" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F245" t="b">
+        <v>1</v>
+      </c>
+      <c r="I245" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>150</v>
       </c>
@@ -6503,7 +6504,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>150</v>
       </c>
@@ -6517,7 +6518,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>150</v>
       </c>
@@ -6531,7 +6532,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>150</v>
       </c>
@@ -6545,7 +6546,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>150</v>
       </c>
@@ -6559,7 +6560,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>150</v>
       </c>
@@ -6573,7 +6574,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>150</v>
       </c>
@@ -6587,7 +6588,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>150</v>
       </c>
@@ -6601,15 +6602,15 @@
         <v>167</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>168</v>
       </c>
       <c r="B254" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C254" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D254" t="s">
         <v>169</v>
@@ -6617,14 +6618,14 @@
       <c r="E254" t="s">
         <v>443</v>
       </c>
-      <c r="F254" t="s">
-        <v>465</v>
-      </c>
-      <c r="I254" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F254" t="b">
+        <v>1</v>
+      </c>
+      <c r="I254" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>168</v>
       </c>
@@ -6638,7 +6639,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>168</v>
       </c>
@@ -6652,7 +6653,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>168</v>
       </c>
@@ -6666,7 +6667,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>168</v>
       </c>
@@ -6680,7 +6681,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>168</v>
       </c>
@@ -6694,7 +6695,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>168</v>
       </c>
@@ -6708,7 +6709,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>168</v>
       </c>
@@ -6722,7 +6723,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>168</v>
       </c>
@@ -6736,15 +6737,15 @@
         <v>185</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B263" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C263" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D263" t="s">
         <v>186</v>
@@ -6752,16 +6753,16 @@
       <c r="E263" t="s">
         <v>405</v>
       </c>
-      <c r="F263" t="s">
-        <v>465</v>
-      </c>
-      <c r="I263" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F263" t="b">
+        <v>1</v>
+      </c>
+      <c r="I263" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B264" t="s">
         <v>187</v>
@@ -6773,9 +6774,9 @@
         <v>188</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B265" t="s">
         <v>78</v>
@@ -6787,9 +6788,9 @@
         <v>189</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B266" t="s">
         <v>184</v>
@@ -6801,32 +6802,32 @@
         <v>185</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B267" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C267" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D267" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E267" t="s">
         <v>443</v>
       </c>
-      <c r="F267" t="s">
-        <v>465</v>
-      </c>
-      <c r="I267" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F267" t="b">
+        <v>1</v>
+      </c>
+      <c r="I267" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B268" t="s">
         <v>191</v>
@@ -6838,9 +6839,9 @@
         <v>192</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B269" t="s">
         <v>193</v>
@@ -6852,9 +6853,9 @@
         <v>194</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B270" t="s">
         <v>195</v>
@@ -6866,23 +6867,23 @@
         <v>196</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D271" s="4" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B272" t="s">
         <v>197</v>
@@ -6894,163 +6895,163 @@
         <v>198</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B273" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="C273" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="D273" s="4" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>568</v>
+      </c>
+      <c r="B274" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="C274" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="D274" s="4" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>568</v>
+      </c>
+      <c r="B275" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="C273" s="4" t="s">
+      <c r="C275" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="D273" s="4" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A274" t="s">
-        <v>570</v>
-      </c>
-      <c r="B274" s="4" t="s">
+      <c r="D275" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>568</v>
+      </c>
+      <c r="B276" t="s">
         <v>472</v>
       </c>
-      <c r="C274" s="4" t="s">
+      <c r="C276" t="s">
         <v>472</v>
-      </c>
-      <c r="D274" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A275" t="s">
-        <v>570</v>
-      </c>
-      <c r="B275" s="4" t="s">
-        <v>473</v>
-      </c>
-      <c r="C275" s="4" t="s">
-        <v>473</v>
-      </c>
-      <c r="D275" s="4" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A276" t="s">
-        <v>570</v>
-      </c>
-      <c r="B276" t="s">
-        <v>474</v>
-      </c>
-      <c r="C276" t="s">
-        <v>474</v>
       </c>
       <c r="D276" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B277" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="C277" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="D277" s="4" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>568</v>
+      </c>
+      <c r="B278" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="C277" s="4" t="s">
+      <c r="C278" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="D277" s="4" t="s">
+      <c r="D278" s="4" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A278" t="s">
-        <v>570</v>
-      </c>
-      <c r="B278" s="4" t="s">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>568</v>
+      </c>
+      <c r="B279" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="C279" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="D279" s="4" t="s">
         <v>501</v>
       </c>
-      <c r="C278" s="4" t="s">
-        <v>501</v>
-      </c>
-      <c r="D278" s="4" t="s">
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>568</v>
+      </c>
+      <c r="B280" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A279" t="s">
-        <v>570</v>
-      </c>
-      <c r="B279" s="4" t="s">
+      <c r="C280" t="s">
+        <v>502</v>
+      </c>
+      <c r="D280" s="4" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>568</v>
+      </c>
+      <c r="B281" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="C279" s="4" t="s">
+      <c r="C281" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="D279" s="4" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A280" t="s">
-        <v>570</v>
-      </c>
-      <c r="B280" t="s">
+      <c r="D281" s="4" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>568</v>
+      </c>
+      <c r="B282" s="4" t="s">
         <v>504</v>
       </c>
-      <c r="C280" t="s">
+      <c r="C282" s="4" t="s">
         <v>504</v>
       </c>
-      <c r="D280" s="4" t="s">
+      <c r="D282" s="4" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A281" t="s">
-        <v>570</v>
-      </c>
-      <c r="B281" s="4" t="s">
-        <v>478</v>
-      </c>
-      <c r="C281" s="4" t="s">
-        <v>478</v>
-      </c>
-      <c r="D281" s="4" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A282" t="s">
-        <v>570</v>
-      </c>
-      <c r="B282" s="4" t="s">
-        <v>506</v>
-      </c>
-      <c r="C282" s="4" t="s">
-        <v>506</v>
-      </c>
-      <c r="D282" s="4" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D283" s="4" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B284" s="4" t="s">
         <v>200</v>
@@ -7059,26 +7060,26 @@
         <v>200</v>
       </c>
       <c r="D284" s="4" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>568</v>
+      </c>
+      <c r="B285" t="s">
+        <v>507</v>
+      </c>
+      <c r="C285" t="s">
+        <v>507</v>
+      </c>
+      <c r="D285" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A285" t="s">
-        <v>570</v>
-      </c>
-      <c r="B285" t="s">
-        <v>509</v>
-      </c>
-      <c r="C285" t="s">
-        <v>509</v>
-      </c>
-      <c r="D285" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B286" s="4" t="s">
         <v>201</v>
@@ -7087,12 +7088,12 @@
         <v>201</v>
       </c>
       <c r="D286" s="4" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B287" t="s">
         <v>202</v>
@@ -7104,9 +7105,9 @@
         <v>203</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B288" s="4" t="s">
         <v>344</v>
@@ -7115,12 +7116,12 @@
         <v>344</v>
       </c>
       <c r="D288" s="4" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B289" t="s">
         <v>204</v>
@@ -7132,23 +7133,23 @@
         <v>205</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C290" s="4" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D290" s="4" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B291" s="4" t="s">
         <v>208</v>
@@ -7160,60 +7161,60 @@
         <v>209</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D292" s="4" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C293" s="4" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D293" s="4" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B294" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C294" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D294" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E294" t="s">
         <v>443</v>
       </c>
-      <c r="F294" t="s">
-        <v>465</v>
-      </c>
-      <c r="I294" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F294" t="b">
+        <v>1</v>
+      </c>
+      <c r="I294" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B295" t="s">
         <v>193</v>
@@ -7225,9 +7226,9 @@
         <v>194</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B296" t="s">
         <v>195</v>
@@ -7239,37 +7240,37 @@
         <v>196</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B297" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C297" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D297" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B298" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C298" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D298" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B299" t="s">
         <v>199</v>
@@ -7278,110 +7279,110 @@
         <v>199</v>
       </c>
       <c r="D299" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B300" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C300" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D300" s="4" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B301" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C301" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D301" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B302" t="s">
+        <v>473</v>
+      </c>
+      <c r="C302" t="s">
+        <v>473</v>
+      </c>
+      <c r="D302" s="4" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>569</v>
+      </c>
+      <c r="B303" t="s">
+        <v>474</v>
+      </c>
+      <c r="C303" t="s">
+        <v>474</v>
+      </c>
+      <c r="D303" s="4" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>569</v>
+      </c>
+      <c r="B304" t="s">
         <v>475</v>
       </c>
-      <c r="C302" t="s">
+      <c r="C304" t="s">
         <v>475</v>
       </c>
-      <c r="D302" s="4" t="s">
+      <c r="D304" s="4" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A303" t="s">
-        <v>571</v>
-      </c>
-      <c r="B303" t="s">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>569</v>
+      </c>
+      <c r="B305" t="s">
         <v>476</v>
       </c>
-      <c r="C303" t="s">
+      <c r="C305" t="s">
         <v>476</v>
       </c>
-      <c r="D303" s="4" t="s">
+      <c r="D305" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A304" t="s">
-        <v>571</v>
-      </c>
-      <c r="B304" t="s">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>569</v>
+      </c>
+      <c r="B306" t="s">
         <v>477</v>
       </c>
-      <c r="C304" t="s">
+      <c r="C306" t="s">
         <v>477</v>
       </c>
-      <c r="D304" s="4" t="s">
+      <c r="D306" s="4" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A305" t="s">
-        <v>571</v>
-      </c>
-      <c r="B305" t="s">
-        <v>478</v>
-      </c>
-      <c r="C305" t="s">
-        <v>478</v>
-      </c>
-      <c r="D305" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A306" t="s">
-        <v>571</v>
-      </c>
-      <c r="B306" t="s">
-        <v>479</v>
-      </c>
-      <c r="C306" t="s">
-        <v>479</v>
-      </c>
-      <c r="D306" s="4" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B307" t="s">
         <v>202</v>
@@ -7393,9 +7394,9 @@
         <v>203</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B308" t="s">
         <v>204</v>
@@ -7404,12 +7405,12 @@
         <v>204</v>
       </c>
       <c r="D308" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B309" t="s">
         <v>206</v>
@@ -7421,23 +7422,23 @@
         <v>207</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B310" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C310" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D310" s="4" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B311" t="s">
         <v>208</v>
@@ -7449,43 +7450,43 @@
         <v>209</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B312" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C312" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D312" s="4" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B313" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C313" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D313" s="4" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>210</v>
       </c>
       <c r="B314" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C314" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D314" t="s">
         <v>211</v>
@@ -7493,22 +7494,22 @@
       <c r="E314" t="s">
         <v>427</v>
       </c>
-      <c r="F314" t="s">
-        <v>465</v>
+      <c r="F314" t="b">
+        <v>1</v>
       </c>
       <c r="G314" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>212</v>
       </c>
       <c r="B315" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C315" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D315" t="s">
         <v>213</v>
@@ -7516,11 +7517,11 @@
       <c r="E315" t="s">
         <v>414</v>
       </c>
-      <c r="F315" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F315" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>212</v>
       </c>
@@ -7534,7 +7535,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>212</v>
       </c>
@@ -7548,7 +7549,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>212</v>
       </c>
@@ -7562,7 +7563,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>212</v>
       </c>
@@ -7573,10 +7574,10 @@
         <v>3</v>
       </c>
       <c r="D319" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>212</v>
       </c>
@@ -7590,7 +7591,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="321" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>212</v>
       </c>
@@ -7601,10 +7602,10 @@
         <v>5</v>
       </c>
       <c r="D321" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="322" spans="1:14" x14ac:dyDescent="0.3">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="322" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>212</v>
       </c>
@@ -7615,10 +7616,10 @@
         <v>6</v>
       </c>
       <c r="D322" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="323" spans="1:14" x14ac:dyDescent="0.3">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="323" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>212</v>
       </c>
@@ -7629,18 +7630,18 @@
         <v>7</v>
       </c>
       <c r="D323" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="324" spans="1:14" x14ac:dyDescent="0.3">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="324" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>218</v>
       </c>
       <c r="B324" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C324" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D324" t="s">
         <v>219</v>
@@ -7648,8 +7649,8 @@
       <c r="E324" t="s">
         <v>427</v>
       </c>
-      <c r="F324" t="s">
-        <v>465</v>
+      <c r="F324" t="b">
+        <v>1</v>
       </c>
       <c r="G324" t="s">
         <v>447</v>
@@ -7664,15 +7665,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="325" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>220</v>
       </c>
       <c r="B325" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C325" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D325" t="s">
         <v>221</v>
@@ -7680,8 +7681,8 @@
       <c r="E325" t="s">
         <v>427</v>
       </c>
-      <c r="F325" t="s">
-        <v>465</v>
+      <c r="F325" t="b">
+        <v>1</v>
       </c>
       <c r="G325" t="s">
         <v>447</v>
@@ -7696,15 +7697,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="326" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>222</v>
       </c>
       <c r="B326" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C326" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D326" t="s">
         <v>223</v>
@@ -7712,8 +7713,8 @@
       <c r="E326" t="s">
         <v>427</v>
       </c>
-      <c r="F326" t="s">
-        <v>465</v>
+      <c r="F326" t="b">
+        <v>1</v>
       </c>
       <c r="G326" t="s">
         <v>447</v>
@@ -7728,15 +7729,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="327" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>224</v>
       </c>
       <c r="B327" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C327" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D327" t="s">
         <v>225</v>
@@ -7744,8 +7745,8 @@
       <c r="E327" t="s">
         <v>427</v>
       </c>
-      <c r="F327" t="s">
-        <v>465</v>
+      <c r="F327" t="b">
+        <v>1</v>
       </c>
       <c r="G327" t="s">
         <v>447</v>
@@ -7754,15 +7755,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>226</v>
       </c>
       <c r="B328" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C328" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D328" t="s">
         <v>227</v>
@@ -7770,8 +7771,8 @@
       <c r="E328" t="s">
         <v>427</v>
       </c>
-      <c r="F328" t="s">
-        <v>465</v>
+      <c r="F328" t="b">
+        <v>1</v>
       </c>
       <c r="G328" t="s">
         <v>447</v>
@@ -7780,15 +7781,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>228</v>
       </c>
       <c r="B329" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C329" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D329" t="s">
         <v>229</v>
@@ -7796,8 +7797,8 @@
       <c r="E329" t="s">
         <v>427</v>
       </c>
-      <c r="F329" t="s">
-        <v>465</v>
+      <c r="F329" t="b">
+        <v>1</v>
       </c>
       <c r="G329" t="s">
         <v>447</v>
@@ -7806,24 +7807,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A330" s="3" t="s">
         <v>230</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C330" s="3" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D330" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E330" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="F330" s="3" t="s">
-        <v>465</v>
+      <c r="F330" s="3" t="b">
+        <v>1</v>
       </c>
       <c r="G330" s="3" t="s">
         <v>447</v>
@@ -7835,15 +7836,15 @@
       <c r="K330"/>
       <c r="N330"/>
     </row>
-    <row r="331" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>231</v>
       </c>
       <c r="B331" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C331" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D331" t="s">
         <v>232</v>
@@ -7851,8 +7852,8 @@
       <c r="E331" t="s">
         <v>427</v>
       </c>
-      <c r="F331" t="s">
-        <v>465</v>
+      <c r="F331" t="b">
+        <v>1</v>
       </c>
       <c r="G331" t="s">
         <v>447</v>
@@ -7861,15 +7862,15 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="332" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>233</v>
       </c>
       <c r="B332" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C332" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D332" t="s">
         <v>234</v>
@@ -7877,22 +7878,22 @@
       <c r="E332" t="s">
         <v>427</v>
       </c>
-      <c r="F332" t="s">
-        <v>465</v>
+      <c r="F332" t="b">
+        <v>1</v>
       </c>
       <c r="G332" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="333" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>235</v>
       </c>
       <c r="B333" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C333" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D333" t="s">
         <v>236</v>
@@ -7900,22 +7901,22 @@
       <c r="E333" t="s">
         <v>427</v>
       </c>
-      <c r="F333" t="s">
-        <v>465</v>
+      <c r="F333" t="b">
+        <v>1</v>
       </c>
       <c r="G333" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="334" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>237</v>
       </c>
       <c r="B334" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C334" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D334" t="s">
         <v>238</v>
@@ -7923,22 +7924,22 @@
       <c r="E334" t="s">
         <v>427</v>
       </c>
-      <c r="F334" t="s">
-        <v>465</v>
+      <c r="F334" t="b">
+        <v>1</v>
       </c>
       <c r="G334" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="335" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>239</v>
       </c>
       <c r="B335" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C335" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D335" t="s">
         <v>240</v>
@@ -7946,22 +7947,22 @@
       <c r="E335" t="s">
         <v>427</v>
       </c>
-      <c r="F335" t="s">
-        <v>465</v>
+      <c r="F335" t="b">
+        <v>1</v>
       </c>
       <c r="G335" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="336" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>241</v>
       </c>
       <c r="B336" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C336" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D336" t="s">
         <v>242</v>
@@ -7969,22 +7970,22 @@
       <c r="E336" t="s">
         <v>427</v>
       </c>
-      <c r="F336" t="s">
-        <v>465</v>
+      <c r="F336" t="b">
+        <v>1</v>
       </c>
       <c r="G336" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>243</v>
       </c>
       <c r="B337" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C337" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D337" t="s">
         <v>244</v>
@@ -7992,22 +7993,22 @@
       <c r="E337" t="s">
         <v>427</v>
       </c>
-      <c r="F337" t="s">
-        <v>465</v>
+      <c r="F337" t="b">
+        <v>1</v>
       </c>
       <c r="G337" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>245</v>
       </c>
       <c r="B338" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C338" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D338" t="s">
         <v>246</v>
@@ -8015,22 +8016,22 @@
       <c r="E338" t="s">
         <v>427</v>
       </c>
-      <c r="F338" t="s">
-        <v>465</v>
+      <c r="F338" t="b">
+        <v>1</v>
       </c>
       <c r="G338" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>247</v>
       </c>
       <c r="B339" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C339" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D339" t="s">
         <v>248</v>
@@ -8038,11 +8039,11 @@
       <c r="E339" t="s">
         <v>414</v>
       </c>
-      <c r="F339" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F339" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>247</v>
       </c>
@@ -8056,7 +8057,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>247</v>
       </c>
@@ -8070,7 +8071,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>247</v>
       </c>
@@ -8084,7 +8085,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>247</v>
       </c>
@@ -8098,15 +8099,15 @@
         <v>252</v>
       </c>
     </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>253</v>
       </c>
       <c r="B344" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C344" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D344" t="s">
         <v>254</v>
@@ -8114,14 +8115,14 @@
       <c r="E344" t="s">
         <v>405</v>
       </c>
-      <c r="F344" t="s">
-        <v>465</v>
-      </c>
-      <c r="I344" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F344" t="b">
+        <v>1</v>
+      </c>
+      <c r="I344" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>253</v>
       </c>
@@ -8135,7 +8136,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>253</v>
       </c>
@@ -8149,7 +8150,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>253</v>
       </c>
@@ -8163,7 +8164,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>253</v>
       </c>
@@ -8177,7 +8178,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>253</v>
       </c>
@@ -8191,7 +8192,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>253</v>
       </c>
@@ -8205,7 +8206,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>253</v>
       </c>
@@ -8219,15 +8220,15 @@
         <v>261</v>
       </c>
     </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>444</v>
       </c>
       <c r="B352" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C352" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D352" t="s">
         <v>464</v>
@@ -8235,8 +8236,8 @@
       <c r="E352" t="s">
         <v>427</v>
       </c>
-      <c r="F352" t="s">
-        <v>465</v>
+      <c r="F352" t="b">
+        <v>1</v>
       </c>
       <c r="L352">
         <v>0</v>
@@ -8245,15 +8246,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>263</v>
       </c>
       <c r="B353" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C353" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D353" t="s">
         <v>264</v>
@@ -8261,22 +8262,22 @@
       <c r="E353" t="s">
         <v>404</v>
       </c>
-      <c r="F353" t="s">
-        <v>465</v>
-      </c>
-      <c r="I353" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F353" t="b">
+        <v>1</v>
+      </c>
+      <c r="I353" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>265</v>
       </c>
       <c r="B354" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C354" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D354" t="s">
         <v>266</v>
@@ -8284,14 +8285,14 @@
       <c r="E354" t="s">
         <v>405</v>
       </c>
-      <c r="F354" t="s">
-        <v>465</v>
-      </c>
-      <c r="I354" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F354" t="b">
+        <v>1</v>
+      </c>
+      <c r="I354" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>265</v>
       </c>
@@ -8305,7 +8306,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>265</v>
       </c>
@@ -8319,7 +8320,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>265</v>
       </c>
@@ -8333,7 +8334,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>265</v>
       </c>
@@ -8347,7 +8348,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>265</v>
       </c>
@@ -8361,7 +8362,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>265</v>
       </c>
@@ -8375,7 +8376,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>265</v>
       </c>
@@ -8389,7 +8390,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>265</v>
       </c>
@@ -8403,7 +8404,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>265</v>
       </c>
@@ -8417,7 +8418,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>265</v>
       </c>
@@ -8431,7 +8432,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>265</v>
       </c>
@@ -8445,15 +8446,15 @@
         <v>280</v>
       </c>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>281</v>
       </c>
       <c r="B366" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C366" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D366" t="s">
         <v>282</v>
@@ -8461,11 +8462,11 @@
       <c r="E366" t="s">
         <v>414</v>
       </c>
-      <c r="F366" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F366" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>281</v>
       </c>
@@ -8479,7 +8480,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>281</v>
       </c>
@@ -8493,7 +8494,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>281</v>
       </c>
@@ -8507,7 +8508,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>281</v>
       </c>
@@ -8521,7 +8522,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>281</v>
       </c>
@@ -8535,15 +8536,15 @@
         <v>287</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>288</v>
       </c>
       <c r="B372" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C372" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D372" t="s">
         <v>289</v>
@@ -8551,11 +8552,11 @@
       <c r="E372" t="s">
         <v>414</v>
       </c>
-      <c r="F372" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F372" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>288</v>
       </c>
@@ -8569,7 +8570,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>288</v>
       </c>
@@ -8583,7 +8584,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>288</v>
       </c>
@@ -8597,7 +8598,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>288</v>
       </c>
@@ -8611,15 +8612,15 @@
         <v>293</v>
       </c>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>294</v>
       </c>
       <c r="B377" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C377" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D377" t="s">
         <v>295</v>
@@ -8627,14 +8628,14 @@
       <c r="E377" t="s">
         <v>405</v>
       </c>
-      <c r="F377" t="s">
-        <v>465</v>
-      </c>
-      <c r="I377" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F377" t="b">
+        <v>1</v>
+      </c>
+      <c r="I377" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>294</v>
       </c>
@@ -8648,7 +8649,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>294</v>
       </c>
@@ -8662,7 +8663,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>294</v>
       </c>
@@ -8676,7 +8677,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>294</v>
       </c>
@@ -8690,15 +8691,15 @@
         <v>300</v>
       </c>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>301</v>
       </c>
       <c r="B382" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C382" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D382" t="s">
         <v>302</v>
@@ -8706,11 +8707,11 @@
       <c r="E382" t="s">
         <v>414</v>
       </c>
-      <c r="F382" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F382" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>301</v>
       </c>
@@ -8724,7 +8725,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>301</v>
       </c>
@@ -8738,7 +8739,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>301</v>
       </c>
@@ -8752,7 +8753,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>301</v>
       </c>
@@ -8766,7 +8767,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>301</v>
       </c>
@@ -8780,7 +8781,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>301</v>
       </c>
@@ -8794,15 +8795,15 @@
         <v>307</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>308</v>
       </c>
       <c r="B389" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C389" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D389" t="s">
         <v>309</v>
@@ -8810,11 +8811,11 @@
       <c r="E389" t="s">
         <v>414</v>
       </c>
-      <c r="F389" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F389" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>308</v>
       </c>
@@ -8828,7 +8829,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>308</v>
       </c>
@@ -8842,7 +8843,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>308</v>
       </c>
@@ -8856,7 +8857,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>308</v>
       </c>
@@ -8870,15 +8871,15 @@
         <v>313</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>314</v>
       </c>
       <c r="B394" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C394" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D394" t="s">
         <v>315</v>
@@ -8886,11 +8887,11 @@
       <c r="E394" t="s">
         <v>414</v>
       </c>
-      <c r="F394" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F394" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>314</v>
       </c>
@@ -8904,7 +8905,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>314</v>
       </c>
@@ -8918,7 +8919,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>314</v>
       </c>
@@ -8932,7 +8933,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>314</v>
       </c>
@@ -8946,7 +8947,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>314</v>
       </c>
@@ -8960,7 +8961,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>314</v>
       </c>
@@ -8974,15 +8975,15 @@
         <v>307</v>
       </c>
     </row>
-    <row r="401" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>316</v>
       </c>
       <c r="B401" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C401" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D401" t="s">
         <v>317</v>
@@ -8990,11 +8991,11 @@
       <c r="E401" t="s">
         <v>414</v>
       </c>
-      <c r="F401" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F401" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>316</v>
       </c>
@@ -9008,7 +9009,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>316</v>
       </c>
@@ -9022,7 +9023,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>316</v>
       </c>
@@ -9036,7 +9037,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>316</v>
       </c>
@@ -9050,15 +9051,15 @@
         <v>319</v>
       </c>
     </row>
-    <row r="406" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>320</v>
       </c>
       <c r="B406" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C406" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D406" t="s">
         <v>321</v>
@@ -9066,22 +9067,22 @@
       <c r="E406" t="s">
         <v>404</v>
       </c>
-      <c r="F406" t="s">
-        <v>465</v>
-      </c>
-      <c r="I406" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F406" t="b">
+        <v>1</v>
+      </c>
+      <c r="I406" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>322</v>
       </c>
       <c r="B407" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C407" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D407" t="s">
         <v>323</v>
@@ -9089,22 +9090,22 @@
       <c r="E407" t="s">
         <v>404</v>
       </c>
-      <c r="F407" t="s">
-        <v>465</v>
-      </c>
-      <c r="I407" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F407" t="b">
+        <v>1</v>
+      </c>
+      <c r="I407" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>324</v>
       </c>
       <c r="B408" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C408" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D408" t="s">
         <v>325</v>
@@ -9112,22 +9113,22 @@
       <c r="E408" t="s">
         <v>404</v>
       </c>
-      <c r="F408" t="s">
-        <v>465</v>
-      </c>
-      <c r="I408" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F408" t="b">
+        <v>1</v>
+      </c>
+      <c r="I408" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>326</v>
       </c>
       <c r="B409" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C409" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D409" t="s">
         <v>327</v>
@@ -9135,22 +9136,22 @@
       <c r="E409" t="s">
         <v>404</v>
       </c>
-      <c r="F409" t="s">
-        <v>465</v>
-      </c>
-      <c r="I409" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F409" t="b">
+        <v>1</v>
+      </c>
+      <c r="I409" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>328</v>
       </c>
       <c r="B410" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C410" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D410" t="s">
         <v>329</v>
@@ -9158,22 +9159,22 @@
       <c r="E410" t="s">
         <v>404</v>
       </c>
-      <c r="F410" t="s">
-        <v>465</v>
-      </c>
-      <c r="I410" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F410" t="b">
+        <v>1</v>
+      </c>
+      <c r="I410" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>330</v>
       </c>
       <c r="B411" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C411" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D411" t="s">
         <v>331</v>
@@ -9181,22 +9182,22 @@
       <c r="E411" t="s">
         <v>404</v>
       </c>
-      <c r="F411" t="s">
-        <v>465</v>
-      </c>
-      <c r="I411" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F411" t="b">
+        <v>1</v>
+      </c>
+      <c r="I411" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>332</v>
       </c>
       <c r="B412" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C412" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D412" t="s">
         <v>333</v>
@@ -9204,22 +9205,22 @@
       <c r="E412" t="s">
         <v>404</v>
       </c>
-      <c r="F412" t="s">
-        <v>465</v>
-      </c>
-      <c r="I412" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F412" t="b">
+        <v>1</v>
+      </c>
+      <c r="I412" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>334</v>
       </c>
       <c r="B413" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C413" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D413" t="s">
         <v>335</v>
@@ -9227,22 +9228,22 @@
       <c r="E413" t="s">
         <v>404</v>
       </c>
-      <c r="F413" t="s">
-        <v>465</v>
-      </c>
-      <c r="I413" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F413" t="b">
+        <v>1</v>
+      </c>
+      <c r="I413" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>336</v>
       </c>
       <c r="B414" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C414" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D414" t="s">
         <v>337</v>
@@ -9250,22 +9251,22 @@
       <c r="E414" t="s">
         <v>404</v>
       </c>
-      <c r="F414" t="s">
-        <v>465</v>
-      </c>
-      <c r="I414" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F414" t="b">
+        <v>1</v>
+      </c>
+      <c r="I414" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>338</v>
       </c>
       <c r="B415" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C415" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D415" t="s">
         <v>339</v>
@@ -9273,22 +9274,22 @@
       <c r="E415" t="s">
         <v>404</v>
       </c>
-      <c r="F415" t="s">
-        <v>465</v>
-      </c>
-      <c r="I415" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F415" t="b">
+        <v>1</v>
+      </c>
+      <c r="I415" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>340</v>
       </c>
       <c r="B416" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C416" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D416" t="s">
         <v>341</v>
@@ -9296,22 +9297,22 @@
       <c r="E416" t="s">
         <v>404</v>
       </c>
-      <c r="F416" t="s">
-        <v>465</v>
-      </c>
-      <c r="I416" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F416" t="b">
+        <v>1</v>
+      </c>
+      <c r="I416" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>342</v>
       </c>
       <c r="B417" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C417" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D417" t="s">
         <v>343</v>
@@ -9319,39 +9320,39 @@
       <c r="E417" t="s">
         <v>404</v>
       </c>
-      <c r="F417" t="s">
-        <v>465</v>
-      </c>
-      <c r="I417" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F417" t="b">
+        <v>1</v>
+      </c>
+      <c r="I417" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B418" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C418" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D418" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E418" t="s">
         <v>443</v>
       </c>
-      <c r="F418" t="s">
-        <v>465</v>
-      </c>
-      <c r="I418" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F418" t="b">
+        <v>1</v>
+      </c>
+      <c r="I418" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B419" t="s">
         <v>344</v>
@@ -9363,9 +9364,9 @@
         <v>345</v>
       </c>
     </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B420" t="s">
         <v>346</v>
@@ -9377,9 +9378,9 @@
         <v>347</v>
       </c>
     </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B421" t="s">
         <v>132</v>
@@ -9391,9 +9392,9 @@
         <v>348</v>
       </c>
     </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B422" t="s">
         <v>66</v>
@@ -9405,9 +9406,9 @@
         <v>349</v>
       </c>
     </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B423" t="s">
         <v>350</v>
@@ -9419,9 +9420,9 @@
         <v>351</v>
       </c>
     </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B424" t="s">
         <v>80</v>
@@ -9433,9 +9434,9 @@
         <v>352</v>
       </c>
     </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B425" t="s">
         <v>353</v>
@@ -9447,9 +9448,9 @@
         <v>452</v>
       </c>
     </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B426" t="s">
         <v>354</v>
@@ -9461,9 +9462,9 @@
         <v>453</v>
       </c>
     </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B427" t="s">
         <v>355</v>
@@ -9475,9 +9476,9 @@
         <v>454</v>
       </c>
     </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B428" t="s">
         <v>356</v>
@@ -9489,9 +9490,9 @@
         <v>455</v>
       </c>
     </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B429" t="s">
         <v>357</v>
@@ -9503,9 +9504,9 @@
         <v>358</v>
       </c>
     </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B430" t="s">
         <v>359</v>
@@ -9517,15 +9518,15 @@
         <v>456</v>
       </c>
     </row>
-    <row r="431" spans="1:9" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:9" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>360</v>
       </c>
       <c r="B431" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C431" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D431" t="s">
         <v>361</v>
@@ -9533,14 +9534,14 @@
       <c r="E431" t="s">
         <v>443</v>
       </c>
-      <c r="F431" t="s">
-        <v>465</v>
-      </c>
-      <c r="I431" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="432" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F431" t="b">
+        <v>1</v>
+      </c>
+      <c r="I431" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>360</v>
       </c>
@@ -9554,7 +9555,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>360</v>
       </c>
@@ -9568,7 +9569,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>360</v>
       </c>
@@ -9582,15 +9583,15 @@
         <v>458</v>
       </c>
     </row>
-    <row r="435" spans="1:9" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:9" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>362</v>
       </c>
       <c r="B435" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C435" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D435" t="s">
         <v>363</v>
@@ -9598,14 +9599,14 @@
       <c r="E435" t="s">
         <v>443</v>
       </c>
-      <c r="F435" t="s">
-        <v>465</v>
-      </c>
-      <c r="I435" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="436" spans="1:9" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F435" t="b">
+        <v>1</v>
+      </c>
+      <c r="I435" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:9" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>362</v>
       </c>
@@ -9619,7 +9620,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>362</v>
       </c>
@@ -9630,10 +9631,10 @@
         <v>364</v>
       </c>
       <c r="D437" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.3">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="438" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>362</v>
       </c>
@@ -9644,18 +9645,18 @@
         <v>365</v>
       </c>
       <c r="D438" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.3">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="439" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>366</v>
       </c>
       <c r="B439" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C439" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D439" t="s">
         <v>367</v>
@@ -9663,14 +9664,14 @@
       <c r="E439" t="s">
         <v>443</v>
       </c>
-      <c r="F439" t="s">
-        <v>465</v>
-      </c>
-      <c r="I439" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F439" t="b">
+        <v>1</v>
+      </c>
+      <c r="I439" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>366</v>
       </c>
@@ -9681,10 +9682,10 @@
         <v>370</v>
       </c>
       <c r="D440" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.3">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="441" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>366</v>
       </c>
@@ -9695,10 +9696,10 @@
         <v>371</v>
       </c>
       <c r="D441" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.3">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="442" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>366</v>
       </c>
@@ -9709,10 +9710,10 @@
         <v>372</v>
       </c>
       <c r="D442" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.3">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="443" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>366</v>
       </c>
@@ -9723,10 +9724,10 @@
         <v>373</v>
       </c>
       <c r="D443" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.3">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="444" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>366</v>
       </c>
@@ -9737,18 +9738,18 @@
         <v>374</v>
       </c>
       <c r="D444" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.3">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="445" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>368</v>
       </c>
       <c r="B445" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C445" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D445" t="s">
         <v>369</v>
@@ -9756,14 +9757,14 @@
       <c r="E445" t="s">
         <v>443</v>
       </c>
-      <c r="F445" t="s">
-        <v>465</v>
-      </c>
-      <c r="I445" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="446" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F445" t="b">
+        <v>1</v>
+      </c>
+      <c r="I445" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>368</v>
       </c>
@@ -9774,10 +9775,10 @@
         <v>370</v>
       </c>
       <c r="D446" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.3">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="447" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>368</v>
       </c>
@@ -9788,10 +9789,10 @@
         <v>371</v>
       </c>
       <c r="D447" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="448" spans="1:9" x14ac:dyDescent="0.3">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="448" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>368</v>
       </c>
@@ -9802,10 +9803,10 @@
         <v>372</v>
       </c>
       <c r="D448" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.3">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="449" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>368</v>
       </c>
@@ -9816,10 +9817,10 @@
         <v>373</v>
       </c>
       <c r="D449" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.3">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="450" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>368</v>
       </c>
@@ -9830,18 +9831,18 @@
         <v>374</v>
       </c>
       <c r="D450" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.3">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="451" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>375</v>
       </c>
       <c r="B451" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C451" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D451" t="s">
         <v>376</v>
@@ -9849,22 +9850,22 @@
       <c r="E451" t="s">
         <v>443</v>
       </c>
-      <c r="F451" t="s">
-        <v>465</v>
-      </c>
-      <c r="I451" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F451" t="b">
+        <v>1</v>
+      </c>
+      <c r="I451" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>377</v>
       </c>
       <c r="B452" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C452" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D452" t="s">
         <v>378</v>
@@ -9872,62 +9873,62 @@
       <c r="E452" t="s">
         <v>443</v>
       </c>
-      <c r="F452" t="s">
-        <v>465</v>
-      </c>
-      <c r="I452" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F452" t="b">
+        <v>1</v>
+      </c>
+      <c r="I452" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>379</v>
       </c>
       <c r="B453" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C453" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D453" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E453" t="s">
         <v>443</v>
       </c>
-      <c r="F453" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F453" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>380</v>
       </c>
       <c r="B454" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C454" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D454" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="E454" t="s">
         <v>443</v>
       </c>
-      <c r="F454" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F454" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>381</v>
       </c>
       <c r="B455" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C455" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D455" t="s">
         <v>382</v>
@@ -9935,22 +9936,22 @@
       <c r="E455" t="s">
         <v>427</v>
       </c>
-      <c r="F455" t="s">
-        <v>465</v>
+      <c r="F455" t="b">
+        <v>1</v>
       </c>
       <c r="G455" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>383</v>
       </c>
       <c r="B456" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C456" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D456" t="s">
         <v>384</v>
@@ -9958,22 +9959,22 @@
       <c r="E456" t="s">
         <v>427</v>
       </c>
-      <c r="F456" t="s">
-        <v>465</v>
+      <c r="F456" t="b">
+        <v>1</v>
       </c>
       <c r="G456" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>385</v>
       </c>
       <c r="B457" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C457" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D457" t="s">
         <v>386</v>
@@ -9981,22 +9982,22 @@
       <c r="E457" t="s">
         <v>443</v>
       </c>
-      <c r="F457" t="s">
-        <v>465</v>
-      </c>
-      <c r="I457" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F457" t="b">
+        <v>1</v>
+      </c>
+      <c r="I457" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>387</v>
       </c>
       <c r="B458" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C458" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D458" t="s">
         <v>388</v>
@@ -10004,45 +10005,45 @@
       <c r="E458" t="s">
         <v>443</v>
       </c>
-      <c r="F458" t="s">
-        <v>465</v>
-      </c>
-      <c r="I458" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F458" t="b">
+        <v>1</v>
+      </c>
+      <c r="I458" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>389</v>
       </c>
       <c r="B459" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C459" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D459" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E459" t="s">
         <v>427</v>
       </c>
-      <c r="F459" t="s">
-        <v>465</v>
+      <c r="F459" t="b">
+        <v>1</v>
       </c>
       <c r="G459" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>390</v>
       </c>
       <c r="B460" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C460" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D460" t="s">
         <v>391</v>
@@ -10050,22 +10051,22 @@
       <c r="E460" t="s">
         <v>404</v>
       </c>
-      <c r="F460" t="s">
-        <v>465</v>
-      </c>
-      <c r="I460" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F460" t="b">
+        <v>1</v>
+      </c>
+      <c r="I460" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>0</v>
       </c>
       <c r="B461" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C461" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D461" t="s">
         <v>392</v>
@@ -10073,13 +10074,13 @@
       <c r="E461" t="s">
         <v>443</v>
       </c>
-      <c r="F461" t="s">
-        <v>465</v>
+      <c r="F461" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O461">
-    <sortState ref="A2:Q587">
+  <autoFilter ref="A1:O461" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q587">
       <sortCondition ref="F1:F587"/>
     </sortState>
   </autoFilter>
@@ -10087,13 +10088,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>validation_values!$A$1:$A$62</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>validation_values!$B$1:$B$2</xm:f>
           </x14:formula1>
@@ -10106,227 +10107,227 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>398</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>399</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>437</v>
       </c>
@@ -10338,21 +10339,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DE904D578DFE6844BEAE84BDC2B4097E" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="50ebab51745edbac74153c776eff7922">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="847bd2b6-c417-48b3-84b7-e392c504f3bb" xmlns:ns4="f32a61f4-5698-46d5-9f56-343e6d7dc7d7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="48e32a04494ad4991fdbd7a90d4a41aa" ns3:_="" ns4:_="">
     <xsd:import namespace="847bd2b6-c417-48b3-84b7-e392c504f3bb"/>
@@ -10561,32 +10547,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F5B82C4-8D32-4858-AE49-B9F718EB1758}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8450404-B5A9-4CAE-AD2F-E650514D4870}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="847bd2b6-c417-48b3-84b7-e392c504f3bb"/>
-    <ds:schemaRef ds:uri="f32a61f4-5698-46d5-9f56-343e6d7dc7d7"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82216217-E566-4EBA-B2A2-632151E5C36C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10603,4 +10579,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F5B82C4-8D32-4858-AE49-B9F718EB1758}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8450404-B5A9-4CAE-AD2F-E650514D4870}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="847bd2b6-c417-48b3-84b7-e392c504f3bb"/>
+    <ds:schemaRef ds:uri="f32a61f4-5698-46d5-9f56-343e6d7dc7d7"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/inst/extdata/e.g.dictionary.xlsx
+++ b/inst/extdata/e.g.dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://doimspp-my.sharepoint.com/personal/hannah_vincelette_fws_gov/Documents/Documents/GitHub/mdJSONdictio/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_04E4F54F1DA4DB28AC54EC957D8A2657997F6570" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BAA4FDF0-5287-49DF-AE7B-B7728D564F82}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_04E4F54F1DA4DB28AC54EC957D8A2657997F6570" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5BB80875-56D9-497B-872F-8FF97121FA77}"/>
   <bookViews>
-    <workbookView xWindow="1455" yWindow="1770" windowWidth="23745" windowHeight="12675" tabRatio="747" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="747" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_dictionary" sheetId="1" r:id="rId1"/>
@@ -2663,10 +2663,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N461"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A269" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D262" sqref="D262"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10110,7 +10110,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -10339,6 +10339,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DE904D578DFE6844BEAE84BDC2B4097E" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="50ebab51745edbac74153c776eff7922">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="847bd2b6-c417-48b3-84b7-e392c504f3bb" xmlns:ns4="f32a61f4-5698-46d5-9f56-343e6d7dc7d7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="48e32a04494ad4991fdbd7a90d4a41aa" ns3:_="" ns4:_="">
     <xsd:import namespace="847bd2b6-c417-48b3-84b7-e392c504f3bb"/>
@@ -10547,22 +10562,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8450404-B5A9-4CAE-AD2F-E650514D4870}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="847bd2b6-c417-48b3-84b7-e392c504f3bb"/>
+    <ds:schemaRef ds:uri="f32a61f4-5698-46d5-9f56-343e6d7dc7d7"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F5B82C4-8D32-4858-AE49-B9F718EB1758}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82216217-E566-4EBA-B2A2-632151E5C36C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10579,29 +10604,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F5B82C4-8D32-4858-AE49-B9F718EB1758}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8450404-B5A9-4CAE-AD2F-E650514D4870}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="847bd2b6-c417-48b3-84b7-e392c504f3bb"/>
-    <ds:schemaRef ds:uri="f32a61f4-5698-46d5-9f56-343e6d7dc7d7"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/inst/extdata/e.g.dictionary.xlsx
+++ b/inst/extdata/e.g.dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://doimspp-my.sharepoint.com/personal/hannah_vincelette_fws_gov/Documents/Documents/GitHub/mdJSONdictio/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_04E4F54F1DA4DB28AC54EC957D8A2657997F6570" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5BB80875-56D9-497B-872F-8FF97121FA77}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_04E4F54F1DA4DB28AC54EC957D8A2657997F6570" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09A25277-A1B1-4115-9CBC-B4A0EFB4804D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="747" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2661,10 +2661,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:N461"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A353" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
@@ -2746,7 +2747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2760,7 +2761,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2774,7 +2775,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -2797,7 +2798,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -2820,7 +2821,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -2843,7 +2844,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -2872,7 +2873,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -2898,7 +2899,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>599</v>
       </c>
@@ -2918,7 +2919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>594</v>
       </c>
@@ -2938,7 +2939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>597</v>
       </c>
@@ -3004,7 +3005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>466</v>
       </c>
@@ -3018,7 +3019,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>466</v>
       </c>
@@ -3032,7 +3033,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>466</v>
       </c>
@@ -3046,7 +3047,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>466</v>
       </c>
@@ -3060,7 +3061,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>466</v>
       </c>
@@ -3097,7 +3098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>467</v>
       </c>
@@ -3111,7 +3112,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>467</v>
       </c>
@@ -3125,7 +3126,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>467</v>
       </c>
@@ -3139,7 +3140,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>467</v>
       </c>
@@ -3153,7 +3154,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>467</v>
       </c>
@@ -3167,7 +3168,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>467</v>
       </c>
@@ -3204,7 +3205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>468</v>
       </c>
@@ -3218,7 +3219,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>468</v>
       </c>
@@ -3232,7 +3233,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>468</v>
       </c>
@@ -3246,7 +3247,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>468</v>
       </c>
@@ -3260,7 +3261,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>468</v>
       </c>
@@ -3274,7 +3275,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>468</v>
       </c>
@@ -3288,7 +3289,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>468</v>
       </c>
@@ -3302,7 +3303,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>468</v>
       </c>
@@ -3316,7 +3317,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>468</v>
       </c>
@@ -3330,7 +3331,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>468</v>
       </c>
@@ -3344,7 +3345,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>468</v>
       </c>
@@ -3404,7 +3405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>61</v>
       </c>
@@ -3427,7 +3428,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>63</v>
       </c>
@@ -3496,7 +3497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>69</v>
       </c>
@@ -3516,7 +3517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>71</v>
       </c>
@@ -3559,7 +3560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>544</v>
       </c>
@@ -3573,7 +3574,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>544</v>
       </c>
@@ -3587,7 +3588,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>544</v>
       </c>
@@ -3601,7 +3602,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>544</v>
       </c>
@@ -3615,7 +3616,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>544</v>
       </c>
@@ -3629,7 +3630,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>544</v>
       </c>
@@ -3643,7 +3644,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>544</v>
       </c>
@@ -3657,7 +3658,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>544</v>
       </c>
@@ -3671,7 +3672,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>544</v>
       </c>
@@ -3685,7 +3686,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>544</v>
       </c>
@@ -3699,7 +3700,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>544</v>
       </c>
@@ -3713,7 +3714,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>543</v>
       </c>
@@ -3736,7 +3737,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>543</v>
       </c>
@@ -3750,7 +3751,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>543</v>
       </c>
@@ -3764,7 +3765,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>543</v>
       </c>
@@ -3778,7 +3779,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>543</v>
       </c>
@@ -3792,7 +3793,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>543</v>
       </c>
@@ -3806,7 +3807,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>543</v>
       </c>
@@ -3820,7 +3821,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>543</v>
       </c>
@@ -3834,7 +3835,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>543</v>
       </c>
@@ -3848,7 +3849,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>543</v>
       </c>
@@ -3862,7 +3863,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>543</v>
       </c>
@@ -3876,7 +3877,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>543</v>
       </c>
@@ -3890,7 +3891,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>543</v>
       </c>
@@ -3904,7 +3905,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>543</v>
       </c>
@@ -3918,7 +3919,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>543</v>
       </c>
@@ -3932,7 +3933,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>543</v>
       </c>
@@ -3946,7 +3947,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>543</v>
       </c>
@@ -3960,7 +3961,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>542</v>
       </c>
@@ -3980,7 +3981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>542</v>
       </c>
@@ -3994,7 +3995,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>542</v>
       </c>
@@ -4008,7 +4009,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>542</v>
       </c>
@@ -4022,7 +4023,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>542</v>
       </c>
@@ -4036,7 +4037,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>542</v>
       </c>
@@ -4050,7 +4051,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>542</v>
       </c>
@@ -4064,7 +4065,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>542</v>
       </c>
@@ -4078,7 +4079,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>542</v>
       </c>
@@ -4092,7 +4093,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>542</v>
       </c>
@@ -4106,7 +4107,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>542</v>
       </c>
@@ -4146,7 +4147,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>99</v>
       </c>
@@ -4160,7 +4161,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>99</v>
       </c>
@@ -4174,7 +4175,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>99</v>
       </c>
@@ -4188,7 +4189,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
         <v>99</v>
       </c>
@@ -4202,7 +4203,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
         <v>99</v>
       </c>
@@ -4216,7 +4217,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
         <v>99</v>
       </c>
@@ -4230,7 +4231,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>99</v>
       </c>
@@ -4244,7 +4245,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
         <v>99</v>
       </c>
@@ -4258,7 +4259,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
         <v>99</v>
       </c>
@@ -4272,7 +4273,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
         <v>99</v>
       </c>
@@ -4286,7 +4287,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
         <v>99</v>
       </c>
@@ -4300,7 +4301,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
         <v>99</v>
       </c>
@@ -4314,7 +4315,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
         <v>99</v>
       </c>
@@ -4328,7 +4329,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
         <v>99</v>
       </c>
@@ -4342,7 +4343,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
         <v>99</v>
       </c>
@@ -4356,7 +4357,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
         <v>99</v>
       </c>
@@ -4370,7 +4371,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
         <v>99</v>
       </c>
@@ -4410,7 +4411,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
         <v>100</v>
       </c>
@@ -4424,7 +4425,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
         <v>100</v>
       </c>
@@ -4438,7 +4439,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
         <v>100</v>
       </c>
@@ -4452,7 +4453,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
         <v>100</v>
       </c>
@@ -4466,7 +4467,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
         <v>100</v>
       </c>
@@ -4480,7 +4481,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
         <v>100</v>
       </c>
@@ -4494,7 +4495,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
         <v>100</v>
       </c>
@@ -4508,7 +4509,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
         <v>100</v>
       </c>
@@ -4522,7 +4523,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
         <v>100</v>
       </c>
@@ -4536,7 +4537,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
         <v>100</v>
       </c>
@@ -4550,7 +4551,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
         <v>100</v>
       </c>
@@ -4564,7 +4565,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
         <v>100</v>
       </c>
@@ -4578,7 +4579,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
         <v>100</v>
       </c>
@@ -4592,7 +4593,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
         <v>100</v>
       </c>
@@ -4606,7 +4607,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
         <v>100</v>
       </c>
@@ -4620,7 +4621,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
         <v>100</v>
       </c>
@@ -4634,7 +4635,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
         <v>100</v>
       </c>
@@ -4674,7 +4675,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
         <v>101</v>
       </c>
@@ -4688,7 +4689,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
         <v>101</v>
       </c>
@@ -4702,7 +4703,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
         <v>101</v>
       </c>
@@ -4716,7 +4717,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
         <v>101</v>
       </c>
@@ -4730,7 +4731,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
         <v>101</v>
       </c>
@@ -4744,7 +4745,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
         <v>101</v>
       </c>
@@ -4758,7 +4759,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
         <v>101</v>
       </c>
@@ -4772,7 +4773,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
         <v>101</v>
       </c>
@@ -4786,7 +4787,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
         <v>101</v>
       </c>
@@ -4800,7 +4801,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
         <v>101</v>
       </c>
@@ -4814,7 +4815,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
         <v>101</v>
       </c>
@@ -4828,7 +4829,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
         <v>101</v>
       </c>
@@ -4842,7 +4843,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
         <v>101</v>
       </c>
@@ -4856,7 +4857,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
         <v>101</v>
       </c>
@@ -4870,7 +4871,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
         <v>101</v>
       </c>
@@ -4884,7 +4885,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
         <v>101</v>
       </c>
@@ -4898,7 +4899,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
         <v>101</v>
       </c>
@@ -4935,7 +4936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
         <v>102</v>
       </c>
@@ -4949,7 +4950,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
         <v>102</v>
       </c>
@@ -4963,7 +4964,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
         <v>102</v>
       </c>
@@ -4977,7 +4978,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
         <v>102</v>
       </c>
@@ -4991,7 +4992,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
         <v>102</v>
       </c>
@@ -5005,7 +5006,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
         <v>102</v>
       </c>
@@ -5019,7 +5020,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
         <v>102</v>
       </c>
@@ -5033,7 +5034,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
         <v>102</v>
       </c>
@@ -5047,7 +5048,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="6" t="s">
         <v>102</v>
       </c>
@@ -5061,7 +5062,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="s">
         <v>102</v>
       </c>
@@ -5075,7 +5076,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="6" t="s">
         <v>102</v>
       </c>
@@ -5089,7 +5090,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="6" t="s">
         <v>102</v>
       </c>
@@ -5103,7 +5104,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="6" t="s">
         <v>102</v>
       </c>
@@ -5117,7 +5118,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="6" t="s">
         <v>102</v>
       </c>
@@ -5131,7 +5132,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="6" t="s">
         <v>102</v>
       </c>
@@ -5145,7 +5146,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="6" t="s">
         <v>102</v>
       </c>
@@ -5159,7 +5160,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="6" t="s">
         <v>102</v>
       </c>
@@ -5196,7 +5197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="6" t="s">
         <v>103</v>
       </c>
@@ -5210,7 +5211,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="6" t="s">
         <v>103</v>
       </c>
@@ -5224,7 +5225,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="6" t="s">
         <v>103</v>
       </c>
@@ -5238,7 +5239,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="6" t="s">
         <v>103</v>
       </c>
@@ -5252,7 +5253,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="6" t="s">
         <v>103</v>
       </c>
@@ -5266,7 +5267,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="6" t="s">
         <v>103</v>
       </c>
@@ -5280,7 +5281,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="6" t="s">
         <v>103</v>
       </c>
@@ -5294,7 +5295,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="6" t="s">
         <v>103</v>
       </c>
@@ -5308,7 +5309,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="6" t="s">
         <v>103</v>
       </c>
@@ -5322,7 +5323,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="6" t="s">
         <v>103</v>
       </c>
@@ -5336,7 +5337,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="6" t="s">
         <v>103</v>
       </c>
@@ -5350,7 +5351,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="6" t="s">
         <v>103</v>
       </c>
@@ -5364,7 +5365,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="6" t="s">
         <v>103</v>
       </c>
@@ -5378,7 +5379,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="6" t="s">
         <v>103</v>
       </c>
@@ -5392,7 +5393,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="6" t="s">
         <v>103</v>
       </c>
@@ -5406,7 +5407,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="6" t="s">
         <v>103</v>
       </c>
@@ -5420,7 +5421,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="6" t="s">
         <v>103</v>
       </c>
@@ -5457,7 +5458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="6" t="s">
         <v>104</v>
       </c>
@@ -5471,7 +5472,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="6" t="s">
         <v>104</v>
       </c>
@@ -5485,7 +5486,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="6" t="s">
         <v>104</v>
       </c>
@@ -5499,7 +5500,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="6" t="s">
         <v>104</v>
       </c>
@@ -5513,7 +5514,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="6" t="s">
         <v>104</v>
       </c>
@@ -5527,7 +5528,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="6" t="s">
         <v>104</v>
       </c>
@@ -5541,7 +5542,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="6" t="s">
         <v>104</v>
       </c>
@@ -5555,7 +5556,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="6" t="s">
         <v>104</v>
       </c>
@@ -5569,7 +5570,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="6" t="s">
         <v>104</v>
       </c>
@@ -5583,7 +5584,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="6" t="s">
         <v>104</v>
       </c>
@@ -5597,7 +5598,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="6" t="s">
         <v>104</v>
       </c>
@@ -5611,7 +5612,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="6" t="s">
         <v>104</v>
       </c>
@@ -5625,7 +5626,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="6" t="s">
         <v>104</v>
       </c>
@@ -5639,7 +5640,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="6" t="s">
         <v>104</v>
       </c>
@@ -5653,7 +5654,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="6" t="s">
         <v>104</v>
       </c>
@@ -5667,7 +5668,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="6" t="s">
         <v>104</v>
       </c>
@@ -5681,7 +5682,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="6" t="s">
         <v>104</v>
       </c>
@@ -5718,7 +5719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="6" t="s">
         <v>105</v>
       </c>
@@ -5732,7 +5733,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="6" t="s">
         <v>105</v>
       </c>
@@ -5746,7 +5747,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="6" t="s">
         <v>105</v>
       </c>
@@ -5760,7 +5761,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="6" t="s">
         <v>105</v>
       </c>
@@ -5774,7 +5775,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="6" t="s">
         <v>105</v>
       </c>
@@ -5788,7 +5789,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="6" t="s">
         <v>105</v>
       </c>
@@ -5802,7 +5803,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="6" t="s">
         <v>105</v>
       </c>
@@ -5816,7 +5817,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="6" t="s">
         <v>105</v>
       </c>
@@ -5830,7 +5831,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="6" t="s">
         <v>105</v>
       </c>
@@ -5844,7 +5845,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="6" t="s">
         <v>105</v>
       </c>
@@ -5858,7 +5859,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="6" t="s">
         <v>105</v>
       </c>
@@ -5872,7 +5873,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="6" t="s">
         <v>105</v>
       </c>
@@ -5886,7 +5887,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="6" t="s">
         <v>105</v>
       </c>
@@ -5900,7 +5901,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="6" t="s">
         <v>105</v>
       </c>
@@ -5914,7 +5915,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="6" t="s">
         <v>105</v>
       </c>
@@ -5928,7 +5929,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="6" t="s">
         <v>105</v>
       </c>
@@ -5942,7 +5943,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="6" t="s">
         <v>105</v>
       </c>
@@ -5979,7 +5980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="6" t="s">
         <v>106</v>
       </c>
@@ -5993,7 +5994,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="6" t="s">
         <v>106</v>
       </c>
@@ -6007,7 +6008,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="6" t="s">
         <v>106</v>
       </c>
@@ -6021,7 +6022,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="6" t="s">
         <v>106</v>
       </c>
@@ -6035,7 +6036,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="6" t="s">
         <v>106</v>
       </c>
@@ -6049,7 +6050,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="6" t="s">
         <v>106</v>
       </c>
@@ -6063,7 +6064,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="6" t="s">
         <v>106</v>
       </c>
@@ -6077,7 +6078,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="6" t="s">
         <v>106</v>
       </c>
@@ -6091,7 +6092,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="6" t="s">
         <v>106</v>
       </c>
@@ -6105,7 +6106,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="6" t="s">
         <v>106</v>
       </c>
@@ -6119,7 +6120,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="6" t="s">
         <v>106</v>
       </c>
@@ -6133,7 +6134,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="6" t="s">
         <v>106</v>
       </c>
@@ -6147,7 +6148,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="6" t="s">
         <v>106</v>
       </c>
@@ -6161,7 +6162,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="6" t="s">
         <v>106</v>
       </c>
@@ -6175,7 +6176,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="6" t="s">
         <v>106</v>
       </c>
@@ -6189,7 +6190,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="6" t="s">
         <v>106</v>
       </c>
@@ -6203,7 +6204,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="6" t="s">
         <v>106</v>
       </c>
@@ -6240,7 +6241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="6" t="s">
         <v>136</v>
       </c>
@@ -6254,7 +6255,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="6" t="s">
         <v>136</v>
       </c>
@@ -6268,7 +6269,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="6" t="s">
         <v>136</v>
       </c>
@@ -6282,7 +6283,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="6" t="s">
         <v>136</v>
       </c>
@@ -6319,7 +6320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="6" t="s">
         <v>138</v>
       </c>
@@ -6333,7 +6334,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="6" t="s">
         <v>138</v>
       </c>
@@ -6347,7 +6348,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="6" t="s">
         <v>138</v>
       </c>
@@ -6361,7 +6362,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="6" t="s">
         <v>138</v>
       </c>
@@ -6490,7 +6491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>150</v>
       </c>
@@ -6504,7 +6505,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>150</v>
       </c>
@@ -6518,7 +6519,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>150</v>
       </c>
@@ -6532,7 +6533,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>150</v>
       </c>
@@ -6546,7 +6547,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>150</v>
       </c>
@@ -6560,7 +6561,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>150</v>
       </c>
@@ -6574,7 +6575,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>150</v>
       </c>
@@ -6588,7 +6589,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>150</v>
       </c>
@@ -6625,7 +6626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>168</v>
       </c>
@@ -6639,7 +6640,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>168</v>
       </c>
@@ -6653,7 +6654,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>168</v>
       </c>
@@ -6667,7 +6668,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>168</v>
       </c>
@@ -6681,7 +6682,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>168</v>
       </c>
@@ -6695,7 +6696,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>168</v>
       </c>
@@ -6709,7 +6710,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>168</v>
       </c>
@@ -6723,7 +6724,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>168</v>
       </c>
@@ -6760,7 +6761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>551</v>
       </c>
@@ -6774,7 +6775,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>551</v>
       </c>
@@ -6788,7 +6789,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>551</v>
       </c>
@@ -6825,7 +6826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>568</v>
       </c>
@@ -6839,7 +6840,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>568</v>
       </c>
@@ -6853,7 +6854,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>568</v>
       </c>
@@ -6867,7 +6868,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>568</v>
       </c>
@@ -6881,7 +6882,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>568</v>
       </c>
@@ -6895,7 +6896,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>568</v>
       </c>
@@ -6909,7 +6910,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>568</v>
       </c>
@@ -6923,7 +6924,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>568</v>
       </c>
@@ -6937,7 +6938,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>568</v>
       </c>
@@ -6951,7 +6952,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>568</v>
       </c>
@@ -6965,7 +6966,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>568</v>
       </c>
@@ -6979,7 +6980,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>568</v>
       </c>
@@ -6993,7 +6994,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>568</v>
       </c>
@@ -7007,7 +7008,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>568</v>
       </c>
@@ -7021,7 +7022,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>568</v>
       </c>
@@ -7035,7 +7036,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>568</v>
       </c>
@@ -7049,7 +7050,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>568</v>
       </c>
@@ -7063,7 +7064,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>568</v>
       </c>
@@ -7077,7 +7078,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>568</v>
       </c>
@@ -7091,7 +7092,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>568</v>
       </c>
@@ -7105,7 +7106,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>568</v>
       </c>
@@ -7119,7 +7120,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>568</v>
       </c>
@@ -7133,7 +7134,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>568</v>
       </c>
@@ -7147,7 +7148,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>568</v>
       </c>
@@ -7161,7 +7162,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>568</v>
       </c>
@@ -7175,7 +7176,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>568</v>
       </c>
@@ -7212,7 +7213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>569</v>
       </c>
@@ -7226,7 +7227,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>569</v>
       </c>
@@ -7240,7 +7241,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>569</v>
       </c>
@@ -7254,7 +7255,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>569</v>
       </c>
@@ -7268,7 +7269,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>569</v>
       </c>
@@ -7282,7 +7283,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>569</v>
       </c>
@@ -7296,7 +7297,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>569</v>
       </c>
@@ -7310,7 +7311,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>569</v>
       </c>
@@ -7324,7 +7325,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>569</v>
       </c>
@@ -7338,7 +7339,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>569</v>
       </c>
@@ -7352,7 +7353,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>569</v>
       </c>
@@ -7366,7 +7367,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>569</v>
       </c>
@@ -7380,7 +7381,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>569</v>
       </c>
@@ -7394,7 +7395,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>569</v>
       </c>
@@ -7408,7 +7409,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>569</v>
       </c>
@@ -7422,7 +7423,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>569</v>
       </c>
@@ -7436,7 +7437,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>569</v>
       </c>
@@ -7450,7 +7451,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>569</v>
       </c>
@@ -7464,7 +7465,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>569</v>
       </c>
@@ -7478,7 +7479,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>210</v>
       </c>
@@ -7501,7 +7502,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>212</v>
       </c>
@@ -7521,7 +7522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>212</v>
       </c>
@@ -7535,7 +7536,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>212</v>
       </c>
@@ -7549,7 +7550,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>212</v>
       </c>
@@ -7563,7 +7564,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>212</v>
       </c>
@@ -7577,7 +7578,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>212</v>
       </c>
@@ -7591,7 +7592,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="321" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>212</v>
       </c>
@@ -7605,7 +7606,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="322" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>212</v>
       </c>
@@ -7619,7 +7620,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="323" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>212</v>
       </c>
@@ -7633,7 +7634,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="324" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>218</v>
       </c>
@@ -7665,7 +7666,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="325" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>220</v>
       </c>
@@ -7697,7 +7698,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="326" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>222</v>
       </c>
@@ -7729,7 +7730,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="327" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>224</v>
       </c>
@@ -7755,7 +7756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>226</v>
       </c>
@@ -7781,7 +7782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>228</v>
       </c>
@@ -7807,7 +7808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="3" t="s">
         <v>230</v>
       </c>
@@ -7836,7 +7837,7 @@
       <c r="K330"/>
       <c r="N330"/>
     </row>
-    <row r="331" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>231</v>
       </c>
@@ -7862,7 +7863,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="332" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>233</v>
       </c>
@@ -7885,7 +7886,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="333" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>235</v>
       </c>
@@ -7908,7 +7909,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="334" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>237</v>
       </c>
@@ -7931,7 +7932,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="335" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>239</v>
       </c>
@@ -7954,7 +7955,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="336" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>241</v>
       </c>
@@ -7977,7 +7978,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>243</v>
       </c>
@@ -8000,7 +8001,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>245</v>
       </c>
@@ -8023,7 +8024,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>247</v>
       </c>
@@ -8043,7 +8044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>247</v>
       </c>
@@ -8057,7 +8058,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>247</v>
       </c>
@@ -8071,7 +8072,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>247</v>
       </c>
@@ -8085,7 +8086,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>247</v>
       </c>
@@ -8122,7 +8123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>253</v>
       </c>
@@ -8136,7 +8137,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>253</v>
       </c>
@@ -8150,7 +8151,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>253</v>
       </c>
@@ -8164,7 +8165,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>253</v>
       </c>
@@ -8178,7 +8179,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>253</v>
       </c>
@@ -8192,7 +8193,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>253</v>
       </c>
@@ -8206,7 +8207,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>253</v>
       </c>
@@ -8220,7 +8221,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>444</v>
       </c>
@@ -8292,7 +8293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>265</v>
       </c>
@@ -8306,7 +8307,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>265</v>
       </c>
@@ -8320,7 +8321,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>265</v>
       </c>
@@ -8334,7 +8335,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>265</v>
       </c>
@@ -8348,7 +8349,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>265</v>
       </c>
@@ -8362,7 +8363,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>265</v>
       </c>
@@ -8376,7 +8377,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>265</v>
       </c>
@@ -8390,7 +8391,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>265</v>
       </c>
@@ -8404,7 +8405,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>265</v>
       </c>
@@ -8418,7 +8419,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>265</v>
       </c>
@@ -8432,7 +8433,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>265</v>
       </c>
@@ -8446,7 +8447,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>281</v>
       </c>
@@ -8466,7 +8467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>281</v>
       </c>
@@ -8480,7 +8481,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>281</v>
       </c>
@@ -8494,7 +8495,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>281</v>
       </c>
@@ -8508,7 +8509,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>281</v>
       </c>
@@ -8522,7 +8523,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>281</v>
       </c>
@@ -8536,7 +8537,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>288</v>
       </c>
@@ -8556,7 +8557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>288</v>
       </c>
@@ -8570,7 +8571,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>288</v>
       </c>
@@ -8584,7 +8585,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>288</v>
       </c>
@@ -8598,7 +8599,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>288</v>
       </c>
@@ -8635,7 +8636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>294</v>
       </c>
@@ -8649,7 +8650,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>294</v>
       </c>
@@ -8663,7 +8664,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>294</v>
       </c>
@@ -8677,7 +8678,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>294</v>
       </c>
@@ -8691,7 +8692,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>301</v>
       </c>
@@ -8711,7 +8712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>301</v>
       </c>
@@ -8725,7 +8726,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>301</v>
       </c>
@@ -8739,7 +8740,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>301</v>
       </c>
@@ -8753,7 +8754,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>301</v>
       </c>
@@ -8767,7 +8768,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>301</v>
       </c>
@@ -8781,7 +8782,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>301</v>
       </c>
@@ -8795,7 +8796,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>308</v>
       </c>
@@ -8815,7 +8816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>308</v>
       </c>
@@ -8829,7 +8830,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>308</v>
       </c>
@@ -8843,7 +8844,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>308</v>
       </c>
@@ -8857,7 +8858,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>308</v>
       </c>
@@ -8871,7 +8872,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>314</v>
       </c>
@@ -8891,7 +8892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>314</v>
       </c>
@@ -8905,7 +8906,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>314</v>
       </c>
@@ -8919,7 +8920,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>314</v>
       </c>
@@ -8933,7 +8934,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>314</v>
       </c>
@@ -8947,7 +8948,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>314</v>
       </c>
@@ -8961,7 +8962,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>314</v>
       </c>
@@ -8975,7 +8976,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="401" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:9" ht="13.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>316</v>
       </c>
@@ -8995,7 +8996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>316</v>
       </c>
@@ -9009,7 +9010,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>316</v>
       </c>
@@ -9023,7 +9024,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>316</v>
       </c>
@@ -9037,7 +9038,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>316</v>
       </c>
@@ -9350,7 +9351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>552</v>
       </c>
@@ -9364,7 +9365,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>552</v>
       </c>
@@ -9378,7 +9379,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>552</v>
       </c>
@@ -9392,7 +9393,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>552</v>
       </c>
@@ -9406,7 +9407,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>552</v>
       </c>
@@ -9420,7 +9421,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>552</v>
       </c>
@@ -9434,7 +9435,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>552</v>
       </c>
@@ -9448,7 +9449,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>552</v>
       </c>
@@ -9462,7 +9463,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>552</v>
       </c>
@@ -9476,7 +9477,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>552</v>
       </c>
@@ -9490,7 +9491,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>552</v>
       </c>
@@ -9504,7 +9505,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>552</v>
       </c>
@@ -9541,7 +9542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:9" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>360</v>
       </c>
@@ -9555,7 +9556,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>360</v>
       </c>
@@ -9569,7 +9570,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>360</v>
       </c>
@@ -9606,7 +9607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:9" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:9" ht="15.4" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>362</v>
       </c>
@@ -9620,7 +9621,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>362</v>
       </c>
@@ -9634,7 +9635,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>362</v>
       </c>
@@ -9671,7 +9672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>366</v>
       </c>
@@ -9685,7 +9686,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>366</v>
       </c>
@@ -9699,7 +9700,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>366</v>
       </c>
@@ -9713,7 +9714,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>366</v>
       </c>
@@ -9727,7 +9728,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>366</v>
       </c>
@@ -9764,7 +9765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>368</v>
       </c>
@@ -9778,7 +9779,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>368</v>
       </c>
@@ -9792,7 +9793,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="448" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>368</v>
       </c>
@@ -9806,7 +9807,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>368</v>
       </c>
@@ -9820,7 +9821,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>368</v>
       </c>
@@ -9880,7 +9881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>379</v>
       </c>
@@ -9900,7 +9901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>380</v>
       </c>
@@ -9920,7 +9921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>381</v>
       </c>
@@ -9943,7 +9944,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>383</v>
       </c>
@@ -10012,7 +10013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>389</v>
       </c>
@@ -10058,7 +10059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>0</v>
       </c>
@@ -10080,6 +10081,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:O461" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="8">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q587">
       <sortCondition ref="F1:F587"/>
     </sortState>
@@ -10339,21 +10345,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DE904D578DFE6844BEAE84BDC2B4097E" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="50ebab51745edbac74153c776eff7922">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="847bd2b6-c417-48b3-84b7-e392c504f3bb" xmlns:ns4="f32a61f4-5698-46d5-9f56-343e6d7dc7d7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="48e32a04494ad4991fdbd7a90d4a41aa" ns3:_="" ns4:_="">
     <xsd:import namespace="847bd2b6-c417-48b3-84b7-e392c504f3bb"/>
@@ -10562,32 +10553,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8450404-B5A9-4CAE-AD2F-E650514D4870}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="847bd2b6-c417-48b3-84b7-e392c504f3bb"/>
-    <ds:schemaRef ds:uri="f32a61f4-5698-46d5-9f56-343e6d7dc7d7"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F5B82C4-8D32-4858-AE49-B9F718EB1758}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82216217-E566-4EBA-B2A2-632151E5C36C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10604,4 +10585,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F5B82C4-8D32-4858-AE49-B9F718EB1758}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8450404-B5A9-4CAE-AD2F-E650514D4870}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="847bd2b6-c417-48b3-84b7-e392c504f3bb"/>
+    <ds:schemaRef ds:uri="f32a61f4-5698-46d5-9f56-343e6d7dc7d7"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>